--- a/Organisation/Aufwandserfassung/Aufwandserfassung_Wochenbericht_KW11.xlsx
+++ b/Organisation/Aufwandserfassung/Aufwandserfassung_Wochenbericht_KW11.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achgross\Documents\GitHub\METLAB_News\Organisation\Aufwandserfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobia\OneDrive\Dokumente\GitHub\METLAB_News\Organisation\Aufwandserfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27880" windowHeight="12790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27876" windowHeight="12792" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamt" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Erik Hennig" sheetId="3" r:id="rId6"/>
     <sheet name="Tobias Reis" sheetId="2" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="55">
   <si>
     <t>Wöchentlicher Aufwandsbericht</t>
   </si>
@@ -186,6 +186,15 @@
   </si>
   <si>
     <t>Differenz zum Wochen-Soll:</t>
+  </si>
+  <si>
+    <t>Meeting / Interview</t>
+  </si>
+  <si>
+    <t>Protokoll schreiben / Projekt Dokumentieren</t>
+  </si>
+  <si>
+    <t>Recherche über unser Projekt</t>
   </si>
 </sst>
 </file>
@@ -475,7 +484,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
     <dxf>
@@ -936,27 +945,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O113"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView showZeros="0" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.08984375" customWidth="1"/>
-    <col min="2" max="2" width="15.08984375" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" customWidth="1"/>
-    <col min="4" max="4" width="29.36328125" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" customWidth="1"/>
-    <col min="6" max="6" width="13.90625" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" customWidth="1"/>
-    <col min="9" max="9" width="7.6328125" customWidth="1"/>
-    <col min="12" max="12" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.54296875" customWidth="1"/>
+    <col min="1" max="1" width="2.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="12" max="12" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
@@ -967,7 +976,7 @@
       <c r="G2" s="32"/>
       <c r="H2" s="32"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
       <c r="D3" s="32"/>
@@ -983,7 +992,7 @@
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
@@ -992,7 +1001,7 @@
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
@@ -1014,7 +1023,7 @@
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
         <v>6</v>
       </c>
@@ -1044,7 +1053,7 @@
       </c>
       <c r="O6" s="16"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
@@ -1072,7 +1081,7 @@
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
         <v>9</v>
       </c>
@@ -1094,7 +1103,7 @@
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="25" t="s">
         <v>1</v>
       </c>
@@ -1120,7 +1129,7 @@
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>2</v>
       </c>
@@ -1148,7 +1157,7 @@
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>3</v>
       </c>
@@ -1173,7 +1182,7 @@
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
     </row>
-    <row r="12" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I12" s="24" t="s">
         <v>28</v>
       </c>
@@ -1194,7 +1203,7 @@
       </c>
       <c r="O12" s="16"/>
     </row>
-    <row r="13" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="17" t="s">
         <v>21</v>
       </c>
@@ -1217,7 +1226,7 @@
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="31" t="s">
         <v>17</v>
       </c>
@@ -1240,7 +1249,7 @@
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="26">
         <f>'Erik Hennig'!A12</f>
         <v>0</v>
@@ -1269,7 +1278,7 @@
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="26">
         <f>'Erik Hennig'!A13</f>
         <v>0</v>
@@ -1308,7 +1317,7 @@
       </c>
       <c r="O16" s="16"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" s="26">
         <f>'Erik Hennig'!A14</f>
         <v>0</v>
@@ -1343,7 +1352,7 @@
       <c r="N17" s="16"/>
       <c r="O17" s="16"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" s="26">
         <f>'Erik Hennig'!A15</f>
         <v>0</v>
@@ -1378,7 +1387,7 @@
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" s="26">
         <f>'Erik Hennig'!A16</f>
         <v>0</v>
@@ -1413,7 +1422,7 @@
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20" s="26">
         <f>'Erik Hennig'!A17</f>
         <v>0</v>
@@ -1448,7 +1457,7 @@
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21" s="26">
         <f>'Erik Hennig'!A18</f>
         <v>0</v>
@@ -1474,7 +1483,7 @@
       <c r="J21" s="24"/>
       <c r="K21" s="16">
         <f>SUM(G101:G113)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="L21" s="16" t="s">
         <v>26</v>
@@ -1483,7 +1492,7 @@
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22" s="26">
         <f>'Erik Hennig'!A19</f>
         <v>0</v>
@@ -1508,7 +1517,7 @@
       <c r="J22" s="24"/>
       <c r="K22" s="16">
         <f>SUM(K16:K21)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="L22" s="16" t="s">
         <v>26</v>
@@ -1521,7 +1530,7 @@
       </c>
       <c r="O22" s="16"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" s="26">
         <f>'Erik Hennig'!A20</f>
         <v>0</v>
@@ -1548,7 +1557,7 @@
       <c r="N23" s="16"/>
       <c r="O23" s="16"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B24" s="26">
         <f>'Erik Hennig'!A21</f>
         <v>0</v>
@@ -1575,7 +1584,7 @@
       <c r="N24" s="16"/>
       <c r="O24" s="16"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25" s="26">
         <f>'Erik Hennig'!A22</f>
         <v>0</v>
@@ -1604,7 +1613,7 @@
       <c r="N25" s="16"/>
       <c r="O25" s="16"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26" s="26">
         <f>'Erik Hennig'!A23</f>
         <v>0</v>
@@ -1644,7 +1653,7 @@
       </c>
       <c r="O26" s="16"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27" s="26">
         <f>'Erik Hennig'!A24</f>
         <v>0</v>
@@ -1679,7 +1688,7 @@
       <c r="N27" s="16"/>
       <c r="O27" s="16"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B28" s="26">
         <f>'Erik Hennig'!A25</f>
         <v>0</v>
@@ -1714,7 +1723,7 @@
       <c r="N28" s="16"/>
       <c r="O28" s="16"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B29" s="26">
         <f>'Erik Hennig'!A26</f>
         <v>0</v>
@@ -1749,7 +1758,7 @@
       <c r="N29" s="16"/>
       <c r="O29" s="16"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
       <c r="I30" s="24" t="str">
         <f>C83</f>
         <v>Lukas Niedergriese</v>
@@ -1766,7 +1775,7 @@
       <c r="N30" s="16"/>
       <c r="O30" s="16"/>
     </row>
-    <row r="31" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I31" s="24" t="str">
         <f>C99</f>
         <v>Tobias Reis</v>
@@ -1774,7 +1783,7 @@
       <c r="J31" s="24"/>
       <c r="K31" s="16">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="L31" s="16" t="s">
         <v>26</v>
@@ -1783,7 +1792,7 @@
       <c r="N31" s="16"/>
       <c r="O31" s="16"/>
     </row>
-    <row r="32" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="17" t="s">
         <v>21</v>
       </c>
@@ -1804,7 +1813,7 @@
       <c r="J32" s="24"/>
       <c r="K32" s="16">
         <f t="shared" si="0"/>
-        <v>67.5</v>
+        <v>71</v>
       </c>
       <c r="L32" s="16" t="s">
         <v>26</v>
@@ -1818,7 +1827,7 @@
       </c>
       <c r="O32" s="16"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B33" s="31" t="s">
         <v>17</v>
       </c>
@@ -1841,7 +1850,7 @@
       <c r="N33" s="16"/>
       <c r="O33" s="16"/>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B34" s="26">
         <f>'Marco Rempfer'!A12</f>
         <v>0</v>
@@ -1868,7 +1877,7 @@
       <c r="N34" s="16"/>
       <c r="O34" s="16"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B35" s="26">
         <f>'Marco Rempfer'!A13</f>
         <v>0</v>
@@ -1895,7 +1904,7 @@
       <c r="N35" s="16"/>
       <c r="O35" s="16"/>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B36" s="26">
         <f>'Marco Rempfer'!A14</f>
         <v>0</v>
@@ -1922,7 +1931,7 @@
       <c r="N36" s="16"/>
       <c r="O36" s="16"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B37" s="26">
         <f>'Marco Rempfer'!A15</f>
         <v>0</v>
@@ -1942,7 +1951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B38" s="26">
         <f>'Marco Rempfer'!A16</f>
         <v>0</v>
@@ -1962,7 +1971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B39" s="26">
         <f>'Marco Rempfer'!A17</f>
         <v>0</v>
@@ -1982,7 +1991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B40" s="26">
         <f>'Marco Rempfer'!A18</f>
         <v>0</v>
@@ -2002,7 +2011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B41" s="26">
         <f>'Marco Rempfer'!A19</f>
         <v>0</v>
@@ -2022,7 +2031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B42" s="26">
         <f>'Marco Rempfer'!A20</f>
         <v>0</v>
@@ -2042,7 +2051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B43" s="26">
         <f>'Marco Rempfer'!A21</f>
         <v>0</v>
@@ -2062,7 +2071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B44" s="26">
         <f>'Marco Rempfer'!A22</f>
         <v>0</v>
@@ -2082,7 +2091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B45" s="26">
         <f>'Marco Rempfer'!A23</f>
         <v>0</v>
@@ -2102,7 +2111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B46" s="26">
         <f>'Marco Rempfer'!A24</f>
         <v>0</v>
@@ -2122,7 +2131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2130,8 +2139,8 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
     </row>
-    <row r="48" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="49" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="49" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="17" t="s">
         <v>21</v>
       </c>
@@ -2147,7 +2156,7 @@
       </c>
       <c r="G49" s="30"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" s="31" t="s">
         <v>17</v>
       </c>
@@ -2163,7 +2172,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="26">
         <f>'Achim Groß'!A12</f>
         <v>0</v>
@@ -2183,7 +2192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52" s="26">
         <f>'Achim Groß'!A13</f>
         <v>0</v>
@@ -2203,7 +2212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53" s="26">
         <f>'Achim Groß'!A14</f>
         <v>0</v>
@@ -2223,7 +2232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="26">
         <f>'Achim Groß'!A15</f>
         <v>0</v>
@@ -2243,7 +2252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" s="26">
         <f>'Achim Groß'!A16</f>
         <v>0</v>
@@ -2263,7 +2272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56" s="26">
         <f>'Achim Groß'!A17</f>
         <v>0</v>
@@ -2283,7 +2292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" s="26">
         <f>'Achim Groß'!A18</f>
         <v>0</v>
@@ -2303,7 +2312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B58" s="26">
         <f>'Achim Groß'!A19</f>
         <v>0</v>
@@ -2323,7 +2332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59" s="26">
         <f>'Achim Groß'!A20</f>
         <v>0</v>
@@ -2343,7 +2352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B60" s="26">
         <f>'Achim Groß'!A21</f>
         <v>0</v>
@@ -2363,7 +2372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61" s="26">
         <f>'Achim Groß'!A22</f>
         <v>0</v>
@@ -2383,7 +2392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B62" s="26">
         <f>'Achim Groß'!A23</f>
         <v>0</v>
@@ -2403,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B63" s="26">
         <f>'Achim Groß'!A24</f>
         <v>0</v>
@@ -2423,7 +2432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2431,8 +2440,8 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
     </row>
-    <row r="65" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="66" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="66" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B66" s="17" t="s">
         <v>21</v>
       </c>
@@ -2448,7 +2457,7 @@
       </c>
       <c r="G66" s="30"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67" s="31" t="s">
         <v>17</v>
       </c>
@@ -2464,7 +2473,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68" s="26">
         <f>'Benny Gerlach'!A12</f>
         <v>0</v>
@@ -2484,7 +2493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69" s="26">
         <f>'Benny Gerlach'!A13</f>
         <v>0</v>
@@ -2504,7 +2513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70" s="26">
         <f>'Benny Gerlach'!A14</f>
         <v>0</v>
@@ -2524,7 +2533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B71" s="26">
         <f>'Benny Gerlach'!A15</f>
         <v>0</v>
@@ -2544,7 +2553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72" s="26">
         <f>'Benny Gerlach'!A16</f>
         <v>0</v>
@@ -2564,7 +2573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73" s="26">
         <f>'Benny Gerlach'!A17</f>
         <v>0</v>
@@ -2584,7 +2593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74" s="26">
         <f>'Benny Gerlach'!A18</f>
         <v>0</v>
@@ -2604,7 +2613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75" s="26">
         <f>'Benny Gerlach'!A19</f>
         <v>0</v>
@@ -2624,7 +2633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B76" s="26">
         <f>'Benny Gerlach'!A20</f>
         <v>0</v>
@@ -2644,7 +2653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77" s="26">
         <f>'Benny Gerlach'!A21</f>
         <v>0</v>
@@ -2664,7 +2673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B78" s="26">
         <f>'Benny Gerlach'!A22</f>
         <v>0</v>
@@ -2684,7 +2693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B79" s="26">
         <f>'Benny Gerlach'!A23</f>
         <v>0</v>
@@ -2704,7 +2713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B80" s="26">
         <f>'Benny Gerlach'!A24</f>
         <v>0</v>
@@ -2724,8 +2733,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="83" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="83" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B83" s="17" t="s">
         <v>21</v>
       </c>
@@ -2741,7 +2750,7 @@
       </c>
       <c r="G83" s="30"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B84" s="31" t="s">
         <v>17</v>
       </c>
@@ -2757,7 +2766,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B85" s="27">
         <f>'Lukas Niedergriese'!A12</f>
         <v>0</v>
@@ -2777,7 +2786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B86" s="27">
         <f>'Lukas Niedergriese'!A13</f>
         <v>0</v>
@@ -2797,7 +2806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B87" s="27">
         <f>'Lukas Niedergriese'!A14</f>
         <v>0</v>
@@ -2817,7 +2826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B88" s="27">
         <f>'Lukas Niedergriese'!A15</f>
         <v>0</v>
@@ -2837,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B89" s="27">
         <f>'Lukas Niedergriese'!A16</f>
         <v>0</v>
@@ -2857,7 +2866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B90" s="27">
         <f>'Lukas Niedergriese'!A17</f>
         <v>0</v>
@@ -2877,7 +2886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B91" s="27">
         <f>'Lukas Niedergriese'!A18</f>
         <v>0</v>
@@ -2897,7 +2906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B92" s="27">
         <f>'Lukas Niedergriese'!A19</f>
         <v>0</v>
@@ -2917,7 +2926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B93" s="27">
         <f>'Lukas Niedergriese'!A20</f>
         <v>0</v>
@@ -2937,7 +2946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B94" s="27">
         <f>'Lukas Niedergriese'!A21</f>
         <v>0</v>
@@ -2957,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B95" s="27">
         <f>'Lukas Niedergriese'!A22</f>
         <v>0</v>
@@ -2977,7 +2986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B96" s="27">
         <f>'Lukas Niedergriese'!A23</f>
         <v>0</v>
@@ -2997,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B97" s="27">
         <f>'Lukas Niedergriese'!A24</f>
         <v>0</v>
@@ -3017,8 +3026,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="99" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="99" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B99" s="17" t="s">
         <v>21</v>
       </c>
@@ -3034,7 +3043,7 @@
       </c>
       <c r="G99" s="30"/>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B100" s="31" t="s">
         <v>17</v>
       </c>
@@ -3050,67 +3059,67 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B101" s="26">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B101" s="26" t="str">
         <f>'Tobias Reis'!A12</f>
-        <v>0</v>
+        <v>Meeting / Interview</v>
       </c>
       <c r="C101" s="26"/>
       <c r="D101" s="26"/>
-      <c r="E101" s="15">
+      <c r="E101" s="15" t="str">
         <f>'Tobias Reis'!D12</f>
-        <v>0</v>
-      </c>
-      <c r="F101" s="15">
+        <v>d</v>
+      </c>
+      <c r="F101" s="15" t="str">
         <f>'Tobias Reis'!E12</f>
-        <v>0</v>
+        <v>d</v>
       </c>
       <c r="G101" s="15">
         <f>'Tobias Reis'!F12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B102" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B102" s="26" t="str">
         <f>'Tobias Reis'!A13</f>
-        <v>0</v>
+        <v>Protokoll schreiben / Projekt Dokumentieren</v>
       </c>
       <c r="C102" s="26"/>
       <c r="D102" s="26"/>
-      <c r="E102" s="15">
+      <c r="E102" s="15" t="str">
         <f>'Tobias Reis'!D13</f>
-        <v>0</v>
-      </c>
-      <c r="F102" s="15">
+        <v>c</v>
+      </c>
+      <c r="F102" s="15" t="str">
         <f>'Tobias Reis'!E13</f>
-        <v>0</v>
+        <v>c</v>
       </c>
       <c r="G102" s="15">
         <f>'Tobias Reis'!F13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B103" s="26">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B103" s="26" t="str">
         <f>'Tobias Reis'!A14</f>
-        <v>0</v>
+        <v>Recherche über unser Projekt</v>
       </c>
       <c r="C103" s="26"/>
       <c r="D103" s="26"/>
-      <c r="E103" s="15">
+      <c r="E103" s="15" t="str">
         <f>'Tobias Reis'!D14</f>
-        <v>0</v>
-      </c>
-      <c r="F103" s="15">
+        <v>c</v>
+      </c>
+      <c r="F103" s="15" t="str">
         <f>'Tobias Reis'!E14</f>
-        <v>0</v>
+        <v>c</v>
       </c>
       <c r="G103" s="15">
         <f>'Tobias Reis'!F14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B104" s="26">
         <f>'Tobias Reis'!A15</f>
         <v>0</v>
@@ -3130,7 +3139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B105" s="26">
         <f>'Tobias Reis'!A16</f>
         <v>0</v>
@@ -3150,7 +3159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B106" s="26">
         <f>'Tobias Reis'!A17</f>
         <v>0</v>
@@ -3170,7 +3179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B107" s="26">
         <f>'Tobias Reis'!A18</f>
         <v>0</v>
@@ -3190,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B108" s="26">
         <f>'Tobias Reis'!A19</f>
         <v>0</v>
@@ -3210,7 +3219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B109" s="26">
         <f>'Tobias Reis'!A20</f>
         <v>0</v>
@@ -3230,7 +3239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B110" s="26">
         <f>'Tobias Reis'!A21</f>
         <v>0</v>
@@ -3250,7 +3259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B111" s="26">
         <f>'Tobias Reis'!A22</f>
         <v>0</v>
@@ -3270,7 +3279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B112" s="26">
         <f>'Tobias Reis'!A23</f>
         <v>0</v>
@@ -3290,7 +3299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B113" s="26">
         <f>'Tobias Reis'!A24</f>
         <v>0</v>
@@ -3450,17 +3459,17 @@
       <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.08984375" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" customWidth="1"/>
-    <col min="6" max="6" width="13.90625" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>43</v>
       </c>
@@ -3471,7 +3480,7 @@
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -3480,7 +3489,7 @@
       <c r="F2" s="34"/>
       <c r="G2" s="34"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>44</v>
       </c>
@@ -3491,7 +3500,7 @@
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3510,7 +3519,7 @@
       </c>
       <c r="G5" s="24"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3526,7 +3535,7 @@
       </c>
       <c r="G6" s="24"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>9</v>
       </c>
@@ -3535,7 +3544,7 @@
       </c>
       <c r="G7" s="24"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>45</v>
       </c>
@@ -3548,7 +3557,7 @@
       </c>
       <c r="G8" s="24"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>36</v>
       </c>
@@ -3561,7 +3570,7 @@
       </c>
       <c r="G9" s="24"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
         <v>17</v>
       </c>
@@ -3578,7 +3587,7 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="28"/>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
@@ -3586,7 +3595,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="28"/>
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
@@ -3594,7 +3603,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="28"/>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
@@ -3602,7 +3611,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="28"/>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
@@ -3610,7 +3619,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="28"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
@@ -3618,7 +3627,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="26"/>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
@@ -3626,7 +3635,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -3634,7 +3643,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -3642,7 +3651,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -3650,7 +3659,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -3658,7 +3667,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -3666,7 +3675,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -3674,7 +3683,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -3682,7 +3691,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -3690,7 +3699,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -3698,7 +3707,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -3706,7 +3715,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -3714,7 +3723,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -3722,7 +3731,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -3730,7 +3739,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
@@ -3738,7 +3747,7 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="37" t="s">
         <v>46</v>
       </c>
@@ -3752,7 +3761,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="37" t="s">
         <v>47</v>
       </c>
@@ -3764,7 +3773,7 @@
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="37" t="s">
         <v>48</v>
       </c>
@@ -3778,7 +3787,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="37" t="s">
         <v>50</v>
       </c>
@@ -3789,7 +3798,7 @@
         <v>Nein!</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="37" t="s">
         <v>51</v>
       </c>
@@ -3862,17 +3871,17 @@
       <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.36328125" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" customWidth="1"/>
-    <col min="6" max="6" width="13.6328125" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>43</v>
       </c>
@@ -3883,7 +3892,7 @@
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -3892,7 +3901,7 @@
       <c r="F2" s="34"/>
       <c r="G2" s="34"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>44</v>
       </c>
@@ -3903,7 +3912,7 @@
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3922,7 +3931,7 @@
       </c>
       <c r="G5" s="24"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3938,7 +3947,7 @@
       </c>
       <c r="G6" s="24"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>9</v>
       </c>
@@ -3947,7 +3956,7 @@
       </c>
       <c r="G7" s="24"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>45</v>
       </c>
@@ -3960,7 +3969,7 @@
       </c>
       <c r="G8" s="24"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>41</v>
       </c>
@@ -3973,7 +3982,7 @@
       </c>
       <c r="G9" s="24"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
         <v>17</v>
       </c>
@@ -3990,7 +3999,7 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="26"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
@@ -3998,7 +4007,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
@@ -4006,7 +4015,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
@@ -4014,7 +4023,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="26"/>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
@@ -4022,7 +4031,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="26"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
@@ -4030,7 +4039,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="26"/>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
@@ -4038,7 +4047,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -4046,7 +4055,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -4054,7 +4063,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -4062,7 +4071,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -4070,7 +4079,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -4078,7 +4087,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -4086,7 +4095,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -4094,7 +4103,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -4102,7 +4111,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -4110,7 +4119,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -4118,7 +4127,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -4126,7 +4135,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -4134,7 +4143,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -4142,7 +4151,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
@@ -4150,7 +4159,7 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="37" t="s">
         <v>46</v>
       </c>
@@ -4164,7 +4173,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="37" t="s">
         <v>47</v>
       </c>
@@ -4176,7 +4185,7 @@
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="37" t="s">
         <v>48</v>
       </c>
@@ -4190,7 +4199,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="37" t="s">
         <v>50</v>
       </c>
@@ -4201,7 +4210,7 @@
         <v>Nein!</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="37" t="s">
         <v>51</v>
       </c>
@@ -4274,17 +4283,17 @@
       <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.54296875" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" customWidth="1"/>
-    <col min="6" max="6" width="13.90625" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>43</v>
       </c>
@@ -4295,7 +4304,7 @@
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -4304,7 +4313,7 @@
       <c r="F2" s="34"/>
       <c r="G2" s="34"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>44</v>
       </c>
@@ -4315,7 +4324,7 @@
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -4334,7 +4343,7 @@
       </c>
       <c r="G5" s="24"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4350,7 +4359,7 @@
       </c>
       <c r="G6" s="24"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>9</v>
       </c>
@@ -4359,7 +4368,7 @@
       </c>
       <c r="G7" s="24"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>45</v>
       </c>
@@ -4372,7 +4381,7 @@
       </c>
       <c r="G8" s="24"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>34</v>
       </c>
@@ -4385,7 +4394,7 @@
       </c>
       <c r="G9" s="24"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
         <v>17</v>
       </c>
@@ -4402,7 +4411,7 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -4410,7 +4419,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="38"/>
       <c r="B13" s="39"/>
       <c r="C13" s="40"/>
@@ -4418,7 +4427,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="38"/>
       <c r="B14" s="39"/>
       <c r="C14" s="40"/>
@@ -4426,7 +4435,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="36"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -4434,7 +4443,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -4442,7 +4451,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
@@ -4450,7 +4459,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -4458,7 +4467,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -4466,7 +4475,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -4474,7 +4483,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -4482,7 +4491,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -4490,7 +4499,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -4498,7 +4507,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -4506,7 +4515,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -4514,7 +4523,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -4522,7 +4531,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -4530,7 +4539,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -4538,7 +4547,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -4546,7 +4555,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -4554,7 +4563,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
@@ -4562,7 +4571,7 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="37" t="s">
         <v>46</v>
       </c>
@@ -4576,7 +4585,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="37" t="s">
         <v>47</v>
       </c>
@@ -4588,7 +4597,7 @@
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="37" t="s">
         <v>48</v>
       </c>
@@ -4602,7 +4611,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="37" t="s">
         <v>50</v>
       </c>
@@ -4613,7 +4622,7 @@
         <v>Nein!</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="37" t="s">
         <v>51</v>
       </c>
@@ -4686,17 +4695,17 @@
       <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.08984375" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" customWidth="1"/>
-    <col min="6" max="6" width="13.90625" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>43</v>
       </c>
@@ -4707,7 +4716,7 @@
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -4716,7 +4725,7 @@
       <c r="F2" s="34"/>
       <c r="G2" s="34"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>44</v>
       </c>
@@ -4727,7 +4736,7 @@
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -4746,7 +4755,7 @@
       </c>
       <c r="G5" s="24"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4762,7 +4771,7 @@
       </c>
       <c r="G6" s="24"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>9</v>
       </c>
@@ -4771,7 +4780,7 @@
       </c>
       <c r="G7" s="24"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>45</v>
       </c>
@@ -4784,7 +4793,7 @@
       </c>
       <c r="G8" s="24"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>35</v>
       </c>
@@ -4797,7 +4806,7 @@
       </c>
       <c r="G9" s="24"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
         <v>17</v>
       </c>
@@ -4814,7 +4823,7 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="26"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
@@ -4822,7 +4831,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
@@ -4830,7 +4839,7 @@
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
@@ -4838,7 +4847,7 @@
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="26"/>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
@@ -4846,7 +4855,7 @@
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="26"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
@@ -4854,7 +4863,7 @@
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="26"/>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
@@ -4862,7 +4871,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -4870,7 +4879,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -4878,7 +4887,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -4886,7 +4895,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -4894,7 +4903,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -4902,7 +4911,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -4910,7 +4919,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -4918,7 +4927,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -4926,7 +4935,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -4934,7 +4943,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -4942,7 +4951,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -4950,7 +4959,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -4958,7 +4967,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -4966,7 +4975,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
@@ -4974,7 +4983,7 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="37" t="s">
         <v>46</v>
       </c>
@@ -4988,7 +4997,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="37" t="s">
         <v>47</v>
       </c>
@@ -5000,7 +5009,7 @@
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="37" t="s">
         <v>48</v>
       </c>
@@ -5014,7 +5023,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="37" t="s">
         <v>50</v>
       </c>
@@ -5025,7 +5034,7 @@
         <v>Nein!</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="37" t="s">
         <v>51</v>
       </c>
@@ -5098,17 +5107,17 @@
       <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.08984375" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" customWidth="1"/>
-    <col min="6" max="6" width="13.90625" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>43</v>
       </c>
@@ -5119,7 +5128,7 @@
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -5128,7 +5137,7 @@
       <c r="F2" s="34"/>
       <c r="G2" s="34"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>44</v>
       </c>
@@ -5139,7 +5148,7 @@
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -5158,7 +5167,7 @@
       </c>
       <c r="G5" s="24"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -5174,7 +5183,7 @@
       </c>
       <c r="G6" s="24"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>9</v>
       </c>
@@ -5183,7 +5192,7 @@
       </c>
       <c r="G7" s="24"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>45</v>
       </c>
@@ -5196,7 +5205,7 @@
       </c>
       <c r="G8" s="24"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>33</v>
       </c>
@@ -5209,7 +5218,7 @@
       </c>
       <c r="G9" s="24"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
         <v>17</v>
       </c>
@@ -5226,7 +5235,7 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="26"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
@@ -5234,7 +5243,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
@@ -5242,7 +5251,7 @@
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
     </row>
-    <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
@@ -5250,7 +5259,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="26"/>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
@@ -5258,7 +5267,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="26"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
@@ -5266,7 +5275,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
@@ -5274,7 +5283,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -5282,7 +5291,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -5290,7 +5299,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -5298,7 +5307,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -5306,7 +5315,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -5314,7 +5323,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -5322,7 +5331,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -5330,7 +5339,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -5338,7 +5347,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -5346,7 +5355,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -5354,7 +5363,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -5362,7 +5371,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -5370,7 +5379,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -5378,7 +5387,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
@@ -5386,7 +5395,7 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="37" t="s">
         <v>46</v>
       </c>
@@ -5400,7 +5409,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="37" t="s">
         <v>47</v>
       </c>
@@ -5412,7 +5421,7 @@
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="37" t="s">
         <v>48</v>
       </c>
@@ -5426,7 +5435,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="37" t="s">
         <v>50</v>
       </c>
@@ -5437,7 +5446,7 @@
         <v>Nein!</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="37" t="s">
         <v>51</v>
       </c>
@@ -5506,21 +5515,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.08984375" customWidth="1"/>
-    <col min="3" max="3" width="31.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" customWidth="1"/>
-    <col min="6" max="6" width="13.90625" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>43</v>
       </c>
@@ -5531,7 +5540,7 @@
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -5540,7 +5549,7 @@
       <c r="F2" s="34"/>
       <c r="G2" s="34"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>44</v>
       </c>
@@ -5551,7 +5560,7 @@
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -5570,7 +5579,7 @@
       </c>
       <c r="G5" s="24"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -5586,7 +5595,7 @@
       </c>
       <c r="G6" s="24"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>9</v>
       </c>
@@ -5595,7 +5604,7 @@
       </c>
       <c r="G7" s="24"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>45</v>
       </c>
@@ -5608,7 +5617,7 @@
       </c>
       <c r="G8" s="24"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>38</v>
       </c>
@@ -5621,7 +5630,7 @@
       </c>
       <c r="G9" s="24"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
         <v>17</v>
       </c>
@@ -5638,31 +5647,55 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="41"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="41" t="s">
+        <v>52</v>
+      </c>
       <c r="B12" s="42"/>
       <c r="C12" s="43"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="41"/>
+      <c r="D12" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="41" t="s">
+        <v>53</v>
+      </c>
       <c r="B13" s="42"/>
       <c r="C13" s="43"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="41"/>
+      <c r="D13" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="22">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="41" t="s">
+        <v>54</v>
+      </c>
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D14" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="41"/>
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
@@ -5670,7 +5703,7 @@
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="41"/>
       <c r="B16" s="42"/>
       <c r="C16" s="43"/>
@@ -5678,7 +5711,7 @@
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="41"/>
       <c r="B17" s="42"/>
       <c r="C17" s="43"/>
@@ -5686,7 +5719,7 @@
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="26"/>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
@@ -5694,7 +5727,7 @@
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -5702,7 +5735,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -5710,7 +5743,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -5718,7 +5751,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -5726,7 +5759,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -5734,7 +5767,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -5742,7 +5775,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -5750,7 +5783,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -5758,7 +5791,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -5766,7 +5799,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -5774,7 +5807,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -5782,7 +5815,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -5790,7 +5823,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
@@ -5798,7 +5831,7 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="37" t="s">
         <v>46</v>
       </c>
@@ -5806,13 +5839,13 @@
       <c r="C33" s="37"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="37" t="s">
         <v>47</v>
       </c>
@@ -5820,25 +5853,25 @@
       <c r="C34" s="37"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="37" t="s">
         <v>48</v>
       </c>
       <c r="B35" s="37"/>
       <c r="C35" s="37"/>
-      <c r="D35" s="10" t="e">
+      <c r="D35" s="10">
         <f>D33/D34</f>
-        <v>#DIV/0!</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="37" t="s">
         <v>50</v>
       </c>
@@ -5849,7 +5882,7 @@
         <v>Nein!</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="37" t="s">
         <v>51</v>
       </c>
@@ -5857,7 +5890,7 @@
       <c r="C37" s="37"/>
       <c r="D37">
         <f>D33-10</f>
-        <v>-10</v>
+        <v>-6.5</v>
       </c>
     </row>
   </sheetData>

--- a/Organisation/Aufwandserfassung/Aufwandserfassung_Wochenbericht_KW11.xlsx
+++ b/Organisation/Aufwandserfassung/Aufwandserfassung_Wochenbericht_KW11.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27876" windowHeight="12792" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27876" windowHeight="12792"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamt" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="56">
   <si>
     <t>Wöchentlicher Aufwandsbericht</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>Recherche über unser Projekt</t>
+  </si>
+  <si>
+    <t>Grundgerüst für Recherchebericht erstellt</t>
   </si>
 </sst>
 </file>
@@ -426,21 +429,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -448,6 +437,26 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -457,12 +466,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -945,7 +948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O113"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A67" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A82" workbookViewId="0">
       <selection activeCell="B19" sqref="B19:D19"/>
     </sheetView>
   </sheetViews>
@@ -966,24 +969,24 @@
   <sheetData>
     <row r="1" spans="2:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
+      <c r="B2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
@@ -1013,12 +1016,12 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
       <c r="M5" s="16"/>
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
@@ -1033,11 +1036,11 @@
       <c r="G6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="24" t="str">
+      <c r="I6" s="32" t="str">
         <f>C13</f>
         <v>Erik Hennig</v>
       </c>
-      <c r="J6" s="24"/>
+      <c r="J6" s="32"/>
       <c r="K6" s="16">
         <v>14.5</v>
       </c>
@@ -1066,11 +1069,11 @@
       <c r="G7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="24" t="str">
+      <c r="I7" s="32" t="str">
         <f>C32</f>
         <v>Marco Rempfer</v>
       </c>
-      <c r="J7" s="24"/>
+      <c r="J7" s="32"/>
       <c r="K7" s="16">
         <v>9</v>
       </c>
@@ -1088,11 +1091,11 @@
       <c r="G8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="24" t="str">
+      <c r="I8" s="32" t="str">
         <f>C49</f>
         <v>Achim Groß</v>
       </c>
-      <c r="J8" s="24"/>
+      <c r="J8" s="32"/>
       <c r="K8" s="16">
         <v>9</v>
       </c>
@@ -1104,21 +1107,21 @@
       <c r="O8" s="16"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="25"/>
+      <c r="C9" s="27"/>
       <c r="F9" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="24" t="str">
+      <c r="I9" s="32" t="str">
         <f>C66</f>
         <v>Benny Gerlach</v>
       </c>
-      <c r="J9" s="24"/>
+      <c r="J9" s="32"/>
       <c r="K9" s="16">
         <v>12</v>
       </c>
@@ -1142,11 +1145,11 @@
       <c r="G10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="24" t="str">
+      <c r="I10" s="32" t="str">
         <f>C83</f>
         <v>Lukas Niedergriese</v>
       </c>
-      <c r="J10" s="24"/>
+      <c r="J10" s="32"/>
       <c r="K10" s="16">
         <v>9</v>
       </c>
@@ -1167,11 +1170,11 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="I11" s="24" t="str">
+      <c r="I11" s="32" t="str">
         <f>C99</f>
         <v>Tobias Reis</v>
       </c>
-      <c r="J11" s="24"/>
+      <c r="J11" s="32"/>
       <c r="K11" s="16">
         <v>14</v>
       </c>
@@ -1183,10 +1186,10 @@
       <c r="O11" s="16"/>
     </row>
     <row r="12" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="24"/>
+      <c r="J12" s="32"/>
       <c r="K12" s="16">
         <f>SUM(K6:K11)</f>
         <v>67.5</v>
@@ -1207,17 +1210,17 @@
       <c r="B13" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="29"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="30"/>
+      <c r="G13" s="29"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
@@ -1227,11 +1230,11 @@
       <c r="O13" s="16"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
       <c r="E14" s="19" t="s">
         <v>18</v>
       </c>
@@ -1250,12 +1253,12 @@
       <c r="O14" s="16"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="26">
+      <c r="B15" s="24">
         <f>'Erik Hennig'!A12</f>
         <v>0</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="15">
         <f>'Erik Hennig'!D12</f>
         <v>0</v>
@@ -1268,23 +1271,23 @@
         <f>'Erik Hennig'!F12</f>
         <v>0</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="I15" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
       <c r="M15" s="16"/>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="26">
+      <c r="B16" s="24">
         <f>'Erik Hennig'!A13</f>
         <v>0</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="15">
         <f>'Erik Hennig'!D13</f>
         <v>0</v>
@@ -1297,11 +1300,11 @@
         <f>'Erik Hennig'!F13</f>
         <v>0</v>
       </c>
-      <c r="I16" s="24" t="str">
+      <c r="I16" s="32" t="str">
         <f>C13</f>
         <v>Erik Hennig</v>
       </c>
-      <c r="J16" s="24"/>
+      <c r="J16" s="32"/>
       <c r="K16" s="16">
         <f>SUM(G15:G29)</f>
         <v>0</v>
@@ -1318,12 +1321,12 @@
       <c r="O16" s="16"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="26">
+      <c r="B17" s="24">
         <f>'Erik Hennig'!A14</f>
         <v>0</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="15">
         <f>'Erik Hennig'!D14</f>
         <v>0</v>
@@ -1336,11 +1339,11 @@
         <f>'Erik Hennig'!F14</f>
         <v>0</v>
       </c>
-      <c r="I17" s="24" t="str">
+      <c r="I17" s="32" t="str">
         <f>C32</f>
         <v>Marco Rempfer</v>
       </c>
-      <c r="J17" s="24"/>
+      <c r="J17" s="32"/>
       <c r="K17" s="16">
         <f>SUM(G34:G46)</f>
         <v>0</v>
@@ -1353,12 +1356,12 @@
       <c r="O17" s="16"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="26">
+      <c r="B18" s="24">
         <f>'Erik Hennig'!A15</f>
         <v>0</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="15">
         <f>'Erik Hennig'!D15</f>
         <v>0</v>
@@ -1371,11 +1374,11 @@
         <f>'Erik Hennig'!F15</f>
         <v>0</v>
       </c>
-      <c r="I18" s="24" t="str">
+      <c r="I18" s="32" t="str">
         <f>C49</f>
         <v>Achim Groß</v>
       </c>
-      <c r="J18" s="24"/>
+      <c r="J18" s="32"/>
       <c r="K18" s="16">
         <f>SUM(G51:G63)</f>
         <v>0</v>
@@ -1388,12 +1391,12 @@
       <c r="O18" s="16"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="26">
+      <c r="B19" s="24">
         <f>'Erik Hennig'!A16</f>
         <v>0</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="15">
         <f>'Erik Hennig'!D16</f>
         <v>0</v>
@@ -1406,11 +1409,11 @@
         <f>'Erik Hennig'!F16</f>
         <v>0</v>
       </c>
-      <c r="I19" s="24" t="str">
+      <c r="I19" s="32" t="str">
         <f>C66</f>
         <v>Benny Gerlach</v>
       </c>
-      <c r="J19" s="24"/>
+      <c r="J19" s="32"/>
       <c r="K19" s="16">
         <f>SUM(G68:G80)</f>
         <v>0</v>
@@ -1423,12 +1426,12 @@
       <c r="O19" s="16"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="26">
+      <c r="B20" s="24">
         <f>'Erik Hennig'!A17</f>
         <v>0</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="15">
         <f>'Erik Hennig'!D17</f>
         <v>0</v>
@@ -1441,11 +1444,11 @@
         <f>'Erik Hennig'!F17</f>
         <v>0</v>
       </c>
-      <c r="I20" s="24" t="str">
+      <c r="I20" s="32" t="str">
         <f>C83</f>
         <v>Lukas Niedergriese</v>
       </c>
-      <c r="J20" s="24"/>
+      <c r="J20" s="32"/>
       <c r="K20" s="16">
         <f>SUM(G85:G97)</f>
         <v>0</v>
@@ -1458,12 +1461,12 @@
       <c r="O20" s="16"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="26">
+      <c r="B21" s="24">
         <f>'Erik Hennig'!A18</f>
         <v>0</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="15">
         <f>'Erik Hennig'!D18</f>
         <v>0</v>
@@ -1476,14 +1479,14 @@
         <f>'Erik Hennig'!F18</f>
         <v>0</v>
       </c>
-      <c r="I21" s="24" t="str">
+      <c r="I21" s="32" t="str">
         <f>C99</f>
         <v>Tobias Reis</v>
       </c>
-      <c r="J21" s="24"/>
+      <c r="J21" s="32"/>
       <c r="K21" s="16">
         <f>SUM(G101:G113)</f>
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="L21" s="16" t="s">
         <v>26</v>
@@ -1493,12 +1496,12 @@
       <c r="O21" s="16"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="26">
+      <c r="B22" s="24">
         <f>'Erik Hennig'!A19</f>
         <v>0</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="15">
         <f>'Erik Hennig'!D19</f>
         <v>0</v>
@@ -1511,13 +1514,13 @@
         <f>'Erik Hennig'!F19</f>
         <v>0</v>
       </c>
-      <c r="I22" s="24" t="s">
+      <c r="I22" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="24"/>
+      <c r="J22" s="32"/>
       <c r="K22" s="16">
         <f>SUM(K16:K21)</f>
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="L22" s="16" t="s">
         <v>26</v>
@@ -1531,12 +1534,12 @@
       <c r="O22" s="16"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="26">
+      <c r="B23" s="24">
         <f>'Erik Hennig'!A20</f>
         <v>0</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="15">
         <f>'Erik Hennig'!D20</f>
         <v>0</v>
@@ -1558,12 +1561,12 @@
       <c r="O23" s="16"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="26">
+      <c r="B24" s="24">
         <f>'Erik Hennig'!A21</f>
         <v>0</v>
       </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="15">
         <f>'Erik Hennig'!D21</f>
         <v>0</v>
@@ -1585,12 +1588,12 @@
       <c r="O24" s="16"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="26">
+      <c r="B25" s="24">
         <f>'Erik Hennig'!A22</f>
         <v>0</v>
       </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
       <c r="E25" s="15">
         <f>'Erik Hennig'!D22</f>
         <v>0</v>
@@ -1603,23 +1606,23 @@
         <f>'Erik Hennig'!F22</f>
         <v>0</v>
       </c>
-      <c r="I25" s="25" t="s">
+      <c r="I25" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
       <c r="O25" s="16"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="26">
+      <c r="B26" s="24">
         <f>'Erik Hennig'!A23</f>
         <v>0</v>
       </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="15">
         <f>'Erik Hennig'!D23</f>
         <v>0</v>
@@ -1632,11 +1635,11 @@
         <f>'Erik Hennig'!F23</f>
         <v>0</v>
       </c>
-      <c r="I26" s="24" t="str">
+      <c r="I26" s="32" t="str">
         <f>C13</f>
         <v>Erik Hennig</v>
       </c>
-      <c r="J26" s="24"/>
+      <c r="J26" s="32"/>
       <c r="K26" s="16">
         <f t="shared" ref="K26:K32" si="0">K6+K16</f>
         <v>14.5</v>
@@ -1654,12 +1657,12 @@
       <c r="O26" s="16"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="26">
+      <c r="B27" s="24">
         <f>'Erik Hennig'!A24</f>
         <v>0</v>
       </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="15">
         <f>'Erik Hennig'!D24</f>
         <v>0</v>
@@ -1672,11 +1675,11 @@
         <f>'Erik Hennig'!F24</f>
         <v>0</v>
       </c>
-      <c r="I27" s="24" t="str">
+      <c r="I27" s="32" t="str">
         <f>C32</f>
         <v>Marco Rempfer</v>
       </c>
-      <c r="J27" s="24"/>
+      <c r="J27" s="32"/>
       <c r="K27" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1689,12 +1692,12 @@
       <c r="O27" s="16"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="26">
+      <c r="B28" s="24">
         <f>'Erik Hennig'!A25</f>
         <v>0</v>
       </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="15">
         <f>'Erik Hennig'!D25</f>
         <v>0</v>
@@ -1707,11 +1710,11 @@
         <f>'Erik Hennig'!F25</f>
         <v>0</v>
       </c>
-      <c r="I28" s="24" t="str">
+      <c r="I28" s="32" t="str">
         <f>C49</f>
         <v>Achim Groß</v>
       </c>
-      <c r="J28" s="24"/>
+      <c r="J28" s="32"/>
       <c r="K28" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1724,12 +1727,12 @@
       <c r="O28" s="16"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="26">
+      <c r="B29" s="24">
         <f>'Erik Hennig'!A26</f>
         <v>0</v>
       </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
       <c r="E29" s="15">
         <f>'Erik Hennig'!D26</f>
         <v>0</v>
@@ -1742,11 +1745,11 @@
         <f>'Erik Hennig'!F26</f>
         <v>0</v>
       </c>
-      <c r="I29" s="24" t="str">
+      <c r="I29" s="32" t="str">
         <f>C66</f>
         <v>Benny Gerlach</v>
       </c>
-      <c r="J29" s="24"/>
+      <c r="J29" s="32"/>
       <c r="K29" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1759,11 +1762,11 @@
       <c r="O29" s="16"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="I30" s="24" t="str">
+      <c r="I30" s="32" t="str">
         <f>C83</f>
         <v>Lukas Niedergriese</v>
       </c>
-      <c r="J30" s="24"/>
+      <c r="J30" s="32"/>
       <c r="K30" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1776,14 +1779,14 @@
       <c r="O30" s="16"/>
     </row>
     <row r="31" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I31" s="24" t="str">
+      <c r="I31" s="32" t="str">
         <f>C99</f>
         <v>Tobias Reis</v>
       </c>
-      <c r="J31" s="24"/>
+      <c r="J31" s="32"/>
       <c r="K31" s="16">
         <f t="shared" si="0"/>
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="L31" s="16" t="s">
         <v>26</v>
@@ -1796,24 +1799,24 @@
       <c r="B32" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="29"/>
+      <c r="D32" s="28"/>
       <c r="E32" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="29" t="s">
+      <c r="F32" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="G32" s="30"/>
-      <c r="I32" s="24" t="s">
+      <c r="G32" s="29"/>
+      <c r="I32" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="J32" s="24"/>
+      <c r="J32" s="32"/>
       <c r="K32" s="16">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L32" s="16" t="s">
         <v>26</v>
@@ -1828,11 +1831,11 @@
       <c r="O32" s="16"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
       <c r="E33" s="19" t="s">
         <v>18</v>
       </c>
@@ -1851,12 +1854,12 @@
       <c r="O33" s="16"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="26">
+      <c r="B34" s="24">
         <f>'Marco Rempfer'!A12</f>
         <v>0</v>
       </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
       <c r="E34" s="15">
         <f>'Marco Rempfer'!D12</f>
         <v>0</v>
@@ -1878,12 +1881,12 @@
       <c r="O34" s="16"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="26">
+      <c r="B35" s="24">
         <f>'Marco Rempfer'!A13</f>
         <v>0</v>
       </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
       <c r="E35" s="23">
         <f>'Marco Rempfer'!D13</f>
         <v>0</v>
@@ -1905,12 +1908,12 @@
       <c r="O35" s="16"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="26">
+      <c r="B36" s="24">
         <f>'Marco Rempfer'!A14</f>
         <v>0</v>
       </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
       <c r="E36" s="23">
         <f>'Marco Rempfer'!D14</f>
         <v>0</v>
@@ -1932,12 +1935,12 @@
       <c r="O36" s="16"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="26">
+      <c r="B37" s="24">
         <f>'Marco Rempfer'!A15</f>
         <v>0</v>
       </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
       <c r="E37" s="23">
         <f>'Marco Rempfer'!D15</f>
         <v>0</v>
@@ -1952,12 +1955,12 @@
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="26">
+      <c r="B38" s="24">
         <f>'Marco Rempfer'!A16</f>
         <v>0</v>
       </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
       <c r="E38" s="23">
         <f>'Marco Rempfer'!D16</f>
         <v>0</v>
@@ -1972,12 +1975,12 @@
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="26">
+      <c r="B39" s="24">
         <f>'Marco Rempfer'!A17</f>
         <v>0</v>
       </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
       <c r="E39" s="23">
         <f>'Marco Rempfer'!D17</f>
         <v>0</v>
@@ -1992,12 +1995,12 @@
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="26">
+      <c r="B40" s="24">
         <f>'Marco Rempfer'!A18</f>
         <v>0</v>
       </c>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
       <c r="E40" s="23">
         <f>'Marco Rempfer'!D18</f>
         <v>0</v>
@@ -2012,12 +2015,12 @@
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B41" s="26">
+      <c r="B41" s="24">
         <f>'Marco Rempfer'!A19</f>
         <v>0</v>
       </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
       <c r="E41" s="23">
         <f>'Marco Rempfer'!D19</f>
         <v>0</v>
@@ -2032,12 +2035,12 @@
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B42" s="26">
+      <c r="B42" s="24">
         <f>'Marco Rempfer'!A20</f>
         <v>0</v>
       </c>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
       <c r="E42" s="23">
         <f>'Marco Rempfer'!D20</f>
         <v>0</v>
@@ -2052,12 +2055,12 @@
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B43" s="26">
+      <c r="B43" s="24">
         <f>'Marco Rempfer'!A21</f>
         <v>0</v>
       </c>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
       <c r="E43" s="23">
         <f>'Marco Rempfer'!D21</f>
         <v>0</v>
@@ -2072,12 +2075,12 @@
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B44" s="26">
+      <c r="B44" s="24">
         <f>'Marco Rempfer'!A22</f>
         <v>0</v>
       </c>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
       <c r="E44" s="23">
         <f>'Marco Rempfer'!D22</f>
         <v>0</v>
@@ -2092,12 +2095,12 @@
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B45" s="26">
+      <c r="B45" s="24">
         <f>'Marco Rempfer'!A23</f>
         <v>0</v>
       </c>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
       <c r="E45" s="23">
         <f>'Marco Rempfer'!D23</f>
         <v>0</v>
@@ -2112,12 +2115,12 @@
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B46" s="26">
+      <c r="B46" s="24">
         <f>'Marco Rempfer'!A24</f>
         <v>0</v>
       </c>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
       <c r="E46" s="23">
         <f>'Marco Rempfer'!D24</f>
         <v>0</v>
@@ -2144,24 +2147,24 @@
       <c r="B49" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="C49" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="29"/>
+      <c r="D49" s="28"/>
       <c r="E49" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F49" s="29" t="s">
+      <c r="F49" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="G49" s="30"/>
+      <c r="G49" s="29"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B50" s="31" t="s">
+      <c r="B50" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
       <c r="E50" s="19" t="s">
         <v>18</v>
       </c>
@@ -2173,12 +2176,12 @@
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B51" s="26">
+      <c r="B51" s="24">
         <f>'Achim Groß'!A12</f>
         <v>0</v>
       </c>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
       <c r="E51" s="20">
         <f>'Achim Groß'!D12</f>
         <v>0</v>
@@ -2193,12 +2196,12 @@
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B52" s="26">
+      <c r="B52" s="24">
         <f>'Achim Groß'!A13</f>
         <v>0</v>
       </c>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
       <c r="E52" s="21">
         <f>'Achim Groß'!D13</f>
         <v>0</v>
@@ -2213,12 +2216,12 @@
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B53" s="26">
+      <c r="B53" s="24">
         <f>'Achim Groß'!A14</f>
         <v>0</v>
       </c>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
       <c r="E53" s="21">
         <f>'Achim Groß'!D14</f>
         <v>0</v>
@@ -2233,12 +2236,12 @@
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B54" s="26">
+      <c r="B54" s="24">
         <f>'Achim Groß'!A15</f>
         <v>0</v>
       </c>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
       <c r="E54" s="21">
         <f>'Achim Groß'!D15</f>
         <v>0</v>
@@ -2253,12 +2256,12 @@
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B55" s="26">
+      <c r="B55" s="24">
         <f>'Achim Groß'!A16</f>
         <v>0</v>
       </c>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
       <c r="E55" s="21">
         <f>'Achim Groß'!D16</f>
         <v>0</v>
@@ -2273,12 +2276,12 @@
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B56" s="26">
+      <c r="B56" s="24">
         <f>'Achim Groß'!A17</f>
         <v>0</v>
       </c>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
       <c r="E56" s="21">
         <f>'Achim Groß'!D17</f>
         <v>0</v>
@@ -2293,12 +2296,12 @@
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B57" s="26">
+      <c r="B57" s="24">
         <f>'Achim Groß'!A18</f>
         <v>0</v>
       </c>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
       <c r="E57" s="21">
         <f>'Achim Groß'!D18</f>
         <v>0</v>
@@ -2313,12 +2316,12 @@
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B58" s="26">
+      <c r="B58" s="24">
         <f>'Achim Groß'!A19</f>
         <v>0</v>
       </c>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
       <c r="E58" s="21">
         <f>'Achim Groß'!D19</f>
         <v>0</v>
@@ -2333,12 +2336,12 @@
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B59" s="26">
+      <c r="B59" s="24">
         <f>'Achim Groß'!A20</f>
         <v>0</v>
       </c>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
       <c r="E59" s="21">
         <f>'Achim Groß'!D20</f>
         <v>0</v>
@@ -2353,12 +2356,12 @@
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B60" s="26">
+      <c r="B60" s="24">
         <f>'Achim Groß'!A21</f>
         <v>0</v>
       </c>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
       <c r="E60" s="21">
         <f>'Achim Groß'!D21</f>
         <v>0</v>
@@ -2373,12 +2376,12 @@
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B61" s="26">
+      <c r="B61" s="24">
         <f>'Achim Groß'!A22</f>
         <v>0</v>
       </c>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
       <c r="E61" s="21">
         <f>'Achim Groß'!D22</f>
         <v>0</v>
@@ -2393,12 +2396,12 @@
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B62" s="26">
+      <c r="B62" s="24">
         <f>'Achim Groß'!A23</f>
         <v>0</v>
       </c>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
       <c r="E62" s="21">
         <f>'Achim Groß'!D23</f>
         <v>0</v>
@@ -2413,12 +2416,12 @@
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B63" s="26">
+      <c r="B63" s="24">
         <f>'Achim Groß'!A24</f>
         <v>0</v>
       </c>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
       <c r="E63" s="21">
         <f>'Achim Groß'!D24</f>
         <v>0</v>
@@ -2445,24 +2448,24 @@
       <c r="B66" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C66" s="29" t="s">
+      <c r="C66" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D66" s="29"/>
+      <c r="D66" s="28"/>
       <c r="E66" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F66" s="29" t="s">
+      <c r="F66" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="G66" s="30"/>
+      <c r="G66" s="29"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B67" s="31" t="s">
+      <c r="B67" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
       <c r="E67" s="19" t="s">
         <v>18</v>
       </c>
@@ -2474,12 +2477,12 @@
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B68" s="26">
+      <c r="B68" s="24">
         <f>'Benny Gerlach'!A12</f>
         <v>0</v>
       </c>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
       <c r="E68" s="21">
         <f>'Benny Gerlach'!D12</f>
         <v>0</v>
@@ -2494,12 +2497,12 @@
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B69" s="26">
+      <c r="B69" s="24">
         <f>'Benny Gerlach'!A13</f>
         <v>0</v>
       </c>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
       <c r="E69" s="21">
         <f>'Benny Gerlach'!D13</f>
         <v>0</v>
@@ -2514,12 +2517,12 @@
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B70" s="26">
+      <c r="B70" s="24">
         <f>'Benny Gerlach'!A14</f>
         <v>0</v>
       </c>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
       <c r="E70" s="21">
         <f>'Benny Gerlach'!D14</f>
         <v>0</v>
@@ -2534,12 +2537,12 @@
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B71" s="26">
+      <c r="B71" s="24">
         <f>'Benny Gerlach'!A15</f>
         <v>0</v>
       </c>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
       <c r="E71" s="21">
         <f>'Benny Gerlach'!D15</f>
         <v>0</v>
@@ -2554,12 +2557,12 @@
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B72" s="26">
+      <c r="B72" s="24">
         <f>'Benny Gerlach'!A16</f>
         <v>0</v>
       </c>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
       <c r="E72" s="21">
         <f>'Benny Gerlach'!D16</f>
         <v>0</v>
@@ -2574,12 +2577,12 @@
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B73" s="26">
+      <c r="B73" s="24">
         <f>'Benny Gerlach'!A17</f>
         <v>0</v>
       </c>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
       <c r="E73" s="21">
         <f>'Benny Gerlach'!D17</f>
         <v>0</v>
@@ -2594,12 +2597,12 @@
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B74" s="26">
+      <c r="B74" s="24">
         <f>'Benny Gerlach'!A18</f>
         <v>0</v>
       </c>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
       <c r="E74" s="21">
         <f>'Benny Gerlach'!D18</f>
         <v>0</v>
@@ -2614,12 +2617,12 @@
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B75" s="26">
+      <c r="B75" s="24">
         <f>'Benny Gerlach'!A19</f>
         <v>0</v>
       </c>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
       <c r="E75" s="21">
         <f>'Benny Gerlach'!D19</f>
         <v>0</v>
@@ -2634,12 +2637,12 @@
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B76" s="26">
+      <c r="B76" s="24">
         <f>'Benny Gerlach'!A20</f>
         <v>0</v>
       </c>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
       <c r="E76" s="21">
         <f>'Benny Gerlach'!D20</f>
         <v>0</v>
@@ -2654,12 +2657,12 @@
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B77" s="26">
+      <c r="B77" s="24">
         <f>'Benny Gerlach'!A21</f>
         <v>0</v>
       </c>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
       <c r="E77" s="21">
         <f>'Benny Gerlach'!D21</f>
         <v>0</v>
@@ -2674,12 +2677,12 @@
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B78" s="26">
+      <c r="B78" s="24">
         <f>'Benny Gerlach'!A22</f>
         <v>0</v>
       </c>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
       <c r="E78" s="21">
         <f>'Benny Gerlach'!D22</f>
         <v>0</v>
@@ -2694,12 +2697,12 @@
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B79" s="26">
+      <c r="B79" s="24">
         <f>'Benny Gerlach'!A23</f>
         <v>0</v>
       </c>
-      <c r="C79" s="26"/>
-      <c r="D79" s="26"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
       <c r="E79" s="21">
         <f>'Benny Gerlach'!D23</f>
         <v>0</v>
@@ -2714,12 +2717,12 @@
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B80" s="26">
+      <c r="B80" s="24">
         <f>'Benny Gerlach'!A24</f>
         <v>0</v>
       </c>
-      <c r="C80" s="26"/>
-      <c r="D80" s="26"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
       <c r="E80" s="21">
         <f>'Benny Gerlach'!D24</f>
         <v>0</v>
@@ -2738,24 +2741,24 @@
       <c r="B83" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C83" s="29" t="s">
+      <c r="C83" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D83" s="29"/>
+      <c r="D83" s="28"/>
       <c r="E83" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F83" s="29" t="s">
+      <c r="F83" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="G83" s="30"/>
+      <c r="G83" s="29"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B84" s="31" t="s">
+      <c r="B84" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C84" s="31"/>
-      <c r="D84" s="31"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="25"/>
       <c r="E84" s="19" t="s">
         <v>18</v>
       </c>
@@ -2767,12 +2770,12 @@
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B85" s="27">
+      <c r="B85" s="30">
         <f>'Lukas Niedergriese'!A12</f>
         <v>0</v>
       </c>
-      <c r="C85" s="28"/>
-      <c r="D85" s="28"/>
+      <c r="C85" s="31"/>
+      <c r="D85" s="31"/>
       <c r="E85" s="6">
         <f>'Lukas Niedergriese'!D12</f>
         <v>0</v>
@@ -2787,12 +2790,12 @@
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B86" s="27">
+      <c r="B86" s="30">
         <f>'Lukas Niedergriese'!A13</f>
         <v>0</v>
       </c>
-      <c r="C86" s="28"/>
-      <c r="D86" s="28"/>
+      <c r="C86" s="31"/>
+      <c r="D86" s="31"/>
       <c r="E86" s="6">
         <f>'Lukas Niedergriese'!D13</f>
         <v>0</v>
@@ -2807,12 +2810,12 @@
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B87" s="27">
+      <c r="B87" s="30">
         <f>'Lukas Niedergriese'!A14</f>
         <v>0</v>
       </c>
-      <c r="C87" s="28"/>
-      <c r="D87" s="28"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="31"/>
       <c r="E87" s="6">
         <f>'Lukas Niedergriese'!D14</f>
         <v>0</v>
@@ -2827,12 +2830,12 @@
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B88" s="27">
+      <c r="B88" s="30">
         <f>'Lukas Niedergriese'!A15</f>
         <v>0</v>
       </c>
-      <c r="C88" s="28"/>
-      <c r="D88" s="28"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="31"/>
       <c r="E88" s="6">
         <f>'Lukas Niedergriese'!D15</f>
         <v>0</v>
@@ -2847,12 +2850,12 @@
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B89" s="27">
+      <c r="B89" s="30">
         <f>'Lukas Niedergriese'!A16</f>
         <v>0</v>
       </c>
-      <c r="C89" s="28"/>
-      <c r="D89" s="28"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="31"/>
       <c r="E89" s="6">
         <f>'Lukas Niedergriese'!D16</f>
         <v>0</v>
@@ -2867,12 +2870,12 @@
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B90" s="27">
+      <c r="B90" s="30">
         <f>'Lukas Niedergriese'!A17</f>
         <v>0</v>
       </c>
-      <c r="C90" s="28"/>
-      <c r="D90" s="28"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="31"/>
       <c r="E90" s="6">
         <f>'Lukas Niedergriese'!D17</f>
         <v>0</v>
@@ -2887,12 +2890,12 @@
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B91" s="27">
+      <c r="B91" s="30">
         <f>'Lukas Niedergriese'!A18</f>
         <v>0</v>
       </c>
-      <c r="C91" s="28"/>
-      <c r="D91" s="28"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="31"/>
       <c r="E91" s="6">
         <f>'Lukas Niedergriese'!D18</f>
         <v>0</v>
@@ -2907,12 +2910,12 @@
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B92" s="27">
+      <c r="B92" s="30">
         <f>'Lukas Niedergriese'!A19</f>
         <v>0</v>
       </c>
-      <c r="C92" s="28"/>
-      <c r="D92" s="28"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="31"/>
       <c r="E92" s="6">
         <f>'Lukas Niedergriese'!D19</f>
         <v>0</v>
@@ -2927,12 +2930,12 @@
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B93" s="27">
+      <c r="B93" s="30">
         <f>'Lukas Niedergriese'!A20</f>
         <v>0</v>
       </c>
-      <c r="C93" s="28"/>
-      <c r="D93" s="28"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="31"/>
       <c r="E93" s="6">
         <f>'Lukas Niedergriese'!D20</f>
         <v>0</v>
@@ -2947,12 +2950,12 @@
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B94" s="27">
+      <c r="B94" s="30">
         <f>'Lukas Niedergriese'!A21</f>
         <v>0</v>
       </c>
-      <c r="C94" s="28"/>
-      <c r="D94" s="28"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="31"/>
       <c r="E94" s="6">
         <f>'Lukas Niedergriese'!D21</f>
         <v>0</v>
@@ -2967,12 +2970,12 @@
       </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B95" s="27">
+      <c r="B95" s="30">
         <f>'Lukas Niedergriese'!A22</f>
         <v>0</v>
       </c>
-      <c r="C95" s="28"/>
-      <c r="D95" s="28"/>
+      <c r="C95" s="31"/>
+      <c r="D95" s="31"/>
       <c r="E95" s="6">
         <f>'Lukas Niedergriese'!D22</f>
         <v>0</v>
@@ -2987,12 +2990,12 @@
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B96" s="27">
+      <c r="B96" s="30">
         <f>'Lukas Niedergriese'!A23</f>
         <v>0</v>
       </c>
-      <c r="C96" s="28"/>
-      <c r="D96" s="28"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="31"/>
       <c r="E96" s="6">
         <f>'Lukas Niedergriese'!D23</f>
         <v>0</v>
@@ -3007,12 +3010,12 @@
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B97" s="27">
+      <c r="B97" s="30">
         <f>'Lukas Niedergriese'!A24</f>
         <v>0</v>
       </c>
-      <c r="C97" s="28"/>
-      <c r="D97" s="28"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="31"/>
       <c r="E97" s="6">
         <f>'Lukas Niedergriese'!D24</f>
         <v>0</v>
@@ -3031,24 +3034,24 @@
       <c r="B99" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C99" s="29" t="s">
+      <c r="C99" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D99" s="29"/>
+      <c r="D99" s="28"/>
       <c r="E99" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F99" s="29" t="s">
+      <c r="F99" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G99" s="30"/>
+      <c r="G99" s="29"/>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B100" s="31" t="s">
+      <c r="B100" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C100" s="31"/>
-      <c r="D100" s="31"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="25"/>
       <c r="E100" s="19" t="s">
         <v>18</v>
       </c>
@@ -3060,12 +3063,12 @@
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B101" s="26" t="str">
+      <c r="B101" s="24" t="str">
         <f>'Tobias Reis'!A12</f>
         <v>Meeting / Interview</v>
       </c>
-      <c r="C101" s="26"/>
-      <c r="D101" s="26"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="24"/>
       <c r="E101" s="15" t="str">
         <f>'Tobias Reis'!D12</f>
         <v>d</v>
@@ -3080,12 +3083,12 @@
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B102" s="26" t="str">
+      <c r="B102" s="24" t="str">
         <f>'Tobias Reis'!A13</f>
         <v>Protokoll schreiben / Projekt Dokumentieren</v>
       </c>
-      <c r="C102" s="26"/>
-      <c r="D102" s="26"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="24"/>
       <c r="E102" s="15" t="str">
         <f>'Tobias Reis'!D13</f>
         <v>c</v>
@@ -3100,12 +3103,12 @@
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B103" s="26" t="str">
+      <c r="B103" s="24" t="str">
         <f>'Tobias Reis'!A14</f>
         <v>Recherche über unser Projekt</v>
       </c>
-      <c r="C103" s="26"/>
-      <c r="D103" s="26"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="24"/>
       <c r="E103" s="15" t="str">
         <f>'Tobias Reis'!D14</f>
         <v>c</v>
@@ -3120,32 +3123,32 @@
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B104" s="26">
+      <c r="B104" s="24" t="str">
         <f>'Tobias Reis'!A15</f>
-        <v>0</v>
-      </c>
-      <c r="C104" s="26"/>
-      <c r="D104" s="26"/>
-      <c r="E104" s="15">
+        <v>Grundgerüst für Recherchebericht erstellt</v>
+      </c>
+      <c r="C104" s="24"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="15" t="str">
         <f>'Tobias Reis'!D15</f>
-        <v>0</v>
-      </c>
-      <c r="F104" s="15">
+        <v>c</v>
+      </c>
+      <c r="F104" s="15" t="str">
         <f>'Tobias Reis'!E15</f>
-        <v>0</v>
+        <v>d</v>
       </c>
       <c r="G104" s="15">
         <f>'Tobias Reis'!F15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B105" s="26">
+      <c r="B105" s="24">
         <f>'Tobias Reis'!A16</f>
         <v>0</v>
       </c>
-      <c r="C105" s="26"/>
-      <c r="D105" s="26"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="24"/>
       <c r="E105" s="15">
         <f>'Tobias Reis'!D16</f>
         <v>0</v>
@@ -3160,12 +3163,12 @@
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B106" s="26">
+      <c r="B106" s="24">
         <f>'Tobias Reis'!A17</f>
         <v>0</v>
       </c>
-      <c r="C106" s="26"/>
-      <c r="D106" s="26"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="24"/>
       <c r="E106" s="15">
         <f>'Tobias Reis'!D17</f>
         <v>0</v>
@@ -3180,12 +3183,12 @@
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B107" s="26">
+      <c r="B107" s="24">
         <f>'Tobias Reis'!A18</f>
         <v>0</v>
       </c>
-      <c r="C107" s="26"/>
-      <c r="D107" s="26"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="24"/>
       <c r="E107" s="15">
         <f>'Tobias Reis'!D18</f>
         <v>0</v>
@@ -3200,12 +3203,12 @@
       </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B108" s="26">
+      <c r="B108" s="24">
         <f>'Tobias Reis'!A19</f>
         <v>0</v>
       </c>
-      <c r="C108" s="26"/>
-      <c r="D108" s="26"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="24"/>
       <c r="E108" s="15">
         <f>'Tobias Reis'!D19</f>
         <v>0</v>
@@ -3220,12 +3223,12 @@
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B109" s="26">
+      <c r="B109" s="24">
         <f>'Tobias Reis'!A20</f>
         <v>0</v>
       </c>
-      <c r="C109" s="26"/>
-      <c r="D109" s="26"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="24"/>
       <c r="E109" s="15">
         <f>'Tobias Reis'!D20</f>
         <v>0</v>
@@ -3240,12 +3243,12 @@
       </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B110" s="26">
+      <c r="B110" s="24">
         <f>'Tobias Reis'!A21</f>
         <v>0</v>
       </c>
-      <c r="C110" s="26"/>
-      <c r="D110" s="26"/>
+      <c r="C110" s="24"/>
+      <c r="D110" s="24"/>
       <c r="E110" s="15">
         <f>'Tobias Reis'!D21</f>
         <v>0</v>
@@ -3260,12 +3263,12 @@
       </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B111" s="26">
+      <c r="B111" s="24">
         <f>'Tobias Reis'!A22</f>
         <v>0</v>
       </c>
-      <c r="C111" s="26"/>
-      <c r="D111" s="26"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="24"/>
       <c r="E111" s="15">
         <f>'Tobias Reis'!D22</f>
         <v>0</v>
@@ -3280,12 +3283,12 @@
       </c>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B112" s="26">
+      <c r="B112" s="24">
         <f>'Tobias Reis'!A23</f>
         <v>0</v>
       </c>
-      <c r="C112" s="26"/>
-      <c r="D112" s="26"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="24"/>
       <c r="E112" s="15">
         <f>'Tobias Reis'!D23</f>
         <v>0</v>
@@ -3300,12 +3303,12 @@
       </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B113" s="26">
+      <c r="B113" s="24">
         <f>'Tobias Reis'!A24</f>
         <v>0</v>
       </c>
-      <c r="C113" s="26"/>
-      <c r="D113" s="26"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="24"/>
       <c r="E113" s="15">
         <f>'Tobias Reis'!D24</f>
         <v>0</v>
@@ -3321,26 +3324,86 @@
     </row>
   </sheetData>
   <mergeCells count="124">
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B2:H3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="B109:D109"/>
+    <mergeCell ref="B110:D110"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B71:D71"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B53:D53"/>
@@ -3365,86 +3428,26 @@
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="B109:D109"/>
-    <mergeCell ref="B110:D110"/>
-    <mergeCell ref="B111:D111"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B28:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3470,35 +3473,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="D4" s="25" t="s">
+      <c r="B4" s="27"/>
+      <c r="D4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -3514,10 +3517,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="24"/>
+      <c r="G5" s="32"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -3530,52 +3533,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="24"/>
+      <c r="G6" s="32"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="24"/>
+      <c r="G7" s="32"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="27"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="24"/>
+      <c r="G8" s="32"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="24"/>
+      <c r="B9" s="32"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="24"/>
+      <c r="G9" s="32"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -3588,171 +3591,171 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>0</v>
@@ -3762,11 +3765,11 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>0</v>
@@ -3774,11 +3777,11 @@
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
       <c r="D35" s="10" t="e">
         <f>D33/D34</f>
         <v>#DIV/0!</v>
@@ -3788,22 +3791,22 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-10</v>
@@ -3811,6 +3814,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
@@ -3823,30 +3850,6 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
@@ -3882,35 +3885,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="D4" s="25" t="s">
+      <c r="B4" s="27"/>
+      <c r="D4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -3926,10 +3929,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="24"/>
+      <c r="G5" s="32"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -3942,52 +3945,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="24"/>
+      <c r="G6" s="32"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="24"/>
+      <c r="G7" s="32"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="27"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="24"/>
+      <c r="G8" s="32"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="24"/>
+      <c r="B9" s="32"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="24"/>
+      <c r="G9" s="32"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -4000,171 +4003,171 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>0</v>
@@ -4174,11 +4177,11 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>0</v>
@@ -4186,11 +4189,11 @@
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
       <c r="D35" s="10" t="e">
         <f>D33/D34</f>
         <v>#DIV/0!</v>
@@ -4200,22 +4203,22 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-10</v>
@@ -4223,6 +4226,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
@@ -4235,30 +4262,6 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
@@ -4294,35 +4297,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="D4" s="25" t="s">
+      <c r="B4" s="27"/>
+      <c r="D4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -4338,10 +4341,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="24"/>
+      <c r="G5" s="32"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -4354,52 +4357,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="24"/>
+      <c r="G6" s="32"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="24"/>
+      <c r="G7" s="32"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="27"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="24"/>
+      <c r="G8" s="32"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="24"/>
+      <c r="B9" s="32"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="24"/>
+      <c r="G9" s="32"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -4412,9 +4415,9 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -4436,147 +4439,147 @@
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>0</v>
@@ -4586,11 +4589,11 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>0</v>
@@ -4598,11 +4601,11 @@
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
       <c r="D35" s="10" t="e">
         <f>D33/D34</f>
         <v>#DIV/0!</v>
@@ -4612,22 +4615,22 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-10</v>
@@ -4635,6 +4638,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
@@ -4647,30 +4674,6 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
@@ -4706,35 +4709,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="D4" s="25" t="s">
+      <c r="B4" s="27"/>
+      <c r="D4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -4750,10 +4753,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="24"/>
+      <c r="G5" s="32"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -4766,52 +4769,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="24"/>
+      <c r="G6" s="32"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="24"/>
+      <c r="G7" s="32"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="27"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="24"/>
+      <c r="G8" s="32"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="24"/>
+      <c r="B9" s="32"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="24"/>
+      <c r="G9" s="32"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -4824,171 +4827,171 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>0</v>
@@ -4998,11 +5001,11 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>0</v>
@@ -5010,11 +5013,11 @@
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
       <c r="D35" s="10" t="e">
         <f>D33/D34</f>
         <v>#DIV/0!</v>
@@ -5024,22 +5027,22 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-10</v>
@@ -5047,6 +5050,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
@@ -5059,30 +5086,6 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
@@ -5118,35 +5121,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="D4" s="25" t="s">
+      <c r="B4" s="27"/>
+      <c r="D4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -5162,10 +5165,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="24"/>
+      <c r="G5" s="32"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -5178,52 +5181,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="24"/>
+      <c r="G6" s="32"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="24"/>
+      <c r="G7" s="32"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="27"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="24"/>
+      <c r="G8" s="32"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="24"/>
+      <c r="B9" s="32"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="24"/>
+      <c r="G9" s="32"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -5236,171 +5239,171 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
     </row>
     <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>0</v>
@@ -5410,11 +5413,11 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>0</v>
@@ -5422,11 +5425,11 @@
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
       <c r="D35" s="10" t="e">
         <f>D33/D34</f>
         <v>#DIV/0!</v>
@@ -5436,22 +5439,22 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-10</v>
@@ -5459,6 +5462,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
@@ -5471,30 +5498,6 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
@@ -5515,8 +5518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5530,35 +5533,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="D4" s="25" t="s">
+      <c r="B4" s="27"/>
+      <c r="D4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -5574,10 +5577,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="24"/>
+      <c r="G5" s="32"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -5590,52 +5593,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="24"/>
+      <c r="G6" s="32"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="24"/>
+      <c r="G7" s="32"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="27"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="24"/>
+      <c r="G8" s="32"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="24"/>
+      <c r="B9" s="32"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="24"/>
+      <c r="G9" s="32"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -5696,12 +5699,20 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="41"/>
+      <c r="A15" s="41" t="s">
+        <v>55</v>
+      </c>
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
+      <c r="D15" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="22">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="41"/>
@@ -5720,181 +5731,205 @@
       <c r="F17" s="22"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
-        <v>1.1666666666666667</v>
+        <v>1.125</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
       <c r="D37">
         <f>D33-10</f>
-        <v>-6.5</v>
+        <v>-5.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
@@ -5907,30 +5942,6 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">

--- a/Organisation/Aufwandserfassung/Aufwandserfassung_Wochenbericht_KW11.xlsx
+++ b/Organisation/Aufwandserfassung/Aufwandserfassung_Wochenbericht_KW11.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobia\OneDrive\Dokumente\GitHub\METLAB_News\Organisation\Aufwandserfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\studium\schluesselqual\swe\METLAB-News\METLAB_News\Organisation\Aufwandserfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27876" windowHeight="12792"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12795" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamt" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Erik Hennig" sheetId="3" r:id="rId6"/>
     <sheet name="Tobias Reis" sheetId="2" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="57">
   <si>
     <t>Wöchentlicher Aufwandsbericht</t>
   </si>
@@ -199,11 +199,14 @@
   <si>
     <t>Grundgerüst für Recherchebericht erstellt</t>
   </si>
+  <si>
+    <t>Meetings</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -429,7 +432,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -437,26 +454,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -466,6 +463,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -945,48 +948,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O113"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:D19"/>
+    <sheetView showZeros="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111:D111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" customWidth="1"/>
-    <col min="12" max="12" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
+    <row r="1" spans="2:15" ht="11.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
@@ -995,7 +998,7 @@
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
@@ -1004,7 +1007,7 @@
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
@@ -1016,17 +1019,17 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
       <c r="M5" s="16"/>
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>6</v>
       </c>
@@ -1036,11 +1039,11 @@
       <c r="G6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="32" t="str">
+      <c r="I6" s="24" t="str">
         <f>C13</f>
         <v>Erik Hennig</v>
       </c>
-      <c r="J6" s="32"/>
+      <c r="J6" s="24"/>
       <c r="K6" s="16">
         <v>14.5</v>
       </c>
@@ -1056,7 +1059,7 @@
       </c>
       <c r="O6" s="16"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
@@ -1069,11 +1072,11 @@
       <c r="G7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="32" t="str">
+      <c r="I7" s="24" t="str">
         <f>C32</f>
         <v>Marco Rempfer</v>
       </c>
-      <c r="J7" s="32"/>
+      <c r="J7" s="24"/>
       <c r="K7" s="16">
         <v>9</v>
       </c>
@@ -1084,18 +1087,18 @@
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="32" t="str">
+      <c r="I8" s="24" t="str">
         <f>C49</f>
         <v>Achim Groß</v>
       </c>
-      <c r="J8" s="32"/>
+      <c r="J8" s="24"/>
       <c r="K8" s="16">
         <v>9</v>
       </c>
@@ -1106,22 +1109,22 @@
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="27" t="s">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="27"/>
+      <c r="C9" s="25"/>
       <c r="F9" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="32" t="str">
+      <c r="I9" s="24" t="str">
         <f>C66</f>
         <v>Benny Gerlach</v>
       </c>
-      <c r="J9" s="32"/>
+      <c r="J9" s="24"/>
       <c r="K9" s="16">
         <v>12</v>
       </c>
@@ -1132,7 +1135,7 @@
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>2</v>
       </c>
@@ -1145,11 +1148,11 @@
       <c r="G10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="32" t="str">
+      <c r="I10" s="24" t="str">
         <f>C83</f>
         <v>Lukas Niedergriese</v>
       </c>
-      <c r="J10" s="32"/>
+      <c r="J10" s="24"/>
       <c r="K10" s="16">
         <v>9</v>
       </c>
@@ -1160,7 +1163,7 @@
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>3</v>
       </c>
@@ -1170,11 +1173,11 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="I11" s="32" t="str">
+      <c r="I11" s="24" t="str">
         <f>C99</f>
         <v>Tobias Reis</v>
       </c>
-      <c r="J11" s="32"/>
+      <c r="J11" s="24"/>
       <c r="K11" s="16">
         <v>14</v>
       </c>
@@ -1185,11 +1188,11 @@
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
     </row>
-    <row r="12" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I12" s="32" t="s">
+    <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I12" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="32"/>
+      <c r="J12" s="24"/>
       <c r="K12" s="16">
         <f>SUM(K6:K11)</f>
         <v>67.5</v>
@@ -1206,21 +1209,21 @@
       </c>
       <c r="O12" s="16"/>
     </row>
-    <row r="13" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="28"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="29"/>
+      <c r="G13" s="30"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
@@ -1229,12 +1232,12 @@
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="25" t="s">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
       <c r="E14" s="19" t="s">
         <v>18</v>
       </c>
@@ -1252,62 +1255,62 @@
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="24">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="26" t="str">
         <f>'Erik Hennig'!A12</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="15">
+        <v>Meetings</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="15" t="str">
         <f>'Erik Hennig'!D12</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="15">
+        <v>c</v>
+      </c>
+      <c r="F15" s="15" t="str">
         <f>'Erik Hennig'!E12</f>
-        <v>0</v>
+        <v>c</v>
       </c>
       <c r="G15" s="15">
         <f>'Erik Hennig'!F12</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="27" t="s">
+        <v>2.5</v>
+      </c>
+      <c r="I15" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
       <c r="M15" s="16"/>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="24">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="26" t="str">
         <f>'Erik Hennig'!A13</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="15">
+        <v>Recherche</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="15" t="str">
         <f>'Erik Hennig'!D13</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="15">
+        <v>d</v>
+      </c>
+      <c r="F16" s="15" t="str">
         <f>'Erik Hennig'!E13</f>
-        <v>0</v>
+        <v>c</v>
       </c>
       <c r="G16" s="15">
         <f>'Erik Hennig'!F13</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="32" t="str">
+        <v>3</v>
+      </c>
+      <c r="I16" s="24" t="str">
         <f>C13</f>
         <v>Erik Hennig</v>
       </c>
-      <c r="J16" s="32"/>
+      <c r="J16" s="24"/>
       <c r="K16" s="16">
         <f>SUM(G15:G29)</f>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="L16" s="16" t="s">
         <v>26</v>
@@ -1320,13 +1323,13 @@
       </c>
       <c r="O16" s="16"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="24">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="26">
         <f>'Erik Hennig'!A14</f>
         <v>0</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="15">
         <f>'Erik Hennig'!D14</f>
         <v>0</v>
@@ -1339,11 +1342,11 @@
         <f>'Erik Hennig'!F14</f>
         <v>0</v>
       </c>
-      <c r="I17" s="32" t="str">
+      <c r="I17" s="24" t="str">
         <f>C32</f>
         <v>Marco Rempfer</v>
       </c>
-      <c r="J17" s="32"/>
+      <c r="J17" s="24"/>
       <c r="K17" s="16">
         <f>SUM(G34:G46)</f>
         <v>0</v>
@@ -1355,13 +1358,13 @@
       <c r="N17" s="16"/>
       <c r="O17" s="16"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="24">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="26">
         <f>'Erik Hennig'!A15</f>
         <v>0</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
       <c r="E18" s="15">
         <f>'Erik Hennig'!D15</f>
         <v>0</v>
@@ -1374,11 +1377,11 @@
         <f>'Erik Hennig'!F15</f>
         <v>0</v>
       </c>
-      <c r="I18" s="32" t="str">
+      <c r="I18" s="24" t="str">
         <f>C49</f>
         <v>Achim Groß</v>
       </c>
-      <c r="J18" s="32"/>
+      <c r="J18" s="24"/>
       <c r="K18" s="16">
         <f>SUM(G51:G63)</f>
         <v>0</v>
@@ -1390,13 +1393,13 @@
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="24">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="26">
         <f>'Erik Hennig'!A16</f>
         <v>0</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="15">
         <f>'Erik Hennig'!D16</f>
         <v>0</v>
@@ -1409,11 +1412,11 @@
         <f>'Erik Hennig'!F16</f>
         <v>0</v>
       </c>
-      <c r="I19" s="32" t="str">
+      <c r="I19" s="24" t="str">
         <f>C66</f>
         <v>Benny Gerlach</v>
       </c>
-      <c r="J19" s="32"/>
+      <c r="J19" s="24"/>
       <c r="K19" s="16">
         <f>SUM(G68:G80)</f>
         <v>0</v>
@@ -1425,13 +1428,13 @@
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="24">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="26">
         <f>'Erik Hennig'!A17</f>
         <v>0</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
       <c r="E20" s="15">
         <f>'Erik Hennig'!D17</f>
         <v>0</v>
@@ -1444,11 +1447,11 @@
         <f>'Erik Hennig'!F17</f>
         <v>0</v>
       </c>
-      <c r="I20" s="32" t="str">
+      <c r="I20" s="24" t="str">
         <f>C83</f>
         <v>Lukas Niedergriese</v>
       </c>
-      <c r="J20" s="32"/>
+      <c r="J20" s="24"/>
       <c r="K20" s="16">
         <f>SUM(G85:G97)</f>
         <v>0</v>
@@ -1460,13 +1463,13 @@
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="24">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="26">
         <f>'Erik Hennig'!A18</f>
         <v>0</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
       <c r="E21" s="15">
         <f>'Erik Hennig'!D18</f>
         <v>0</v>
@@ -1479,11 +1482,11 @@
         <f>'Erik Hennig'!F18</f>
         <v>0</v>
       </c>
-      <c r="I21" s="32" t="str">
+      <c r="I21" s="24" t="str">
         <f>C99</f>
         <v>Tobias Reis</v>
       </c>
-      <c r="J21" s="32"/>
+      <c r="J21" s="24"/>
       <c r="K21" s="16">
         <f>SUM(G101:G113)</f>
         <v>4.5</v>
@@ -1495,13 +1498,13 @@
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="24">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="26">
         <f>'Erik Hennig'!A19</f>
         <v>0</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
       <c r="E22" s="15">
         <f>'Erik Hennig'!D19</f>
         <v>0</v>
@@ -1514,13 +1517,13 @@
         <f>'Erik Hennig'!F19</f>
         <v>0</v>
       </c>
-      <c r="I22" s="32" t="s">
+      <c r="I22" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="32"/>
+      <c r="J22" s="24"/>
       <c r="K22" s="16">
         <f>SUM(K16:K21)</f>
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="L22" s="16" t="s">
         <v>26</v>
@@ -1533,13 +1536,13 @@
       </c>
       <c r="O22" s="16"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="24">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="26">
         <f>'Erik Hennig'!A20</f>
         <v>0</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
       <c r="E23" s="15">
         <f>'Erik Hennig'!D20</f>
         <v>0</v>
@@ -1560,13 +1563,13 @@
       <c r="N23" s="16"/>
       <c r="O23" s="16"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="24">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="26">
         <f>'Erik Hennig'!A21</f>
         <v>0</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
       <c r="E24" s="15">
         <f>'Erik Hennig'!D21</f>
         <v>0</v>
@@ -1587,13 +1590,13 @@
       <c r="N24" s="16"/>
       <c r="O24" s="16"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="24">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="26">
         <f>'Erik Hennig'!A22</f>
         <v>0</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
       <c r="E25" s="15">
         <f>'Erik Hennig'!D22</f>
         <v>0</v>
@@ -1606,23 +1609,23 @@
         <f>'Erik Hennig'!F22</f>
         <v>0</v>
       </c>
-      <c r="I25" s="27" t="s">
+      <c r="I25" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
       <c r="O25" s="16"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="24">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="26">
         <f>'Erik Hennig'!A23</f>
         <v>0</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
       <c r="E26" s="15">
         <f>'Erik Hennig'!D23</f>
         <v>0</v>
@@ -1635,14 +1638,14 @@
         <f>'Erik Hennig'!F23</f>
         <v>0</v>
       </c>
-      <c r="I26" s="32" t="str">
+      <c r="I26" s="24" t="str">
         <f>C13</f>
         <v>Erik Hennig</v>
       </c>
-      <c r="J26" s="32"/>
+      <c r="J26" s="24"/>
       <c r="K26" s="16">
         <f t="shared" ref="K26:K32" si="0">K6+K16</f>
-        <v>14.5</v>
+        <v>20</v>
       </c>
       <c r="L26" s="16" t="s">
         <v>26</v>
@@ -1656,13 +1659,13 @@
       </c>
       <c r="O26" s="16"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="24">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="26">
         <f>'Erik Hennig'!A24</f>
         <v>0</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
       <c r="E27" s="15">
         <f>'Erik Hennig'!D24</f>
         <v>0</v>
@@ -1675,11 +1678,11 @@
         <f>'Erik Hennig'!F24</f>
         <v>0</v>
       </c>
-      <c r="I27" s="32" t="str">
+      <c r="I27" s="24" t="str">
         <f>C32</f>
         <v>Marco Rempfer</v>
       </c>
-      <c r="J27" s="32"/>
+      <c r="J27" s="24"/>
       <c r="K27" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1691,13 +1694,13 @@
       <c r="N27" s="16"/>
       <c r="O27" s="16"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="24">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="26">
         <f>'Erik Hennig'!A25</f>
         <v>0</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
       <c r="E28" s="15">
         <f>'Erik Hennig'!D25</f>
         <v>0</v>
@@ -1710,11 +1713,11 @@
         <f>'Erik Hennig'!F25</f>
         <v>0</v>
       </c>
-      <c r="I28" s="32" t="str">
+      <c r="I28" s="24" t="str">
         <f>C49</f>
         <v>Achim Groß</v>
       </c>
-      <c r="J28" s="32"/>
+      <c r="J28" s="24"/>
       <c r="K28" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1726,13 +1729,13 @@
       <c r="N28" s="16"/>
       <c r="O28" s="16"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="24">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="26">
         <f>'Erik Hennig'!A26</f>
         <v>0</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
       <c r="E29" s="15">
         <f>'Erik Hennig'!D26</f>
         <v>0</v>
@@ -1745,11 +1748,11 @@
         <f>'Erik Hennig'!F26</f>
         <v>0</v>
       </c>
-      <c r="I29" s="32" t="str">
+      <c r="I29" s="24" t="str">
         <f>C66</f>
         <v>Benny Gerlach</v>
       </c>
-      <c r="J29" s="32"/>
+      <c r="J29" s="24"/>
       <c r="K29" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1761,12 +1764,12 @@
       <c r="N29" s="16"/>
       <c r="O29" s="16"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="I30" s="32" t="str">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I30" s="24" t="str">
         <f>C83</f>
         <v>Lukas Niedergriese</v>
       </c>
-      <c r="J30" s="32"/>
+      <c r="J30" s="24"/>
       <c r="K30" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1778,12 +1781,12 @@
       <c r="N30" s="16"/>
       <c r="O30" s="16"/>
     </row>
-    <row r="31" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I31" s="32" t="str">
+    <row r="31" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I31" s="24" t="str">
         <f>C99</f>
         <v>Tobias Reis</v>
       </c>
-      <c r="J31" s="32"/>
+      <c r="J31" s="24"/>
       <c r="K31" s="16">
         <f t="shared" si="0"/>
         <v>18.5</v>
@@ -1795,28 +1798,28 @@
       <c r="N31" s="16"/>
       <c r="O31" s="16"/>
     </row>
-    <row r="32" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="28"/>
+      <c r="D32" s="29"/>
       <c r="E32" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="28" t="s">
+      <c r="F32" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="G32" s="29"/>
-      <c r="I32" s="32" t="s">
+      <c r="G32" s="30"/>
+      <c r="I32" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="J32" s="32"/>
+      <c r="J32" s="24"/>
       <c r="K32" s="16">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>77.5</v>
       </c>
       <c r="L32" s="16" t="s">
         <v>26</v>
@@ -1830,12 +1833,12 @@
       </c>
       <c r="O32" s="16"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B33" s="25" t="s">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
       <c r="E33" s="19" t="s">
         <v>18</v>
       </c>
@@ -1853,13 +1856,13 @@
       <c r="N33" s="16"/>
       <c r="O33" s="16"/>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="24">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="26">
         <f>'Marco Rempfer'!A12</f>
         <v>0</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
       <c r="E34" s="15">
         <f>'Marco Rempfer'!D12</f>
         <v>0</v>
@@ -1880,13 +1883,13 @@
       <c r="N34" s="16"/>
       <c r="O34" s="16"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="24">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="26">
         <f>'Marco Rempfer'!A13</f>
         <v>0</v>
       </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
       <c r="E35" s="23">
         <f>'Marco Rempfer'!D13</f>
         <v>0</v>
@@ -1907,13 +1910,13 @@
       <c r="N35" s="16"/>
       <c r="O35" s="16"/>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="24">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="26">
         <f>'Marco Rempfer'!A14</f>
         <v>0</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
       <c r="E36" s="23">
         <f>'Marco Rempfer'!D14</f>
         <v>0</v>
@@ -1934,13 +1937,13 @@
       <c r="N36" s="16"/>
       <c r="O36" s="16"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="24">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="26">
         <f>'Marco Rempfer'!A15</f>
         <v>0</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
       <c r="E37" s="23">
         <f>'Marco Rempfer'!D15</f>
         <v>0</v>
@@ -1954,13 +1957,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="24">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" s="26">
         <f>'Marco Rempfer'!A16</f>
         <v>0</v>
       </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
       <c r="E38" s="23">
         <f>'Marco Rempfer'!D16</f>
         <v>0</v>
@@ -1974,13 +1977,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="24">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39" s="26">
         <f>'Marco Rempfer'!A17</f>
         <v>0</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
       <c r="E39" s="23">
         <f>'Marco Rempfer'!D17</f>
         <v>0</v>
@@ -1994,13 +1997,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="24">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40" s="26">
         <f>'Marco Rempfer'!A18</f>
         <v>0</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
       <c r="E40" s="23">
         <f>'Marco Rempfer'!D18</f>
         <v>0</v>
@@ -2014,13 +2017,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B41" s="24">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41" s="26">
         <f>'Marco Rempfer'!A19</f>
         <v>0</v>
       </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
       <c r="E41" s="23">
         <f>'Marco Rempfer'!D19</f>
         <v>0</v>
@@ -2034,13 +2037,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B42" s="24">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42" s="26">
         <f>'Marco Rempfer'!A20</f>
         <v>0</v>
       </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
       <c r="E42" s="23">
         <f>'Marco Rempfer'!D20</f>
         <v>0</v>
@@ -2054,13 +2057,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B43" s="24">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43" s="26">
         <f>'Marco Rempfer'!A21</f>
         <v>0</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
       <c r="E43" s="23">
         <f>'Marco Rempfer'!D21</f>
         <v>0</v>
@@ -2074,13 +2077,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B44" s="24">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44" s="26">
         <f>'Marco Rempfer'!A22</f>
         <v>0</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
       <c r="E44" s="23">
         <f>'Marco Rempfer'!D22</f>
         <v>0</v>
@@ -2094,13 +2097,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B45" s="24">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45" s="26">
         <f>'Marco Rempfer'!A23</f>
         <v>0</v>
       </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
       <c r="E45" s="23">
         <f>'Marco Rempfer'!D23</f>
         <v>0</v>
@@ -2114,13 +2117,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B46" s="24">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B46" s="26">
         <f>'Marco Rempfer'!A24</f>
         <v>0</v>
       </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
       <c r="E46" s="23">
         <f>'Marco Rempfer'!D24</f>
         <v>0</v>
@@ -2134,7 +2137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2142,29 +2145,29 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
     </row>
-    <row r="48" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="49" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="28" t="s">
+      <c r="C49" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="28"/>
+      <c r="D49" s="29"/>
       <c r="E49" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F49" s="28" t="s">
+      <c r="F49" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="G49" s="29"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B50" s="25" t="s">
+      <c r="G49" s="30"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
       <c r="E50" s="19" t="s">
         <v>18</v>
       </c>
@@ -2175,13 +2178,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B51" s="24">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="26">
         <f>'Achim Groß'!A12</f>
         <v>0</v>
       </c>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
       <c r="E51" s="20">
         <f>'Achim Groß'!D12</f>
         <v>0</v>
@@ -2195,13 +2198,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B52" s="24">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="26">
         <f>'Achim Groß'!A13</f>
         <v>0</v>
       </c>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
       <c r="E52" s="21">
         <f>'Achim Groß'!D13</f>
         <v>0</v>
@@ -2215,13 +2218,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B53" s="24">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="26">
         <f>'Achim Groß'!A14</f>
         <v>0</v>
       </c>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
       <c r="E53" s="21">
         <f>'Achim Groß'!D14</f>
         <v>0</v>
@@ -2235,13 +2238,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B54" s="24">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="26">
         <f>'Achim Groß'!A15</f>
         <v>0</v>
       </c>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
       <c r="E54" s="21">
         <f>'Achim Groß'!D15</f>
         <v>0</v>
@@ -2255,13 +2258,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B55" s="24">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="26">
         <f>'Achim Groß'!A16</f>
         <v>0</v>
       </c>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
       <c r="E55" s="21">
         <f>'Achim Groß'!D16</f>
         <v>0</v>
@@ -2275,13 +2278,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B56" s="24">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="26">
         <f>'Achim Groß'!A17</f>
         <v>0</v>
       </c>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
       <c r="E56" s="21">
         <f>'Achim Groß'!D17</f>
         <v>0</v>
@@ -2295,13 +2298,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B57" s="24">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="26">
         <f>'Achim Groß'!A18</f>
         <v>0</v>
       </c>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
       <c r="E57" s="21">
         <f>'Achim Groß'!D18</f>
         <v>0</v>
@@ -2315,13 +2318,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B58" s="24">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="26">
         <f>'Achim Groß'!A19</f>
         <v>0</v>
       </c>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
       <c r="E58" s="21">
         <f>'Achim Groß'!D19</f>
         <v>0</v>
@@ -2335,13 +2338,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B59" s="24">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="26">
         <f>'Achim Groß'!A20</f>
         <v>0</v>
       </c>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
       <c r="E59" s="21">
         <f>'Achim Groß'!D20</f>
         <v>0</v>
@@ -2355,13 +2358,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B60" s="24">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="26">
         <f>'Achim Groß'!A21</f>
         <v>0</v>
       </c>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
       <c r="E60" s="21">
         <f>'Achim Groß'!D21</f>
         <v>0</v>
@@ -2375,13 +2378,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B61" s="24">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="26">
         <f>'Achim Groß'!A22</f>
         <v>0</v>
       </c>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
       <c r="E61" s="21">
         <f>'Achim Groß'!D22</f>
         <v>0</v>
@@ -2395,13 +2398,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B62" s="24">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="26">
         <f>'Achim Groß'!A23</f>
         <v>0</v>
       </c>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
       <c r="E62" s="21">
         <f>'Achim Groß'!D23</f>
         <v>0</v>
@@ -2415,13 +2418,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B63" s="24">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="26">
         <f>'Achim Groß'!A24</f>
         <v>0</v>
       </c>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
       <c r="E63" s="21">
         <f>'Achim Groß'!D24</f>
         <v>0</v>
@@ -2435,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2443,29 +2446,29 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
     </row>
-    <row r="65" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="66" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C66" s="28" t="s">
+      <c r="C66" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D66" s="28"/>
+      <c r="D66" s="29"/>
       <c r="E66" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F66" s="28" t="s">
+      <c r="F66" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="G66" s="29"/>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B67" s="25" t="s">
+      <c r="G66" s="30"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
       <c r="E67" s="19" t="s">
         <v>18</v>
       </c>
@@ -2476,13 +2479,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B68" s="24">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="26">
         <f>'Benny Gerlach'!A12</f>
         <v>0</v>
       </c>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
       <c r="E68" s="21">
         <f>'Benny Gerlach'!D12</f>
         <v>0</v>
@@ -2496,13 +2499,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B69" s="24">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="26">
         <f>'Benny Gerlach'!A13</f>
         <v>0</v>
       </c>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
       <c r="E69" s="21">
         <f>'Benny Gerlach'!D13</f>
         <v>0</v>
@@ -2516,13 +2519,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B70" s="24">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="26">
         <f>'Benny Gerlach'!A14</f>
         <v>0</v>
       </c>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
       <c r="E70" s="21">
         <f>'Benny Gerlach'!D14</f>
         <v>0</v>
@@ -2536,13 +2539,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B71" s="24">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="26">
         <f>'Benny Gerlach'!A15</f>
         <v>0</v>
       </c>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
       <c r="E71" s="21">
         <f>'Benny Gerlach'!D15</f>
         <v>0</v>
@@ -2556,13 +2559,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B72" s="24">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="26">
         <f>'Benny Gerlach'!A16</f>
         <v>0</v>
       </c>
-      <c r="C72" s="24"/>
-      <c r="D72" s="24"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
       <c r="E72" s="21">
         <f>'Benny Gerlach'!D16</f>
         <v>0</v>
@@ -2576,13 +2579,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B73" s="24">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="26">
         <f>'Benny Gerlach'!A17</f>
         <v>0</v>
       </c>
-      <c r="C73" s="24"/>
-      <c r="D73" s="24"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
       <c r="E73" s="21">
         <f>'Benny Gerlach'!D17</f>
         <v>0</v>
@@ -2596,13 +2599,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B74" s="24">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="26">
         <f>'Benny Gerlach'!A18</f>
         <v>0</v>
       </c>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
       <c r="E74" s="21">
         <f>'Benny Gerlach'!D18</f>
         <v>0</v>
@@ -2616,13 +2619,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B75" s="24">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="26">
         <f>'Benny Gerlach'!A19</f>
         <v>0</v>
       </c>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
       <c r="E75" s="21">
         <f>'Benny Gerlach'!D19</f>
         <v>0</v>
@@ -2636,13 +2639,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B76" s="24">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="26">
         <f>'Benny Gerlach'!A20</f>
         <v>0</v>
       </c>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
       <c r="E76" s="21">
         <f>'Benny Gerlach'!D20</f>
         <v>0</v>
@@ -2656,13 +2659,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B77" s="24">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="26">
         <f>'Benny Gerlach'!A21</f>
         <v>0</v>
       </c>
-      <c r="C77" s="24"/>
-      <c r="D77" s="24"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
       <c r="E77" s="21">
         <f>'Benny Gerlach'!D21</f>
         <v>0</v>
@@ -2676,13 +2679,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B78" s="24">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="26">
         <f>'Benny Gerlach'!A22</f>
         <v>0</v>
       </c>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
       <c r="E78" s="21">
         <f>'Benny Gerlach'!D22</f>
         <v>0</v>
@@ -2696,13 +2699,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B79" s="24">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="26">
         <f>'Benny Gerlach'!A23</f>
         <v>0</v>
       </c>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
       <c r="E79" s="21">
         <f>'Benny Gerlach'!D23</f>
         <v>0</v>
@@ -2716,13 +2719,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B80" s="24">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="26">
         <f>'Benny Gerlach'!A24</f>
         <v>0</v>
       </c>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="26"/>
       <c r="E80" s="21">
         <f>'Benny Gerlach'!D24</f>
         <v>0</v>
@@ -2736,29 +2739,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="83" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="83" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C83" s="28" t="s">
+      <c r="C83" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D83" s="28"/>
+      <c r="D83" s="29"/>
       <c r="E83" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F83" s="28" t="s">
+      <c r="F83" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="G83" s="29"/>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B84" s="25" t="s">
+      <c r="G83" s="30"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C84" s="25"/>
-      <c r="D84" s="25"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="31"/>
       <c r="E84" s="19" t="s">
         <v>18</v>
       </c>
@@ -2769,13 +2772,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B85" s="30">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="27">
         <f>'Lukas Niedergriese'!A12</f>
         <v>0</v>
       </c>
-      <c r="C85" s="31"/>
-      <c r="D85" s="31"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="28"/>
       <c r="E85" s="6">
         <f>'Lukas Niedergriese'!D12</f>
         <v>0</v>
@@ -2789,13 +2792,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B86" s="30">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="27">
         <f>'Lukas Niedergriese'!A13</f>
         <v>0</v>
       </c>
-      <c r="C86" s="31"/>
-      <c r="D86" s="31"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="28"/>
       <c r="E86" s="6">
         <f>'Lukas Niedergriese'!D13</f>
         <v>0</v>
@@ -2809,13 +2812,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B87" s="30">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="27">
         <f>'Lukas Niedergriese'!A14</f>
         <v>0</v>
       </c>
-      <c r="C87" s="31"/>
-      <c r="D87" s="31"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="28"/>
       <c r="E87" s="6">
         <f>'Lukas Niedergriese'!D14</f>
         <v>0</v>
@@ -2829,13 +2832,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B88" s="30">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88" s="27">
         <f>'Lukas Niedergriese'!A15</f>
         <v>0</v>
       </c>
-      <c r="C88" s="31"/>
-      <c r="D88" s="31"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="28"/>
       <c r="E88" s="6">
         <f>'Lukas Niedergriese'!D15</f>
         <v>0</v>
@@ -2849,13 +2852,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B89" s="30">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89" s="27">
         <f>'Lukas Niedergriese'!A16</f>
         <v>0</v>
       </c>
-      <c r="C89" s="31"/>
-      <c r="D89" s="31"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="28"/>
       <c r="E89" s="6">
         <f>'Lukas Niedergriese'!D16</f>
         <v>0</v>
@@ -2869,13 +2872,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B90" s="30">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="27">
         <f>'Lukas Niedergriese'!A17</f>
         <v>0</v>
       </c>
-      <c r="C90" s="31"/>
-      <c r="D90" s="31"/>
+      <c r="C90" s="28"/>
+      <c r="D90" s="28"/>
       <c r="E90" s="6">
         <f>'Lukas Niedergriese'!D17</f>
         <v>0</v>
@@ -2889,13 +2892,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B91" s="30">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91" s="27">
         <f>'Lukas Niedergriese'!A18</f>
         <v>0</v>
       </c>
-      <c r="C91" s="31"/>
-      <c r="D91" s="31"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="28"/>
       <c r="E91" s="6">
         <f>'Lukas Niedergriese'!D18</f>
         <v>0</v>
@@ -2909,13 +2912,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B92" s="30">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B92" s="27">
         <f>'Lukas Niedergriese'!A19</f>
         <v>0</v>
       </c>
-      <c r="C92" s="31"/>
-      <c r="D92" s="31"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="28"/>
       <c r="E92" s="6">
         <f>'Lukas Niedergriese'!D19</f>
         <v>0</v>
@@ -2929,13 +2932,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B93" s="30">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93" s="27">
         <f>'Lukas Niedergriese'!A20</f>
         <v>0</v>
       </c>
-      <c r="C93" s="31"/>
-      <c r="D93" s="31"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="28"/>
       <c r="E93" s="6">
         <f>'Lukas Niedergriese'!D20</f>
         <v>0</v>
@@ -2949,13 +2952,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B94" s="30">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94" s="27">
         <f>'Lukas Niedergriese'!A21</f>
         <v>0</v>
       </c>
-      <c r="C94" s="31"/>
-      <c r="D94" s="31"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="28"/>
       <c r="E94" s="6">
         <f>'Lukas Niedergriese'!D21</f>
         <v>0</v>
@@ -2969,13 +2972,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B95" s="30">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95" s="27">
         <f>'Lukas Niedergriese'!A22</f>
         <v>0</v>
       </c>
-      <c r="C95" s="31"/>
-      <c r="D95" s="31"/>
+      <c r="C95" s="28"/>
+      <c r="D95" s="28"/>
       <c r="E95" s="6">
         <f>'Lukas Niedergriese'!D22</f>
         <v>0</v>
@@ -2989,13 +2992,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B96" s="30">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96" s="27">
         <f>'Lukas Niedergriese'!A23</f>
         <v>0</v>
       </c>
-      <c r="C96" s="31"/>
-      <c r="D96" s="31"/>
+      <c r="C96" s="28"/>
+      <c r="D96" s="28"/>
       <c r="E96" s="6">
         <f>'Lukas Niedergriese'!D23</f>
         <v>0</v>
@@ -3009,13 +3012,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B97" s="30">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B97" s="27">
         <f>'Lukas Niedergriese'!A24</f>
         <v>0</v>
       </c>
-      <c r="C97" s="31"/>
-      <c r="D97" s="31"/>
+      <c r="C97" s="28"/>
+      <c r="D97" s="28"/>
       <c r="E97" s="6">
         <f>'Lukas Niedergriese'!D24</f>
         <v>0</v>
@@ -3029,29 +3032,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="99" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="99" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B99" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C99" s="28" t="s">
+      <c r="C99" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D99" s="28"/>
+      <c r="D99" s="29"/>
       <c r="E99" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F99" s="28" t="s">
+      <c r="F99" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G99" s="29"/>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B100" s="25" t="s">
+      <c r="G99" s="30"/>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C100" s="25"/>
-      <c r="D100" s="25"/>
+      <c r="C100" s="31"/>
+      <c r="D100" s="31"/>
       <c r="E100" s="19" t="s">
         <v>18</v>
       </c>
@@ -3062,13 +3065,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B101" s="24" t="str">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="26" t="str">
         <f>'Tobias Reis'!A12</f>
         <v>Meeting / Interview</v>
       </c>
-      <c r="C101" s="24"/>
-      <c r="D101" s="24"/>
+      <c r="C101" s="26"/>
+      <c r="D101" s="26"/>
       <c r="E101" s="15" t="str">
         <f>'Tobias Reis'!D12</f>
         <v>d</v>
@@ -3082,13 +3085,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B102" s="24" t="str">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B102" s="26" t="str">
         <f>'Tobias Reis'!A13</f>
         <v>Protokoll schreiben / Projekt Dokumentieren</v>
       </c>
-      <c r="C102" s="24"/>
-      <c r="D102" s="24"/>
+      <c r="C102" s="26"/>
+      <c r="D102" s="26"/>
       <c r="E102" s="15" t="str">
         <f>'Tobias Reis'!D13</f>
         <v>c</v>
@@ -3102,13 +3105,13 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B103" s="24" t="str">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B103" s="26" t="str">
         <f>'Tobias Reis'!A14</f>
         <v>Recherche über unser Projekt</v>
       </c>
-      <c r="C103" s="24"/>
-      <c r="D103" s="24"/>
+      <c r="C103" s="26"/>
+      <c r="D103" s="26"/>
       <c r="E103" s="15" t="str">
         <f>'Tobias Reis'!D14</f>
         <v>c</v>
@@ -3122,13 +3125,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B104" s="24" t="str">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B104" s="26" t="str">
         <f>'Tobias Reis'!A15</f>
         <v>Grundgerüst für Recherchebericht erstellt</v>
       </c>
-      <c r="C104" s="24"/>
-      <c r="D104" s="24"/>
+      <c r="C104" s="26"/>
+      <c r="D104" s="26"/>
       <c r="E104" s="15" t="str">
         <f>'Tobias Reis'!D15</f>
         <v>c</v>
@@ -3142,13 +3145,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B105" s="24">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B105" s="26">
         <f>'Tobias Reis'!A16</f>
         <v>0</v>
       </c>
-      <c r="C105" s="24"/>
-      <c r="D105" s="24"/>
+      <c r="C105" s="26"/>
+      <c r="D105" s="26"/>
       <c r="E105" s="15">
         <f>'Tobias Reis'!D16</f>
         <v>0</v>
@@ -3162,13 +3165,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B106" s="24">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B106" s="26">
         <f>'Tobias Reis'!A17</f>
         <v>0</v>
       </c>
-      <c r="C106" s="24"/>
-      <c r="D106" s="24"/>
+      <c r="C106" s="26"/>
+      <c r="D106" s="26"/>
       <c r="E106" s="15">
         <f>'Tobias Reis'!D17</f>
         <v>0</v>
@@ -3182,13 +3185,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B107" s="24">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B107" s="26">
         <f>'Tobias Reis'!A18</f>
         <v>0</v>
       </c>
-      <c r="C107" s="24"/>
-      <c r="D107" s="24"/>
+      <c r="C107" s="26"/>
+      <c r="D107" s="26"/>
       <c r="E107" s="15">
         <f>'Tobias Reis'!D18</f>
         <v>0</v>
@@ -3202,13 +3205,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B108" s="24">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B108" s="26">
         <f>'Tobias Reis'!A19</f>
         <v>0</v>
       </c>
-      <c r="C108" s="24"/>
-      <c r="D108" s="24"/>
+      <c r="C108" s="26"/>
+      <c r="D108" s="26"/>
       <c r="E108" s="15">
         <f>'Tobias Reis'!D19</f>
         <v>0</v>
@@ -3222,13 +3225,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B109" s="24">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B109" s="26">
         <f>'Tobias Reis'!A20</f>
         <v>0</v>
       </c>
-      <c r="C109" s="24"/>
-      <c r="D109" s="24"/>
+      <c r="C109" s="26"/>
+      <c r="D109" s="26"/>
       <c r="E109" s="15">
         <f>'Tobias Reis'!D20</f>
         <v>0</v>
@@ -3242,13 +3245,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B110" s="24">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B110" s="26">
         <f>'Tobias Reis'!A21</f>
         <v>0</v>
       </c>
-      <c r="C110" s="24"/>
-      <c r="D110" s="24"/>
+      <c r="C110" s="26"/>
+      <c r="D110" s="26"/>
       <c r="E110" s="15">
         <f>'Tobias Reis'!D21</f>
         <v>0</v>
@@ -3262,13 +3265,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B111" s="24">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B111" s="26">
         <f>'Tobias Reis'!A22</f>
         <v>0</v>
       </c>
-      <c r="C111" s="24"/>
-      <c r="D111" s="24"/>
+      <c r="C111" s="26"/>
+      <c r="D111" s="26"/>
       <c r="E111" s="15">
         <f>'Tobias Reis'!D22</f>
         <v>0</v>
@@ -3282,13 +3285,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B112" s="24">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B112" s="26">
         <f>'Tobias Reis'!A23</f>
         <v>0</v>
       </c>
-      <c r="C112" s="24"/>
-      <c r="D112" s="24"/>
+      <c r="C112" s="26"/>
+      <c r="D112" s="26"/>
       <c r="E112" s="15">
         <f>'Tobias Reis'!D23</f>
         <v>0</v>
@@ -3302,13 +3305,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B113" s="24">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B113" s="26">
         <f>'Tobias Reis'!A24</f>
         <v>0</v>
       </c>
-      <c r="C113" s="24"/>
-      <c r="D113" s="24"/>
+      <c r="C113" s="26"/>
+      <c r="D113" s="26"/>
       <c r="E113" s="15">
         <f>'Tobias Reis'!D24</f>
         <v>0</v>
@@ -3324,29 +3327,83 @@
     </row>
   </sheetData>
   <mergeCells count="124">
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B94:D94"/>
     <mergeCell ref="B113:D113"/>
     <mergeCell ref="I5:L5"/>
     <mergeCell ref="B107:D107"/>
@@ -3371,83 +3428,29 @@
     <mergeCell ref="C83:D83"/>
     <mergeCell ref="F83:G83"/>
     <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B2:H3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3455,55 +3458,55 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="D4" s="27" t="s">
+      <c r="B4" s="25"/>
+      <c r="D4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3517,12 +3520,12 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="32"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3533,52 +3536,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="32"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="32"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="27"/>
+      <c r="B8" s="25"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="32"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="32"/>
+      <c r="B9" s="24"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="32"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="37" t="s">
+      <c r="G9" s="24"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -3590,172 +3593,172 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="33" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>0</v>
@@ -3764,24 +3767,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="33" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>0</v>
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="33" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
       <c r="D35" s="10" t="e">
         <f>D33/D34</f>
         <v>#DIV/0!</v>
@@ -3790,23 +3793,23 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="33" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="33" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-10</v>
@@ -3814,6 +3817,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:B4"/>
@@ -3826,30 +3853,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
@@ -3867,55 +3870,55 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="D4" s="27" t="s">
+      <c r="B4" s="25"/>
+      <c r="D4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3929,12 +3932,12 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="32"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3945,52 +3948,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="32"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="32"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="27"/>
+      <c r="B8" s="25"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="32"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="32"/>
+      <c r="B9" s="24"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="32"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="37" t="s">
+      <c r="G9" s="24"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -4002,172 +4005,172 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="33" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>0</v>
@@ -4176,24 +4179,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="33" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>0</v>
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="33" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
       <c r="D35" s="10" t="e">
         <f>D33/D34</f>
         <v>#DIV/0!</v>
@@ -4202,23 +4205,23 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="33" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="33" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-10</v>
@@ -4226,6 +4229,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:B4"/>
@@ -4238,30 +4265,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
@@ -4279,55 +4282,55 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="D4" s="27" t="s">
+      <c r="B4" s="25"/>
+      <c r="D4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -4341,12 +4344,12 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="32"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4357,52 +4360,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="32"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="32"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="27"/>
+      <c r="B8" s="25"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="32"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="32"/>
+      <c r="B9" s="24"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="32"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="37" t="s">
+      <c r="G9" s="24"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -4414,15 +4417,15 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="38"/>
       <c r="B13" s="39"/>
       <c r="C13" s="40"/>
@@ -4430,7 +4433,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="38"/>
       <c r="B14" s="39"/>
       <c r="C14" s="40"/>
@@ -4438,148 +4441,148 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="33" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>0</v>
@@ -4588,24 +4591,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="33" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>0</v>
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="33" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
       <c r="D35" s="10" t="e">
         <f>D33/D34</f>
         <v>#DIV/0!</v>
@@ -4614,23 +4617,23 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="33" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="33" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-10</v>
@@ -4638,6 +4641,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:B4"/>
@@ -4650,30 +4677,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
@@ -4691,55 +4694,55 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="D4" s="27" t="s">
+      <c r="B4" s="25"/>
+      <c r="D4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -4753,12 +4756,12 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="32"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4769,52 +4772,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="32"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="32"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="27"/>
+      <c r="B8" s="25"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="32"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="32"/>
+      <c r="B9" s="24"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="32"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="37" t="s">
+      <c r="G9" s="24"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -4826,172 +4829,172 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="33" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>0</v>
@@ -5000,24 +5003,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="33" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>0</v>
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="33" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
       <c r="D35" s="10" t="e">
         <f>D33/D34</f>
         <v>#DIV/0!</v>
@@ -5026,23 +5029,23 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="33" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="33" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-10</v>
@@ -5050,6 +5053,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:B4"/>
@@ -5062,30 +5089,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
@@ -5103,55 +5106,55 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="D4" s="27" t="s">
+      <c r="B4" s="25"/>
+      <c r="D4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -5165,12 +5168,12 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="32"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -5181,52 +5184,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="32"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="32"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="27"/>
+      <c r="B8" s="25"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="32"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="32"/>
+      <c r="B9" s="24"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="32"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="37" t="s">
+      <c r="G9" s="24"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -5238,230 +5241,270 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="6">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="33" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="33" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="33" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="10" t="e">
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="10">
         <f>D33/D34</f>
-        <v>#DIV/0!</v>
+        <v>2.75</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="33" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="33" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
       <c r="D37">
         <f>D33-10</f>
-        <v>-10</v>
+        <v>-4.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:B4"/>
@@ -5474,30 +5517,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
@@ -5515,55 +5534,55 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="D4" s="27" t="s">
+      <c r="B4" s="25"/>
+      <c r="D4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -5577,12 +5596,12 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="32"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -5593,52 +5612,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="32"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="32"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="27"/>
+      <c r="B8" s="25"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="32"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="32"/>
+      <c r="B9" s="24"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="32"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="37" t="s">
+      <c r="G9" s="24"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -5650,7 +5669,7 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
         <v>52</v>
       </c>
@@ -5666,7 +5685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="s">
         <v>53</v>
       </c>
@@ -5682,7 +5701,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="41" t="s">
         <v>54</v>
       </c>
@@ -5698,7 +5717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="41" t="s">
         <v>55</v>
       </c>
@@ -5714,7 +5733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="42"/>
       <c r="C16" s="43"/>
@@ -5722,7 +5741,7 @@
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="41"/>
       <c r="B17" s="42"/>
       <c r="C17" s="43"/>
@@ -5730,124 +5749,124 @@
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="33" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>4.5</v>
@@ -5856,24 +5875,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="33" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>4</v>
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="33" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>1.125</v>
@@ -5882,23 +5901,23 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="33" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="33" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-5.5</v>
@@ -5906,6 +5925,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:B4"/>
@@ -5918,30 +5961,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">

--- a/Organisation/Aufwandserfassung/Aufwandserfassung_Wochenbericht_KW11.xlsx
+++ b/Organisation/Aufwandserfassung/Aufwandserfassung_Wochenbericht_KW11.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\studium\schluesselqual\swe\METLAB-News\METLAB_News\Organisation\Aufwandserfassung\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12795" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12795" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamt" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
     <sheet name="Erik Hennig" sheetId="3" r:id="rId6"/>
     <sheet name="Tobias Reis" sheetId="2" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="58">
   <si>
     <t>Wöchentlicher Aufwandsbericht</t>
   </si>
@@ -202,11 +197,14 @@
   <si>
     <t>Meetings</t>
   </si>
+  <si>
+    <t>Analyse Echobot.de</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -385,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -432,21 +430,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -454,6 +441,26 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -463,12 +470,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -941,14 +942,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O113"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A4" workbookViewId="0">
@@ -972,24 +973,24 @@
   <sheetData>
     <row r="1" spans="2:15" ht="11.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
+      <c r="B2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
@@ -1019,12 +1020,12 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
       <c r="M5" s="16"/>
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
@@ -1039,11 +1040,11 @@
       <c r="G6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="24" t="str">
+      <c r="I6" s="33" t="str">
         <f>C13</f>
         <v>Erik Hennig</v>
       </c>
-      <c r="J6" s="24"/>
+      <c r="J6" s="33"/>
       <c r="K6" s="16">
         <v>14.5</v>
       </c>
@@ -1072,11 +1073,11 @@
       <c r="G7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="24" t="str">
+      <c r="I7" s="33" t="str">
         <f>C32</f>
         <v>Marco Rempfer</v>
       </c>
-      <c r="J7" s="24"/>
+      <c r="J7" s="33"/>
       <c r="K7" s="16">
         <v>9</v>
       </c>
@@ -1094,11 +1095,11 @@
       <c r="G8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="24" t="str">
+      <c r="I8" s="33" t="str">
         <f>C49</f>
         <v>Achim Groß</v>
       </c>
-      <c r="J8" s="24"/>
+      <c r="J8" s="33"/>
       <c r="K8" s="16">
         <v>9</v>
       </c>
@@ -1110,21 +1111,21 @@
       <c r="O8" s="16"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="25"/>
+      <c r="C9" s="28"/>
       <c r="F9" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="24" t="str">
+      <c r="I9" s="33" t="str">
         <f>C66</f>
         <v>Benny Gerlach</v>
       </c>
-      <c r="J9" s="24"/>
+      <c r="J9" s="33"/>
       <c r="K9" s="16">
         <v>12</v>
       </c>
@@ -1148,11 +1149,11 @@
       <c r="G10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="24" t="str">
+      <c r="I10" s="33" t="str">
         <f>C83</f>
         <v>Lukas Niedergriese</v>
       </c>
-      <c r="J10" s="24"/>
+      <c r="J10" s="33"/>
       <c r="K10" s="16">
         <v>9</v>
       </c>
@@ -1173,11 +1174,11 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="I11" s="24" t="str">
+      <c r="I11" s="33" t="str">
         <f>C99</f>
         <v>Tobias Reis</v>
       </c>
-      <c r="J11" s="24"/>
+      <c r="J11" s="33"/>
       <c r="K11" s="16">
         <v>14</v>
       </c>
@@ -1189,10 +1190,10 @@
       <c r="O11" s="16"/>
     </row>
     <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="24"/>
+      <c r="J12" s="33"/>
       <c r="K12" s="16">
         <f>SUM(K6:K11)</f>
         <v>67.5</v>
@@ -1233,11 +1234,11 @@
       <c r="O13" s="16"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="19" t="s">
         <v>18</v>
       </c>
@@ -1256,12 +1257,12 @@
       <c r="O14" s="16"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="26" t="str">
+      <c r="B15" s="25" t="str">
         <f>'Erik Hennig'!A12</f>
         <v>Meetings</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="15" t="str">
         <f>'Erik Hennig'!D12</f>
         <v>c</v>
@@ -1274,23 +1275,23 @@
         <f>'Erik Hennig'!F12</f>
         <v>2.5</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="I15" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
       <c r="M15" s="16"/>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="26" t="str">
+      <c r="B16" s="25" t="str">
         <f>'Erik Hennig'!A13</f>
         <v>Recherche</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="15" t="str">
         <f>'Erik Hennig'!D13</f>
         <v>d</v>
@@ -1303,11 +1304,11 @@
         <f>'Erik Hennig'!F13</f>
         <v>3</v>
       </c>
-      <c r="I16" s="24" t="str">
+      <c r="I16" s="33" t="str">
         <f>C13</f>
         <v>Erik Hennig</v>
       </c>
-      <c r="J16" s="24"/>
+      <c r="J16" s="33"/>
       <c r="K16" s="16">
         <f>SUM(G15:G29)</f>
         <v>5.5</v>
@@ -1324,12 +1325,12 @@
       <c r="O16" s="16"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="26">
+      <c r="B17" s="25">
         <f>'Erik Hennig'!A14</f>
         <v>0</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="15">
         <f>'Erik Hennig'!D14</f>
         <v>0</v>
@@ -1342,11 +1343,11 @@
         <f>'Erik Hennig'!F14</f>
         <v>0</v>
       </c>
-      <c r="I17" s="24" t="str">
+      <c r="I17" s="33" t="str">
         <f>C32</f>
         <v>Marco Rempfer</v>
       </c>
-      <c r="J17" s="24"/>
+      <c r="J17" s="33"/>
       <c r="K17" s="16">
         <f>SUM(G34:G46)</f>
         <v>0</v>
@@ -1359,12 +1360,12 @@
       <c r="O17" s="16"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="26">
+      <c r="B18" s="25">
         <f>'Erik Hennig'!A15</f>
         <v>0</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="15">
         <f>'Erik Hennig'!D15</f>
         <v>0</v>
@@ -1377,11 +1378,11 @@
         <f>'Erik Hennig'!F15</f>
         <v>0</v>
       </c>
-      <c r="I18" s="24" t="str">
+      <c r="I18" s="33" t="str">
         <f>C49</f>
         <v>Achim Groß</v>
       </c>
-      <c r="J18" s="24"/>
+      <c r="J18" s="33"/>
       <c r="K18" s="16">
         <f>SUM(G51:G63)</f>
         <v>0</v>
@@ -1394,12 +1395,12 @@
       <c r="O18" s="16"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="26">
+      <c r="B19" s="25">
         <f>'Erik Hennig'!A16</f>
         <v>0</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
       <c r="E19" s="15">
         <f>'Erik Hennig'!D16</f>
         <v>0</v>
@@ -1412,14 +1413,14 @@
         <f>'Erik Hennig'!F16</f>
         <v>0</v>
       </c>
-      <c r="I19" s="24" t="str">
+      <c r="I19" s="33" t="str">
         <f>C66</f>
         <v>Benny Gerlach</v>
       </c>
-      <c r="J19" s="24"/>
+      <c r="J19" s="33"/>
       <c r="K19" s="16">
         <f>SUM(G68:G80)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L19" s="16" t="s">
         <v>26</v>
@@ -1429,12 +1430,12 @@
       <c r="O19" s="16"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="26">
+      <c r="B20" s="25">
         <f>'Erik Hennig'!A17</f>
         <v>0</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="15">
         <f>'Erik Hennig'!D17</f>
         <v>0</v>
@@ -1447,11 +1448,11 @@
         <f>'Erik Hennig'!F17</f>
         <v>0</v>
       </c>
-      <c r="I20" s="24" t="str">
+      <c r="I20" s="33" t="str">
         <f>C83</f>
         <v>Lukas Niedergriese</v>
       </c>
-      <c r="J20" s="24"/>
+      <c r="J20" s="33"/>
       <c r="K20" s="16">
         <f>SUM(G85:G97)</f>
         <v>0</v>
@@ -1464,12 +1465,12 @@
       <c r="O20" s="16"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="26">
+      <c r="B21" s="25">
         <f>'Erik Hennig'!A18</f>
         <v>0</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="15">
         <f>'Erik Hennig'!D18</f>
         <v>0</v>
@@ -1482,11 +1483,11 @@
         <f>'Erik Hennig'!F18</f>
         <v>0</v>
       </c>
-      <c r="I21" s="24" t="str">
+      <c r="I21" s="33" t="str">
         <f>C99</f>
         <v>Tobias Reis</v>
       </c>
-      <c r="J21" s="24"/>
+      <c r="J21" s="33"/>
       <c r="K21" s="16">
         <f>SUM(G101:G113)</f>
         <v>4.5</v>
@@ -1499,12 +1500,12 @@
       <c r="O21" s="16"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="26">
+      <c r="B22" s="25">
         <f>'Erik Hennig'!A19</f>
         <v>0</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="15">
         <f>'Erik Hennig'!D19</f>
         <v>0</v>
@@ -1517,13 +1518,13 @@
         <f>'Erik Hennig'!F19</f>
         <v>0</v>
       </c>
-      <c r="I22" s="24" t="s">
+      <c r="I22" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="24"/>
+      <c r="J22" s="33"/>
       <c r="K22" s="16">
         <f>SUM(K16:K21)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L22" s="16" t="s">
         <v>26</v>
@@ -1537,12 +1538,12 @@
       <c r="O22" s="16"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="26">
+      <c r="B23" s="25">
         <f>'Erik Hennig'!A20</f>
         <v>0</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="15">
         <f>'Erik Hennig'!D20</f>
         <v>0</v>
@@ -1564,12 +1565,12 @@
       <c r="O23" s="16"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="26">
+      <c r="B24" s="25">
         <f>'Erik Hennig'!A21</f>
         <v>0</v>
       </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="15">
         <f>'Erik Hennig'!D21</f>
         <v>0</v>
@@ -1591,12 +1592,12 @@
       <c r="O24" s="16"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="26">
+      <c r="B25" s="25">
         <f>'Erik Hennig'!A22</f>
         <v>0</v>
       </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="15">
         <f>'Erik Hennig'!D22</f>
         <v>0</v>
@@ -1609,23 +1610,23 @@
         <f>'Erik Hennig'!F22</f>
         <v>0</v>
       </c>
-      <c r="I25" s="25" t="s">
+      <c r="I25" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
       <c r="O25" s="16"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="26">
+      <c r="B26" s="25">
         <f>'Erik Hennig'!A23</f>
         <v>0</v>
       </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="15">
         <f>'Erik Hennig'!D23</f>
         <v>0</v>
@@ -1638,11 +1639,11 @@
         <f>'Erik Hennig'!F23</f>
         <v>0</v>
       </c>
-      <c r="I26" s="24" t="str">
+      <c r="I26" s="33" t="str">
         <f>C13</f>
         <v>Erik Hennig</v>
       </c>
-      <c r="J26" s="24"/>
+      <c r="J26" s="33"/>
       <c r="K26" s="16">
         <f t="shared" ref="K26:K32" si="0">K6+K16</f>
         <v>20</v>
@@ -1660,12 +1661,12 @@
       <c r="O26" s="16"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="26">
+      <c r="B27" s="25">
         <f>'Erik Hennig'!A24</f>
         <v>0</v>
       </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
       <c r="E27" s="15">
         <f>'Erik Hennig'!D24</f>
         <v>0</v>
@@ -1678,11 +1679,11 @@
         <f>'Erik Hennig'!F24</f>
         <v>0</v>
       </c>
-      <c r="I27" s="24" t="str">
+      <c r="I27" s="33" t="str">
         <f>C32</f>
         <v>Marco Rempfer</v>
       </c>
-      <c r="J27" s="24"/>
+      <c r="J27" s="33"/>
       <c r="K27" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1695,12 +1696,12 @@
       <c r="O27" s="16"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="26">
+      <c r="B28" s="25">
         <f>'Erik Hennig'!A25</f>
         <v>0</v>
       </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
       <c r="E28" s="15">
         <f>'Erik Hennig'!D25</f>
         <v>0</v>
@@ -1713,11 +1714,11 @@
         <f>'Erik Hennig'!F25</f>
         <v>0</v>
       </c>
-      <c r="I28" s="24" t="str">
+      <c r="I28" s="33" t="str">
         <f>C49</f>
         <v>Achim Groß</v>
       </c>
-      <c r="J28" s="24"/>
+      <c r="J28" s="33"/>
       <c r="K28" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1730,12 +1731,12 @@
       <c r="O28" s="16"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="26">
+      <c r="B29" s="25">
         <f>'Erik Hennig'!A26</f>
         <v>0</v>
       </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
       <c r="E29" s="15">
         <f>'Erik Hennig'!D26</f>
         <v>0</v>
@@ -1748,14 +1749,14 @@
         <f>'Erik Hennig'!F26</f>
         <v>0</v>
       </c>
-      <c r="I29" s="24" t="str">
+      <c r="I29" s="33" t="str">
         <f>C66</f>
         <v>Benny Gerlach</v>
       </c>
-      <c r="J29" s="24"/>
+      <c r="J29" s="33"/>
       <c r="K29" s="16">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L29" s="16" t="s">
         <v>26</v>
@@ -1765,11 +1766,11 @@
       <c r="O29" s="16"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="I30" s="24" t="str">
+      <c r="I30" s="33" t="str">
         <f>C83</f>
         <v>Lukas Niedergriese</v>
       </c>
-      <c r="J30" s="24"/>
+      <c r="J30" s="33"/>
       <c r="K30" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1782,11 +1783,11 @@
       <c r="O30" s="16"/>
     </row>
     <row r="31" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I31" s="24" t="str">
+      <c r="I31" s="33" t="str">
         <f>C99</f>
         <v>Tobias Reis</v>
       </c>
-      <c r="J31" s="24"/>
+      <c r="J31" s="33"/>
       <c r="K31" s="16">
         <f t="shared" si="0"/>
         <v>18.5</v>
@@ -1813,13 +1814,13 @@
         <v>40</v>
       </c>
       <c r="G32" s="30"/>
-      <c r="I32" s="24" t="s">
+      <c r="I32" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="J32" s="24"/>
+      <c r="J32" s="33"/>
       <c r="K32" s="16">
         <f t="shared" si="0"/>
-        <v>77.5</v>
+        <v>80.5</v>
       </c>
       <c r="L32" s="16" t="s">
         <v>26</v>
@@ -1834,11 +1835,11 @@
       <c r="O32" s="16"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
       <c r="E33" s="19" t="s">
         <v>18</v>
       </c>
@@ -1857,12 +1858,12 @@
       <c r="O33" s="16"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="26">
+      <c r="B34" s="25">
         <f>'Marco Rempfer'!A12</f>
         <v>0</v>
       </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
       <c r="E34" s="15">
         <f>'Marco Rempfer'!D12</f>
         <v>0</v>
@@ -1884,12 +1885,12 @@
       <c r="O34" s="16"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="26">
+      <c r="B35" s="25">
         <f>'Marco Rempfer'!A13</f>
         <v>0</v>
       </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
       <c r="E35" s="23">
         <f>'Marco Rempfer'!D13</f>
         <v>0</v>
@@ -1911,12 +1912,12 @@
       <c r="O35" s="16"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="26">
+      <c r="B36" s="25">
         <f>'Marco Rempfer'!A14</f>
         <v>0</v>
       </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
       <c r="E36" s="23">
         <f>'Marco Rempfer'!D14</f>
         <v>0</v>
@@ -1938,12 +1939,12 @@
       <c r="O36" s="16"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="26">
+      <c r="B37" s="25">
         <f>'Marco Rempfer'!A15</f>
         <v>0</v>
       </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
       <c r="E37" s="23">
         <f>'Marco Rempfer'!D15</f>
         <v>0</v>
@@ -1958,12 +1959,12 @@
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="26">
+      <c r="B38" s="25">
         <f>'Marco Rempfer'!A16</f>
         <v>0</v>
       </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
       <c r="E38" s="23">
         <f>'Marco Rempfer'!D16</f>
         <v>0</v>
@@ -1978,12 +1979,12 @@
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="26">
+      <c r="B39" s="25">
         <f>'Marco Rempfer'!A17</f>
         <v>0</v>
       </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
       <c r="E39" s="23">
         <f>'Marco Rempfer'!D17</f>
         <v>0</v>
@@ -1998,12 +1999,12 @@
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="26">
+      <c r="B40" s="25">
         <f>'Marco Rempfer'!A18</f>
         <v>0</v>
       </c>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
       <c r="E40" s="23">
         <f>'Marco Rempfer'!D18</f>
         <v>0</v>
@@ -2018,12 +2019,12 @@
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="26">
+      <c r="B41" s="25">
         <f>'Marco Rempfer'!A19</f>
         <v>0</v>
       </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
       <c r="E41" s="23">
         <f>'Marco Rempfer'!D19</f>
         <v>0</v>
@@ -2038,12 +2039,12 @@
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="26">
+      <c r="B42" s="25">
         <f>'Marco Rempfer'!A20</f>
         <v>0</v>
       </c>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
       <c r="E42" s="23">
         <f>'Marco Rempfer'!D20</f>
         <v>0</v>
@@ -2058,12 +2059,12 @@
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="26">
+      <c r="B43" s="25">
         <f>'Marco Rempfer'!A21</f>
         <v>0</v>
       </c>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
       <c r="E43" s="23">
         <f>'Marco Rempfer'!D21</f>
         <v>0</v>
@@ -2078,12 +2079,12 @@
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="26">
+      <c r="B44" s="25">
         <f>'Marco Rempfer'!A22</f>
         <v>0</v>
       </c>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
       <c r="E44" s="23">
         <f>'Marco Rempfer'!D22</f>
         <v>0</v>
@@ -2098,12 +2099,12 @@
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B45" s="26">
+      <c r="B45" s="25">
         <f>'Marco Rempfer'!A23</f>
         <v>0</v>
       </c>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
       <c r="E45" s="23">
         <f>'Marco Rempfer'!D23</f>
         <v>0</v>
@@ -2118,12 +2119,12 @@
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="26">
+      <c r="B46" s="25">
         <f>'Marco Rempfer'!A24</f>
         <v>0</v>
       </c>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
       <c r="E46" s="23">
         <f>'Marco Rempfer'!D24</f>
         <v>0</v>
@@ -2163,11 +2164,11 @@
       <c r="G49" s="30"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="31" t="s">
+      <c r="B50" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
       <c r="E50" s="19" t="s">
         <v>18</v>
       </c>
@@ -2179,12 +2180,12 @@
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="26">
+      <c r="B51" s="25">
         <f>'Achim Groß'!A12</f>
         <v>0</v>
       </c>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
       <c r="E51" s="20">
         <f>'Achim Groß'!D12</f>
         <v>0</v>
@@ -2199,12 +2200,12 @@
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="26">
+      <c r="B52" s="25">
         <f>'Achim Groß'!A13</f>
         <v>0</v>
       </c>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
       <c r="E52" s="21">
         <f>'Achim Groß'!D13</f>
         <v>0</v>
@@ -2219,12 +2220,12 @@
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="26">
+      <c r="B53" s="25">
         <f>'Achim Groß'!A14</f>
         <v>0</v>
       </c>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
       <c r="E53" s="21">
         <f>'Achim Groß'!D14</f>
         <v>0</v>
@@ -2239,12 +2240,12 @@
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="26">
+      <c r="B54" s="25">
         <f>'Achim Groß'!A15</f>
         <v>0</v>
       </c>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
       <c r="E54" s="21">
         <f>'Achim Groß'!D15</f>
         <v>0</v>
@@ -2259,12 +2260,12 @@
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="26">
+      <c r="B55" s="25">
         <f>'Achim Groß'!A16</f>
         <v>0</v>
       </c>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
       <c r="E55" s="21">
         <f>'Achim Groß'!D16</f>
         <v>0</v>
@@ -2279,12 +2280,12 @@
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="26">
+      <c r="B56" s="25">
         <f>'Achim Groß'!A17</f>
         <v>0</v>
       </c>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
       <c r="E56" s="21">
         <f>'Achim Groß'!D17</f>
         <v>0</v>
@@ -2299,12 +2300,12 @@
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="26">
+      <c r="B57" s="25">
         <f>'Achim Groß'!A18</f>
         <v>0</v>
       </c>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
       <c r="E57" s="21">
         <f>'Achim Groß'!D18</f>
         <v>0</v>
@@ -2319,12 +2320,12 @@
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="26">
+      <c r="B58" s="25">
         <f>'Achim Groß'!A19</f>
         <v>0</v>
       </c>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
       <c r="E58" s="21">
         <f>'Achim Groß'!D19</f>
         <v>0</v>
@@ -2339,12 +2340,12 @@
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="26">
+      <c r="B59" s="25">
         <f>'Achim Groß'!A20</f>
         <v>0</v>
       </c>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
       <c r="E59" s="21">
         <f>'Achim Groß'!D20</f>
         <v>0</v>
@@ -2359,12 +2360,12 @@
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="26">
+      <c r="B60" s="25">
         <f>'Achim Groß'!A21</f>
         <v>0</v>
       </c>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
       <c r="E60" s="21">
         <f>'Achim Groß'!D21</f>
         <v>0</v>
@@ -2379,12 +2380,12 @@
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="26">
+      <c r="B61" s="25">
         <f>'Achim Groß'!A22</f>
         <v>0</v>
       </c>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
       <c r="E61" s="21">
         <f>'Achim Groß'!D22</f>
         <v>0</v>
@@ -2399,12 +2400,12 @@
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="26">
+      <c r="B62" s="25">
         <f>'Achim Groß'!A23</f>
         <v>0</v>
       </c>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
       <c r="E62" s="21">
         <f>'Achim Groß'!D23</f>
         <v>0</v>
@@ -2419,12 +2420,12 @@
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="26">
+      <c r="B63" s="25">
         <f>'Achim Groß'!A24</f>
         <v>0</v>
       </c>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
       <c r="E63" s="21">
         <f>'Achim Groß'!D24</f>
         <v>0</v>
@@ -2464,11 +2465,11 @@
       <c r="G66" s="30"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="31" t="s">
+      <c r="B67" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
       <c r="E67" s="19" t="s">
         <v>18</v>
       </c>
@@ -2480,52 +2481,52 @@
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="26">
+      <c r="B68" s="25" t="str">
         <f>'Benny Gerlach'!A12</f>
-        <v>0</v>
-      </c>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="21">
+        <v>Meetings</v>
+      </c>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="21" t="str">
         <f>'Benny Gerlach'!D12</f>
-        <v>0</v>
-      </c>
-      <c r="F68" s="21">
+        <v>c</v>
+      </c>
+      <c r="F68" s="21" t="str">
         <f>'Benny Gerlach'!E12</f>
-        <v>0</v>
+        <v>c</v>
       </c>
       <c r="G68" s="21">
         <f>'Benny Gerlach'!F12</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="26">
+      <c r="B69" s="25" t="str">
         <f>'Benny Gerlach'!A13</f>
-        <v>0</v>
-      </c>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="21">
+        <v>Analyse Echobot.de</v>
+      </c>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="21" t="str">
         <f>'Benny Gerlach'!D13</f>
-        <v>0</v>
-      </c>
-      <c r="F69" s="21">
+        <v>c</v>
+      </c>
+      <c r="F69" s="21" t="str">
         <f>'Benny Gerlach'!E13</f>
-        <v>0</v>
+        <v>b</v>
       </c>
       <c r="G69" s="21">
         <f>'Benny Gerlach'!F13</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B70" s="26">
+      <c r="B70" s="25">
         <f>'Benny Gerlach'!A14</f>
         <v>0</v>
       </c>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
       <c r="E70" s="21">
         <f>'Benny Gerlach'!D14</f>
         <v>0</v>
@@ -2540,12 +2541,12 @@
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71" s="26">
+      <c r="B71" s="25">
         <f>'Benny Gerlach'!A15</f>
         <v>0</v>
       </c>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
       <c r="E71" s="21">
         <f>'Benny Gerlach'!D15</f>
         <v>0</v>
@@ -2560,12 +2561,12 @@
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B72" s="26">
+      <c r="B72" s="25">
         <f>'Benny Gerlach'!A16</f>
         <v>0</v>
       </c>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
       <c r="E72" s="21">
         <f>'Benny Gerlach'!D16</f>
         <v>0</v>
@@ -2580,12 +2581,12 @@
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B73" s="26">
+      <c r="B73" s="25">
         <f>'Benny Gerlach'!A17</f>
         <v>0</v>
       </c>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
       <c r="E73" s="21">
         <f>'Benny Gerlach'!D17</f>
         <v>0</v>
@@ -2600,12 +2601,12 @@
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="26">
+      <c r="B74" s="25">
         <f>'Benny Gerlach'!A18</f>
         <v>0</v>
       </c>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
       <c r="E74" s="21">
         <f>'Benny Gerlach'!D18</f>
         <v>0</v>
@@ -2620,12 +2621,12 @@
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="26">
+      <c r="B75" s="25">
         <f>'Benny Gerlach'!A19</f>
         <v>0</v>
       </c>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
       <c r="E75" s="21">
         <f>'Benny Gerlach'!D19</f>
         <v>0</v>
@@ -2640,12 +2641,12 @@
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B76" s="26">
+      <c r="B76" s="25">
         <f>'Benny Gerlach'!A20</f>
         <v>0</v>
       </c>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
       <c r="E76" s="21">
         <f>'Benny Gerlach'!D20</f>
         <v>0</v>
@@ -2660,12 +2661,12 @@
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="26">
+      <c r="B77" s="25">
         <f>'Benny Gerlach'!A21</f>
         <v>0</v>
       </c>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="25"/>
       <c r="E77" s="21">
         <f>'Benny Gerlach'!D21</f>
         <v>0</v>
@@ -2680,12 +2681,12 @@
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="26">
+      <c r="B78" s="25">
         <f>'Benny Gerlach'!A22</f>
         <v>0</v>
       </c>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
       <c r="E78" s="21">
         <f>'Benny Gerlach'!D22</f>
         <v>0</v>
@@ -2700,12 +2701,12 @@
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="26">
+      <c r="B79" s="25">
         <f>'Benny Gerlach'!A23</f>
         <v>0</v>
       </c>
-      <c r="C79" s="26"/>
-      <c r="D79" s="26"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25"/>
       <c r="E79" s="21">
         <f>'Benny Gerlach'!D23</f>
         <v>0</v>
@@ -2720,12 +2721,12 @@
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="26">
+      <c r="B80" s="25">
         <f>'Benny Gerlach'!A24</f>
         <v>0</v>
       </c>
-      <c r="C80" s="26"/>
-      <c r="D80" s="26"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="25"/>
       <c r="E80" s="21">
         <f>'Benny Gerlach'!D24</f>
         <v>0</v>
@@ -2757,11 +2758,11 @@
       <c r="G83" s="30"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B84" s="31" t="s">
+      <c r="B84" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C84" s="31"/>
-      <c r="D84" s="31"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
       <c r="E84" s="19" t="s">
         <v>18</v>
       </c>
@@ -2773,12 +2774,12 @@
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B85" s="27">
+      <c r="B85" s="31">
         <f>'Lukas Niedergriese'!A12</f>
         <v>0</v>
       </c>
-      <c r="C85" s="28"/>
-      <c r="D85" s="28"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="32"/>
       <c r="E85" s="6">
         <f>'Lukas Niedergriese'!D12</f>
         <v>0</v>
@@ -2793,12 +2794,12 @@
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B86" s="27">
+      <c r="B86" s="31">
         <f>'Lukas Niedergriese'!A13</f>
         <v>0</v>
       </c>
-      <c r="C86" s="28"/>
-      <c r="D86" s="28"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32"/>
       <c r="E86" s="6">
         <f>'Lukas Niedergriese'!D13</f>
         <v>0</v>
@@ -2813,12 +2814,12 @@
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B87" s="27">
+      <c r="B87" s="31">
         <f>'Lukas Niedergriese'!A14</f>
         <v>0</v>
       </c>
-      <c r="C87" s="28"/>
-      <c r="D87" s="28"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="32"/>
       <c r="E87" s="6">
         <f>'Lukas Niedergriese'!D14</f>
         <v>0</v>
@@ -2833,12 +2834,12 @@
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B88" s="27">
+      <c r="B88" s="31">
         <f>'Lukas Niedergriese'!A15</f>
         <v>0</v>
       </c>
-      <c r="C88" s="28"/>
-      <c r="D88" s="28"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="32"/>
       <c r="E88" s="6">
         <f>'Lukas Niedergriese'!D15</f>
         <v>0</v>
@@ -2853,12 +2854,12 @@
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B89" s="27">
+      <c r="B89" s="31">
         <f>'Lukas Niedergriese'!A16</f>
         <v>0</v>
       </c>
-      <c r="C89" s="28"/>
-      <c r="D89" s="28"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="32"/>
       <c r="E89" s="6">
         <f>'Lukas Niedergriese'!D16</f>
         <v>0</v>
@@ -2873,12 +2874,12 @@
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B90" s="27">
+      <c r="B90" s="31">
         <f>'Lukas Niedergriese'!A17</f>
         <v>0</v>
       </c>
-      <c r="C90" s="28"/>
-      <c r="D90" s="28"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="32"/>
       <c r="E90" s="6">
         <f>'Lukas Niedergriese'!D17</f>
         <v>0</v>
@@ -2893,12 +2894,12 @@
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B91" s="27">
+      <c r="B91" s="31">
         <f>'Lukas Niedergriese'!A18</f>
         <v>0</v>
       </c>
-      <c r="C91" s="28"/>
-      <c r="D91" s="28"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="32"/>
       <c r="E91" s="6">
         <f>'Lukas Niedergriese'!D18</f>
         <v>0</v>
@@ -2913,12 +2914,12 @@
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B92" s="27">
+      <c r="B92" s="31">
         <f>'Lukas Niedergriese'!A19</f>
         <v>0</v>
       </c>
-      <c r="C92" s="28"/>
-      <c r="D92" s="28"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="32"/>
       <c r="E92" s="6">
         <f>'Lukas Niedergriese'!D19</f>
         <v>0</v>
@@ -2933,12 +2934,12 @@
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B93" s="27">
+      <c r="B93" s="31">
         <f>'Lukas Niedergriese'!A20</f>
         <v>0</v>
       </c>
-      <c r="C93" s="28"/>
-      <c r="D93" s="28"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="32"/>
       <c r="E93" s="6">
         <f>'Lukas Niedergriese'!D20</f>
         <v>0</v>
@@ -2953,12 +2954,12 @@
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B94" s="27">
+      <c r="B94" s="31">
         <f>'Lukas Niedergriese'!A21</f>
         <v>0</v>
       </c>
-      <c r="C94" s="28"/>
-      <c r="D94" s="28"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="32"/>
       <c r="E94" s="6">
         <f>'Lukas Niedergriese'!D21</f>
         <v>0</v>
@@ -2973,12 +2974,12 @@
       </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B95" s="27">
+      <c r="B95" s="31">
         <f>'Lukas Niedergriese'!A22</f>
         <v>0</v>
       </c>
-      <c r="C95" s="28"/>
-      <c r="D95" s="28"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="32"/>
       <c r="E95" s="6">
         <f>'Lukas Niedergriese'!D22</f>
         <v>0</v>
@@ -2993,12 +2994,12 @@
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B96" s="27">
+      <c r="B96" s="31">
         <f>'Lukas Niedergriese'!A23</f>
         <v>0</v>
       </c>
-      <c r="C96" s="28"/>
-      <c r="D96" s="28"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="32"/>
       <c r="E96" s="6">
         <f>'Lukas Niedergriese'!D23</f>
         <v>0</v>
@@ -3013,12 +3014,12 @@
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B97" s="27">
+      <c r="B97" s="31">
         <f>'Lukas Niedergriese'!A24</f>
         <v>0</v>
       </c>
-      <c r="C97" s="28"/>
-      <c r="D97" s="28"/>
+      <c r="C97" s="32"/>
+      <c r="D97" s="32"/>
       <c r="E97" s="6">
         <f>'Lukas Niedergriese'!D24</f>
         <v>0</v>
@@ -3050,11 +3051,11 @@
       <c r="G99" s="30"/>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B100" s="31" t="s">
+      <c r="B100" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C100" s="31"/>
-      <c r="D100" s="31"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="26"/>
       <c r="E100" s="19" t="s">
         <v>18</v>
       </c>
@@ -3066,12 +3067,12 @@
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B101" s="26" t="str">
+      <c r="B101" s="25" t="str">
         <f>'Tobias Reis'!A12</f>
         <v>Meeting / Interview</v>
       </c>
-      <c r="C101" s="26"/>
-      <c r="D101" s="26"/>
+      <c r="C101" s="25"/>
+      <c r="D101" s="25"/>
       <c r="E101" s="15" t="str">
         <f>'Tobias Reis'!D12</f>
         <v>d</v>
@@ -3086,12 +3087,12 @@
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B102" s="26" t="str">
+      <c r="B102" s="25" t="str">
         <f>'Tobias Reis'!A13</f>
         <v>Protokoll schreiben / Projekt Dokumentieren</v>
       </c>
-      <c r="C102" s="26"/>
-      <c r="D102" s="26"/>
+      <c r="C102" s="25"/>
+      <c r="D102" s="25"/>
       <c r="E102" s="15" t="str">
         <f>'Tobias Reis'!D13</f>
         <v>c</v>
@@ -3106,12 +3107,12 @@
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B103" s="26" t="str">
+      <c r="B103" s="25" t="str">
         <f>'Tobias Reis'!A14</f>
         <v>Recherche über unser Projekt</v>
       </c>
-      <c r="C103" s="26"/>
-      <c r="D103" s="26"/>
+      <c r="C103" s="25"/>
+      <c r="D103" s="25"/>
       <c r="E103" s="15" t="str">
         <f>'Tobias Reis'!D14</f>
         <v>c</v>
@@ -3126,12 +3127,12 @@
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B104" s="26" t="str">
+      <c r="B104" s="25" t="str">
         <f>'Tobias Reis'!A15</f>
         <v>Grundgerüst für Recherchebericht erstellt</v>
       </c>
-      <c r="C104" s="26"/>
-      <c r="D104" s="26"/>
+      <c r="C104" s="25"/>
+      <c r="D104" s="25"/>
       <c r="E104" s="15" t="str">
         <f>'Tobias Reis'!D15</f>
         <v>c</v>
@@ -3146,12 +3147,12 @@
       </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B105" s="26">
+      <c r="B105" s="25">
         <f>'Tobias Reis'!A16</f>
         <v>0</v>
       </c>
-      <c r="C105" s="26"/>
-      <c r="D105" s="26"/>
+      <c r="C105" s="25"/>
+      <c r="D105" s="25"/>
       <c r="E105" s="15">
         <f>'Tobias Reis'!D16</f>
         <v>0</v>
@@ -3166,12 +3167,12 @@
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B106" s="26">
+      <c r="B106" s="25">
         <f>'Tobias Reis'!A17</f>
         <v>0</v>
       </c>
-      <c r="C106" s="26"/>
-      <c r="D106" s="26"/>
+      <c r="C106" s="25"/>
+      <c r="D106" s="25"/>
       <c r="E106" s="15">
         <f>'Tobias Reis'!D17</f>
         <v>0</v>
@@ -3186,12 +3187,12 @@
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B107" s="26">
+      <c r="B107" s="25">
         <f>'Tobias Reis'!A18</f>
         <v>0</v>
       </c>
-      <c r="C107" s="26"/>
-      <c r="D107" s="26"/>
+      <c r="C107" s="25"/>
+      <c r="D107" s="25"/>
       <c r="E107" s="15">
         <f>'Tobias Reis'!D18</f>
         <v>0</v>
@@ -3206,12 +3207,12 @@
       </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B108" s="26">
+      <c r="B108" s="25">
         <f>'Tobias Reis'!A19</f>
         <v>0</v>
       </c>
-      <c r="C108" s="26"/>
-      <c r="D108" s="26"/>
+      <c r="C108" s="25"/>
+      <c r="D108" s="25"/>
       <c r="E108" s="15">
         <f>'Tobias Reis'!D19</f>
         <v>0</v>
@@ -3226,12 +3227,12 @@
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B109" s="26">
+      <c r="B109" s="25">
         <f>'Tobias Reis'!A20</f>
         <v>0</v>
       </c>
-      <c r="C109" s="26"/>
-      <c r="D109" s="26"/>
+      <c r="C109" s="25"/>
+      <c r="D109" s="25"/>
       <c r="E109" s="15">
         <f>'Tobias Reis'!D20</f>
         <v>0</v>
@@ -3246,12 +3247,12 @@
       </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B110" s="26">
+      <c r="B110" s="25">
         <f>'Tobias Reis'!A21</f>
         <v>0</v>
       </c>
-      <c r="C110" s="26"/>
-      <c r="D110" s="26"/>
+      <c r="C110" s="25"/>
+      <c r="D110" s="25"/>
       <c r="E110" s="15">
         <f>'Tobias Reis'!D21</f>
         <v>0</v>
@@ -3266,12 +3267,12 @@
       </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B111" s="26">
+      <c r="B111" s="25">
         <f>'Tobias Reis'!A22</f>
         <v>0</v>
       </c>
-      <c r="C111" s="26"/>
-      <c r="D111" s="26"/>
+      <c r="C111" s="25"/>
+      <c r="D111" s="25"/>
       <c r="E111" s="15">
         <f>'Tobias Reis'!D22</f>
         <v>0</v>
@@ -3286,12 +3287,12 @@
       </c>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B112" s="26">
+      <c r="B112" s="25">
         <f>'Tobias Reis'!A23</f>
         <v>0</v>
       </c>
-      <c r="C112" s="26"/>
-      <c r="D112" s="26"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="25"/>
       <c r="E112" s="15">
         <f>'Tobias Reis'!D23</f>
         <v>0</v>
@@ -3306,12 +3307,12 @@
       </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B113" s="26">
+      <c r="B113" s="25">
         <f>'Tobias Reis'!A24</f>
         <v>0</v>
       </c>
-      <c r="C113" s="26"/>
-      <c r="D113" s="26"/>
+      <c r="C113" s="25"/>
+      <c r="D113" s="25"/>
       <c r="E113" s="15">
         <f>'Tobias Reis'!D24</f>
         <v>0</v>
@@ -3327,26 +3328,86 @@
     </row>
   </sheetData>
   <mergeCells count="124">
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B2:H3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="B109:D109"/>
+    <mergeCell ref="B110:D110"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B71:D71"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B53:D53"/>
@@ -3371,86 +3432,26 @@
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="B109:D109"/>
-    <mergeCell ref="B110:D110"/>
-    <mergeCell ref="B111:D111"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B28:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3458,7 +3459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3476,35 +3477,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="D4" s="25" t="s">
+      <c r="B4" s="28"/>
+      <c r="D4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -3520,10 +3521,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="24"/>
+      <c r="G5" s="33"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -3536,52 +3537,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="24"/>
+      <c r="G6" s="33"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="24"/>
+      <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="28"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="24"/>
+      <c r="G8" s="33"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="24"/>
+      <c r="B9" s="33"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="24"/>
+      <c r="G9" s="33"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -3594,171 +3595,171 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>0</v>
@@ -3768,11 +3769,11 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>0</v>
@@ -3780,11 +3781,11 @@
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="10" t="e">
         <f>D33/D34</f>
         <v>#DIV/0!</v>
@@ -3794,22 +3795,22 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-10</v>
@@ -3817,6 +3818,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
@@ -3829,30 +3854,6 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
@@ -3870,7 +3871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3888,35 +3889,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="D4" s="25" t="s">
+      <c r="B4" s="28"/>
+      <c r="D4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -3932,10 +3933,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="24"/>
+      <c r="G5" s="33"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -3948,52 +3949,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="24"/>
+      <c r="G6" s="33"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="24"/>
+      <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="28"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="24"/>
+      <c r="G8" s="33"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="24"/>
+      <c r="B9" s="33"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="24"/>
+      <c r="G9" s="33"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -4006,171 +4007,171 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>0</v>
@@ -4180,11 +4181,11 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>0</v>
@@ -4192,11 +4193,11 @@
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="10" t="e">
         <f>D33/D34</f>
         <v>#DIV/0!</v>
@@ -4206,22 +4207,22 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-10</v>
@@ -4229,6 +4230,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
@@ -4241,30 +4266,6 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
@@ -4282,7 +4283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -4300,35 +4301,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="D4" s="25" t="s">
+      <c r="B4" s="28"/>
+      <c r="D4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -4344,10 +4345,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="24"/>
+      <c r="G5" s="33"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -4360,52 +4361,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="24"/>
+      <c r="G6" s="33"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="24"/>
+      <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="28"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="24"/>
+      <c r="G8" s="33"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="24"/>
+      <c r="B9" s="33"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="24"/>
+      <c r="G9" s="33"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -4418,171 +4419,171 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="40"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="41"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="40"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>0</v>
@@ -4592,11 +4593,11 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>0</v>
@@ -4604,11 +4605,11 @@
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="10" t="e">
         <f>D33/D34</f>
         <v>#DIV/0!</v>
@@ -4618,22 +4619,22 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-10</v>
@@ -4641,6 +4642,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
@@ -4653,30 +4678,6 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
@@ -4694,11 +4695,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4712,35 +4713,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="D4" s="25" t="s">
+      <c r="B4" s="28"/>
+      <c r="D4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -4756,10 +4757,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="24"/>
+      <c r="G5" s="33"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -4772,52 +4773,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="24"/>
+      <c r="G6" s="33"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="24"/>
+      <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="28"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="24"/>
+      <c r="G8" s="33"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="24"/>
+      <c r="B9" s="33"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="24"/>
+      <c r="G9" s="33"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -4830,229 +4831,269 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
+      <c r="A12" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="24">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
+      <c r="A13" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="21">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="10" t="e">
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="10">
         <f>D33/D34</f>
-        <v>#DIV/0!</v>
+        <v>1.5</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
       <c r="D37">
         <f>D33-10</f>
-        <v>-10</v>
+        <v>-7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
@@ -5065,30 +5106,6 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
@@ -5106,10 +5123,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -5124,35 +5141,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="D4" s="25" t="s">
+      <c r="B4" s="28"/>
+      <c r="D4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -5168,10 +5185,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="24"/>
+      <c r="G5" s="33"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -5184,52 +5201,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="24"/>
+      <c r="G6" s="33"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="24"/>
+      <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="28"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="24"/>
+      <c r="G8" s="33"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="24"/>
+      <c r="B9" s="33"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="24"/>
+      <c r="G9" s="33"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -5242,11 +5259,11 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
@@ -5258,11 +5275,11 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="14" t="s">
         <v>10</v>
       </c>
@@ -5274,155 +5291,155 @@
       </c>
     </row>
     <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>5.5</v>
@@ -5432,11 +5449,11 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>2</v>
@@ -5444,11 +5461,11 @@
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>2.75</v>
@@ -5458,22 +5475,22 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-4.5</v>
@@ -5481,6 +5498,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
@@ -5493,30 +5534,6 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
@@ -5534,7 +5551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5552,35 +5569,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="D4" s="25" t="s">
+      <c r="B4" s="28"/>
+      <c r="D4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -5596,10 +5613,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="24"/>
+      <c r="G5" s="33"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -5612,52 +5629,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="24"/>
+      <c r="G6" s="33"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="24"/>
+      <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="28"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="24"/>
+      <c r="G8" s="33"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="24"/>
+      <c r="B9" s="33"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="24"/>
+      <c r="G9" s="33"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -5670,11 +5687,11 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
       <c r="D12" s="22" t="s">
         <v>10</v>
       </c>
@@ -5686,11 +5703,11 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="22" t="s">
         <v>9</v>
       </c>
@@ -5702,11 +5719,11 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="22" t="s">
         <v>9</v>
       </c>
@@ -5718,11 +5735,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="22" t="s">
         <v>9</v>
       </c>
@@ -5734,139 +5751,139 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>4.5</v>
@@ -5876,11 +5893,11 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>4</v>
@@ -5888,11 +5905,11 @@
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>1.125</v>
@@ -5902,22 +5919,22 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-5.5</v>
@@ -5925,6 +5942,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
@@ -5937,30 +5978,6 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">

--- a/Organisation/Aufwandserfassung/Aufwandserfassung_Wochenbericht_KW11.xlsx
+++ b/Organisation/Aufwandserfassung/Aufwandserfassung_Wochenbericht_KW11.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\studium\schluesselqual\swe\METLAB-News\METLAB_News\Organisation\Aufwandserfassung\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12795" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12795" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamt" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
     <sheet name="Erik Hennig" sheetId="3" r:id="rId6"/>
     <sheet name="Tobias Reis" sheetId="2" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="60">
   <si>
     <t>Wöchentlicher Aufwandsbericht</t>
   </si>
@@ -200,11 +205,17 @@
   <si>
     <t>Analyse Echobot.de</t>
   </si>
+  <si>
+    <t>Code-Standard bewerten</t>
+  </si>
+  <si>
+    <t>Maven ausprobieren</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -433,7 +444,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -441,26 +466,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -470,6 +475,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -942,14 +953,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O113"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A4" workbookViewId="0">
@@ -973,24 +984,24 @@
   <sheetData>
     <row r="1" spans="2:15" ht="11.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="B2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
@@ -1020,12 +1031,12 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
       <c r="M5" s="16"/>
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
@@ -1040,11 +1051,11 @@
       <c r="G6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="33" t="str">
+      <c r="I6" s="25" t="str">
         <f>C13</f>
         <v>Erik Hennig</v>
       </c>
-      <c r="J6" s="33"/>
+      <c r="J6" s="25"/>
       <c r="K6" s="16">
         <v>14.5</v>
       </c>
@@ -1073,11 +1084,11 @@
       <c r="G7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="33" t="str">
+      <c r="I7" s="25" t="str">
         <f>C32</f>
         <v>Marco Rempfer</v>
       </c>
-      <c r="J7" s="33"/>
+      <c r="J7" s="25"/>
       <c r="K7" s="16">
         <v>9</v>
       </c>
@@ -1095,11 +1106,11 @@
       <c r="G8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="33" t="str">
+      <c r="I8" s="25" t="str">
         <f>C49</f>
         <v>Achim Groß</v>
       </c>
-      <c r="J8" s="33"/>
+      <c r="J8" s="25"/>
       <c r="K8" s="16">
         <v>9</v>
       </c>
@@ -1111,21 +1122,21 @@
       <c r="O8" s="16"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="28"/>
+      <c r="C9" s="26"/>
       <c r="F9" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="33" t="str">
+      <c r="I9" s="25" t="str">
         <f>C66</f>
         <v>Benny Gerlach</v>
       </c>
-      <c r="J9" s="33"/>
+      <c r="J9" s="25"/>
       <c r="K9" s="16">
         <v>12</v>
       </c>
@@ -1149,11 +1160,11 @@
       <c r="G10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="33" t="str">
+      <c r="I10" s="25" t="str">
         <f>C83</f>
         <v>Lukas Niedergriese</v>
       </c>
-      <c r="J10" s="33"/>
+      <c r="J10" s="25"/>
       <c r="K10" s="16">
         <v>9</v>
       </c>
@@ -1174,11 +1185,11 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="I11" s="33" t="str">
+      <c r="I11" s="25" t="str">
         <f>C99</f>
         <v>Tobias Reis</v>
       </c>
-      <c r="J11" s="33"/>
+      <c r="J11" s="25"/>
       <c r="K11" s="16">
         <v>14</v>
       </c>
@@ -1190,10 +1201,10 @@
       <c r="O11" s="16"/>
     </row>
     <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I12" s="33" t="s">
+      <c r="I12" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="33"/>
+      <c r="J12" s="25"/>
       <c r="K12" s="16">
         <f>SUM(K6:K11)</f>
         <v>67.5</v>
@@ -1214,17 +1225,17 @@
       <c r="B13" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="29"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="30"/>
+      <c r="G13" s="31"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
@@ -1234,11 +1245,11 @@
       <c r="O13" s="16"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
       <c r="E14" s="19" t="s">
         <v>18</v>
       </c>
@@ -1257,12 +1268,12 @@
       <c r="O14" s="16"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="25" t="str">
+      <c r="B15" s="27" t="str">
         <f>'Erik Hennig'!A12</f>
         <v>Meetings</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
       <c r="E15" s="15" t="str">
         <f>'Erik Hennig'!D12</f>
         <v>c</v>
@@ -1275,23 +1286,23 @@
         <f>'Erik Hennig'!F12</f>
         <v>2.5</v>
       </c>
-      <c r="I15" s="28" t="s">
+      <c r="I15" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
       <c r="M15" s="16"/>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="25" t="str">
+      <c r="B16" s="27" t="str">
         <f>'Erik Hennig'!A13</f>
         <v>Recherche</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
       <c r="E16" s="15" t="str">
         <f>'Erik Hennig'!D13</f>
         <v>d</v>
@@ -1304,14 +1315,14 @@
         <f>'Erik Hennig'!F13</f>
         <v>3</v>
       </c>
-      <c r="I16" s="33" t="str">
+      <c r="I16" s="25" t="str">
         <f>C13</f>
         <v>Erik Hennig</v>
       </c>
-      <c r="J16" s="33"/>
+      <c r="J16" s="25"/>
       <c r="K16" s="16">
         <f>SUM(G15:G29)</f>
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="L16" s="16" t="s">
         <v>26</v>
@@ -1325,29 +1336,29 @@
       <c r="O16" s="16"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="25">
+      <c r="B17" s="27" t="str">
         <f>'Erik Hennig'!A14</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="15">
+        <v>Code-Standard bewerten</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="15" t="str">
         <f>'Erik Hennig'!D14</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="15">
+        <v>b</v>
+      </c>
+      <c r="F17" s="15" t="str">
         <f>'Erik Hennig'!E14</f>
-        <v>0</v>
+        <v>d</v>
       </c>
       <c r="G17" s="15">
         <f>'Erik Hennig'!F14</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="33" t="str">
+        <v>1</v>
+      </c>
+      <c r="I17" s="25" t="str">
         <f>C32</f>
         <v>Marco Rempfer</v>
       </c>
-      <c r="J17" s="33"/>
+      <c r="J17" s="25"/>
       <c r="K17" s="16">
         <f>SUM(G34:G46)</f>
         <v>0</v>
@@ -1360,29 +1371,29 @@
       <c r="O17" s="16"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="25">
+      <c r="B18" s="27" t="str">
         <f>'Erik Hennig'!A15</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="15">
+        <v>Maven ausprobieren</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="15" t="str">
         <f>'Erik Hennig'!D15</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="15">
+        <v>c</v>
+      </c>
+      <c r="F18" s="15" t="str">
         <f>'Erik Hennig'!E15</f>
-        <v>0</v>
+        <v>b</v>
       </c>
       <c r="G18" s="15">
         <f>'Erik Hennig'!F15</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="33" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="25" t="str">
         <f>C49</f>
         <v>Achim Groß</v>
       </c>
-      <c r="J18" s="33"/>
+      <c r="J18" s="25"/>
       <c r="K18" s="16">
         <f>SUM(G51:G63)</f>
         <v>0</v>
@@ -1395,12 +1406,12 @@
       <c r="O18" s="16"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="25">
+      <c r="B19" s="27">
         <f>'Erik Hennig'!A16</f>
         <v>0</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
       <c r="E19" s="15">
         <f>'Erik Hennig'!D16</f>
         <v>0</v>
@@ -1413,11 +1424,11 @@
         <f>'Erik Hennig'!F16</f>
         <v>0</v>
       </c>
-      <c r="I19" s="33" t="str">
+      <c r="I19" s="25" t="str">
         <f>C66</f>
         <v>Benny Gerlach</v>
       </c>
-      <c r="J19" s="33"/>
+      <c r="J19" s="25"/>
       <c r="K19" s="16">
         <f>SUM(G68:G80)</f>
         <v>3</v>
@@ -1430,12 +1441,12 @@
       <c r="O19" s="16"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="25">
+      <c r="B20" s="27">
         <f>'Erik Hennig'!A17</f>
         <v>0</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
       <c r="E20" s="15">
         <f>'Erik Hennig'!D17</f>
         <v>0</v>
@@ -1448,11 +1459,11 @@
         <f>'Erik Hennig'!F17</f>
         <v>0</v>
       </c>
-      <c r="I20" s="33" t="str">
+      <c r="I20" s="25" t="str">
         <f>C83</f>
         <v>Lukas Niedergriese</v>
       </c>
-      <c r="J20" s="33"/>
+      <c r="J20" s="25"/>
       <c r="K20" s="16">
         <f>SUM(G85:G97)</f>
         <v>0</v>
@@ -1465,12 +1476,12 @@
       <c r="O20" s="16"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="25">
+      <c r="B21" s="27">
         <f>'Erik Hennig'!A18</f>
         <v>0</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
       <c r="E21" s="15">
         <f>'Erik Hennig'!D18</f>
         <v>0</v>
@@ -1483,11 +1494,11 @@
         <f>'Erik Hennig'!F18</f>
         <v>0</v>
       </c>
-      <c r="I21" s="33" t="str">
+      <c r="I21" s="25" t="str">
         <f>C99</f>
         <v>Tobias Reis</v>
       </c>
-      <c r="J21" s="33"/>
+      <c r="J21" s="25"/>
       <c r="K21" s="16">
         <f>SUM(G101:G113)</f>
         <v>4.5</v>
@@ -1500,12 +1511,12 @@
       <c r="O21" s="16"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="25">
+      <c r="B22" s="27">
         <f>'Erik Hennig'!A19</f>
         <v>0</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
       <c r="E22" s="15">
         <f>'Erik Hennig'!D19</f>
         <v>0</v>
@@ -1518,13 +1529,13 @@
         <f>'Erik Hennig'!F19</f>
         <v>0</v>
       </c>
-      <c r="I22" s="33" t="s">
+      <c r="I22" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="33"/>
+      <c r="J22" s="25"/>
       <c r="K22" s="16">
         <f>SUM(K16:K21)</f>
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="L22" s="16" t="s">
         <v>26</v>
@@ -1538,12 +1549,12 @@
       <c r="O22" s="16"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="25">
+      <c r="B23" s="27">
         <f>'Erik Hennig'!A20</f>
         <v>0</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
       <c r="E23" s="15">
         <f>'Erik Hennig'!D20</f>
         <v>0</v>
@@ -1565,12 +1576,12 @@
       <c r="O23" s="16"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="25">
+      <c r="B24" s="27">
         <f>'Erik Hennig'!A21</f>
         <v>0</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
       <c r="E24" s="15">
         <f>'Erik Hennig'!D21</f>
         <v>0</v>
@@ -1592,12 +1603,12 @@
       <c r="O24" s="16"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="25">
+      <c r="B25" s="27">
         <f>'Erik Hennig'!A22</f>
         <v>0</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
       <c r="E25" s="15">
         <f>'Erik Hennig'!D22</f>
         <v>0</v>
@@ -1610,23 +1621,23 @@
         <f>'Erik Hennig'!F22</f>
         <v>0</v>
       </c>
-      <c r="I25" s="28" t="s">
+      <c r="I25" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
       <c r="O25" s="16"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="25">
+      <c r="B26" s="27">
         <f>'Erik Hennig'!A23</f>
         <v>0</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
       <c r="E26" s="15">
         <f>'Erik Hennig'!D23</f>
         <v>0</v>
@@ -1639,14 +1650,14 @@
         <f>'Erik Hennig'!F23</f>
         <v>0</v>
       </c>
-      <c r="I26" s="33" t="str">
+      <c r="I26" s="25" t="str">
         <f>C13</f>
         <v>Erik Hennig</v>
       </c>
-      <c r="J26" s="33"/>
+      <c r="J26" s="25"/>
       <c r="K26" s="16">
         <f t="shared" ref="K26:K32" si="0">K6+K16</f>
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="L26" s="16" t="s">
         <v>26</v>
@@ -1661,12 +1672,12 @@
       <c r="O26" s="16"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="25">
+      <c r="B27" s="27">
         <f>'Erik Hennig'!A24</f>
         <v>0</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
       <c r="E27" s="15">
         <f>'Erik Hennig'!D24</f>
         <v>0</v>
@@ -1679,11 +1690,11 @@
         <f>'Erik Hennig'!F24</f>
         <v>0</v>
       </c>
-      <c r="I27" s="33" t="str">
+      <c r="I27" s="25" t="str">
         <f>C32</f>
         <v>Marco Rempfer</v>
       </c>
-      <c r="J27" s="33"/>
+      <c r="J27" s="25"/>
       <c r="K27" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1696,12 +1707,12 @@
       <c r="O27" s="16"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="25">
+      <c r="B28" s="27">
         <f>'Erik Hennig'!A25</f>
         <v>0</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
       <c r="E28" s="15">
         <f>'Erik Hennig'!D25</f>
         <v>0</v>
@@ -1714,11 +1725,11 @@
         <f>'Erik Hennig'!F25</f>
         <v>0</v>
       </c>
-      <c r="I28" s="33" t="str">
+      <c r="I28" s="25" t="str">
         <f>C49</f>
         <v>Achim Groß</v>
       </c>
-      <c r="J28" s="33"/>
+      <c r="J28" s="25"/>
       <c r="K28" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1731,12 +1742,12 @@
       <c r="O28" s="16"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="25">
+      <c r="B29" s="27">
         <f>'Erik Hennig'!A26</f>
         <v>0</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
       <c r="E29" s="15">
         <f>'Erik Hennig'!D26</f>
         <v>0</v>
@@ -1749,11 +1760,11 @@
         <f>'Erik Hennig'!F26</f>
         <v>0</v>
       </c>
-      <c r="I29" s="33" t="str">
+      <c r="I29" s="25" t="str">
         <f>C66</f>
         <v>Benny Gerlach</v>
       </c>
-      <c r="J29" s="33"/>
+      <c r="J29" s="25"/>
       <c r="K29" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1766,11 +1777,11 @@
       <c r="O29" s="16"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="I30" s="33" t="str">
+      <c r="I30" s="25" t="str">
         <f>C83</f>
         <v>Lukas Niedergriese</v>
       </c>
-      <c r="J30" s="33"/>
+      <c r="J30" s="25"/>
       <c r="K30" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1783,11 +1794,11 @@
       <c r="O30" s="16"/>
     </row>
     <row r="31" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I31" s="33" t="str">
+      <c r="I31" s="25" t="str">
         <f>C99</f>
         <v>Tobias Reis</v>
       </c>
-      <c r="J31" s="33"/>
+      <c r="J31" s="25"/>
       <c r="K31" s="16">
         <f t="shared" si="0"/>
         <v>18.5</v>
@@ -1803,24 +1814,24 @@
       <c r="B32" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="29"/>
+      <c r="D32" s="30"/>
       <c r="E32" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="29" t="s">
+      <c r="F32" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="G32" s="30"/>
-      <c r="I32" s="33" t="s">
+      <c r="G32" s="31"/>
+      <c r="I32" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="J32" s="33"/>
+      <c r="J32" s="25"/>
       <c r="K32" s="16">
         <f t="shared" si="0"/>
-        <v>80.5</v>
+        <v>82</v>
       </c>
       <c r="L32" s="16" t="s">
         <v>26</v>
@@ -1835,11 +1846,11 @@
       <c r="O32" s="16"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
       <c r="E33" s="19" t="s">
         <v>18</v>
       </c>
@@ -1858,12 +1869,12 @@
       <c r="O33" s="16"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="25">
+      <c r="B34" s="27">
         <f>'Marco Rempfer'!A12</f>
         <v>0</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
       <c r="E34" s="15">
         <f>'Marco Rempfer'!D12</f>
         <v>0</v>
@@ -1885,12 +1896,12 @@
       <c r="O34" s="16"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="25">
+      <c r="B35" s="27">
         <f>'Marco Rempfer'!A13</f>
         <v>0</v>
       </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
       <c r="E35" s="23">
         <f>'Marco Rempfer'!D13</f>
         <v>0</v>
@@ -1912,12 +1923,12 @@
       <c r="O35" s="16"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="25">
+      <c r="B36" s="27">
         <f>'Marco Rempfer'!A14</f>
         <v>0</v>
       </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
       <c r="E36" s="23">
         <f>'Marco Rempfer'!D14</f>
         <v>0</v>
@@ -1939,12 +1950,12 @@
       <c r="O36" s="16"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="25">
+      <c r="B37" s="27">
         <f>'Marco Rempfer'!A15</f>
         <v>0</v>
       </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
       <c r="E37" s="23">
         <f>'Marco Rempfer'!D15</f>
         <v>0</v>
@@ -1959,12 +1970,12 @@
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="25">
+      <c r="B38" s="27">
         <f>'Marco Rempfer'!A16</f>
         <v>0</v>
       </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
       <c r="E38" s="23">
         <f>'Marco Rempfer'!D16</f>
         <v>0</v>
@@ -1979,12 +1990,12 @@
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="25">
+      <c r="B39" s="27">
         <f>'Marco Rempfer'!A17</f>
         <v>0</v>
       </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
       <c r="E39" s="23">
         <f>'Marco Rempfer'!D17</f>
         <v>0</v>
@@ -1999,12 +2010,12 @@
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="25">
+      <c r="B40" s="27">
         <f>'Marco Rempfer'!A18</f>
         <v>0</v>
       </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
       <c r="E40" s="23">
         <f>'Marco Rempfer'!D18</f>
         <v>0</v>
@@ -2019,12 +2030,12 @@
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="25">
+      <c r="B41" s="27">
         <f>'Marco Rempfer'!A19</f>
         <v>0</v>
       </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
       <c r="E41" s="23">
         <f>'Marco Rempfer'!D19</f>
         <v>0</v>
@@ -2039,12 +2050,12 @@
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="25">
+      <c r="B42" s="27">
         <f>'Marco Rempfer'!A20</f>
         <v>0</v>
       </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
       <c r="E42" s="23">
         <f>'Marco Rempfer'!D20</f>
         <v>0</v>
@@ -2059,12 +2070,12 @@
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="25">
+      <c r="B43" s="27">
         <f>'Marco Rempfer'!A21</f>
         <v>0</v>
       </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
       <c r="E43" s="23">
         <f>'Marco Rempfer'!D21</f>
         <v>0</v>
@@ -2079,12 +2090,12 @@
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="25">
+      <c r="B44" s="27">
         <f>'Marco Rempfer'!A22</f>
         <v>0</v>
       </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
       <c r="E44" s="23">
         <f>'Marco Rempfer'!D22</f>
         <v>0</v>
@@ -2099,12 +2110,12 @@
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B45" s="25">
+      <c r="B45" s="27">
         <f>'Marco Rempfer'!A23</f>
         <v>0</v>
       </c>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
       <c r="E45" s="23">
         <f>'Marco Rempfer'!D23</f>
         <v>0</v>
@@ -2119,12 +2130,12 @@
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="25">
+      <c r="B46" s="27">
         <f>'Marco Rempfer'!A24</f>
         <v>0</v>
       </c>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
       <c r="E46" s="23">
         <f>'Marco Rempfer'!D24</f>
         <v>0</v>
@@ -2151,24 +2162,24 @@
       <c r="B49" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="C49" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="29"/>
+      <c r="D49" s="30"/>
       <c r="E49" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F49" s="29" t="s">
+      <c r="F49" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="G49" s="30"/>
+      <c r="G49" s="31"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
       <c r="E50" s="19" t="s">
         <v>18</v>
       </c>
@@ -2180,12 +2191,12 @@
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="25">
+      <c r="B51" s="27">
         <f>'Achim Groß'!A12</f>
         <v>0</v>
       </c>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
       <c r="E51" s="20">
         <f>'Achim Groß'!D12</f>
         <v>0</v>
@@ -2200,12 +2211,12 @@
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="25">
+      <c r="B52" s="27">
         <f>'Achim Groß'!A13</f>
         <v>0</v>
       </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
       <c r="E52" s="21">
         <f>'Achim Groß'!D13</f>
         <v>0</v>
@@ -2220,12 +2231,12 @@
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="25">
+      <c r="B53" s="27">
         <f>'Achim Groß'!A14</f>
         <v>0</v>
       </c>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
       <c r="E53" s="21">
         <f>'Achim Groß'!D14</f>
         <v>0</v>
@@ -2240,12 +2251,12 @@
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="25">
+      <c r="B54" s="27">
         <f>'Achim Groß'!A15</f>
         <v>0</v>
       </c>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
       <c r="E54" s="21">
         <f>'Achim Groß'!D15</f>
         <v>0</v>
@@ -2260,12 +2271,12 @@
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="25">
+      <c r="B55" s="27">
         <f>'Achim Groß'!A16</f>
         <v>0</v>
       </c>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
       <c r="E55" s="21">
         <f>'Achim Groß'!D16</f>
         <v>0</v>
@@ -2280,12 +2291,12 @@
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="25">
+      <c r="B56" s="27">
         <f>'Achim Groß'!A17</f>
         <v>0</v>
       </c>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
       <c r="E56" s="21">
         <f>'Achim Groß'!D17</f>
         <v>0</v>
@@ -2300,12 +2311,12 @@
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="25">
+      <c r="B57" s="27">
         <f>'Achim Groß'!A18</f>
         <v>0</v>
       </c>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
       <c r="E57" s="21">
         <f>'Achim Groß'!D18</f>
         <v>0</v>
@@ -2320,12 +2331,12 @@
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="25">
+      <c r="B58" s="27">
         <f>'Achim Groß'!A19</f>
         <v>0</v>
       </c>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
       <c r="E58" s="21">
         <f>'Achim Groß'!D19</f>
         <v>0</v>
@@ -2340,12 +2351,12 @@
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="25">
+      <c r="B59" s="27">
         <f>'Achim Groß'!A20</f>
         <v>0</v>
       </c>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
       <c r="E59" s="21">
         <f>'Achim Groß'!D20</f>
         <v>0</v>
@@ -2360,12 +2371,12 @@
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="25">
+      <c r="B60" s="27">
         <f>'Achim Groß'!A21</f>
         <v>0</v>
       </c>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
       <c r="E60" s="21">
         <f>'Achim Groß'!D21</f>
         <v>0</v>
@@ -2380,12 +2391,12 @@
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="25">
+      <c r="B61" s="27">
         <f>'Achim Groß'!A22</f>
         <v>0</v>
       </c>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
       <c r="E61" s="21">
         <f>'Achim Groß'!D22</f>
         <v>0</v>
@@ -2400,12 +2411,12 @@
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="25">
+      <c r="B62" s="27">
         <f>'Achim Groß'!A23</f>
         <v>0</v>
       </c>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
       <c r="E62" s="21">
         <f>'Achim Groß'!D23</f>
         <v>0</v>
@@ -2420,12 +2431,12 @@
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="25">
+      <c r="B63" s="27">
         <f>'Achim Groß'!A24</f>
         <v>0</v>
       </c>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
       <c r="E63" s="21">
         <f>'Achim Groß'!D24</f>
         <v>0</v>
@@ -2452,24 +2463,24 @@
       <c r="B66" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C66" s="29" t="s">
+      <c r="C66" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D66" s="29"/>
+      <c r="D66" s="30"/>
       <c r="E66" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F66" s="29" t="s">
+      <c r="F66" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G66" s="30"/>
+      <c r="G66" s="31"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="26" t="s">
+      <c r="B67" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
       <c r="E67" s="19" t="s">
         <v>18</v>
       </c>
@@ -2481,12 +2492,12 @@
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="25" t="str">
+      <c r="B68" s="27" t="str">
         <f>'Benny Gerlach'!A12</f>
         <v>Meetings</v>
       </c>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
       <c r="E68" s="21" t="str">
         <f>'Benny Gerlach'!D12</f>
         <v>c</v>
@@ -2501,12 +2512,12 @@
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="25" t="str">
+      <c r="B69" s="27" t="str">
         <f>'Benny Gerlach'!A13</f>
         <v>Analyse Echobot.de</v>
       </c>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
       <c r="E69" s="21" t="str">
         <f>'Benny Gerlach'!D13</f>
         <v>c</v>
@@ -2521,12 +2532,12 @@
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B70" s="25">
+      <c r="B70" s="27">
         <f>'Benny Gerlach'!A14</f>
         <v>0</v>
       </c>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
       <c r="E70" s="21">
         <f>'Benny Gerlach'!D14</f>
         <v>0</v>
@@ -2541,12 +2552,12 @@
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71" s="25">
+      <c r="B71" s="27">
         <f>'Benny Gerlach'!A15</f>
         <v>0</v>
       </c>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
       <c r="E71" s="21">
         <f>'Benny Gerlach'!D15</f>
         <v>0</v>
@@ -2561,12 +2572,12 @@
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B72" s="25">
+      <c r="B72" s="27">
         <f>'Benny Gerlach'!A16</f>
         <v>0</v>
       </c>
-      <c r="C72" s="25"/>
-      <c r="D72" s="25"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="27"/>
       <c r="E72" s="21">
         <f>'Benny Gerlach'!D16</f>
         <v>0</v>
@@ -2581,12 +2592,12 @@
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B73" s="25">
+      <c r="B73" s="27">
         <f>'Benny Gerlach'!A17</f>
         <v>0</v>
       </c>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
       <c r="E73" s="21">
         <f>'Benny Gerlach'!D17</f>
         <v>0</v>
@@ -2601,12 +2612,12 @@
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="25">
+      <c r="B74" s="27">
         <f>'Benny Gerlach'!A18</f>
         <v>0</v>
       </c>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
       <c r="E74" s="21">
         <f>'Benny Gerlach'!D18</f>
         <v>0</v>
@@ -2621,12 +2632,12 @@
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="25">
+      <c r="B75" s="27">
         <f>'Benny Gerlach'!A19</f>
         <v>0</v>
       </c>
-      <c r="C75" s="25"/>
-      <c r="D75" s="25"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
       <c r="E75" s="21">
         <f>'Benny Gerlach'!D19</f>
         <v>0</v>
@@ -2641,12 +2652,12 @@
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B76" s="25">
+      <c r="B76" s="27">
         <f>'Benny Gerlach'!A20</f>
         <v>0</v>
       </c>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
       <c r="E76" s="21">
         <f>'Benny Gerlach'!D20</f>
         <v>0</v>
@@ -2661,12 +2672,12 @@
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="25">
+      <c r="B77" s="27">
         <f>'Benny Gerlach'!A21</f>
         <v>0</v>
       </c>
-      <c r="C77" s="25"/>
-      <c r="D77" s="25"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
       <c r="E77" s="21">
         <f>'Benny Gerlach'!D21</f>
         <v>0</v>
@@ -2681,12 +2692,12 @@
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="25">
+      <c r="B78" s="27">
         <f>'Benny Gerlach'!A22</f>
         <v>0</v>
       </c>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
       <c r="E78" s="21">
         <f>'Benny Gerlach'!D22</f>
         <v>0</v>
@@ -2701,12 +2712,12 @@
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="25">
+      <c r="B79" s="27">
         <f>'Benny Gerlach'!A23</f>
         <v>0</v>
       </c>
-      <c r="C79" s="25"/>
-      <c r="D79" s="25"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="27"/>
       <c r="E79" s="21">
         <f>'Benny Gerlach'!D23</f>
         <v>0</v>
@@ -2721,12 +2732,12 @@
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="25">
+      <c r="B80" s="27">
         <f>'Benny Gerlach'!A24</f>
         <v>0</v>
       </c>
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="27"/>
       <c r="E80" s="21">
         <f>'Benny Gerlach'!D24</f>
         <v>0</v>
@@ -2745,24 +2756,24 @@
       <c r="B83" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C83" s="29" t="s">
+      <c r="C83" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D83" s="29"/>
+      <c r="D83" s="30"/>
       <c r="E83" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F83" s="29" t="s">
+      <c r="F83" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="G83" s="30"/>
+      <c r="G83" s="31"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B84" s="26" t="s">
+      <c r="B84" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C84" s="26"/>
-      <c r="D84" s="26"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
       <c r="E84" s="19" t="s">
         <v>18</v>
       </c>
@@ -2774,12 +2785,12 @@
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B85" s="31">
+      <c r="B85" s="28">
         <f>'Lukas Niedergriese'!A12</f>
         <v>0</v>
       </c>
-      <c r="C85" s="32"/>
-      <c r="D85" s="32"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
       <c r="E85" s="6">
         <f>'Lukas Niedergriese'!D12</f>
         <v>0</v>
@@ -2794,12 +2805,12 @@
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B86" s="31">
+      <c r="B86" s="28">
         <f>'Lukas Niedergriese'!A13</f>
         <v>0</v>
       </c>
-      <c r="C86" s="32"/>
-      <c r="D86" s="32"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
       <c r="E86" s="6">
         <f>'Lukas Niedergriese'!D13</f>
         <v>0</v>
@@ -2814,12 +2825,12 @@
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B87" s="31">
+      <c r="B87" s="28">
         <f>'Lukas Niedergriese'!A14</f>
         <v>0</v>
       </c>
-      <c r="C87" s="32"/>
-      <c r="D87" s="32"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
       <c r="E87" s="6">
         <f>'Lukas Niedergriese'!D14</f>
         <v>0</v>
@@ -2834,12 +2845,12 @@
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B88" s="31">
+      <c r="B88" s="28">
         <f>'Lukas Niedergriese'!A15</f>
         <v>0</v>
       </c>
-      <c r="C88" s="32"/>
-      <c r="D88" s="32"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
       <c r="E88" s="6">
         <f>'Lukas Niedergriese'!D15</f>
         <v>0</v>
@@ -2854,12 +2865,12 @@
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B89" s="31">
+      <c r="B89" s="28">
         <f>'Lukas Niedergriese'!A16</f>
         <v>0</v>
       </c>
-      <c r="C89" s="32"/>
-      <c r="D89" s="32"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="29"/>
       <c r="E89" s="6">
         <f>'Lukas Niedergriese'!D16</f>
         <v>0</v>
@@ -2874,12 +2885,12 @@
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B90" s="31">
+      <c r="B90" s="28">
         <f>'Lukas Niedergriese'!A17</f>
         <v>0</v>
       </c>
-      <c r="C90" s="32"/>
-      <c r="D90" s="32"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
       <c r="E90" s="6">
         <f>'Lukas Niedergriese'!D17</f>
         <v>0</v>
@@ -2894,12 +2905,12 @@
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B91" s="31">
+      <c r="B91" s="28">
         <f>'Lukas Niedergriese'!A18</f>
         <v>0</v>
       </c>
-      <c r="C91" s="32"/>
-      <c r="D91" s="32"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
       <c r="E91" s="6">
         <f>'Lukas Niedergriese'!D18</f>
         <v>0</v>
@@ -2914,12 +2925,12 @@
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B92" s="31">
+      <c r="B92" s="28">
         <f>'Lukas Niedergriese'!A19</f>
         <v>0</v>
       </c>
-      <c r="C92" s="32"/>
-      <c r="D92" s="32"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="29"/>
       <c r="E92" s="6">
         <f>'Lukas Niedergriese'!D19</f>
         <v>0</v>
@@ -2934,12 +2945,12 @@
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B93" s="31">
+      <c r="B93" s="28">
         <f>'Lukas Niedergriese'!A20</f>
         <v>0</v>
       </c>
-      <c r="C93" s="32"/>
-      <c r="D93" s="32"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
       <c r="E93" s="6">
         <f>'Lukas Niedergriese'!D20</f>
         <v>0</v>
@@ -2954,12 +2965,12 @@
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B94" s="31">
+      <c r="B94" s="28">
         <f>'Lukas Niedergriese'!A21</f>
         <v>0</v>
       </c>
-      <c r="C94" s="32"/>
-      <c r="D94" s="32"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
       <c r="E94" s="6">
         <f>'Lukas Niedergriese'!D21</f>
         <v>0</v>
@@ -2974,12 +2985,12 @@
       </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B95" s="31">
+      <c r="B95" s="28">
         <f>'Lukas Niedergriese'!A22</f>
         <v>0</v>
       </c>
-      <c r="C95" s="32"/>
-      <c r="D95" s="32"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="29"/>
       <c r="E95" s="6">
         <f>'Lukas Niedergriese'!D22</f>
         <v>0</v>
@@ -2994,12 +3005,12 @@
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B96" s="31">
+      <c r="B96" s="28">
         <f>'Lukas Niedergriese'!A23</f>
         <v>0</v>
       </c>
-      <c r="C96" s="32"/>
-      <c r="D96" s="32"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="29"/>
       <c r="E96" s="6">
         <f>'Lukas Niedergriese'!D23</f>
         <v>0</v>
@@ -3014,12 +3025,12 @@
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B97" s="31">
+      <c r="B97" s="28">
         <f>'Lukas Niedergriese'!A24</f>
         <v>0</v>
       </c>
-      <c r="C97" s="32"/>
-      <c r="D97" s="32"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
       <c r="E97" s="6">
         <f>'Lukas Niedergriese'!D24</f>
         <v>0</v>
@@ -3038,24 +3049,24 @@
       <c r="B99" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C99" s="29" t="s">
+      <c r="C99" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D99" s="29"/>
+      <c r="D99" s="30"/>
       <c r="E99" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F99" s="29" t="s">
+      <c r="F99" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G99" s="30"/>
+      <c r="G99" s="31"/>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B100" s="26" t="s">
+      <c r="B100" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C100" s="26"/>
-      <c r="D100" s="26"/>
+      <c r="C100" s="32"/>
+      <c r="D100" s="32"/>
       <c r="E100" s="19" t="s">
         <v>18</v>
       </c>
@@ -3067,12 +3078,12 @@
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B101" s="25" t="str">
+      <c r="B101" s="27" t="str">
         <f>'Tobias Reis'!A12</f>
         <v>Meeting / Interview</v>
       </c>
-      <c r="C101" s="25"/>
-      <c r="D101" s="25"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="27"/>
       <c r="E101" s="15" t="str">
         <f>'Tobias Reis'!D12</f>
         <v>d</v>
@@ -3087,12 +3098,12 @@
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B102" s="25" t="str">
+      <c r="B102" s="27" t="str">
         <f>'Tobias Reis'!A13</f>
         <v>Protokoll schreiben / Projekt Dokumentieren</v>
       </c>
-      <c r="C102" s="25"/>
-      <c r="D102" s="25"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="27"/>
       <c r="E102" s="15" t="str">
         <f>'Tobias Reis'!D13</f>
         <v>c</v>
@@ -3107,12 +3118,12 @@
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B103" s="25" t="str">
+      <c r="B103" s="27" t="str">
         <f>'Tobias Reis'!A14</f>
         <v>Recherche über unser Projekt</v>
       </c>
-      <c r="C103" s="25"/>
-      <c r="D103" s="25"/>
+      <c r="C103" s="27"/>
+      <c r="D103" s="27"/>
       <c r="E103" s="15" t="str">
         <f>'Tobias Reis'!D14</f>
         <v>c</v>
@@ -3127,12 +3138,12 @@
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B104" s="25" t="str">
+      <c r="B104" s="27" t="str">
         <f>'Tobias Reis'!A15</f>
         <v>Grundgerüst für Recherchebericht erstellt</v>
       </c>
-      <c r="C104" s="25"/>
-      <c r="D104" s="25"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="27"/>
       <c r="E104" s="15" t="str">
         <f>'Tobias Reis'!D15</f>
         <v>c</v>
@@ -3147,12 +3158,12 @@
       </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B105" s="25">
+      <c r="B105" s="27">
         <f>'Tobias Reis'!A16</f>
         <v>0</v>
       </c>
-      <c r="C105" s="25"/>
-      <c r="D105" s="25"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="27"/>
       <c r="E105" s="15">
         <f>'Tobias Reis'!D16</f>
         <v>0</v>
@@ -3167,12 +3178,12 @@
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B106" s="25">
+      <c r="B106" s="27">
         <f>'Tobias Reis'!A17</f>
         <v>0</v>
       </c>
-      <c r="C106" s="25"/>
-      <c r="D106" s="25"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="27"/>
       <c r="E106" s="15">
         <f>'Tobias Reis'!D17</f>
         <v>0</v>
@@ -3187,12 +3198,12 @@
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B107" s="25">
+      <c r="B107" s="27">
         <f>'Tobias Reis'!A18</f>
         <v>0</v>
       </c>
-      <c r="C107" s="25"/>
-      <c r="D107" s="25"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="27"/>
       <c r="E107" s="15">
         <f>'Tobias Reis'!D18</f>
         <v>0</v>
@@ -3207,12 +3218,12 @@
       </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B108" s="25">
+      <c r="B108" s="27">
         <f>'Tobias Reis'!A19</f>
         <v>0</v>
       </c>
-      <c r="C108" s="25"/>
-      <c r="D108" s="25"/>
+      <c r="C108" s="27"/>
+      <c r="D108" s="27"/>
       <c r="E108" s="15">
         <f>'Tobias Reis'!D19</f>
         <v>0</v>
@@ -3227,12 +3238,12 @@
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B109" s="25">
+      <c r="B109" s="27">
         <f>'Tobias Reis'!A20</f>
         <v>0</v>
       </c>
-      <c r="C109" s="25"/>
-      <c r="D109" s="25"/>
+      <c r="C109" s="27"/>
+      <c r="D109" s="27"/>
       <c r="E109" s="15">
         <f>'Tobias Reis'!D20</f>
         <v>0</v>
@@ -3247,12 +3258,12 @@
       </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B110" s="25">
+      <c r="B110" s="27">
         <f>'Tobias Reis'!A21</f>
         <v>0</v>
       </c>
-      <c r="C110" s="25"/>
-      <c r="D110" s="25"/>
+      <c r="C110" s="27"/>
+      <c r="D110" s="27"/>
       <c r="E110" s="15">
         <f>'Tobias Reis'!D21</f>
         <v>0</v>
@@ -3267,12 +3278,12 @@
       </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B111" s="25">
+      <c r="B111" s="27">
         <f>'Tobias Reis'!A22</f>
         <v>0</v>
       </c>
-      <c r="C111" s="25"/>
-      <c r="D111" s="25"/>
+      <c r="C111" s="27"/>
+      <c r="D111" s="27"/>
       <c r="E111" s="15">
         <f>'Tobias Reis'!D22</f>
         <v>0</v>
@@ -3287,12 +3298,12 @@
       </c>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B112" s="25">
+      <c r="B112" s="27">
         <f>'Tobias Reis'!A23</f>
         <v>0</v>
       </c>
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
       <c r="E112" s="15">
         <f>'Tobias Reis'!D23</f>
         <v>0</v>
@@ -3307,12 +3318,12 @@
       </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B113" s="25">
+      <c r="B113" s="27">
         <f>'Tobias Reis'!A24</f>
         <v>0</v>
       </c>
-      <c r="C113" s="25"/>
-      <c r="D113" s="25"/>
+      <c r="C113" s="27"/>
+      <c r="D113" s="27"/>
       <c r="E113" s="15">
         <f>'Tobias Reis'!D24</f>
         <v>0</v>
@@ -3328,29 +3339,83 @@
     </row>
   </sheetData>
   <mergeCells count="124">
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B94:D94"/>
     <mergeCell ref="B113:D113"/>
     <mergeCell ref="I5:L5"/>
     <mergeCell ref="B107:D107"/>
@@ -3375,83 +3440,29 @@
     <mergeCell ref="C83:D83"/>
     <mergeCell ref="F83:G83"/>
     <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B2:H3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3459,7 +3470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3477,35 +3488,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="D4" s="28" t="s">
+      <c r="B4" s="26"/>
+      <c r="D4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -3521,10 +3532,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="33"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -3537,52 +3548,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="33"/>
+      <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="33"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="26"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="33"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="25"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="33"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -3595,171 +3606,171 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>0</v>
@@ -3769,11 +3780,11 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>0</v>
@@ -3781,11 +3792,11 @@
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="10" t="e">
         <f>D33/D34</f>
         <v>#DIV/0!</v>
@@ -3795,22 +3806,22 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-10</v>
@@ -3818,6 +3829,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:B4"/>
@@ -3830,30 +3865,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
@@ -3871,7 +3882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3889,35 +3900,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="D4" s="28" t="s">
+      <c r="B4" s="26"/>
+      <c r="D4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -3933,10 +3944,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="33"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -3949,52 +3960,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="33"/>
+      <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="33"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="26"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="33"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="25"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="33"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -4007,171 +4018,171 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>0</v>
@@ -4181,11 +4192,11 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>0</v>
@@ -4193,11 +4204,11 @@
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="10" t="e">
         <f>D33/D34</f>
         <v>#DIV/0!</v>
@@ -4207,22 +4218,22 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-10</v>
@@ -4230,6 +4241,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:B4"/>
@@ -4242,30 +4277,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
@@ -4283,7 +4294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -4301,35 +4312,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="D4" s="28" t="s">
+      <c r="B4" s="26"/>
+      <c r="D4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -4345,10 +4356,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="33"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -4361,52 +4372,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="33"/>
+      <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="33"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="26"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="33"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="25"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="33"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -4419,9 +4430,9 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -4443,147 +4454,147 @@
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>0</v>
@@ -4593,11 +4604,11 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>0</v>
@@ -4605,11 +4616,11 @@
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="10" t="e">
         <f>D33/D34</f>
         <v>#DIV/0!</v>
@@ -4619,22 +4630,22 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-10</v>
@@ -4642,6 +4653,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:B4"/>
@@ -4654,30 +4689,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
@@ -4695,11 +4706,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4713,35 +4724,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="D4" s="28" t="s">
+      <c r="B4" s="26"/>
+      <c r="D4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -4757,10 +4768,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="33"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -4773,52 +4784,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="33"/>
+      <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="33"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="26"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="33"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="25"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="33"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -4831,11 +4842,11 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="24" t="s">
         <v>9</v>
       </c>
@@ -4847,11 +4858,11 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="21" t="s">
         <v>9</v>
       </c>
@@ -4863,155 +4874,155 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>3</v>
@@ -5021,11 +5032,11 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>2</v>
@@ -5033,11 +5044,11 @@
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>1.5</v>
@@ -5047,22 +5058,22 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-7</v>
@@ -5070,6 +5081,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:B4"/>
@@ -5082,30 +5117,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
@@ -5123,10 +5134,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -5141,35 +5152,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="D4" s="28" t="s">
+      <c r="B4" s="26"/>
+      <c r="D4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -5185,10 +5196,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="33"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -5201,52 +5212,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="33"/>
+      <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="33"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="26"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="33"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="25"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="33"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -5259,11 +5270,11 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
@@ -5275,11 +5286,11 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="14" t="s">
         <v>10</v>
       </c>
@@ -5291,213 +5302,253 @@
       </c>
     </row>
     <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="A14" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="A15" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
       <c r="D37">
         <f>D33-10</f>
-        <v>-4.5</v>
+        <v>-3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:B4"/>
@@ -5510,30 +5561,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
@@ -5551,7 +5578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5569,35 +5596,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="D4" s="28" t="s">
+      <c r="B4" s="26"/>
+      <c r="D4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -5613,10 +5640,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="33"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -5629,52 +5656,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="33"/>
+      <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="33"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="26"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="33"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="25"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="33"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -5767,123 +5794,123 @@
       <c r="F17" s="22"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>4.5</v>
@@ -5893,11 +5920,11 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>4</v>
@@ -5905,11 +5932,11 @@
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>1.125</v>
@@ -5919,22 +5946,22 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-5.5</v>
@@ -5942,6 +5969,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:B4"/>
@@ -5954,30 +6005,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">

--- a/Organisation/Aufwandserfassung/Aufwandserfassung_Wochenbericht_KW11.xlsx
+++ b/Organisation/Aufwandserfassung/Aufwandserfassung_Wochenbericht_KW11.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\studium\schluesselqual\swe\METLAB-News\METLAB_News\Organisation\Aufwandserfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobia\OneDrive\Dokumente\GitHub\METLAB_News\Organisation\Aufwandserfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12795" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27876" windowHeight="12792" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamt" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Erik Hennig" sheetId="3" r:id="rId6"/>
     <sheet name="Tobias Reis" sheetId="2" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="61">
   <si>
     <t>Wöchentlicher Aufwandsbericht</t>
   </si>
@@ -211,11 +211,14 @@
   <si>
     <t>Maven ausprobieren</t>
   </si>
+  <si>
+    <t>Projekthomepage erstellt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -444,21 +447,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -466,6 +455,26 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -475,12 +484,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -960,48 +963,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O113"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A4" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="A85" workbookViewId="0">
       <selection activeCell="B111" sqref="B111:D111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="12" max="12" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="11.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
+    <row r="1" spans="2:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
@@ -1010,7 +1013,7 @@
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
@@ -1019,7 +1022,7 @@
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
@@ -1031,17 +1034,17 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
       <c r="M5" s="16"/>
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
         <v>6</v>
       </c>
@@ -1051,11 +1054,11 @@
       <c r="G6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="25" t="str">
+      <c r="I6" s="33" t="str">
         <f>C13</f>
         <v>Erik Hennig</v>
       </c>
-      <c r="J6" s="25"/>
+      <c r="J6" s="33"/>
       <c r="K6" s="16">
         <v>14.5</v>
       </c>
@@ -1071,7 +1074,7 @@
       </c>
       <c r="O6" s="16"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
@@ -1084,11 +1087,11 @@
       <c r="G7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="25" t="str">
+      <c r="I7" s="33" t="str">
         <f>C32</f>
         <v>Marco Rempfer</v>
       </c>
-      <c r="J7" s="25"/>
+      <c r="J7" s="33"/>
       <c r="K7" s="16">
         <v>9</v>
       </c>
@@ -1099,18 +1102,18 @@
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="25" t="str">
+      <c r="I8" s="33" t="str">
         <f>C49</f>
         <v>Achim Groß</v>
       </c>
-      <c r="J8" s="25"/>
+      <c r="J8" s="33"/>
       <c r="K8" s="16">
         <v>9</v>
       </c>
@@ -1121,22 +1124,22 @@
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="26" t="s">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="26"/>
+      <c r="C9" s="28"/>
       <c r="F9" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="25" t="str">
+      <c r="I9" s="33" t="str">
         <f>C66</f>
         <v>Benny Gerlach</v>
       </c>
-      <c r="J9" s="25"/>
+      <c r="J9" s="33"/>
       <c r="K9" s="16">
         <v>12</v>
       </c>
@@ -1147,7 +1150,7 @@
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>2</v>
       </c>
@@ -1160,11 +1163,11 @@
       <c r="G10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="25" t="str">
+      <c r="I10" s="33" t="str">
         <f>C83</f>
         <v>Lukas Niedergriese</v>
       </c>
-      <c r="J10" s="25"/>
+      <c r="J10" s="33"/>
       <c r="K10" s="16">
         <v>9</v>
       </c>
@@ -1175,7 +1178,7 @@
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>3</v>
       </c>
@@ -1185,11 +1188,11 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="I11" s="25" t="str">
+      <c r="I11" s="33" t="str">
         <f>C99</f>
         <v>Tobias Reis</v>
       </c>
-      <c r="J11" s="25"/>
+      <c r="J11" s="33"/>
       <c r="K11" s="16">
         <v>14</v>
       </c>
@@ -1200,11 +1203,11 @@
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
     </row>
-    <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I12" s="25" t="s">
+    <row r="12" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I12" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="25"/>
+      <c r="J12" s="33"/>
       <c r="K12" s="16">
         <f>SUM(K6:K11)</f>
         <v>67.5</v>
@@ -1221,21 +1224,21 @@
       </c>
       <c r="O12" s="16"/>
     </row>
-    <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="30"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="31"/>
+      <c r="G13" s="30"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
@@ -1244,12 +1247,12 @@
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="32" t="s">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="19" t="s">
         <v>18</v>
       </c>
@@ -1267,13 +1270,13 @@
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="27" t="str">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="25" t="str">
         <f>'Erik Hennig'!A12</f>
         <v>Meetings</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="15" t="str">
         <f>'Erik Hennig'!D12</f>
         <v>c</v>
@@ -1286,23 +1289,23 @@
         <f>'Erik Hennig'!F12</f>
         <v>2.5</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
       <c r="M15" s="16"/>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="27" t="str">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="25" t="str">
         <f>'Erik Hennig'!A13</f>
         <v>Recherche</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="15" t="str">
         <f>'Erik Hennig'!D13</f>
         <v>d</v>
@@ -1315,11 +1318,11 @@
         <f>'Erik Hennig'!F13</f>
         <v>3</v>
       </c>
-      <c r="I16" s="25" t="str">
+      <c r="I16" s="33" t="str">
         <f>C13</f>
         <v>Erik Hennig</v>
       </c>
-      <c r="J16" s="25"/>
+      <c r="J16" s="33"/>
       <c r="K16" s="16">
         <f>SUM(G15:G29)</f>
         <v>7</v>
@@ -1335,13 +1338,13 @@
       </c>
       <c r="O16" s="16"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="27" t="str">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B17" s="25" t="str">
         <f>'Erik Hennig'!A14</f>
         <v>Code-Standard bewerten</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="15" t="str">
         <f>'Erik Hennig'!D14</f>
         <v>b</v>
@@ -1354,11 +1357,11 @@
         <f>'Erik Hennig'!F14</f>
         <v>1</v>
       </c>
-      <c r="I17" s="25" t="str">
+      <c r="I17" s="33" t="str">
         <f>C32</f>
         <v>Marco Rempfer</v>
       </c>
-      <c r="J17" s="25"/>
+      <c r="J17" s="33"/>
       <c r="K17" s="16">
         <f>SUM(G34:G46)</f>
         <v>0</v>
@@ -1370,13 +1373,13 @@
       <c r="N17" s="16"/>
       <c r="O17" s="16"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="27" t="str">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B18" s="25" t="str">
         <f>'Erik Hennig'!A15</f>
         <v>Maven ausprobieren</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="15" t="str">
         <f>'Erik Hennig'!D15</f>
         <v>c</v>
@@ -1389,11 +1392,11 @@
         <f>'Erik Hennig'!F15</f>
         <v>0.5</v>
       </c>
-      <c r="I18" s="25" t="str">
+      <c r="I18" s="33" t="str">
         <f>C49</f>
         <v>Achim Groß</v>
       </c>
-      <c r="J18" s="25"/>
+      <c r="J18" s="33"/>
       <c r="K18" s="16">
         <f>SUM(G51:G63)</f>
         <v>0</v>
@@ -1405,13 +1408,13 @@
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="27">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B19" s="25">
         <f>'Erik Hennig'!A16</f>
         <v>0</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
       <c r="E19" s="15">
         <f>'Erik Hennig'!D16</f>
         <v>0</v>
@@ -1424,11 +1427,11 @@
         <f>'Erik Hennig'!F16</f>
         <v>0</v>
       </c>
-      <c r="I19" s="25" t="str">
+      <c r="I19" s="33" t="str">
         <f>C66</f>
         <v>Benny Gerlach</v>
       </c>
-      <c r="J19" s="25"/>
+      <c r="J19" s="33"/>
       <c r="K19" s="16">
         <f>SUM(G68:G80)</f>
         <v>3</v>
@@ -1440,13 +1443,13 @@
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="27">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B20" s="25">
         <f>'Erik Hennig'!A17</f>
         <v>0</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="15">
         <f>'Erik Hennig'!D17</f>
         <v>0</v>
@@ -1459,11 +1462,11 @@
         <f>'Erik Hennig'!F17</f>
         <v>0</v>
       </c>
-      <c r="I20" s="25" t="str">
+      <c r="I20" s="33" t="str">
         <f>C83</f>
         <v>Lukas Niedergriese</v>
       </c>
-      <c r="J20" s="25"/>
+      <c r="J20" s="33"/>
       <c r="K20" s="16">
         <f>SUM(G85:G97)</f>
         <v>0</v>
@@ -1475,13 +1478,13 @@
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="27">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B21" s="25">
         <f>'Erik Hennig'!A18</f>
         <v>0</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="15">
         <f>'Erik Hennig'!D18</f>
         <v>0</v>
@@ -1494,14 +1497,14 @@
         <f>'Erik Hennig'!F18</f>
         <v>0</v>
       </c>
-      <c r="I21" s="25" t="str">
+      <c r="I21" s="33" t="str">
         <f>C99</f>
         <v>Tobias Reis</v>
       </c>
-      <c r="J21" s="25"/>
+      <c r="J21" s="33"/>
       <c r="K21" s="16">
         <f>SUM(G101:G113)</f>
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="L21" s="16" t="s">
         <v>26</v>
@@ -1510,13 +1513,13 @@
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="27">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="25">
         <f>'Erik Hennig'!A19</f>
         <v>0</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="15">
         <f>'Erik Hennig'!D19</f>
         <v>0</v>
@@ -1529,13 +1532,13 @@
         <f>'Erik Hennig'!F19</f>
         <v>0</v>
       </c>
-      <c r="I22" s="25" t="s">
+      <c r="I22" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="25"/>
+      <c r="J22" s="33"/>
       <c r="K22" s="16">
         <f>SUM(K16:K21)</f>
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="L22" s="16" t="s">
         <v>26</v>
@@ -1548,13 +1551,13 @@
       </c>
       <c r="O22" s="16"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="27">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B23" s="25">
         <f>'Erik Hennig'!A20</f>
         <v>0</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="15">
         <f>'Erik Hennig'!D20</f>
         <v>0</v>
@@ -1575,13 +1578,13 @@
       <c r="N23" s="16"/>
       <c r="O23" s="16"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="27">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B24" s="25">
         <f>'Erik Hennig'!A21</f>
         <v>0</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="15">
         <f>'Erik Hennig'!D21</f>
         <v>0</v>
@@ -1602,13 +1605,13 @@
       <c r="N24" s="16"/>
       <c r="O24" s="16"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="27">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="25">
         <f>'Erik Hennig'!A22</f>
         <v>0</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="15">
         <f>'Erik Hennig'!D22</f>
         <v>0</v>
@@ -1621,23 +1624,23 @@
         <f>'Erik Hennig'!F22</f>
         <v>0</v>
       </c>
-      <c r="I25" s="26" t="s">
+      <c r="I25" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
       <c r="O25" s="16"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="27">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B26" s="25">
         <f>'Erik Hennig'!A23</f>
         <v>0</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="15">
         <f>'Erik Hennig'!D23</f>
         <v>0</v>
@@ -1650,11 +1653,11 @@
         <f>'Erik Hennig'!F23</f>
         <v>0</v>
       </c>
-      <c r="I26" s="25" t="str">
+      <c r="I26" s="33" t="str">
         <f>C13</f>
         <v>Erik Hennig</v>
       </c>
-      <c r="J26" s="25"/>
+      <c r="J26" s="33"/>
       <c r="K26" s="16">
         <f t="shared" ref="K26:K32" si="0">K6+K16</f>
         <v>21.5</v>
@@ -1671,13 +1674,13 @@
       </c>
       <c r="O26" s="16"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="27">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B27" s="25">
         <f>'Erik Hennig'!A24</f>
         <v>0</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
       <c r="E27" s="15">
         <f>'Erik Hennig'!D24</f>
         <v>0</v>
@@ -1690,11 +1693,11 @@
         <f>'Erik Hennig'!F24</f>
         <v>0</v>
       </c>
-      <c r="I27" s="25" t="str">
+      <c r="I27" s="33" t="str">
         <f>C32</f>
         <v>Marco Rempfer</v>
       </c>
-      <c r="J27" s="25"/>
+      <c r="J27" s="33"/>
       <c r="K27" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1706,13 +1709,13 @@
       <c r="N27" s="16"/>
       <c r="O27" s="16"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="27">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B28" s="25">
         <f>'Erik Hennig'!A25</f>
         <v>0</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
       <c r="E28" s="15">
         <f>'Erik Hennig'!D25</f>
         <v>0</v>
@@ -1725,11 +1728,11 @@
         <f>'Erik Hennig'!F25</f>
         <v>0</v>
       </c>
-      <c r="I28" s="25" t="str">
+      <c r="I28" s="33" t="str">
         <f>C49</f>
         <v>Achim Groß</v>
       </c>
-      <c r="J28" s="25"/>
+      <c r="J28" s="33"/>
       <c r="K28" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1741,13 +1744,13 @@
       <c r="N28" s="16"/>
       <c r="O28" s="16"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="27">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B29" s="25">
         <f>'Erik Hennig'!A26</f>
         <v>0</v>
       </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
       <c r="E29" s="15">
         <f>'Erik Hennig'!D26</f>
         <v>0</v>
@@ -1760,11 +1763,11 @@
         <f>'Erik Hennig'!F26</f>
         <v>0</v>
       </c>
-      <c r="I29" s="25" t="str">
+      <c r="I29" s="33" t="str">
         <f>C66</f>
         <v>Benny Gerlach</v>
       </c>
-      <c r="J29" s="25"/>
+      <c r="J29" s="33"/>
       <c r="K29" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1776,12 +1779,12 @@
       <c r="N29" s="16"/>
       <c r="O29" s="16"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="I30" s="25" t="str">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I30" s="33" t="str">
         <f>C83</f>
         <v>Lukas Niedergriese</v>
       </c>
-      <c r="J30" s="25"/>
+      <c r="J30" s="33"/>
       <c r="K30" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1793,15 +1796,15 @@
       <c r="N30" s="16"/>
       <c r="O30" s="16"/>
     </row>
-    <row r="31" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I31" s="25" t="str">
+    <row r="31" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I31" s="33" t="str">
         <f>C99</f>
         <v>Tobias Reis</v>
       </c>
-      <c r="J31" s="25"/>
+      <c r="J31" s="33"/>
       <c r="K31" s="16">
         <f t="shared" si="0"/>
-        <v>18.5</v>
+        <v>21.5</v>
       </c>
       <c r="L31" s="16" t="s">
         <v>26</v>
@@ -1810,28 +1813,28 @@
       <c r="N31" s="16"/>
       <c r="O31" s="16"/>
     </row>
-    <row r="32" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="30"/>
+      <c r="D32" s="29"/>
       <c r="E32" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="30" t="s">
+      <c r="F32" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="G32" s="31"/>
-      <c r="I32" s="25" t="s">
+      <c r="G32" s="30"/>
+      <c r="I32" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="J32" s="25"/>
+      <c r="J32" s="33"/>
       <c r="K32" s="16">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L32" s="16" t="s">
         <v>26</v>
@@ -1845,12 +1848,12 @@
       </c>
       <c r="O32" s="16"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="32" t="s">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B33" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
       <c r="E33" s="19" t="s">
         <v>18</v>
       </c>
@@ -1868,13 +1871,13 @@
       <c r="N33" s="16"/>
       <c r="O33" s="16"/>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="27">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B34" s="25">
         <f>'Marco Rempfer'!A12</f>
         <v>0</v>
       </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
       <c r="E34" s="15">
         <f>'Marco Rempfer'!D12</f>
         <v>0</v>
@@ -1895,13 +1898,13 @@
       <c r="N34" s="16"/>
       <c r="O34" s="16"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="27">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B35" s="25">
         <f>'Marco Rempfer'!A13</f>
         <v>0</v>
       </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
       <c r="E35" s="23">
         <f>'Marco Rempfer'!D13</f>
         <v>0</v>
@@ -1922,13 +1925,13 @@
       <c r="N35" s="16"/>
       <c r="O35" s="16"/>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="27">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B36" s="25">
         <f>'Marco Rempfer'!A14</f>
         <v>0</v>
       </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
       <c r="E36" s="23">
         <f>'Marco Rempfer'!D14</f>
         <v>0</v>
@@ -1949,13 +1952,13 @@
       <c r="N36" s="16"/>
       <c r="O36" s="16"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="27">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B37" s="25">
         <f>'Marco Rempfer'!A15</f>
         <v>0</v>
       </c>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
       <c r="E37" s="23">
         <f>'Marco Rempfer'!D15</f>
         <v>0</v>
@@ -1969,13 +1972,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="27">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B38" s="25">
         <f>'Marco Rempfer'!A16</f>
         <v>0</v>
       </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
       <c r="E38" s="23">
         <f>'Marco Rempfer'!D16</f>
         <v>0</v>
@@ -1989,13 +1992,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="27">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B39" s="25">
         <f>'Marco Rempfer'!A17</f>
         <v>0</v>
       </c>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
       <c r="E39" s="23">
         <f>'Marco Rempfer'!D17</f>
         <v>0</v>
@@ -2009,13 +2012,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="27">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B40" s="25">
         <f>'Marco Rempfer'!A18</f>
         <v>0</v>
       </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
       <c r="E40" s="23">
         <f>'Marco Rempfer'!D18</f>
         <v>0</v>
@@ -2029,13 +2032,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="27">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B41" s="25">
         <f>'Marco Rempfer'!A19</f>
         <v>0</v>
       </c>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
       <c r="E41" s="23">
         <f>'Marco Rempfer'!D19</f>
         <v>0</v>
@@ -2049,13 +2052,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="27">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B42" s="25">
         <f>'Marco Rempfer'!A20</f>
         <v>0</v>
       </c>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
       <c r="E42" s="23">
         <f>'Marco Rempfer'!D20</f>
         <v>0</v>
@@ -2069,13 +2072,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="27">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B43" s="25">
         <f>'Marco Rempfer'!A21</f>
         <v>0</v>
       </c>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
       <c r="E43" s="23">
         <f>'Marco Rempfer'!D21</f>
         <v>0</v>
@@ -2089,13 +2092,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="27">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B44" s="25">
         <f>'Marco Rempfer'!A22</f>
         <v>0</v>
       </c>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
       <c r="E44" s="23">
         <f>'Marco Rempfer'!D22</f>
         <v>0</v>
@@ -2109,13 +2112,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B45" s="27">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B45" s="25">
         <f>'Marco Rempfer'!A23</f>
         <v>0</v>
       </c>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
       <c r="E45" s="23">
         <f>'Marco Rempfer'!D23</f>
         <v>0</v>
@@ -2129,13 +2132,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="27">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B46" s="25">
         <f>'Marco Rempfer'!A24</f>
         <v>0</v>
       </c>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
       <c r="E46" s="23">
         <f>'Marco Rempfer'!D24</f>
         <v>0</v>
@@ -2149,7 +2152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2157,29 +2160,29 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
     </row>
-    <row r="48" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="49" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="49" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="30" t="s">
+      <c r="C49" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="30"/>
+      <c r="D49" s="29"/>
       <c r="E49" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F49" s="30" t="s">
+      <c r="F49" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="G49" s="31"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="32" t="s">
+      <c r="G49" s="30"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B50" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
       <c r="E50" s="19" t="s">
         <v>18</v>
       </c>
@@ -2190,13 +2193,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="27">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B51" s="25">
         <f>'Achim Groß'!A12</f>
         <v>0</v>
       </c>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
       <c r="E51" s="20">
         <f>'Achim Groß'!D12</f>
         <v>0</v>
@@ -2210,13 +2213,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="27">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B52" s="25">
         <f>'Achim Groß'!A13</f>
         <v>0</v>
       </c>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
       <c r="E52" s="21">
         <f>'Achim Groß'!D13</f>
         <v>0</v>
@@ -2230,13 +2233,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="27">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B53" s="25">
         <f>'Achim Groß'!A14</f>
         <v>0</v>
       </c>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
       <c r="E53" s="21">
         <f>'Achim Groß'!D14</f>
         <v>0</v>
@@ -2250,13 +2253,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="27">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B54" s="25">
         <f>'Achim Groß'!A15</f>
         <v>0</v>
       </c>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
       <c r="E54" s="21">
         <f>'Achim Groß'!D15</f>
         <v>0</v>
@@ -2270,13 +2273,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="27">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B55" s="25">
         <f>'Achim Groß'!A16</f>
         <v>0</v>
       </c>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
       <c r="E55" s="21">
         <f>'Achim Groß'!D16</f>
         <v>0</v>
@@ -2290,13 +2293,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="27">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B56" s="25">
         <f>'Achim Groß'!A17</f>
         <v>0</v>
       </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
       <c r="E56" s="21">
         <f>'Achim Groß'!D17</f>
         <v>0</v>
@@ -2310,13 +2313,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="27">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B57" s="25">
         <f>'Achim Groß'!A18</f>
         <v>0</v>
       </c>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
       <c r="E57" s="21">
         <f>'Achim Groß'!D18</f>
         <v>0</v>
@@ -2330,13 +2333,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="27">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B58" s="25">
         <f>'Achim Groß'!A19</f>
         <v>0</v>
       </c>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
       <c r="E58" s="21">
         <f>'Achim Groß'!D19</f>
         <v>0</v>
@@ -2350,13 +2353,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="27">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B59" s="25">
         <f>'Achim Groß'!A20</f>
         <v>0</v>
       </c>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
       <c r="E59" s="21">
         <f>'Achim Groß'!D20</f>
         <v>0</v>
@@ -2370,13 +2373,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="27">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B60" s="25">
         <f>'Achim Groß'!A21</f>
         <v>0</v>
       </c>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
       <c r="E60" s="21">
         <f>'Achim Groß'!D21</f>
         <v>0</v>
@@ -2390,13 +2393,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="27">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B61" s="25">
         <f>'Achim Groß'!A22</f>
         <v>0</v>
       </c>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
       <c r="E61" s="21">
         <f>'Achim Groß'!D22</f>
         <v>0</v>
@@ -2410,13 +2413,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="27">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B62" s="25">
         <f>'Achim Groß'!A23</f>
         <v>0</v>
       </c>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
       <c r="E62" s="21">
         <f>'Achim Groß'!D23</f>
         <v>0</v>
@@ -2430,13 +2433,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="27">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B63" s="25">
         <f>'Achim Groß'!A24</f>
         <v>0</v>
       </c>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
       <c r="E63" s="21">
         <f>'Achim Groß'!D24</f>
         <v>0</v>
@@ -2450,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2458,29 +2461,29 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
     </row>
-    <row r="65" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="66" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B66" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C66" s="30" t="s">
+      <c r="C66" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D66" s="30"/>
+      <c r="D66" s="29"/>
       <c r="E66" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F66" s="30" t="s">
+      <c r="F66" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="G66" s="31"/>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="32" t="s">
+      <c r="G66" s="30"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B67" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="32"/>
-      <c r="D67" s="32"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
       <c r="E67" s="19" t="s">
         <v>18</v>
       </c>
@@ -2491,13 +2494,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="27" t="str">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B68" s="25" t="str">
         <f>'Benny Gerlach'!A12</f>
         <v>Meetings</v>
       </c>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
       <c r="E68" s="21" t="str">
         <f>'Benny Gerlach'!D12</f>
         <v>c</v>
@@ -2511,13 +2514,13 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="27" t="str">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B69" s="25" t="str">
         <f>'Benny Gerlach'!A13</f>
         <v>Analyse Echobot.de</v>
       </c>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
       <c r="E69" s="21" t="str">
         <f>'Benny Gerlach'!D13</f>
         <v>c</v>
@@ -2531,13 +2534,13 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B70" s="27">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B70" s="25">
         <f>'Benny Gerlach'!A14</f>
         <v>0</v>
       </c>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
       <c r="E70" s="21">
         <f>'Benny Gerlach'!D14</f>
         <v>0</v>
@@ -2551,13 +2554,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71" s="27">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B71" s="25">
         <f>'Benny Gerlach'!A15</f>
         <v>0</v>
       </c>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
       <c r="E71" s="21">
         <f>'Benny Gerlach'!D15</f>
         <v>0</v>
@@ -2571,13 +2574,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B72" s="27">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B72" s="25">
         <f>'Benny Gerlach'!A16</f>
         <v>0</v>
       </c>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
       <c r="E72" s="21">
         <f>'Benny Gerlach'!D16</f>
         <v>0</v>
@@ -2591,13 +2594,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B73" s="27">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B73" s="25">
         <f>'Benny Gerlach'!A17</f>
         <v>0</v>
       </c>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
       <c r="E73" s="21">
         <f>'Benny Gerlach'!D17</f>
         <v>0</v>
@@ -2611,13 +2614,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="27">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B74" s="25">
         <f>'Benny Gerlach'!A18</f>
         <v>0</v>
       </c>
-      <c r="C74" s="27"/>
-      <c r="D74" s="27"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
       <c r="E74" s="21">
         <f>'Benny Gerlach'!D18</f>
         <v>0</v>
@@ -2631,13 +2634,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="27">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B75" s="25">
         <f>'Benny Gerlach'!A19</f>
         <v>0</v>
       </c>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
       <c r="E75" s="21">
         <f>'Benny Gerlach'!D19</f>
         <v>0</v>
@@ -2651,13 +2654,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B76" s="27">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B76" s="25">
         <f>'Benny Gerlach'!A20</f>
         <v>0</v>
       </c>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
       <c r="E76" s="21">
         <f>'Benny Gerlach'!D20</f>
         <v>0</v>
@@ -2671,13 +2674,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="27">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B77" s="25">
         <f>'Benny Gerlach'!A21</f>
         <v>0</v>
       </c>
-      <c r="C77" s="27"/>
-      <c r="D77" s="27"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="25"/>
       <c r="E77" s="21">
         <f>'Benny Gerlach'!D21</f>
         <v>0</v>
@@ -2691,13 +2694,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="27">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B78" s="25">
         <f>'Benny Gerlach'!A22</f>
         <v>0</v>
       </c>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
       <c r="E78" s="21">
         <f>'Benny Gerlach'!D22</f>
         <v>0</v>
@@ -2711,13 +2714,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="27">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B79" s="25">
         <f>'Benny Gerlach'!A23</f>
         <v>0</v>
       </c>
-      <c r="C79" s="27"/>
-      <c r="D79" s="27"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25"/>
       <c r="E79" s="21">
         <f>'Benny Gerlach'!D23</f>
         <v>0</v>
@@ -2731,13 +2734,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="27">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B80" s="25">
         <f>'Benny Gerlach'!A24</f>
         <v>0</v>
       </c>
-      <c r="C80" s="27"/>
-      <c r="D80" s="27"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="25"/>
       <c r="E80" s="21">
         <f>'Benny Gerlach'!D24</f>
         <v>0</v>
@@ -2751,29 +2754,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="83" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="83" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B83" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C83" s="30" t="s">
+      <c r="C83" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D83" s="30"/>
+      <c r="D83" s="29"/>
       <c r="E83" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F83" s="30" t="s">
+      <c r="F83" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="G83" s="31"/>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B84" s="32" t="s">
+      <c r="G83" s="30"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B84" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C84" s="32"/>
-      <c r="D84" s="32"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
       <c r="E84" s="19" t="s">
         <v>18</v>
       </c>
@@ -2784,13 +2787,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B85" s="28">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B85" s="31">
         <f>'Lukas Niedergriese'!A12</f>
         <v>0</v>
       </c>
-      <c r="C85" s="29"/>
-      <c r="D85" s="29"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="32"/>
       <c r="E85" s="6">
         <f>'Lukas Niedergriese'!D12</f>
         <v>0</v>
@@ -2804,13 +2807,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B86" s="28">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B86" s="31">
         <f>'Lukas Niedergriese'!A13</f>
         <v>0</v>
       </c>
-      <c r="C86" s="29"/>
-      <c r="D86" s="29"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32"/>
       <c r="E86" s="6">
         <f>'Lukas Niedergriese'!D13</f>
         <v>0</v>
@@ -2824,13 +2827,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B87" s="28">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B87" s="31">
         <f>'Lukas Niedergriese'!A14</f>
         <v>0</v>
       </c>
-      <c r="C87" s="29"/>
-      <c r="D87" s="29"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="32"/>
       <c r="E87" s="6">
         <f>'Lukas Niedergriese'!D14</f>
         <v>0</v>
@@ -2844,13 +2847,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B88" s="28">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B88" s="31">
         <f>'Lukas Niedergriese'!A15</f>
         <v>0</v>
       </c>
-      <c r="C88" s="29"/>
-      <c r="D88" s="29"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="32"/>
       <c r="E88" s="6">
         <f>'Lukas Niedergriese'!D15</f>
         <v>0</v>
@@ -2864,13 +2867,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B89" s="28">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B89" s="31">
         <f>'Lukas Niedergriese'!A16</f>
         <v>0</v>
       </c>
-      <c r="C89" s="29"/>
-      <c r="D89" s="29"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="32"/>
       <c r="E89" s="6">
         <f>'Lukas Niedergriese'!D16</f>
         <v>0</v>
@@ -2884,13 +2887,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B90" s="28">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B90" s="31">
         <f>'Lukas Niedergriese'!A17</f>
         <v>0</v>
       </c>
-      <c r="C90" s="29"/>
-      <c r="D90" s="29"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="32"/>
       <c r="E90" s="6">
         <f>'Lukas Niedergriese'!D17</f>
         <v>0</v>
@@ -2904,13 +2907,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B91" s="28">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B91" s="31">
         <f>'Lukas Niedergriese'!A18</f>
         <v>0</v>
       </c>
-      <c r="C91" s="29"/>
-      <c r="D91" s="29"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="32"/>
       <c r="E91" s="6">
         <f>'Lukas Niedergriese'!D18</f>
         <v>0</v>
@@ -2924,13 +2927,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B92" s="28">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B92" s="31">
         <f>'Lukas Niedergriese'!A19</f>
         <v>0</v>
       </c>
-      <c r="C92" s="29"/>
-      <c r="D92" s="29"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="32"/>
       <c r="E92" s="6">
         <f>'Lukas Niedergriese'!D19</f>
         <v>0</v>
@@ -2944,13 +2947,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B93" s="28">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B93" s="31">
         <f>'Lukas Niedergriese'!A20</f>
         <v>0</v>
       </c>
-      <c r="C93" s="29"/>
-      <c r="D93" s="29"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="32"/>
       <c r="E93" s="6">
         <f>'Lukas Niedergriese'!D20</f>
         <v>0</v>
@@ -2964,13 +2967,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B94" s="28">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B94" s="31">
         <f>'Lukas Niedergriese'!A21</f>
         <v>0</v>
       </c>
-      <c r="C94" s="29"/>
-      <c r="D94" s="29"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="32"/>
       <c r="E94" s="6">
         <f>'Lukas Niedergriese'!D21</f>
         <v>0</v>
@@ -2984,13 +2987,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B95" s="28">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B95" s="31">
         <f>'Lukas Niedergriese'!A22</f>
         <v>0</v>
       </c>
-      <c r="C95" s="29"/>
-      <c r="D95" s="29"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="32"/>
       <c r="E95" s="6">
         <f>'Lukas Niedergriese'!D22</f>
         <v>0</v>
@@ -3004,13 +3007,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B96" s="28">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B96" s="31">
         <f>'Lukas Niedergriese'!A23</f>
         <v>0</v>
       </c>
-      <c r="C96" s="29"/>
-      <c r="D96" s="29"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="32"/>
       <c r="E96" s="6">
         <f>'Lukas Niedergriese'!D23</f>
         <v>0</v>
@@ -3024,13 +3027,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B97" s="28">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B97" s="31">
         <f>'Lukas Niedergriese'!A24</f>
         <v>0</v>
       </c>
-      <c r="C97" s="29"/>
-      <c r="D97" s="29"/>
+      <c r="C97" s="32"/>
+      <c r="D97" s="32"/>
       <c r="E97" s="6">
         <f>'Lukas Niedergriese'!D24</f>
         <v>0</v>
@@ -3044,29 +3047,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="99" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="99" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B99" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C99" s="30" t="s">
+      <c r="C99" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D99" s="30"/>
+      <c r="D99" s="29"/>
       <c r="E99" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F99" s="30" t="s">
+      <c r="F99" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G99" s="31"/>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B100" s="32" t="s">
+      <c r="G99" s="30"/>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B100" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C100" s="32"/>
-      <c r="D100" s="32"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="26"/>
       <c r="E100" s="19" t="s">
         <v>18</v>
       </c>
@@ -3077,13 +3080,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B101" s="27" t="str">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B101" s="25" t="str">
         <f>'Tobias Reis'!A12</f>
         <v>Meeting / Interview</v>
       </c>
-      <c r="C101" s="27"/>
-      <c r="D101" s="27"/>
+      <c r="C101" s="25"/>
+      <c r="D101" s="25"/>
       <c r="E101" s="15" t="str">
         <f>'Tobias Reis'!D12</f>
         <v>d</v>
@@ -3097,13 +3100,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B102" s="27" t="str">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B102" s="25" t="str">
         <f>'Tobias Reis'!A13</f>
         <v>Protokoll schreiben / Projekt Dokumentieren</v>
       </c>
-      <c r="C102" s="27"/>
-      <c r="D102" s="27"/>
+      <c r="C102" s="25"/>
+      <c r="D102" s="25"/>
       <c r="E102" s="15" t="str">
         <f>'Tobias Reis'!D13</f>
         <v>c</v>
@@ -3117,13 +3120,13 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B103" s="27" t="str">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B103" s="25" t="str">
         <f>'Tobias Reis'!A14</f>
         <v>Recherche über unser Projekt</v>
       </c>
-      <c r="C103" s="27"/>
-      <c r="D103" s="27"/>
+      <c r="C103" s="25"/>
+      <c r="D103" s="25"/>
       <c r="E103" s="15" t="str">
         <f>'Tobias Reis'!D14</f>
         <v>c</v>
@@ -3137,13 +3140,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B104" s="27" t="str">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B104" s="25" t="str">
         <f>'Tobias Reis'!A15</f>
         <v>Grundgerüst für Recherchebericht erstellt</v>
       </c>
-      <c r="C104" s="27"/>
-      <c r="D104" s="27"/>
+      <c r="C104" s="25"/>
+      <c r="D104" s="25"/>
       <c r="E104" s="15" t="str">
         <f>'Tobias Reis'!D15</f>
         <v>c</v>
@@ -3157,33 +3160,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B105" s="27">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B105" s="25" t="str">
         <f>'Tobias Reis'!A16</f>
-        <v>0</v>
-      </c>
-      <c r="C105" s="27"/>
-      <c r="D105" s="27"/>
-      <c r="E105" s="15">
+        <v>Projekthomepage erstellt</v>
+      </c>
+      <c r="C105" s="25"/>
+      <c r="D105" s="25"/>
+      <c r="E105" s="15" t="str">
         <f>'Tobias Reis'!D16</f>
-        <v>0</v>
-      </c>
-      <c r="F105" s="15">
+        <v>c</v>
+      </c>
+      <c r="F105" s="15" t="str">
         <f>'Tobias Reis'!E16</f>
-        <v>0</v>
+        <v>b</v>
       </c>
       <c r="G105" s="15">
         <f>'Tobias Reis'!F16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B106" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B106" s="25">
         <f>'Tobias Reis'!A17</f>
         <v>0</v>
       </c>
-      <c r="C106" s="27"/>
-      <c r="D106" s="27"/>
+      <c r="C106" s="25"/>
+      <c r="D106" s="25"/>
       <c r="E106" s="15">
         <f>'Tobias Reis'!D17</f>
         <v>0</v>
@@ -3197,13 +3200,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B107" s="27">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B107" s="25">
         <f>'Tobias Reis'!A18</f>
         <v>0</v>
       </c>
-      <c r="C107" s="27"/>
-      <c r="D107" s="27"/>
+      <c r="C107" s="25"/>
+      <c r="D107" s="25"/>
       <c r="E107" s="15">
         <f>'Tobias Reis'!D18</f>
         <v>0</v>
@@ -3217,13 +3220,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B108" s="27">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B108" s="25">
         <f>'Tobias Reis'!A19</f>
         <v>0</v>
       </c>
-      <c r="C108" s="27"/>
-      <c r="D108" s="27"/>
+      <c r="C108" s="25"/>
+      <c r="D108" s="25"/>
       <c r="E108" s="15">
         <f>'Tobias Reis'!D19</f>
         <v>0</v>
@@ -3237,13 +3240,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B109" s="27">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B109" s="25">
         <f>'Tobias Reis'!A20</f>
         <v>0</v>
       </c>
-      <c r="C109" s="27"/>
-      <c r="D109" s="27"/>
+      <c r="C109" s="25"/>
+      <c r="D109" s="25"/>
       <c r="E109" s="15">
         <f>'Tobias Reis'!D20</f>
         <v>0</v>
@@ -3257,13 +3260,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B110" s="27">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B110" s="25">
         <f>'Tobias Reis'!A21</f>
         <v>0</v>
       </c>
-      <c r="C110" s="27"/>
-      <c r="D110" s="27"/>
+      <c r="C110" s="25"/>
+      <c r="D110" s="25"/>
       <c r="E110" s="15">
         <f>'Tobias Reis'!D21</f>
         <v>0</v>
@@ -3277,13 +3280,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B111" s="27">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B111" s="25">
         <f>'Tobias Reis'!A22</f>
         <v>0</v>
       </c>
-      <c r="C111" s="27"/>
-      <c r="D111" s="27"/>
+      <c r="C111" s="25"/>
+      <c r="D111" s="25"/>
       <c r="E111" s="15">
         <f>'Tobias Reis'!D22</f>
         <v>0</v>
@@ -3297,13 +3300,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B112" s="27">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B112" s="25">
         <f>'Tobias Reis'!A23</f>
         <v>0</v>
       </c>
-      <c r="C112" s="27"/>
-      <c r="D112" s="27"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="25"/>
       <c r="E112" s="15">
         <f>'Tobias Reis'!D23</f>
         <v>0</v>
@@ -3317,13 +3320,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B113" s="27">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B113" s="25">
         <f>'Tobias Reis'!A24</f>
         <v>0</v>
       </c>
-      <c r="C113" s="27"/>
-      <c r="D113" s="27"/>
+      <c r="C113" s="25"/>
+      <c r="D113" s="25"/>
       <c r="E113" s="15">
         <f>'Tobias Reis'!D24</f>
         <v>0</v>
@@ -3339,26 +3342,86 @@
     </row>
   </sheetData>
   <mergeCells count="124">
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B2:H3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="B109:D109"/>
+    <mergeCell ref="B110:D110"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B71:D71"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B53:D53"/>
@@ -3383,86 +3446,26 @@
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="B109:D109"/>
-    <mergeCell ref="B110:D110"/>
-    <mergeCell ref="B111:D111"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B28:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3470,55 +3473,55 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="D4" s="26" t="s">
+      <c r="B4" s="28"/>
+      <c r="D4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3532,12 +3535,12 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="25"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="33"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3548,52 +3551,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="25"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="33"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="25"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="G7" s="33"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="28"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="25"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="G8" s="33"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="25"/>
+      <c r="B9" s="33"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="25"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="G9" s="33"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -3605,172 +3608,172 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="38" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>0</v>
@@ -3779,24 +3782,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="38" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>0</v>
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="38" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="10" t="e">
         <f>D33/D34</f>
         <v>#DIV/0!</v>
@@ -3805,23 +3808,23 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="38" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="38" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-10</v>
@@ -3829,6 +3832,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
@@ -3841,30 +3868,6 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
@@ -3882,55 +3885,55 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="D4" s="26" t="s">
+      <c r="B4" s="28"/>
+      <c r="D4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3944,12 +3947,12 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="25"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="33"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3960,52 +3963,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="25"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="33"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="25"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="G7" s="33"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="28"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="25"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="G8" s="33"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="25"/>
+      <c r="B9" s="33"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="25"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="G9" s="33"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -4017,172 +4020,172 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="38" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>0</v>
@@ -4191,24 +4194,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="38" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>0</v>
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="38" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="10" t="e">
         <f>D33/D34</f>
         <v>#DIV/0!</v>
@@ -4217,23 +4220,23 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="38" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="38" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-10</v>
@@ -4241,6 +4244,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
@@ -4253,30 +4280,6 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
@@ -4294,55 +4297,55 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="D4" s="26" t="s">
+      <c r="B4" s="28"/>
+      <c r="D4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -4356,12 +4359,12 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="25"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="33"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4372,52 +4375,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="25"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="33"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="25"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="G7" s="33"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="28"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="25"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="G8" s="33"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="25"/>
+      <c r="B9" s="33"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="25"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="G9" s="33"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -4429,15 +4432,15 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="39"/>
       <c r="B13" s="40"/>
       <c r="C13" s="41"/>
@@ -4445,7 +4448,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="39"/>
       <c r="B14" s="40"/>
       <c r="C14" s="41"/>
@@ -4453,148 +4456,148 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="38" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>0</v>
@@ -4603,24 +4606,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="38" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>0</v>
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="38" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="10" t="e">
         <f>D33/D34</f>
         <v>#DIV/0!</v>
@@ -4629,23 +4632,23 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="38" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="38" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-10</v>
@@ -4653,6 +4656,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
@@ -4665,30 +4692,6 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
@@ -4706,55 +4709,55 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="D4" s="26" t="s">
+      <c r="B4" s="28"/>
+      <c r="D4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -4768,12 +4771,12 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="25"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="33"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4784,52 +4787,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="25"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="33"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="25"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="G7" s="33"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="28"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="25"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="G8" s="33"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="25"/>
+      <c r="B9" s="33"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="25"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="G9" s="33"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -4841,12 +4844,12 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="24" t="s">
         <v>9</v>
       </c>
@@ -4857,12 +4860,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="21" t="s">
         <v>9</v>
       </c>
@@ -4873,156 +4876,156 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="38" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>3</v>
@@ -5031,24 +5034,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="38" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>2</v>
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="38" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>1.5</v>
@@ -5057,23 +5060,23 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="38" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="38" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-7</v>
@@ -5081,6 +5084,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
@@ -5093,30 +5120,6 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
@@ -5134,55 +5137,55 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="D4" s="26" t="s">
+      <c r="B4" s="28"/>
+      <c r="D4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -5196,12 +5199,12 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="25"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="33"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -5212,52 +5215,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="25"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="33"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="25"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="G7" s="33"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="28"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="25"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="G8" s="33"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="25"/>
+      <c r="B9" s="33"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="25"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="G9" s="33"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -5269,12 +5272,12 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
@@ -5285,12 +5288,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="14" t="s">
         <v>10</v>
       </c>
@@ -5301,12 +5304,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+    <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="6" t="s">
         <v>8</v>
       </c>
@@ -5317,12 +5320,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="6" t="s">
         <v>9</v>
       </c>
@@ -5333,140 +5336,140 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="38" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>7</v>
@@ -5475,24 +5478,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="38" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>4</v>
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="38" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>1.75</v>
@@ -5501,23 +5504,23 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="38" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="38" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-3</v>
@@ -5525,6 +5528,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
@@ -5537,30 +5564,6 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
@@ -5578,55 +5581,55 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="D4" s="26" t="s">
+      <c r="B4" s="28"/>
+      <c r="D4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -5640,12 +5643,12 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="25"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="33"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -5656,52 +5659,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="25"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="33"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="25"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="G7" s="33"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="28"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="25"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="G8" s="33"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="25"/>
+      <c r="B9" s="33"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="25"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="G9" s="33"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -5713,7 +5716,7 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="42" t="s">
         <v>52</v>
       </c>
@@ -5729,7 +5732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="42" t="s">
         <v>53</v>
       </c>
@@ -5745,7 +5748,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="42" t="s">
         <v>54</v>
       </c>
@@ -5761,7 +5764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="42" t="s">
         <v>55</v>
       </c>
@@ -5777,15 +5780,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="B16" s="43"/>
       <c r="C16" s="44"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D16" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="42"/>
       <c r="B17" s="43"/>
       <c r="C17" s="44"/>
@@ -5793,182 +5804,206 @@
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="38" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="38" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="38" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
-        <v>1.125</v>
+        <v>1.5</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="38" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="38" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
       <c r="D37">
         <f>D33-10</f>
-        <v>-5.5</v>
+        <v>-2.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
@@ -5981,30 +6016,6 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">

--- a/Organisation/Aufwandserfassung/Aufwandserfassung_Wochenbericht_KW11.xlsx
+++ b/Organisation/Aufwandserfassung/Aufwandserfassung_Wochenbericht_KW11.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achgross\Documents\GitHub\METLAB_News\Organisation\Aufwandserfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\METLAB_News\Organisation\Aufwandserfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878DEC80-7DF0-4DFF-8BFB-163AB8B3B693}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27880" windowHeight="12790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27885" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamt" sheetId="1" r:id="rId1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="65">
   <si>
     <t>Wöchentlicher Aufwandsbericht</t>
   </si>
@@ -222,12 +223,15 @@
   </si>
   <si>
     <t>JUnit</t>
+  </si>
+  <si>
+    <t>Projektwebsite bearbeiten</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -456,7 +460,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -464,26 +482,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -494,14 +492,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -512,9 +507,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
     <dxf>
@@ -972,48 +976,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O113"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
       <selection activeCell="B111" sqref="B111:D111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.08984375" customWidth="1"/>
-    <col min="2" max="2" width="15.08984375" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" customWidth="1"/>
-    <col min="4" max="4" width="29.36328125" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" customWidth="1"/>
-    <col min="6" max="6" width="13.90625" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" customWidth="1"/>
-    <col min="9" max="9" width="7.6328125" customWidth="1"/>
-    <col min="12" max="12" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.54296875" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B2" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
+    <row r="1" spans="2:15" ht="11.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
@@ -1022,7 +1026,7 @@
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
@@ -1031,7 +1035,7 @@
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
@@ -1043,17 +1047,17 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
       <c r="M5" s="16"/>
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>6</v>
       </c>
@@ -1063,11 +1067,11 @@
       <c r="G6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="33" t="str">
+      <c r="I6" s="25" t="str">
         <f>C13</f>
         <v>Erik Hennig</v>
       </c>
-      <c r="J6" s="33"/>
+      <c r="J6" s="25"/>
       <c r="K6" s="16">
         <v>14.5</v>
       </c>
@@ -1083,7 +1087,7 @@
       </c>
       <c r="O6" s="16"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
@@ -1096,11 +1100,11 @@
       <c r="G7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="33" t="str">
+      <c r="I7" s="25" t="str">
         <f>C32</f>
         <v>Marco Rempfer</v>
       </c>
-      <c r="J7" s="33"/>
+      <c r="J7" s="25"/>
       <c r="K7" s="16">
         <v>9</v>
       </c>
@@ -1111,18 +1115,18 @@
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="33" t="str">
+      <c r="I8" s="25" t="str">
         <f>C49</f>
         <v>Achim Groß</v>
       </c>
-      <c r="J8" s="33"/>
+      <c r="J8" s="25"/>
       <c r="K8" s="16">
         <v>9</v>
       </c>
@@ -1133,22 +1137,22 @@
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B9" s="28" t="s">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="28"/>
+      <c r="C9" s="26"/>
       <c r="F9" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="33" t="str">
+      <c r="I9" s="25" t="str">
         <f>C66</f>
         <v>Benny Gerlach</v>
       </c>
-      <c r="J9" s="33"/>
+      <c r="J9" s="25"/>
       <c r="K9" s="16">
         <v>12</v>
       </c>
@@ -1159,7 +1163,7 @@
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>2</v>
       </c>
@@ -1172,11 +1176,11 @@
       <c r="G10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="33" t="str">
+      <c r="I10" s="25" t="str">
         <f>C83</f>
         <v>Lukas Niedergriese</v>
       </c>
-      <c r="J10" s="33"/>
+      <c r="J10" s="25"/>
       <c r="K10" s="16">
         <v>9</v>
       </c>
@@ -1187,7 +1191,7 @@
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>3</v>
       </c>
@@ -1197,11 +1201,11 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="I11" s="33" t="str">
+      <c r="I11" s="25" t="str">
         <f>C99</f>
         <v>Tobias Reis</v>
       </c>
-      <c r="J11" s="33"/>
+      <c r="J11" s="25"/>
       <c r="K11" s="16">
         <v>14</v>
       </c>
@@ -1212,11 +1216,11 @@
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
     </row>
-    <row r="12" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I12" s="33" t="s">
+    <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I12" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="33"/>
+      <c r="J12" s="25"/>
       <c r="K12" s="16">
         <f>SUM(K6:K11)</f>
         <v>67.5</v>
@@ -1233,21 +1237,21 @@
       </c>
       <c r="O12" s="16"/>
     </row>
-    <row r="13" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="29"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="30"/>
+      <c r="G13" s="31"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
@@ -1256,12 +1260,12 @@
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B14" s="26" t="s">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
       <c r="E14" s="19" t="s">
         <v>18</v>
       </c>
@@ -1279,13 +1283,13 @@
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B15" s="25" t="str">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="27" t="str">
         <f>'Erik Hennig'!A12</f>
         <v>Meetings</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
       <c r="E15" s="15" t="str">
         <f>'Erik Hennig'!D12</f>
         <v>c</v>
@@ -1298,23 +1302,23 @@
         <f>'Erik Hennig'!F12</f>
         <v>2.5</v>
       </c>
-      <c r="I15" s="28" t="s">
+      <c r="I15" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
       <c r="M15" s="16"/>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B16" s="25" t="str">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="27" t="str">
         <f>'Erik Hennig'!A13</f>
         <v>Recherche</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
       <c r="E16" s="15" t="str">
         <f>'Erik Hennig'!D13</f>
         <v>d</v>
@@ -1327,11 +1331,11 @@
         <f>'Erik Hennig'!F13</f>
         <v>3</v>
       </c>
-      <c r="I16" s="33" t="str">
+      <c r="I16" s="25" t="str">
         <f>C13</f>
         <v>Erik Hennig</v>
       </c>
-      <c r="J16" s="33"/>
+      <c r="J16" s="25"/>
       <c r="K16" s="16">
         <f>SUM(G15:G29)</f>
         <v>7</v>
@@ -1347,13 +1351,13 @@
       </c>
       <c r="O16" s="16"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B17" s="25" t="str">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="27" t="str">
         <f>'Erik Hennig'!A14</f>
         <v>Code-Standard bewerten</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
       <c r="E17" s="15" t="str">
         <f>'Erik Hennig'!D14</f>
         <v>b</v>
@@ -1366,11 +1370,11 @@
         <f>'Erik Hennig'!F14</f>
         <v>1</v>
       </c>
-      <c r="I17" s="33" t="str">
+      <c r="I17" s="25" t="str">
         <f>C32</f>
         <v>Marco Rempfer</v>
       </c>
-      <c r="J17" s="33"/>
+      <c r="J17" s="25"/>
       <c r="K17" s="16">
         <f>SUM(G34:G46)</f>
         <v>0</v>
@@ -1382,13 +1386,13 @@
       <c r="N17" s="16"/>
       <c r="O17" s="16"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B18" s="25" t="str">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="27" t="str">
         <f>'Erik Hennig'!A15</f>
         <v>Maven ausprobieren</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
       <c r="E18" s="15" t="str">
         <f>'Erik Hennig'!D15</f>
         <v>c</v>
@@ -1401,11 +1405,11 @@
         <f>'Erik Hennig'!F15</f>
         <v>0.5</v>
       </c>
-      <c r="I18" s="33" t="str">
+      <c r="I18" s="25" t="str">
         <f>C49</f>
         <v>Achim Groß</v>
       </c>
-      <c r="J18" s="33"/>
+      <c r="J18" s="25"/>
       <c r="K18" s="16">
         <f>SUM(G51:G63)</f>
         <v>7</v>
@@ -1417,13 +1421,13 @@
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B19" s="25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="27">
         <f>'Erik Hennig'!A16</f>
         <v>0</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
       <c r="E19" s="15">
         <f>'Erik Hennig'!D16</f>
         <v>0</v>
@@ -1436,11 +1440,11 @@
         <f>'Erik Hennig'!F16</f>
         <v>0</v>
       </c>
-      <c r="I19" s="33" t="str">
+      <c r="I19" s="25" t="str">
         <f>C66</f>
         <v>Benny Gerlach</v>
       </c>
-      <c r="J19" s="33"/>
+      <c r="J19" s="25"/>
       <c r="K19" s="16">
         <f>SUM(G68:G80)</f>
         <v>3</v>
@@ -1452,13 +1456,13 @@
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B20" s="25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="27">
         <f>'Erik Hennig'!A17</f>
         <v>0</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
       <c r="E20" s="15">
         <f>'Erik Hennig'!D17</f>
         <v>0</v>
@@ -1471,14 +1475,14 @@
         <f>'Erik Hennig'!F17</f>
         <v>0</v>
       </c>
-      <c r="I20" s="33" t="str">
+      <c r="I20" s="25" t="str">
         <f>C83</f>
         <v>Lukas Niedergriese</v>
       </c>
-      <c r="J20" s="33"/>
+      <c r="J20" s="25"/>
       <c r="K20" s="16">
         <f>SUM(G85:G97)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L20" s="16" t="s">
         <v>26</v>
@@ -1487,13 +1491,13 @@
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B21" s="25">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="27">
         <f>'Erik Hennig'!A18</f>
         <v>0</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
       <c r="E21" s="15">
         <f>'Erik Hennig'!D18</f>
         <v>0</v>
@@ -1506,11 +1510,11 @@
         <f>'Erik Hennig'!F18</f>
         <v>0</v>
       </c>
-      <c r="I21" s="33" t="str">
+      <c r="I21" s="25" t="str">
         <f>C99</f>
         <v>Tobias Reis</v>
       </c>
-      <c r="J21" s="33"/>
+      <c r="J21" s="25"/>
       <c r="K21" s="16">
         <f>SUM(G101:G113)</f>
         <v>7.5</v>
@@ -1522,13 +1526,13 @@
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B22" s="25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="27">
         <f>'Erik Hennig'!A19</f>
         <v>0</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
       <c r="E22" s="15">
         <f>'Erik Hennig'!D19</f>
         <v>0</v>
@@ -1541,13 +1545,13 @@
         <f>'Erik Hennig'!F19</f>
         <v>0</v>
       </c>
-      <c r="I22" s="33" t="s">
+      <c r="I22" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="33"/>
+      <c r="J22" s="25"/>
       <c r="K22" s="16">
         <f>SUM(K16:K21)</f>
-        <v>24.5</v>
+        <v>30.5</v>
       </c>
       <c r="L22" s="16" t="s">
         <v>26</v>
@@ -1560,13 +1564,13 @@
       </c>
       <c r="O22" s="16"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B23" s="25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="27">
         <f>'Erik Hennig'!A20</f>
         <v>0</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
       <c r="E23" s="15">
         <f>'Erik Hennig'!D20</f>
         <v>0</v>
@@ -1587,13 +1591,13 @@
       <c r="N23" s="16"/>
       <c r="O23" s="16"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B24" s="25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="27">
         <f>'Erik Hennig'!A21</f>
         <v>0</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
       <c r="E24" s="15">
         <f>'Erik Hennig'!D21</f>
         <v>0</v>
@@ -1614,13 +1618,13 @@
       <c r="N24" s="16"/>
       <c r="O24" s="16"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B25" s="25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="27">
         <f>'Erik Hennig'!A22</f>
         <v>0</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
       <c r="E25" s="15">
         <f>'Erik Hennig'!D22</f>
         <v>0</v>
@@ -1633,23 +1637,23 @@
         <f>'Erik Hennig'!F22</f>
         <v>0</v>
       </c>
-      <c r="I25" s="28" t="s">
+      <c r="I25" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
       <c r="O25" s="16"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B26" s="25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="27">
         <f>'Erik Hennig'!A23</f>
         <v>0</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
       <c r="E26" s="15">
         <f>'Erik Hennig'!D23</f>
         <v>0</v>
@@ -1662,11 +1666,11 @@
         <f>'Erik Hennig'!F23</f>
         <v>0</v>
       </c>
-      <c r="I26" s="33" t="str">
+      <c r="I26" s="25" t="str">
         <f>C13</f>
         <v>Erik Hennig</v>
       </c>
-      <c r="J26" s="33"/>
+      <c r="J26" s="25"/>
       <c r="K26" s="16">
         <f t="shared" ref="K26:K32" si="0">K6+K16</f>
         <v>21.5</v>
@@ -1683,13 +1687,13 @@
       </c>
       <c r="O26" s="16"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B27" s="25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="27">
         <f>'Erik Hennig'!A24</f>
         <v>0</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
       <c r="E27" s="15">
         <f>'Erik Hennig'!D24</f>
         <v>0</v>
@@ -1702,11 +1706,11 @@
         <f>'Erik Hennig'!F24</f>
         <v>0</v>
       </c>
-      <c r="I27" s="33" t="str">
+      <c r="I27" s="25" t="str">
         <f>C32</f>
         <v>Marco Rempfer</v>
       </c>
-      <c r="J27" s="33"/>
+      <c r="J27" s="25"/>
       <c r="K27" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1718,13 +1722,13 @@
       <c r="N27" s="16"/>
       <c r="O27" s="16"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B28" s="25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="27">
         <f>'Erik Hennig'!A25</f>
         <v>0</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
       <c r="E28" s="15">
         <f>'Erik Hennig'!D25</f>
         <v>0</v>
@@ -1737,11 +1741,11 @@
         <f>'Erik Hennig'!F25</f>
         <v>0</v>
       </c>
-      <c r="I28" s="33" t="str">
+      <c r="I28" s="25" t="str">
         <f>C49</f>
         <v>Achim Groß</v>
       </c>
-      <c r="J28" s="33"/>
+      <c r="J28" s="25"/>
       <c r="K28" s="16">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1753,13 +1757,13 @@
       <c r="N28" s="16"/>
       <c r="O28" s="16"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B29" s="25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="27">
         <f>'Erik Hennig'!A26</f>
         <v>0</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
       <c r="E29" s="15">
         <f>'Erik Hennig'!D26</f>
         <v>0</v>
@@ -1772,11 +1776,11 @@
         <f>'Erik Hennig'!F26</f>
         <v>0</v>
       </c>
-      <c r="I29" s="33" t="str">
+      <c r="I29" s="25" t="str">
         <f>C66</f>
         <v>Benny Gerlach</v>
       </c>
-      <c r="J29" s="33"/>
+      <c r="J29" s="25"/>
       <c r="K29" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1788,15 +1792,15 @@
       <c r="N29" s="16"/>
       <c r="O29" s="16"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="I30" s="33" t="str">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I30" s="25" t="str">
         <f>C83</f>
         <v>Lukas Niedergriese</v>
       </c>
-      <c r="J30" s="33"/>
+      <c r="J30" s="25"/>
       <c r="K30" s="16">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="L30" s="16" t="s">
         <v>26</v>
@@ -1805,12 +1809,12 @@
       <c r="N30" s="16"/>
       <c r="O30" s="16"/>
     </row>
-    <row r="31" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I31" s="33" t="str">
+    <row r="31" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I31" s="25" t="str">
         <f>C99</f>
         <v>Tobias Reis</v>
       </c>
-      <c r="J31" s="33"/>
+      <c r="J31" s="25"/>
       <c r="K31" s="16">
         <f t="shared" si="0"/>
         <v>21.5</v>
@@ -1822,28 +1826,28 @@
       <c r="N31" s="16"/>
       <c r="O31" s="16"/>
     </row>
-    <row r="32" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="29"/>
+      <c r="D32" s="30"/>
       <c r="E32" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="29" t="s">
+      <c r="F32" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="G32" s="30"/>
-      <c r="I32" s="33" t="s">
+      <c r="G32" s="31"/>
+      <c r="I32" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="J32" s="33"/>
+      <c r="J32" s="25"/>
       <c r="K32" s="16">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L32" s="16" t="s">
         <v>26</v>
@@ -1857,12 +1861,12 @@
       </c>
       <c r="O32" s="16"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B33" s="26" t="s">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
       <c r="E33" s="19" t="s">
         <v>18</v>
       </c>
@@ -1880,13 +1884,13 @@
       <c r="N33" s="16"/>
       <c r="O33" s="16"/>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B34" s="25">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="27">
         <f>'Marco Rempfer'!A12</f>
         <v>0</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
       <c r="E34" s="15">
         <f>'Marco Rempfer'!D12</f>
         <v>0</v>
@@ -1907,13 +1911,13 @@
       <c r="N34" s="16"/>
       <c r="O34" s="16"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B35" s="25">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="27">
         <f>'Marco Rempfer'!A13</f>
         <v>0</v>
       </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
       <c r="E35" s="23">
         <f>'Marco Rempfer'!D13</f>
         <v>0</v>
@@ -1934,13 +1938,13 @@
       <c r="N35" s="16"/>
       <c r="O35" s="16"/>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B36" s="25">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="27">
         <f>'Marco Rempfer'!A14</f>
         <v>0</v>
       </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
       <c r="E36" s="23">
         <f>'Marco Rempfer'!D14</f>
         <v>0</v>
@@ -1961,13 +1965,13 @@
       <c r="N36" s="16"/>
       <c r="O36" s="16"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B37" s="25">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="27">
         <f>'Marco Rempfer'!A15</f>
         <v>0</v>
       </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
       <c r="E37" s="23">
         <f>'Marco Rempfer'!D15</f>
         <v>0</v>
@@ -1981,13 +1985,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B38" s="25">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" s="27">
         <f>'Marco Rempfer'!A16</f>
         <v>0</v>
       </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
       <c r="E38" s="23">
         <f>'Marco Rempfer'!D16</f>
         <v>0</v>
@@ -2001,13 +2005,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B39" s="25">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39" s="27">
         <f>'Marco Rempfer'!A17</f>
         <v>0</v>
       </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
       <c r="E39" s="23">
         <f>'Marco Rempfer'!D17</f>
         <v>0</v>
@@ -2021,13 +2025,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B40" s="25">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40" s="27">
         <f>'Marco Rempfer'!A18</f>
         <v>0</v>
       </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
       <c r="E40" s="23">
         <f>'Marco Rempfer'!D18</f>
         <v>0</v>
@@ -2041,13 +2045,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B41" s="25">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41" s="27">
         <f>'Marco Rempfer'!A19</f>
         <v>0</v>
       </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
       <c r="E41" s="23">
         <f>'Marco Rempfer'!D19</f>
         <v>0</v>
@@ -2061,13 +2065,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B42" s="25">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42" s="27">
         <f>'Marco Rempfer'!A20</f>
         <v>0</v>
       </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
       <c r="E42" s="23">
         <f>'Marco Rempfer'!D20</f>
         <v>0</v>
@@ -2081,13 +2085,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B43" s="25">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43" s="27">
         <f>'Marco Rempfer'!A21</f>
         <v>0</v>
       </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
       <c r="E43" s="23">
         <f>'Marco Rempfer'!D21</f>
         <v>0</v>
@@ -2101,13 +2105,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B44" s="25">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44" s="27">
         <f>'Marco Rempfer'!A22</f>
         <v>0</v>
       </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
       <c r="E44" s="23">
         <f>'Marco Rempfer'!D22</f>
         <v>0</v>
@@ -2121,13 +2125,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B45" s="25">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45" s="27">
         <f>'Marco Rempfer'!A23</f>
         <v>0</v>
       </c>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
       <c r="E45" s="23">
         <f>'Marco Rempfer'!D23</f>
         <v>0</v>
@@ -2141,13 +2145,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B46" s="25">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B46" s="27">
         <f>'Marco Rempfer'!A24</f>
         <v>0</v>
       </c>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
       <c r="E46" s="23">
         <f>'Marco Rempfer'!D24</f>
         <v>0</v>
@@ -2161,7 +2165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2169,29 +2173,29 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
     </row>
-    <row r="48" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="49" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="C49" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="29"/>
+      <c r="D49" s="30"/>
       <c r="E49" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F49" s="29" t="s">
+      <c r="F49" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="G49" s="30"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B50" s="26" t="s">
+      <c r="G49" s="31"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
       <c r="E50" s="19" t="s">
         <v>18</v>
       </c>
@@ -2202,13 +2206,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B51" s="25" t="str">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="27" t="str">
         <f>'Achim Groß'!A12</f>
         <v>Meetings</v>
       </c>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
       <c r="E51" s="20" t="str">
         <f>'Achim Groß'!D12</f>
         <v>c</v>
@@ -2222,13 +2226,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B52" s="25" t="str">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="27" t="str">
         <f>'Achim Groß'!A13</f>
         <v>Recherche</v>
       </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
       <c r="E52" s="21" t="str">
         <f>'Achim Groß'!D13</f>
         <v>b</v>
@@ -2242,13 +2246,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B53" s="25" t="str">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="27" t="str">
         <f>'Achim Groß'!A14</f>
         <v>Dokumentation</v>
       </c>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
       <c r="E53" s="21" t="str">
         <f>'Achim Groß'!D14</f>
         <v>c</v>
@@ -2262,13 +2266,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B54" s="25" t="str">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="27" t="str">
         <f>'Achim Groß'!A15</f>
         <v>JUnit</v>
       </c>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
       <c r="E54" s="21" t="str">
         <f>'Achim Groß'!D15</f>
         <v>b</v>
@@ -2282,13 +2286,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B55" s="25" t="str">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="27" t="str">
         <f>'Achim Groß'!A16</f>
         <v>Aufwandsbericht</v>
       </c>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
       <c r="E55" s="21">
         <f>'Achim Groß'!D16</f>
         <v>0</v>
@@ -2302,13 +2306,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B56" s="25">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="27">
         <f>'Achim Groß'!A17</f>
         <v>0</v>
       </c>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
       <c r="E56" s="21">
         <f>'Achim Groß'!D17</f>
         <v>0</v>
@@ -2322,13 +2326,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B57" s="25">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="27">
         <f>'Achim Groß'!A18</f>
         <v>0</v>
       </c>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
       <c r="E57" s="21">
         <f>'Achim Groß'!D18</f>
         <v>0</v>
@@ -2342,13 +2346,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B58" s="25">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="27">
         <f>'Achim Groß'!A19</f>
         <v>0</v>
       </c>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
       <c r="E58" s="21">
         <f>'Achim Groß'!D19</f>
         <v>0</v>
@@ -2362,13 +2366,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B59" s="25">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="27">
         <f>'Achim Groß'!A20</f>
         <v>0</v>
       </c>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
       <c r="E59" s="21">
         <f>'Achim Groß'!D20</f>
         <v>0</v>
@@ -2382,13 +2386,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B60" s="25">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="27">
         <f>'Achim Groß'!A21</f>
         <v>0</v>
       </c>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
       <c r="E60" s="21">
         <f>'Achim Groß'!D21</f>
         <v>0</v>
@@ -2402,13 +2406,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B61" s="25">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="27">
         <f>'Achim Groß'!A22</f>
         <v>0</v>
       </c>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
       <c r="E61" s="21">
         <f>'Achim Groß'!D22</f>
         <v>0</v>
@@ -2422,13 +2426,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B62" s="25">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="27">
         <f>'Achim Groß'!A23</f>
         <v>0</v>
       </c>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
       <c r="E62" s="21">
         <f>'Achim Groß'!D23</f>
         <v>0</v>
@@ -2442,13 +2446,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B63" s="25">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="27">
         <f>'Achim Groß'!A24</f>
         <v>0</v>
       </c>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
       <c r="E63" s="21">
         <f>'Achim Groß'!D24</f>
         <v>0</v>
@@ -2462,7 +2466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2470,29 +2474,29 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
     </row>
-    <row r="65" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="66" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C66" s="29" t="s">
+      <c r="C66" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D66" s="29"/>
+      <c r="D66" s="30"/>
       <c r="E66" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F66" s="29" t="s">
+      <c r="F66" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G66" s="30"/>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B67" s="26" t="s">
+      <c r="G66" s="31"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
       <c r="E67" s="19" t="s">
         <v>18</v>
       </c>
@@ -2503,13 +2507,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B68" s="25" t="str">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="27" t="str">
         <f>'Benny Gerlach'!A12</f>
         <v>Meetings</v>
       </c>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
       <c r="E68" s="21" t="str">
         <f>'Benny Gerlach'!D12</f>
         <v>c</v>
@@ -2523,13 +2527,13 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B69" s="25" t="str">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="27" t="str">
         <f>'Benny Gerlach'!A13</f>
         <v>Analyse Echobot.de</v>
       </c>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
       <c r="E69" s="21" t="str">
         <f>'Benny Gerlach'!D13</f>
         <v>c</v>
@@ -2543,13 +2547,13 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B70" s="25">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="27">
         <f>'Benny Gerlach'!A14</f>
         <v>0</v>
       </c>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
       <c r="E70" s="21">
         <f>'Benny Gerlach'!D14</f>
         <v>0</v>
@@ -2563,13 +2567,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B71" s="25">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="27">
         <f>'Benny Gerlach'!A15</f>
         <v>0</v>
       </c>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
       <c r="E71" s="21">
         <f>'Benny Gerlach'!D15</f>
         <v>0</v>
@@ -2583,13 +2587,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B72" s="25">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="27">
         <f>'Benny Gerlach'!A16</f>
         <v>0</v>
       </c>
-      <c r="C72" s="25"/>
-      <c r="D72" s="25"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="27"/>
       <c r="E72" s="21">
         <f>'Benny Gerlach'!D16</f>
         <v>0</v>
@@ -2603,13 +2607,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B73" s="25">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="27">
         <f>'Benny Gerlach'!A17</f>
         <v>0</v>
       </c>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
       <c r="E73" s="21">
         <f>'Benny Gerlach'!D17</f>
         <v>0</v>
@@ -2623,13 +2627,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B74" s="25">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="27">
         <f>'Benny Gerlach'!A18</f>
         <v>0</v>
       </c>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
       <c r="E74" s="21">
         <f>'Benny Gerlach'!D18</f>
         <v>0</v>
@@ -2643,13 +2647,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B75" s="25">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="27">
         <f>'Benny Gerlach'!A19</f>
         <v>0</v>
       </c>
-      <c r="C75" s="25"/>
-      <c r="D75" s="25"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
       <c r="E75" s="21">
         <f>'Benny Gerlach'!D19</f>
         <v>0</v>
@@ -2663,13 +2667,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B76" s="25">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="27">
         <f>'Benny Gerlach'!A20</f>
         <v>0</v>
       </c>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
       <c r="E76" s="21">
         <f>'Benny Gerlach'!D20</f>
         <v>0</v>
@@ -2683,13 +2687,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B77" s="25">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="27">
         <f>'Benny Gerlach'!A21</f>
         <v>0</v>
       </c>
-      <c r="C77" s="25"/>
-      <c r="D77" s="25"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
       <c r="E77" s="21">
         <f>'Benny Gerlach'!D21</f>
         <v>0</v>
@@ -2703,13 +2707,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B78" s="25">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="27">
         <f>'Benny Gerlach'!A22</f>
         <v>0</v>
       </c>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
       <c r="E78" s="21">
         <f>'Benny Gerlach'!D22</f>
         <v>0</v>
@@ -2723,13 +2727,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B79" s="25">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="27">
         <f>'Benny Gerlach'!A23</f>
         <v>0</v>
       </c>
-      <c r="C79" s="25"/>
-      <c r="D79" s="25"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="27"/>
       <c r="E79" s="21">
         <f>'Benny Gerlach'!D23</f>
         <v>0</v>
@@ -2743,13 +2747,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B80" s="25">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="27">
         <f>'Benny Gerlach'!A24</f>
         <v>0</v>
       </c>
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="27"/>
       <c r="E80" s="21">
         <f>'Benny Gerlach'!D24</f>
         <v>0</v>
@@ -2763,29 +2767,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="83" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="83" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C83" s="29" t="s">
+      <c r="C83" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D83" s="29"/>
+      <c r="D83" s="30"/>
       <c r="E83" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F83" s="29" t="s">
+      <c r="F83" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="G83" s="30"/>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B84" s="26" t="s">
+      <c r="G83" s="31"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C84" s="26"/>
-      <c r="D84" s="26"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
       <c r="E84" s="19" t="s">
         <v>18</v>
       </c>
@@ -2796,73 +2800,73 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B85" s="31">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="28" t="str">
         <f>'Lukas Niedergriese'!A12</f>
-        <v>0</v>
-      </c>
-      <c r="C85" s="32"/>
-      <c r="D85" s="32"/>
-      <c r="E85" s="6">
+        <v>Meetings</v>
+      </c>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="6" t="str">
         <f>'Lukas Niedergriese'!D12</f>
-        <v>0</v>
-      </c>
-      <c r="F85" s="6">
+        <v>c</v>
+      </c>
+      <c r="F85" s="6" t="str">
         <f>'Lukas Niedergriese'!E12</f>
-        <v>0</v>
+        <v>c</v>
       </c>
       <c r="G85" s="6">
         <f>'Lukas Niedergriese'!F12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B86" s="31">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="28" t="str">
         <f>'Lukas Niedergriese'!A13</f>
-        <v>0</v>
-      </c>
-      <c r="C86" s="32"/>
-      <c r="D86" s="32"/>
-      <c r="E86" s="6">
+        <v>Recherche</v>
+      </c>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="6" t="str">
         <f>'Lukas Niedergriese'!D13</f>
-        <v>0</v>
-      </c>
-      <c r="F86" s="6">
+        <v>c</v>
+      </c>
+      <c r="F86" s="6" t="str">
         <f>'Lukas Niedergriese'!E13</f>
-        <v>0</v>
+        <v>c</v>
       </c>
       <c r="G86" s="6">
         <f>'Lukas Niedergriese'!F13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B87" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="28" t="str">
         <f>'Lukas Niedergriese'!A14</f>
-        <v>0</v>
-      </c>
-      <c r="C87" s="32"/>
-      <c r="D87" s="32"/>
-      <c r="E87" s="6">
+        <v>Projektwebsite bearbeiten</v>
+      </c>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="6" t="str">
         <f>'Lukas Niedergriese'!D14</f>
-        <v>0</v>
-      </c>
-      <c r="F87" s="6">
+        <v>c</v>
+      </c>
+      <c r="F87" s="6" t="str">
         <f>'Lukas Niedergriese'!E14</f>
-        <v>0</v>
+        <v>c</v>
       </c>
       <c r="G87" s="6">
         <f>'Lukas Niedergriese'!F14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B88" s="31">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88" s="28">
         <f>'Lukas Niedergriese'!A15</f>
         <v>0</v>
       </c>
-      <c r="C88" s="32"/>
-      <c r="D88" s="32"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
       <c r="E88" s="6">
         <f>'Lukas Niedergriese'!D15</f>
         <v>0</v>
@@ -2876,13 +2880,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B89" s="31">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89" s="28">
         <f>'Lukas Niedergriese'!A16</f>
         <v>0</v>
       </c>
-      <c r="C89" s="32"/>
-      <c r="D89" s="32"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="29"/>
       <c r="E89" s="6">
         <f>'Lukas Niedergriese'!D16</f>
         <v>0</v>
@@ -2896,13 +2900,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B90" s="31">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="28">
         <f>'Lukas Niedergriese'!A17</f>
         <v>0</v>
       </c>
-      <c r="C90" s="32"/>
-      <c r="D90" s="32"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
       <c r="E90" s="6">
         <f>'Lukas Niedergriese'!D17</f>
         <v>0</v>
@@ -2916,13 +2920,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B91" s="31">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91" s="28">
         <f>'Lukas Niedergriese'!A18</f>
         <v>0</v>
       </c>
-      <c r="C91" s="32"/>
-      <c r="D91" s="32"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
       <c r="E91" s="6">
         <f>'Lukas Niedergriese'!D18</f>
         <v>0</v>
@@ -2936,13 +2940,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B92" s="31">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B92" s="28">
         <f>'Lukas Niedergriese'!A19</f>
         <v>0</v>
       </c>
-      <c r="C92" s="32"/>
-      <c r="D92" s="32"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="29"/>
       <c r="E92" s="6">
         <f>'Lukas Niedergriese'!D19</f>
         <v>0</v>
@@ -2956,13 +2960,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B93" s="31">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93" s="28">
         <f>'Lukas Niedergriese'!A20</f>
         <v>0</v>
       </c>
-      <c r="C93" s="32"/>
-      <c r="D93" s="32"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
       <c r="E93" s="6">
         <f>'Lukas Niedergriese'!D20</f>
         <v>0</v>
@@ -2976,13 +2980,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B94" s="31">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94" s="28">
         <f>'Lukas Niedergriese'!A21</f>
         <v>0</v>
       </c>
-      <c r="C94" s="32"/>
-      <c r="D94" s="32"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
       <c r="E94" s="6">
         <f>'Lukas Niedergriese'!D21</f>
         <v>0</v>
@@ -2996,13 +3000,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B95" s="31">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95" s="28">
         <f>'Lukas Niedergriese'!A22</f>
         <v>0</v>
       </c>
-      <c r="C95" s="32"/>
-      <c r="D95" s="32"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="29"/>
       <c r="E95" s="6">
         <f>'Lukas Niedergriese'!D22</f>
         <v>0</v>
@@ -3016,13 +3020,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B96" s="31">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96" s="28">
         <f>'Lukas Niedergriese'!A23</f>
         <v>0</v>
       </c>
-      <c r="C96" s="32"/>
-      <c r="D96" s="32"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="29"/>
       <c r="E96" s="6">
         <f>'Lukas Niedergriese'!D23</f>
         <v>0</v>
@@ -3036,13 +3040,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B97" s="31">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B97" s="28">
         <f>'Lukas Niedergriese'!A24</f>
         <v>0</v>
       </c>
-      <c r="C97" s="32"/>
-      <c r="D97" s="32"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
       <c r="E97" s="6">
         <f>'Lukas Niedergriese'!D24</f>
         <v>0</v>
@@ -3056,29 +3060,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="99" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="99" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B99" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C99" s="29" t="s">
+      <c r="C99" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D99" s="29"/>
+      <c r="D99" s="30"/>
       <c r="E99" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F99" s="29" t="s">
+      <c r="F99" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G99" s="30"/>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B100" s="26" t="s">
+      <c r="G99" s="31"/>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C100" s="26"/>
-      <c r="D100" s="26"/>
+      <c r="C100" s="32"/>
+      <c r="D100" s="32"/>
       <c r="E100" s="19" t="s">
         <v>18</v>
       </c>
@@ -3089,13 +3093,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B101" s="25" t="str">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="27" t="str">
         <f>'Tobias Reis'!A12</f>
         <v>Meeting / Interview</v>
       </c>
-      <c r="C101" s="25"/>
-      <c r="D101" s="25"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="27"/>
       <c r="E101" s="15" t="str">
         <f>'Tobias Reis'!D12</f>
         <v>d</v>
@@ -3109,13 +3113,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B102" s="25" t="str">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B102" s="27" t="str">
         <f>'Tobias Reis'!A13</f>
         <v>Protokoll schreiben / Projekt Dokumentieren</v>
       </c>
-      <c r="C102" s="25"/>
-      <c r="D102" s="25"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="27"/>
       <c r="E102" s="15" t="str">
         <f>'Tobias Reis'!D13</f>
         <v>c</v>
@@ -3129,13 +3133,13 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B103" s="25" t="str">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B103" s="27" t="str">
         <f>'Tobias Reis'!A14</f>
         <v>Recherche über unser Projekt</v>
       </c>
-      <c r="C103" s="25"/>
-      <c r="D103" s="25"/>
+      <c r="C103" s="27"/>
+      <c r="D103" s="27"/>
       <c r="E103" s="15" t="str">
         <f>'Tobias Reis'!D14</f>
         <v>c</v>
@@ -3149,13 +3153,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B104" s="25" t="str">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B104" s="27" t="str">
         <f>'Tobias Reis'!A15</f>
         <v>Grundgerüst für Recherchebericht erstellt</v>
       </c>
-      <c r="C104" s="25"/>
-      <c r="D104" s="25"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="27"/>
       <c r="E104" s="15" t="str">
         <f>'Tobias Reis'!D15</f>
         <v>c</v>
@@ -3169,13 +3173,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B105" s="25" t="str">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B105" s="27" t="str">
         <f>'Tobias Reis'!A16</f>
         <v>Projekthomepage erstellt</v>
       </c>
-      <c r="C105" s="25"/>
-      <c r="D105" s="25"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="27"/>
       <c r="E105" s="15" t="str">
         <f>'Tobias Reis'!D16</f>
         <v>c</v>
@@ -3189,13 +3193,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B106" s="25">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B106" s="27">
         <f>'Tobias Reis'!A17</f>
         <v>0</v>
       </c>
-      <c r="C106" s="25"/>
-      <c r="D106" s="25"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="27"/>
       <c r="E106" s="15">
         <f>'Tobias Reis'!D17</f>
         <v>0</v>
@@ -3209,13 +3213,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B107" s="25">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B107" s="27">
         <f>'Tobias Reis'!A18</f>
         <v>0</v>
       </c>
-      <c r="C107" s="25"/>
-      <c r="D107" s="25"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="27"/>
       <c r="E107" s="15">
         <f>'Tobias Reis'!D18</f>
         <v>0</v>
@@ -3229,13 +3233,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B108" s="25">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B108" s="27">
         <f>'Tobias Reis'!A19</f>
         <v>0</v>
       </c>
-      <c r="C108" s="25"/>
-      <c r="D108" s="25"/>
+      <c r="C108" s="27"/>
+      <c r="D108" s="27"/>
       <c r="E108" s="15">
         <f>'Tobias Reis'!D19</f>
         <v>0</v>
@@ -3249,13 +3253,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B109" s="25">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B109" s="27">
         <f>'Tobias Reis'!A20</f>
         <v>0</v>
       </c>
-      <c r="C109" s="25"/>
-      <c r="D109" s="25"/>
+      <c r="C109" s="27"/>
+      <c r="D109" s="27"/>
       <c r="E109" s="15">
         <f>'Tobias Reis'!D20</f>
         <v>0</v>
@@ -3269,13 +3273,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B110" s="25">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B110" s="27">
         <f>'Tobias Reis'!A21</f>
         <v>0</v>
       </c>
-      <c r="C110" s="25"/>
-      <c r="D110" s="25"/>
+      <c r="C110" s="27"/>
+      <c r="D110" s="27"/>
       <c r="E110" s="15">
         <f>'Tobias Reis'!D21</f>
         <v>0</v>
@@ -3289,13 +3293,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B111" s="25">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B111" s="27">
         <f>'Tobias Reis'!A22</f>
         <v>0</v>
       </c>
-      <c r="C111" s="25"/>
-      <c r="D111" s="25"/>
+      <c r="C111" s="27"/>
+      <c r="D111" s="27"/>
       <c r="E111" s="15">
         <f>'Tobias Reis'!D22</f>
         <v>0</v>
@@ -3309,13 +3313,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B112" s="25">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B112" s="27">
         <f>'Tobias Reis'!A23</f>
         <v>0</v>
       </c>
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
       <c r="E112" s="15">
         <f>'Tobias Reis'!D23</f>
         <v>0</v>
@@ -3329,13 +3333,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B113" s="25">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B113" s="27">
         <f>'Tobias Reis'!A24</f>
         <v>0</v>
       </c>
-      <c r="C113" s="25"/>
-      <c r="D113" s="25"/>
+      <c r="C113" s="27"/>
+      <c r="D113" s="27"/>
       <c r="E113" s="15">
         <f>'Tobias Reis'!D24</f>
         <v>0</v>
@@ -3351,29 +3355,83 @@
     </row>
   </sheetData>
   <mergeCells count="124">
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B94:D94"/>
     <mergeCell ref="B113:D113"/>
     <mergeCell ref="I5:L5"/>
     <mergeCell ref="B107:D107"/>
@@ -3398,83 +3456,29 @@
     <mergeCell ref="C83:D83"/>
     <mergeCell ref="F83:G83"/>
     <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B2:H3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3482,55 +3486,55 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B6"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.08984375" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" customWidth="1"/>
-    <col min="6" max="6" width="13.90625" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="28" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="D4" s="28" t="s">
+      <c r="B4" s="26"/>
+      <c r="D4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3544,12 +3548,12 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="33"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G5" s="25"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3560,52 +3564,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="33"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G6" s="25"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="33"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="28" t="s">
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="26"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="33"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="33" t="s">
+      <c r="G8" s="25"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="25"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="33"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="38" t="s">
+      <c r="G9" s="25"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -3617,230 +3621,278 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="6">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="34" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="34" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="34" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="10" t="e">
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="10">
         <f>D33/D34</f>
-        <v>#DIV/0!</v>
+        <v>2</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="34" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="34" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
       <c r="D37">
         <f>D33-10</f>
-        <v>-10</v>
+        <v>-4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:B4"/>
@@ -3853,30 +3905,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
@@ -3894,55 +3922,55 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.36328125" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" customWidth="1"/>
-    <col min="6" max="6" width="13.6328125" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="28" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="D4" s="28" t="s">
+      <c r="B4" s="26"/>
+      <c r="D4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3956,12 +3984,12 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="33"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G5" s="25"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3972,52 +4000,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="33"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G6" s="25"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="33"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="28" t="s">
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="26"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="33"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="33" t="s">
+      <c r="G8" s="25"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="25"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="33"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="38" t="s">
+      <c r="G9" s="25"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -4029,12 +4057,12 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="25" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
@@ -4045,12 +4073,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="25" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="6" t="s">
         <v>8</v>
       </c>
@@ -4061,12 +4089,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="25" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="6" t="s">
         <v>9</v>
       </c>
@@ -4077,12 +4105,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="25" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="6" t="s">
         <v>8</v>
       </c>
@@ -4093,142 +4121,142 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="42" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="44"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="34" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>7</v>
@@ -4237,24 +4265,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="34" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>4</v>
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="34" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>1.75</v>
@@ -4263,23 +4291,23 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="34" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="34" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-3</v>
@@ -4287,6 +4315,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:B4"/>
@@ -4299,30 +4351,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
@@ -4340,55 +4368,55 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.54296875" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" customWidth="1"/>
-    <col min="6" max="6" width="13.90625" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="28" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="D4" s="28" t="s">
+      <c r="B4" s="26"/>
+      <c r="D4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -4402,12 +4430,12 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="33"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G5" s="25"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4418,52 +4446,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="33"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G6" s="25"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="33"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="28" t="s">
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="26"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="33"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="33" t="s">
+      <c r="G8" s="25"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="25"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="33"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="38" t="s">
+      <c r="G9" s="25"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -4475,172 +4503,172 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="39"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="41"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="42"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="39"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="41"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="42"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="34" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>0</v>
@@ -4649,24 +4677,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="34" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>0</v>
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="34" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="10" t="e">
         <f>D33/D34</f>
         <v>#DIV/0!</v>
@@ -4675,23 +4703,23 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="34" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="34" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-10</v>
@@ -4699,6 +4727,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:B4"/>
@@ -4711,30 +4763,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
@@ -4752,55 +4780,55 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.08984375" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" customWidth="1"/>
-    <col min="6" max="6" width="13.90625" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="28" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="D4" s="28" t="s">
+      <c r="B4" s="26"/>
+      <c r="D4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -4814,12 +4842,12 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="33"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G5" s="25"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4830,52 +4858,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="33"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G6" s="25"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="33"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="28" t="s">
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="26"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="33"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="33" t="s">
+      <c r="G8" s="25"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="25"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="33"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="38" t="s">
+      <c r="G9" s="25"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -4887,12 +4915,12 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="25" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="24" t="s">
         <v>9</v>
       </c>
@@ -4903,12 +4931,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="25" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="21" t="s">
         <v>9</v>
       </c>
@@ -4919,156 +4947,156 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="34" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>3</v>
@@ -5077,24 +5105,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="34" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>2</v>
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="34" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>1.5</v>
@@ -5103,23 +5131,23 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="34" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="34" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-7</v>
@@ -5127,6 +5155,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:B4"/>
@@ -5139,30 +5191,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
@@ -5180,55 +5208,55 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.08984375" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" customWidth="1"/>
-    <col min="6" max="6" width="13.90625" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="28" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="D4" s="28" t="s">
+      <c r="B4" s="26"/>
+      <c r="D4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -5242,12 +5270,12 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="33"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G5" s="25"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -5258,52 +5286,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="33"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G6" s="25"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="33"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="28" t="s">
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="26"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="33"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="33" t="s">
+      <c r="G8" s="25"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="25"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="33"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="38" t="s">
+      <c r="G9" s="25"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -5315,12 +5343,12 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="25" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
@@ -5331,12 +5359,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="25" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="14" t="s">
         <v>10</v>
       </c>
@@ -5347,12 +5375,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="25" t="s">
+    <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="6" t="s">
         <v>8</v>
       </c>
@@ -5363,12 +5391,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="25" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="6" t="s">
         <v>9</v>
       </c>
@@ -5379,140 +5407,140 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="34" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>7</v>
@@ -5521,24 +5549,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="34" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>4</v>
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="34" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>1.75</v>
@@ -5547,23 +5575,23 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="34" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="34" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-3</v>
@@ -5571,6 +5599,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:B4"/>
@@ -5583,30 +5635,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
@@ -5624,55 +5652,55 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.08984375" customWidth="1"/>
-    <col min="3" max="3" width="31.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" customWidth="1"/>
-    <col min="6" max="6" width="13.90625" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="28" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="D4" s="28" t="s">
+      <c r="B4" s="26"/>
+      <c r="D4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -5686,12 +5714,12 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="33"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G5" s="25"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -5702,52 +5730,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="33"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G6" s="25"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="33"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="28" t="s">
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="26"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="33"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="33" t="s">
+      <c r="G8" s="25"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="25"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="33"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="38" t="s">
+      <c r="G9" s="25"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -5759,12 +5787,12 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="42" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="44"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="22" t="s">
         <v>10</v>
       </c>
@@ -5775,12 +5803,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="42" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="44"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="41"/>
       <c r="D13" s="22" t="s">
         <v>9</v>
       </c>
@@ -5791,12 +5819,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="42" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="44"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41"/>
       <c r="D14" s="22" t="s">
         <v>9</v>
       </c>
@@ -5807,12 +5835,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="42" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="44"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
       <c r="D15" s="22" t="s">
         <v>9</v>
       </c>
@@ -5823,12 +5851,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="42" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="44"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="22" t="s">
         <v>9</v>
       </c>
@@ -5839,132 +5867,132 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="42"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="44"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="39"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="34" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>7.5</v>
@@ -5973,24 +6001,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="34" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>5</v>
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="34" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>1.5</v>
@@ -5999,23 +6027,23 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="34" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="34" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-2.5</v>
@@ -6023,6 +6051,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:B4"/>
@@ -6035,30 +6087,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">

--- a/Organisation/Aufwandserfassung/Aufwandserfassung_Wochenbericht_KW11.xlsx
+++ b/Organisation/Aufwandserfassung/Aufwandserfassung_Wochenbericht_KW11.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobia\OneDrive\Dokumente\GitHub\METLAB_News\Organisation\Aufwandserfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achgross\Documents\GitHub\METLAB_News\Organisation\Aufwandserfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27876" windowHeight="12792" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27880" windowHeight="12790"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamt" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Erik Hennig" sheetId="3" r:id="rId6"/>
     <sheet name="Tobias Reis" sheetId="2" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="64">
   <si>
     <t>Wöchentlicher Aufwandsbericht</t>
   </si>
@@ -213,6 +213,15 @@
   </si>
   <si>
     <t>Projekthomepage erstellt</t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
+  </si>
+  <si>
+    <t>Aufwandsbericht</t>
+  </si>
+  <si>
+    <t>JUnit</t>
   </si>
 </sst>
 </file>
@@ -505,7 +514,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
     <dxf>
@@ -966,27 +975,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O113"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A85" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="B111" sqref="B111:D111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" customWidth="1"/>
-    <col min="12" max="12" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="2.08984375" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" customWidth="1"/>
+    <col min="4" max="4" width="29.36328125" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" customWidth="1"/>
+    <col min="7" max="7" width="13.6328125" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" customWidth="1"/>
+    <col min="9" max="9" width="7.6328125" customWidth="1"/>
+    <col min="12" max="12" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
@@ -997,7 +1006,7 @@
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
@@ -1013,7 +1022,7 @@
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
@@ -1022,7 +1031,7 @@
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
@@ -1044,7 +1053,7 @@
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
       <c r="E6" t="s">
         <v>6</v>
       </c>
@@ -1074,7 +1083,7 @@
       </c>
       <c r="O6" s="16"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
@@ -1102,7 +1111,7 @@
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
       <c r="F8" t="s">
         <v>9</v>
       </c>
@@ -1124,7 +1133,7 @@
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B9" s="28" t="s">
         <v>1</v>
       </c>
@@ -1150,7 +1159,7 @@
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>2</v>
       </c>
@@ -1178,7 +1187,7 @@
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>3</v>
       </c>
@@ -1203,7 +1212,7 @@
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
     </row>
-    <row r="12" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I12" s="33" t="s">
         <v>28</v>
       </c>
@@ -1224,7 +1233,7 @@
       </c>
       <c r="O12" s="16"/>
     </row>
-    <row r="13" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="17" t="s">
         <v>21</v>
       </c>
@@ -1247,7 +1256,7 @@
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B14" s="26" t="s">
         <v>17</v>
       </c>
@@ -1270,7 +1279,7 @@
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B15" s="25" t="str">
         <f>'Erik Hennig'!A12</f>
         <v>Meetings</v>
@@ -1299,7 +1308,7 @@
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B16" s="25" t="str">
         <f>'Erik Hennig'!A13</f>
         <v>Recherche</v>
@@ -1338,7 +1347,7 @@
       </c>
       <c r="O16" s="16"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B17" s="25" t="str">
         <f>'Erik Hennig'!A14</f>
         <v>Code-Standard bewerten</v>
@@ -1373,7 +1382,7 @@
       <c r="N17" s="16"/>
       <c r="O17" s="16"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B18" s="25" t="str">
         <f>'Erik Hennig'!A15</f>
         <v>Maven ausprobieren</v>
@@ -1399,7 +1408,7 @@
       <c r="J18" s="33"/>
       <c r="K18" s="16">
         <f>SUM(G51:G63)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L18" s="16" t="s">
         <v>26</v>
@@ -1408,7 +1417,7 @@
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B19" s="25">
         <f>'Erik Hennig'!A16</f>
         <v>0</v>
@@ -1443,7 +1452,7 @@
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B20" s="25">
         <f>'Erik Hennig'!A17</f>
         <v>0</v>
@@ -1478,7 +1487,7 @@
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B21" s="25">
         <f>'Erik Hennig'!A18</f>
         <v>0</v>
@@ -1513,7 +1522,7 @@
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B22" s="25">
         <f>'Erik Hennig'!A19</f>
         <v>0</v>
@@ -1538,7 +1547,7 @@
       <c r="J22" s="33"/>
       <c r="K22" s="16">
         <f>SUM(K16:K21)</f>
-        <v>17.5</v>
+        <v>24.5</v>
       </c>
       <c r="L22" s="16" t="s">
         <v>26</v>
@@ -1551,7 +1560,7 @@
       </c>
       <c r="O22" s="16"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B23" s="25">
         <f>'Erik Hennig'!A20</f>
         <v>0</v>
@@ -1578,7 +1587,7 @@
       <c r="N23" s="16"/>
       <c r="O23" s="16"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B24" s="25">
         <f>'Erik Hennig'!A21</f>
         <v>0</v>
@@ -1605,7 +1614,7 @@
       <c r="N24" s="16"/>
       <c r="O24" s="16"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B25" s="25">
         <f>'Erik Hennig'!A22</f>
         <v>0</v>
@@ -1634,7 +1643,7 @@
       <c r="N25" s="16"/>
       <c r="O25" s="16"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B26" s="25">
         <f>'Erik Hennig'!A23</f>
         <v>0</v>
@@ -1674,7 +1683,7 @@
       </c>
       <c r="O26" s="16"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B27" s="25">
         <f>'Erik Hennig'!A24</f>
         <v>0</v>
@@ -1709,7 +1718,7 @@
       <c r="N27" s="16"/>
       <c r="O27" s="16"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B28" s="25">
         <f>'Erik Hennig'!A25</f>
         <v>0</v>
@@ -1735,7 +1744,7 @@
       <c r="J28" s="33"/>
       <c r="K28" s="16">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L28" s="16" t="s">
         <v>26</v>
@@ -1744,7 +1753,7 @@
       <c r="N28" s="16"/>
       <c r="O28" s="16"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B29" s="25">
         <f>'Erik Hennig'!A26</f>
         <v>0</v>
@@ -1779,7 +1788,7 @@
       <c r="N29" s="16"/>
       <c r="O29" s="16"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
       <c r="I30" s="33" t="str">
         <f>C83</f>
         <v>Lukas Niedergriese</v>
@@ -1796,7 +1805,7 @@
       <c r="N30" s="16"/>
       <c r="O30" s="16"/>
     </row>
-    <row r="31" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I31" s="33" t="str">
         <f>C99</f>
         <v>Tobias Reis</v>
@@ -1813,7 +1822,7 @@
       <c r="N31" s="16"/>
       <c r="O31" s="16"/>
     </row>
-    <row r="32" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B32" s="17" t="s">
         <v>21</v>
       </c>
@@ -1834,7 +1843,7 @@
       <c r="J32" s="33"/>
       <c r="K32" s="16">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="L32" s="16" t="s">
         <v>26</v>
@@ -1848,7 +1857,7 @@
       </c>
       <c r="O32" s="16"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B33" s="26" t="s">
         <v>17</v>
       </c>
@@ -1871,7 +1880,7 @@
       <c r="N33" s="16"/>
       <c r="O33" s="16"/>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B34" s="25">
         <f>'Marco Rempfer'!A12</f>
         <v>0</v>
@@ -1898,7 +1907,7 @@
       <c r="N34" s="16"/>
       <c r="O34" s="16"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B35" s="25">
         <f>'Marco Rempfer'!A13</f>
         <v>0</v>
@@ -1925,7 +1934,7 @@
       <c r="N35" s="16"/>
       <c r="O35" s="16"/>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B36" s="25">
         <f>'Marco Rempfer'!A14</f>
         <v>0</v>
@@ -1952,7 +1961,7 @@
       <c r="N36" s="16"/>
       <c r="O36" s="16"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B37" s="25">
         <f>'Marco Rempfer'!A15</f>
         <v>0</v>
@@ -1972,7 +1981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B38" s="25">
         <f>'Marco Rempfer'!A16</f>
         <v>0</v>
@@ -1992,7 +2001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B39" s="25">
         <f>'Marco Rempfer'!A17</f>
         <v>0</v>
@@ -2012,7 +2021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B40" s="25">
         <f>'Marco Rempfer'!A18</f>
         <v>0</v>
@@ -2032,7 +2041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B41" s="25">
         <f>'Marco Rempfer'!A19</f>
         <v>0</v>
@@ -2052,7 +2061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B42" s="25">
         <f>'Marco Rempfer'!A20</f>
         <v>0</v>
@@ -2072,7 +2081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B43" s="25">
         <f>'Marco Rempfer'!A21</f>
         <v>0</v>
@@ -2092,7 +2101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B44" s="25">
         <f>'Marco Rempfer'!A22</f>
         <v>0</v>
@@ -2112,7 +2121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B45" s="25">
         <f>'Marco Rempfer'!A23</f>
         <v>0</v>
@@ -2132,7 +2141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B46" s="25">
         <f>'Marco Rempfer'!A24</f>
         <v>0</v>
@@ -2152,7 +2161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2160,8 +2169,8 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
     </row>
-    <row r="48" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="49" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="49" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B49" s="17" t="s">
         <v>21</v>
       </c>
@@ -2177,7 +2186,7 @@
       </c>
       <c r="G49" s="30"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B50" s="26" t="s">
         <v>17</v>
       </c>
@@ -2193,90 +2202,90 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B51" s="25">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B51" s="25" t="str">
         <f>'Achim Groß'!A12</f>
-        <v>0</v>
+        <v>Meetings</v>
       </c>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
-      <c r="E51" s="20">
+      <c r="E51" s="20" t="str">
         <f>'Achim Groß'!D12</f>
-        <v>0</v>
-      </c>
-      <c r="F51" s="21">
+        <v>c</v>
+      </c>
+      <c r="F51" s="21" t="str">
         <f>'Achim Groß'!E12</f>
-        <v>0</v>
+        <v>c</v>
       </c>
       <c r="G51" s="21">
         <f>'Achim Groß'!F12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B52" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B52" s="25" t="str">
         <f>'Achim Groß'!A13</f>
-        <v>0</v>
+        <v>Recherche</v>
       </c>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
-      <c r="E52" s="21">
+      <c r="E52" s="21" t="str">
         <f>'Achim Groß'!D13</f>
-        <v>0</v>
-      </c>
-      <c r="F52" s="21">
+        <v>b</v>
+      </c>
+      <c r="F52" s="21" t="str">
         <f>'Achim Groß'!E13</f>
-        <v>0</v>
+        <v>c</v>
       </c>
       <c r="G52" s="21">
         <f>'Achim Groß'!F13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B53" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B53" s="25" t="str">
         <f>'Achim Groß'!A14</f>
-        <v>0</v>
+        <v>Dokumentation</v>
       </c>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
-      <c r="E53" s="21">
+      <c r="E53" s="21" t="str">
         <f>'Achim Groß'!D14</f>
-        <v>0</v>
-      </c>
-      <c r="F53" s="21">
+        <v>c</v>
+      </c>
+      <c r="F53" s="21" t="str">
         <f>'Achim Groß'!E14</f>
-        <v>0</v>
+        <v>d</v>
       </c>
       <c r="G53" s="21">
         <f>'Achim Groß'!F14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B54" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B54" s="25" t="str">
         <f>'Achim Groß'!A15</f>
-        <v>0</v>
+        <v>JUnit</v>
       </c>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
-      <c r="E54" s="21">
+      <c r="E54" s="21" t="str">
         <f>'Achim Groß'!D15</f>
-        <v>0</v>
-      </c>
-      <c r="F54" s="21">
+        <v>b</v>
+      </c>
+      <c r="F54" s="21" t="str">
         <f>'Achim Groß'!E15</f>
-        <v>0</v>
+        <v>d</v>
       </c>
       <c r="G54" s="21">
         <f>'Achim Groß'!F15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B55" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B55" s="25" t="str">
         <f>'Achim Groß'!A16</f>
-        <v>0</v>
+        <v>Aufwandsbericht</v>
       </c>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -2293,7 +2302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B56" s="25">
         <f>'Achim Groß'!A17</f>
         <v>0</v>
@@ -2313,7 +2322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B57" s="25">
         <f>'Achim Groß'!A18</f>
         <v>0</v>
@@ -2333,7 +2342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B58" s="25">
         <f>'Achim Groß'!A19</f>
         <v>0</v>
@@ -2353,7 +2362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B59" s="25">
         <f>'Achim Groß'!A20</f>
         <v>0</v>
@@ -2373,7 +2382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B60" s="25">
         <f>'Achim Groß'!A21</f>
         <v>0</v>
@@ -2393,7 +2402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B61" s="25">
         <f>'Achim Groß'!A22</f>
         <v>0</v>
@@ -2413,7 +2422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B62" s="25">
         <f>'Achim Groß'!A23</f>
         <v>0</v>
@@ -2433,7 +2442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B63" s="25">
         <f>'Achim Groß'!A24</f>
         <v>0</v>
@@ -2453,7 +2462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2461,8 +2470,8 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
     </row>
-    <row r="65" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="66" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="66" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B66" s="17" t="s">
         <v>21</v>
       </c>
@@ -2478,7 +2487,7 @@
       </c>
       <c r="G66" s="30"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B67" s="26" t="s">
         <v>17</v>
       </c>
@@ -2494,7 +2503,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B68" s="25" t="str">
         <f>'Benny Gerlach'!A12</f>
         <v>Meetings</v>
@@ -2514,7 +2523,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B69" s="25" t="str">
         <f>'Benny Gerlach'!A13</f>
         <v>Analyse Echobot.de</v>
@@ -2534,7 +2543,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B70" s="25">
         <f>'Benny Gerlach'!A14</f>
         <v>0</v>
@@ -2554,7 +2563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B71" s="25">
         <f>'Benny Gerlach'!A15</f>
         <v>0</v>
@@ -2574,7 +2583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B72" s="25">
         <f>'Benny Gerlach'!A16</f>
         <v>0</v>
@@ -2594,7 +2603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B73" s="25">
         <f>'Benny Gerlach'!A17</f>
         <v>0</v>
@@ -2614,7 +2623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B74" s="25">
         <f>'Benny Gerlach'!A18</f>
         <v>0</v>
@@ -2634,7 +2643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B75" s="25">
         <f>'Benny Gerlach'!A19</f>
         <v>0</v>
@@ -2654,7 +2663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B76" s="25">
         <f>'Benny Gerlach'!A20</f>
         <v>0</v>
@@ -2674,7 +2683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B77" s="25">
         <f>'Benny Gerlach'!A21</f>
         <v>0</v>
@@ -2694,7 +2703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B78" s="25">
         <f>'Benny Gerlach'!A22</f>
         <v>0</v>
@@ -2714,7 +2723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B79" s="25">
         <f>'Benny Gerlach'!A23</f>
         <v>0</v>
@@ -2734,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B80" s="25">
         <f>'Benny Gerlach'!A24</f>
         <v>0</v>
@@ -2754,8 +2763,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="83" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="83" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B83" s="17" t="s">
         <v>21</v>
       </c>
@@ -2771,7 +2780,7 @@
       </c>
       <c r="G83" s="30"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B84" s="26" t="s">
         <v>17</v>
       </c>
@@ -2787,7 +2796,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B85" s="31">
         <f>'Lukas Niedergriese'!A12</f>
         <v>0</v>
@@ -2807,7 +2816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B86" s="31">
         <f>'Lukas Niedergriese'!A13</f>
         <v>0</v>
@@ -2827,7 +2836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B87" s="31">
         <f>'Lukas Niedergriese'!A14</f>
         <v>0</v>
@@ -2847,7 +2856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B88" s="31">
         <f>'Lukas Niedergriese'!A15</f>
         <v>0</v>
@@ -2867,7 +2876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B89" s="31">
         <f>'Lukas Niedergriese'!A16</f>
         <v>0</v>
@@ -2887,7 +2896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B90" s="31">
         <f>'Lukas Niedergriese'!A17</f>
         <v>0</v>
@@ -2907,7 +2916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B91" s="31">
         <f>'Lukas Niedergriese'!A18</f>
         <v>0</v>
@@ -2927,7 +2936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B92" s="31">
         <f>'Lukas Niedergriese'!A19</f>
         <v>0</v>
@@ -2947,7 +2956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B93" s="31">
         <f>'Lukas Niedergriese'!A20</f>
         <v>0</v>
@@ -2967,7 +2976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B94" s="31">
         <f>'Lukas Niedergriese'!A21</f>
         <v>0</v>
@@ -2987,7 +2996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B95" s="31">
         <f>'Lukas Niedergriese'!A22</f>
         <v>0</v>
@@ -3007,7 +3016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B96" s="31">
         <f>'Lukas Niedergriese'!A23</f>
         <v>0</v>
@@ -3027,7 +3036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B97" s="31">
         <f>'Lukas Niedergriese'!A24</f>
         <v>0</v>
@@ -3047,8 +3056,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="99" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="99" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B99" s="17" t="s">
         <v>21</v>
       </c>
@@ -3064,7 +3073,7 @@
       </c>
       <c r="G99" s="30"/>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B100" s="26" t="s">
         <v>17</v>
       </c>
@@ -3080,7 +3089,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B101" s="25" t="str">
         <f>'Tobias Reis'!A12</f>
         <v>Meeting / Interview</v>
@@ -3100,7 +3109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B102" s="25" t="str">
         <f>'Tobias Reis'!A13</f>
         <v>Protokoll schreiben / Projekt Dokumentieren</v>
@@ -3120,7 +3129,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B103" s="25" t="str">
         <f>'Tobias Reis'!A14</f>
         <v>Recherche über unser Projekt</v>
@@ -3140,7 +3149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B104" s="25" t="str">
         <f>'Tobias Reis'!A15</f>
         <v>Grundgerüst für Recherchebericht erstellt</v>
@@ -3160,7 +3169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B105" s="25" t="str">
         <f>'Tobias Reis'!A16</f>
         <v>Projekthomepage erstellt</v>
@@ -3180,7 +3189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B106" s="25">
         <f>'Tobias Reis'!A17</f>
         <v>0</v>
@@ -3200,7 +3209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B107" s="25">
         <f>'Tobias Reis'!A18</f>
         <v>0</v>
@@ -3220,7 +3229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B108" s="25">
         <f>'Tobias Reis'!A19</f>
         <v>0</v>
@@ -3240,7 +3249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B109" s="25">
         <f>'Tobias Reis'!A20</f>
         <v>0</v>
@@ -3260,7 +3269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B110" s="25">
         <f>'Tobias Reis'!A21</f>
         <v>0</v>
@@ -3280,7 +3289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B111" s="25">
         <f>'Tobias Reis'!A22</f>
         <v>0</v>
@@ -3300,7 +3309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B112" s="25">
         <f>'Tobias Reis'!A23</f>
         <v>0</v>
@@ -3320,7 +3329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B113" s="25">
         <f>'Tobias Reis'!A24</f>
         <v>0</v>
@@ -3480,17 +3489,17 @@
       <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>43</v>
       </c>
@@ -3501,7 +3510,7 @@
       <c r="F1" s="37"/>
       <c r="G1" s="37"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="37"/>
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
@@ -3510,7 +3519,7 @@
       <c r="F2" s="37"/>
       <c r="G2" s="37"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="28" t="s">
         <v>44</v>
       </c>
@@ -3521,7 +3530,7 @@
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3540,7 +3549,7 @@
       </c>
       <c r="G5" s="33"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3556,7 +3565,7 @@
       </c>
       <c r="G6" s="33"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
         <v>9</v>
       </c>
@@ -3565,7 +3574,7 @@
       </c>
       <c r="G7" s="33"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="28" t="s">
         <v>45</v>
       </c>
@@ -3578,7 +3587,7 @@
       </c>
       <c r="G8" s="33"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="33" t="s">
         <v>36</v>
       </c>
@@ -3591,7 +3600,7 @@
       </c>
       <c r="G9" s="33"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="38" t="s">
         <v>17</v>
       </c>
@@ -3608,7 +3617,7 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="32"/>
@@ -3616,7 +3625,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -3624,7 +3633,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -3632,7 +3641,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -3640,7 +3649,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -3648,7 +3657,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
@@ -3656,7 +3665,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="35"/>
       <c r="B18" s="35"/>
       <c r="C18" s="35"/>
@@ -3664,7 +3673,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="35"/>
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
@@ -3672,7 +3681,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="35"/>
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
@@ -3680,7 +3689,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="35"/>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
@@ -3688,7 +3697,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="35"/>
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
@@ -3696,7 +3705,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="35"/>
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
@@ -3704,7 +3713,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="35"/>
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
@@ -3712,7 +3721,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="35"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -3720,7 +3729,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="35"/>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
@@ -3728,7 +3737,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="35"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
@@ -3736,7 +3745,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="35"/>
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
@@ -3744,7 +3753,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="35"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
@@ -3752,7 +3761,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="35"/>
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
@@ -3760,7 +3769,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="35"/>
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
@@ -3768,7 +3777,7 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="34" t="s">
         <v>46</v>
       </c>
@@ -3782,7 +3791,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="34" t="s">
         <v>47</v>
       </c>
@@ -3794,7 +3803,7 @@
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="34" t="s">
         <v>48</v>
       </c>
@@ -3808,7 +3817,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="34" t="s">
         <v>50</v>
       </c>
@@ -3819,7 +3828,7 @@
         <v>Nein!</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="34" t="s">
         <v>51</v>
       </c>
@@ -3889,20 +3898,20 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B6"/>
+      <selection activeCell="A16" sqref="A16:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" customWidth="1"/>
+    <col min="6" max="6" width="13.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>43</v>
       </c>
@@ -3913,7 +3922,7 @@
       <c r="F1" s="37"/>
       <c r="G1" s="37"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="37"/>
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
@@ -3922,7 +3931,7 @@
       <c r="F2" s="37"/>
       <c r="G2" s="37"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="28" t="s">
         <v>44</v>
       </c>
@@ -3933,7 +3942,7 @@
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3952,7 +3961,7 @@
       </c>
       <c r="G5" s="33"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3968,7 +3977,7 @@
       </c>
       <c r="G6" s="33"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
         <v>9</v>
       </c>
@@ -3977,7 +3986,7 @@
       </c>
       <c r="G7" s="33"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="28" t="s">
         <v>45</v>
       </c>
@@ -3990,7 +3999,7 @@
       </c>
       <c r="G8" s="33"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="33" t="s">
         <v>41</v>
       </c>
@@ -4003,7 +4012,7 @@
       </c>
       <c r="G9" s="33"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="38" t="s">
         <v>17</v>
       </c>
@@ -4020,47 +4029,81 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="25" t="s">
+        <v>56</v>
+      </c>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
+      <c r="D12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="25" t="s">
+        <v>40</v>
+      </c>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
+      <c r="D13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="25" t="s">
+        <v>61</v>
+      </c>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
+      <c r="D14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="25" t="s">
+        <v>63</v>
+      </c>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
+      <c r="D15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="43"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
@@ -4068,7 +4111,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="35"/>
       <c r="B18" s="35"/>
       <c r="C18" s="35"/>
@@ -4076,7 +4119,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="35"/>
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
@@ -4084,7 +4127,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="35"/>
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
@@ -4092,7 +4135,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="35"/>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
@@ -4100,7 +4143,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="35"/>
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
@@ -4108,7 +4151,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="35"/>
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
@@ -4116,7 +4159,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="35"/>
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
@@ -4124,7 +4167,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="35"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -4132,7 +4175,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="35"/>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
@@ -4140,7 +4183,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="35"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
@@ -4148,7 +4191,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="35"/>
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
@@ -4156,7 +4199,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="35"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
@@ -4164,7 +4207,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="35"/>
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
@@ -4172,7 +4215,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="35"/>
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
@@ -4180,7 +4223,7 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="34" t="s">
         <v>46</v>
       </c>
@@ -4188,13 +4231,13 @@
       <c r="C33" s="34"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="34" t="s">
         <v>47</v>
       </c>
@@ -4202,25 +4245,25 @@
       <c r="C34" s="34"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="34" t="s">
         <v>48</v>
       </c>
       <c r="B35" s="34"/>
       <c r="C35" s="34"/>
-      <c r="D35" s="10" t="e">
+      <c r="D35" s="10">
         <f>D33/D34</f>
-        <v>#DIV/0!</v>
+        <v>1.75</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="34" t="s">
         <v>50</v>
       </c>
@@ -4231,7 +4274,7 @@
         <v>Nein!</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="34" t="s">
         <v>51</v>
       </c>
@@ -4239,7 +4282,7 @@
       <c r="C37" s="34"/>
       <c r="D37">
         <f>D33-10</f>
-        <v>-10</v>
+        <v>-3</v>
       </c>
     </row>
   </sheetData>
@@ -4304,17 +4347,17 @@
       <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.54296875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>43</v>
       </c>
@@ -4325,7 +4368,7 @@
       <c r="F1" s="37"/>
       <c r="G1" s="37"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="37"/>
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
@@ -4334,7 +4377,7 @@
       <c r="F2" s="37"/>
       <c r="G2" s="37"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="28" t="s">
         <v>44</v>
       </c>
@@ -4345,7 +4388,7 @@
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -4364,7 +4407,7 @@
       </c>
       <c r="G5" s="33"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4380,7 +4423,7 @@
       </c>
       <c r="G6" s="33"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
         <v>9</v>
       </c>
@@ -4389,7 +4432,7 @@
       </c>
       <c r="G7" s="33"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="28" t="s">
         <v>45</v>
       </c>
@@ -4402,7 +4445,7 @@
       </c>
       <c r="G8" s="33"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="33" t="s">
         <v>34</v>
       </c>
@@ -4415,7 +4458,7 @@
       </c>
       <c r="G9" s="33"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="38" t="s">
         <v>17</v>
       </c>
@@ -4432,7 +4475,7 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="35"/>
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
@@ -4440,7 +4483,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="39"/>
       <c r="B13" s="40"/>
       <c r="C13" s="41"/>
@@ -4448,7 +4491,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="39"/>
       <c r="B14" s="40"/>
       <c r="C14" s="41"/>
@@ -4456,7 +4499,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="35"/>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
@@ -4464,7 +4507,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="35"/>
       <c r="B16" s="35"/>
       <c r="C16" s="35"/>
@@ -4472,7 +4515,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="35"/>
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
@@ -4480,7 +4523,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="35"/>
       <c r="B18" s="35"/>
       <c r="C18" s="35"/>
@@ -4488,7 +4531,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="35"/>
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
@@ -4496,7 +4539,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="35"/>
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
@@ -4504,7 +4547,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="35"/>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
@@ -4512,7 +4555,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="35"/>
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
@@ -4520,7 +4563,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="35"/>
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
@@ -4528,7 +4571,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="35"/>
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
@@ -4536,7 +4579,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="35"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -4544,7 +4587,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="35"/>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
@@ -4552,7 +4595,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="35"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
@@ -4560,7 +4603,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="35"/>
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
@@ -4568,7 +4611,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="35"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
@@ -4576,7 +4619,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="35"/>
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
@@ -4584,7 +4627,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="35"/>
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
@@ -4592,7 +4635,7 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="34" t="s">
         <v>46</v>
       </c>
@@ -4606,7 +4649,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="34" t="s">
         <v>47</v>
       </c>
@@ -4618,7 +4661,7 @@
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="34" t="s">
         <v>48</v>
       </c>
@@ -4632,7 +4675,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="34" t="s">
         <v>50</v>
       </c>
@@ -4643,7 +4686,7 @@
         <v>Nein!</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="34" t="s">
         <v>51</v>
       </c>
@@ -4716,17 +4759,17 @@
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>43</v>
       </c>
@@ -4737,7 +4780,7 @@
       <c r="F1" s="37"/>
       <c r="G1" s="37"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="37"/>
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
@@ -4746,7 +4789,7 @@
       <c r="F2" s="37"/>
       <c r="G2" s="37"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="28" t="s">
         <v>44</v>
       </c>
@@ -4757,7 +4800,7 @@
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -4776,7 +4819,7 @@
       </c>
       <c r="G5" s="33"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4792,7 +4835,7 @@
       </c>
       <c r="G6" s="33"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
         <v>9</v>
       </c>
@@ -4801,7 +4844,7 @@
       </c>
       <c r="G7" s="33"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="28" t="s">
         <v>45</v>
       </c>
@@ -4814,7 +4857,7 @@
       </c>
       <c r="G8" s="33"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="33" t="s">
         <v>35</v>
       </c>
@@ -4827,7 +4870,7 @@
       </c>
       <c r="G9" s="33"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="38" t="s">
         <v>17</v>
       </c>
@@ -4844,7 +4887,7 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="25" t="s">
         <v>56</v>
       </c>
@@ -4860,7 +4903,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="25" t="s">
         <v>57</v>
       </c>
@@ -4876,7 +4919,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -4884,7 +4927,7 @@
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -4892,7 +4935,7 @@
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
@@ -4900,7 +4943,7 @@
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
@@ -4908,7 +4951,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="35"/>
       <c r="B18" s="35"/>
       <c r="C18" s="35"/>
@@ -4916,7 +4959,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="35"/>
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
@@ -4924,7 +4967,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="35"/>
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
@@ -4932,7 +4975,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="35"/>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
@@ -4940,7 +4983,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="35"/>
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
@@ -4948,7 +4991,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="35"/>
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
@@ -4956,7 +4999,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="35"/>
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
@@ -4964,7 +5007,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="35"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -4972,7 +5015,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="35"/>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
@@ -4980,7 +5023,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="35"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
@@ -4988,7 +5031,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="35"/>
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
@@ -4996,7 +5039,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="35"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
@@ -5004,7 +5047,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="35"/>
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
@@ -5012,7 +5055,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="35"/>
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
@@ -5020,7 +5063,7 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="34" t="s">
         <v>46</v>
       </c>
@@ -5034,7 +5077,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="34" t="s">
         <v>47</v>
       </c>
@@ -5046,7 +5089,7 @@
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="34" t="s">
         <v>48</v>
       </c>
@@ -5060,7 +5103,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="34" t="s">
         <v>50</v>
       </c>
@@ -5071,7 +5114,7 @@
         <v>Nein!</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="34" t="s">
         <v>51</v>
       </c>
@@ -5144,17 +5187,17 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>43</v>
       </c>
@@ -5165,7 +5208,7 @@
       <c r="F1" s="37"/>
       <c r="G1" s="37"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="37"/>
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
@@ -5174,7 +5217,7 @@
       <c r="F2" s="37"/>
       <c r="G2" s="37"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="28" t="s">
         <v>44</v>
       </c>
@@ -5185,7 +5228,7 @@
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -5204,7 +5247,7 @@
       </c>
       <c r="G5" s="33"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -5220,7 +5263,7 @@
       </c>
       <c r="G6" s="33"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
         <v>9</v>
       </c>
@@ -5229,7 +5272,7 @@
       </c>
       <c r="G7" s="33"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="28" t="s">
         <v>45</v>
       </c>
@@ -5242,7 +5285,7 @@
       </c>
       <c r="G8" s="33"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="33" t="s">
         <v>33</v>
       </c>
@@ -5255,7 +5298,7 @@
       </c>
       <c r="G9" s="33"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="38" t="s">
         <v>17</v>
       </c>
@@ -5272,7 +5315,7 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="25" t="s">
         <v>56</v>
       </c>
@@ -5288,7 +5331,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="25" t="s">
         <v>40</v>
       </c>
@@ -5304,7 +5347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="25" t="s">
         <v>58</v>
       </c>
@@ -5320,7 +5363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="25" t="s">
         <v>59</v>
       </c>
@@ -5336,7 +5379,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
@@ -5344,7 +5387,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="35"/>
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
@@ -5352,7 +5395,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="35"/>
       <c r="B18" s="35"/>
       <c r="C18" s="35"/>
@@ -5360,7 +5403,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="35"/>
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
@@ -5368,7 +5411,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="35"/>
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
@@ -5376,7 +5419,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="35"/>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
@@ -5384,7 +5427,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="35"/>
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
@@ -5392,7 +5435,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="35"/>
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
@@ -5400,7 +5443,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="35"/>
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
@@ -5408,7 +5451,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="35"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -5416,7 +5459,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="35"/>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
@@ -5424,7 +5467,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="35"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
@@ -5432,7 +5475,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="35"/>
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
@@ -5440,7 +5483,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="35"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
@@ -5448,7 +5491,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="35"/>
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
@@ -5456,7 +5499,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="35"/>
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
@@ -5464,7 +5507,7 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="34" t="s">
         <v>46</v>
       </c>
@@ -5478,7 +5521,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="34" t="s">
         <v>47</v>
       </c>
@@ -5490,7 +5533,7 @@
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="34" t="s">
         <v>48</v>
       </c>
@@ -5504,7 +5547,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="34" t="s">
         <v>50</v>
       </c>
@@ -5515,7 +5558,7 @@
         <v>Nein!</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="34" t="s">
         <v>51</v>
       </c>
@@ -5584,21 +5627,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" customWidth="1"/>
+    <col min="3" max="3" width="31.453125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>43</v>
       </c>
@@ -5609,7 +5652,7 @@
       <c r="F1" s="37"/>
       <c r="G1" s="37"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="37"/>
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
@@ -5618,7 +5661,7 @@
       <c r="F2" s="37"/>
       <c r="G2" s="37"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="28" t="s">
         <v>44</v>
       </c>
@@ -5629,7 +5672,7 @@
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -5648,7 +5691,7 @@
       </c>
       <c r="G5" s="33"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -5664,7 +5707,7 @@
       </c>
       <c r="G6" s="33"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
         <v>9</v>
       </c>
@@ -5673,7 +5716,7 @@
       </c>
       <c r="G7" s="33"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="28" t="s">
         <v>45</v>
       </c>
@@ -5686,7 +5729,7 @@
       </c>
       <c r="G8" s="33"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="33" t="s">
         <v>38</v>
       </c>
@@ -5699,7 +5742,7 @@
       </c>
       <c r="G9" s="33"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="38" t="s">
         <v>17</v>
       </c>
@@ -5716,7 +5759,7 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="42" t="s">
         <v>52</v>
       </c>
@@ -5732,7 +5775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="42" t="s">
         <v>53</v>
       </c>
@@ -5748,7 +5791,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="42" t="s">
         <v>54</v>
       </c>
@@ -5764,7 +5807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="42" t="s">
         <v>55</v>
       </c>
@@ -5780,7 +5823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="42" t="s">
         <v>60</v>
       </c>
@@ -5796,7 +5839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="42"/>
       <c r="B17" s="43"/>
       <c r="C17" s="44"/>
@@ -5804,7 +5847,7 @@
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
@@ -5812,7 +5855,7 @@
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="35"/>
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
@@ -5820,7 +5863,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="35"/>
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
@@ -5828,7 +5871,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="35"/>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
@@ -5836,7 +5879,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="35"/>
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
@@ -5844,7 +5887,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="35"/>
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
@@ -5852,7 +5895,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="35"/>
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
@@ -5860,7 +5903,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="35"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -5868,7 +5911,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="35"/>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
@@ -5876,7 +5919,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="35"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
@@ -5884,7 +5927,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="35"/>
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
@@ -5892,7 +5935,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="35"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
@@ -5900,7 +5943,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="35"/>
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
@@ -5908,7 +5951,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="35"/>
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
@@ -5916,7 +5959,7 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="34" t="s">
         <v>46</v>
       </c>
@@ -5930,7 +5973,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="34" t="s">
         <v>47</v>
       </c>
@@ -5942,7 +5985,7 @@
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="34" t="s">
         <v>48</v>
       </c>
@@ -5956,7 +5999,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="34" t="s">
         <v>50</v>
       </c>
@@ -5967,7 +6010,7 @@
         <v>Nein!</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="34" t="s">
         <v>51</v>
       </c>

--- a/Organisation/Aufwandserfassung/Aufwandserfassung_Wochenbericht_KW11.xlsx
+++ b/Organisation/Aufwandserfassung/Aufwandserfassung_Wochenbericht_KW11.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\METLAB_News\Organisation\Aufwandserfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\Documents\GitHub\METLAB_News\Organisation\Aufwandserfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878DEC80-7DF0-4DFF-8BFB-163AB8B3B693}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E065CFD-F48C-445C-BEDC-B8409975286D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27885" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="68">
   <si>
     <t>Wöchentlicher Aufwandsbericht</t>
   </si>
@@ -226,6 +226,15 @@
   </si>
   <si>
     <t>Projektwebsite bearbeiten</t>
+  </si>
+  <si>
+    <t>Konkurenzanalyse</t>
+  </si>
+  <si>
+    <t>Recherchebericht</t>
+  </si>
+  <si>
+    <t>Recherche zu diversen Tools</t>
   </si>
 </sst>
 </file>
@@ -460,21 +469,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -482,6 +477,26 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -491,12 +506,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -979,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O113"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111:D111"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,24 +1009,24 @@
   <sheetData>
     <row r="1" spans="2:15" ht="11.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="B2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
@@ -1047,12 +1056,12 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
       <c r="M5" s="16"/>
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
@@ -1067,11 +1076,11 @@
       <c r="G6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="25" t="str">
+      <c r="I6" s="33" t="str">
         <f>C13</f>
         <v>Erik Hennig</v>
       </c>
-      <c r="J6" s="25"/>
+      <c r="J6" s="33"/>
       <c r="K6" s="16">
         <v>14.5</v>
       </c>
@@ -1100,11 +1109,11 @@
       <c r="G7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="25" t="str">
+      <c r="I7" s="33" t="str">
         <f>C32</f>
         <v>Marco Rempfer</v>
       </c>
-      <c r="J7" s="25"/>
+      <c r="J7" s="33"/>
       <c r="K7" s="16">
         <v>9</v>
       </c>
@@ -1122,11 +1131,11 @@
       <c r="G8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="25" t="str">
+      <c r="I8" s="33" t="str">
         <f>C49</f>
         <v>Achim Groß</v>
       </c>
-      <c r="J8" s="25"/>
+      <c r="J8" s="33"/>
       <c r="K8" s="16">
         <v>9</v>
       </c>
@@ -1138,21 +1147,21 @@
       <c r="O8" s="16"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="26"/>
+      <c r="C9" s="28"/>
       <c r="F9" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="25" t="str">
+      <c r="I9" s="33" t="str">
         <f>C66</f>
         <v>Benny Gerlach</v>
       </c>
-      <c r="J9" s="25"/>
+      <c r="J9" s="33"/>
       <c r="K9" s="16">
         <v>12</v>
       </c>
@@ -1176,11 +1185,11 @@
       <c r="G10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="25" t="str">
+      <c r="I10" s="33" t="str">
         <f>C83</f>
         <v>Lukas Niedergriese</v>
       </c>
-      <c r="J10" s="25"/>
+      <c r="J10" s="33"/>
       <c r="K10" s="16">
         <v>9</v>
       </c>
@@ -1201,11 +1210,11 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="I11" s="25" t="str">
+      <c r="I11" s="33" t="str">
         <f>C99</f>
         <v>Tobias Reis</v>
       </c>
-      <c r="J11" s="25"/>
+      <c r="J11" s="33"/>
       <c r="K11" s="16">
         <v>14</v>
       </c>
@@ -1217,10 +1226,10 @@
       <c r="O11" s="16"/>
     </row>
     <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="25"/>
+      <c r="J12" s="33"/>
       <c r="K12" s="16">
         <f>SUM(K6:K11)</f>
         <v>67.5</v>
@@ -1241,17 +1250,17 @@
       <c r="B13" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="30"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="31"/>
+      <c r="G13" s="30"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
@@ -1261,11 +1270,11 @@
       <c r="O13" s="16"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="19" t="s">
         <v>18</v>
       </c>
@@ -1284,12 +1293,12 @@
       <c r="O14" s="16"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="27" t="str">
+      <c r="B15" s="25" t="str">
         <f>'Erik Hennig'!A12</f>
         <v>Meetings</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="15" t="str">
         <f>'Erik Hennig'!D12</f>
         <v>c</v>
@@ -1302,23 +1311,23 @@
         <f>'Erik Hennig'!F12</f>
         <v>2.5</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
       <c r="M15" s="16"/>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="27" t="str">
+      <c r="B16" s="25" t="str">
         <f>'Erik Hennig'!A13</f>
         <v>Recherche</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="15" t="str">
         <f>'Erik Hennig'!D13</f>
         <v>d</v>
@@ -1331,11 +1340,11 @@
         <f>'Erik Hennig'!F13</f>
         <v>3</v>
       </c>
-      <c r="I16" s="25" t="str">
+      <c r="I16" s="33" t="str">
         <f>C13</f>
         <v>Erik Hennig</v>
       </c>
-      <c r="J16" s="25"/>
+      <c r="J16" s="33"/>
       <c r="K16" s="16">
         <f>SUM(G15:G29)</f>
         <v>7</v>
@@ -1352,12 +1361,12 @@
       <c r="O16" s="16"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="27" t="str">
+      <c r="B17" s="25" t="str">
         <f>'Erik Hennig'!A14</f>
         <v>Code-Standard bewerten</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="15" t="str">
         <f>'Erik Hennig'!D14</f>
         <v>b</v>
@@ -1370,14 +1379,14 @@
         <f>'Erik Hennig'!F14</f>
         <v>1</v>
       </c>
-      <c r="I17" s="25" t="str">
+      <c r="I17" s="33" t="str">
         <f>C32</f>
         <v>Marco Rempfer</v>
       </c>
-      <c r="J17" s="25"/>
+      <c r="J17" s="33"/>
       <c r="K17" s="16">
         <f>SUM(G34:G46)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L17" s="16" t="s">
         <v>26</v>
@@ -1387,12 +1396,12 @@
       <c r="O17" s="16"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="27" t="str">
+      <c r="B18" s="25" t="str">
         <f>'Erik Hennig'!A15</f>
         <v>Maven ausprobieren</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="15" t="str">
         <f>'Erik Hennig'!D15</f>
         <v>c</v>
@@ -1405,11 +1414,11 @@
         <f>'Erik Hennig'!F15</f>
         <v>0.5</v>
       </c>
-      <c r="I18" s="25" t="str">
+      <c r="I18" s="33" t="str">
         <f>C49</f>
         <v>Achim Groß</v>
       </c>
-      <c r="J18" s="25"/>
+      <c r="J18" s="33"/>
       <c r="K18" s="16">
         <f>SUM(G51:G63)</f>
         <v>7</v>
@@ -1422,12 +1431,12 @@
       <c r="O18" s="16"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="27">
+      <c r="B19" s="25">
         <f>'Erik Hennig'!A16</f>
         <v>0</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
       <c r="E19" s="15">
         <f>'Erik Hennig'!D16</f>
         <v>0</v>
@@ -1440,11 +1449,11 @@
         <f>'Erik Hennig'!F16</f>
         <v>0</v>
       </c>
-      <c r="I19" s="25" t="str">
+      <c r="I19" s="33" t="str">
         <f>C66</f>
         <v>Benny Gerlach</v>
       </c>
-      <c r="J19" s="25"/>
+      <c r="J19" s="33"/>
       <c r="K19" s="16">
         <f>SUM(G68:G80)</f>
         <v>3</v>
@@ -1457,12 +1466,12 @@
       <c r="O19" s="16"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="27">
+      <c r="B20" s="25">
         <f>'Erik Hennig'!A17</f>
         <v>0</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="15">
         <f>'Erik Hennig'!D17</f>
         <v>0</v>
@@ -1475,11 +1484,11 @@
         <f>'Erik Hennig'!F17</f>
         <v>0</v>
       </c>
-      <c r="I20" s="25" t="str">
+      <c r="I20" s="33" t="str">
         <f>C83</f>
         <v>Lukas Niedergriese</v>
       </c>
-      <c r="J20" s="25"/>
+      <c r="J20" s="33"/>
       <c r="K20" s="16">
         <f>SUM(G85:G97)</f>
         <v>6</v>
@@ -1492,12 +1501,12 @@
       <c r="O20" s="16"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="27">
+      <c r="B21" s="25">
         <f>'Erik Hennig'!A18</f>
         <v>0</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="15">
         <f>'Erik Hennig'!D18</f>
         <v>0</v>
@@ -1510,11 +1519,11 @@
         <f>'Erik Hennig'!F18</f>
         <v>0</v>
       </c>
-      <c r="I21" s="25" t="str">
+      <c r="I21" s="33" t="str">
         <f>C99</f>
         <v>Tobias Reis</v>
       </c>
-      <c r="J21" s="25"/>
+      <c r="J21" s="33"/>
       <c r="K21" s="16">
         <f>SUM(G101:G113)</f>
         <v>7.5</v>
@@ -1527,12 +1536,12 @@
       <c r="O21" s="16"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="27">
+      <c r="B22" s="25">
         <f>'Erik Hennig'!A19</f>
         <v>0</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="15">
         <f>'Erik Hennig'!D19</f>
         <v>0</v>
@@ -1545,13 +1554,13 @@
         <f>'Erik Hennig'!F19</f>
         <v>0</v>
       </c>
-      <c r="I22" s="25" t="s">
+      <c r="I22" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="25"/>
+      <c r="J22" s="33"/>
       <c r="K22" s="16">
         <f>SUM(K16:K21)</f>
-        <v>30.5</v>
+        <v>39.5</v>
       </c>
       <c r="L22" s="16" t="s">
         <v>26</v>
@@ -1565,12 +1574,12 @@
       <c r="O22" s="16"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="27">
+      <c r="B23" s="25">
         <f>'Erik Hennig'!A20</f>
         <v>0</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="15">
         <f>'Erik Hennig'!D20</f>
         <v>0</v>
@@ -1592,12 +1601,12 @@
       <c r="O23" s="16"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="27">
+      <c r="B24" s="25">
         <f>'Erik Hennig'!A21</f>
         <v>0</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="15">
         <f>'Erik Hennig'!D21</f>
         <v>0</v>
@@ -1619,12 +1628,12 @@
       <c r="O24" s="16"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="27">
+      <c r="B25" s="25">
         <f>'Erik Hennig'!A22</f>
         <v>0</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="15">
         <f>'Erik Hennig'!D22</f>
         <v>0</v>
@@ -1637,23 +1646,23 @@
         <f>'Erik Hennig'!F22</f>
         <v>0</v>
       </c>
-      <c r="I25" s="26" t="s">
+      <c r="I25" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
       <c r="O25" s="16"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="27">
+      <c r="B26" s="25">
         <f>'Erik Hennig'!A23</f>
         <v>0</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="15">
         <f>'Erik Hennig'!D23</f>
         <v>0</v>
@@ -1666,11 +1675,11 @@
         <f>'Erik Hennig'!F23</f>
         <v>0</v>
       </c>
-      <c r="I26" s="25" t="str">
+      <c r="I26" s="33" t="str">
         <f>C13</f>
         <v>Erik Hennig</v>
       </c>
-      <c r="J26" s="25"/>
+      <c r="J26" s="33"/>
       <c r="K26" s="16">
         <f t="shared" ref="K26:K32" si="0">K6+K16</f>
         <v>21.5</v>
@@ -1688,12 +1697,12 @@
       <c r="O26" s="16"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="27">
+      <c r="B27" s="25">
         <f>'Erik Hennig'!A24</f>
         <v>0</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
       <c r="E27" s="15">
         <f>'Erik Hennig'!D24</f>
         <v>0</v>
@@ -1706,14 +1715,14 @@
         <f>'Erik Hennig'!F24</f>
         <v>0</v>
       </c>
-      <c r="I27" s="25" t="str">
+      <c r="I27" s="33" t="str">
         <f>C32</f>
         <v>Marco Rempfer</v>
       </c>
-      <c r="J27" s="25"/>
+      <c r="J27" s="33"/>
       <c r="K27" s="16">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="L27" s="16" t="s">
         <v>26</v>
@@ -1723,12 +1732,12 @@
       <c r="O27" s="16"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="27">
+      <c r="B28" s="25">
         <f>'Erik Hennig'!A25</f>
         <v>0</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
       <c r="E28" s="15">
         <f>'Erik Hennig'!D25</f>
         <v>0</v>
@@ -1741,11 +1750,11 @@
         <f>'Erik Hennig'!F25</f>
         <v>0</v>
       </c>
-      <c r="I28" s="25" t="str">
+      <c r="I28" s="33" t="str">
         <f>C49</f>
         <v>Achim Groß</v>
       </c>
-      <c r="J28" s="25"/>
+      <c r="J28" s="33"/>
       <c r="K28" s="16">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1758,12 +1767,12 @@
       <c r="O28" s="16"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="27">
+      <c r="B29" s="25">
         <f>'Erik Hennig'!A26</f>
         <v>0</v>
       </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
       <c r="E29" s="15">
         <f>'Erik Hennig'!D26</f>
         <v>0</v>
@@ -1776,11 +1785,11 @@
         <f>'Erik Hennig'!F26</f>
         <v>0</v>
       </c>
-      <c r="I29" s="25" t="str">
+      <c r="I29" s="33" t="str">
         <f>C66</f>
         <v>Benny Gerlach</v>
       </c>
-      <c r="J29" s="25"/>
+      <c r="J29" s="33"/>
       <c r="K29" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1793,11 +1802,11 @@
       <c r="O29" s="16"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="I30" s="25" t="str">
+      <c r="I30" s="33" t="str">
         <f>C83</f>
         <v>Lukas Niedergriese</v>
       </c>
-      <c r="J30" s="25"/>
+      <c r="J30" s="33"/>
       <c r="K30" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1810,11 +1819,11 @@
       <c r="O30" s="16"/>
     </row>
     <row r="31" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I31" s="25" t="str">
+      <c r="I31" s="33" t="str">
         <f>C99</f>
         <v>Tobias Reis</v>
       </c>
-      <c r="J31" s="25"/>
+      <c r="J31" s="33"/>
       <c r="K31" s="16">
         <f t="shared" si="0"/>
         <v>21.5</v>
@@ -1830,24 +1839,24 @@
       <c r="B32" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="30"/>
+      <c r="D32" s="29"/>
       <c r="E32" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="30" t="s">
+      <c r="F32" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="G32" s="31"/>
-      <c r="I32" s="25" t="s">
+      <c r="G32" s="30"/>
+      <c r="I32" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="J32" s="25"/>
+      <c r="J32" s="33"/>
       <c r="K32" s="16">
         <f t="shared" si="0"/>
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="L32" s="16" t="s">
         <v>26</v>
@@ -1862,11 +1871,11 @@
       <c r="O32" s="16"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
       <c r="E33" s="19" t="s">
         <v>18</v>
       </c>
@@ -1885,23 +1894,19 @@
       <c r="O33" s="16"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="27">
-        <f>'Marco Rempfer'!A12</f>
-        <v>0</v>
-      </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="15">
-        <f>'Marco Rempfer'!D12</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="15">
-        <f>'Marco Rempfer'!E12</f>
-        <v>0</v>
+      <c r="B34" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G34" s="15">
-        <f>'Marco Rempfer'!F12</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
@@ -1912,23 +1917,19 @@
       <c r="O34" s="16"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="27">
-        <f>'Marco Rempfer'!A13</f>
-        <v>0</v>
-      </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="23">
-        <f>'Marco Rempfer'!D13</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="23">
-        <f>'Marco Rempfer'!E13</f>
-        <v>0</v>
+      <c r="B35" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>8</v>
       </c>
       <c r="G35" s="15">
-        <f>'Marco Rempfer'!F13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="16"/>
       <c r="J35" s="16"/>
@@ -1939,23 +1940,19 @@
       <c r="O35" s="16"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="27">
-        <f>'Marco Rempfer'!A14</f>
-        <v>0</v>
-      </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="23">
-        <f>'Marco Rempfer'!D14</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="23">
-        <f>'Marco Rempfer'!E14</f>
-        <v>0</v>
+      <c r="B36" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>9</v>
       </c>
       <c r="G36" s="15">
-        <f>'Marco Rempfer'!F14</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
@@ -1966,32 +1963,28 @@
       <c r="O36" s="16"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="27">
-        <f>'Marco Rempfer'!A15</f>
-        <v>0</v>
-      </c>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="23">
-        <f>'Marco Rempfer'!D15</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="23">
-        <f>'Marco Rempfer'!E15</f>
-        <v>0</v>
+      <c r="B37" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>9</v>
       </c>
       <c r="G37" s="15">
-        <f>'Marco Rempfer'!F15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="27">
+      <c r="B38" s="25">
         <f>'Marco Rempfer'!A16</f>
         <v>0</v>
       </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
       <c r="E38" s="23">
         <f>'Marco Rempfer'!D16</f>
         <v>0</v>
@@ -2006,12 +1999,12 @@
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="27">
+      <c r="B39" s="25">
         <f>'Marco Rempfer'!A17</f>
         <v>0</v>
       </c>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
       <c r="E39" s="23">
         <f>'Marco Rempfer'!D17</f>
         <v>0</v>
@@ -2026,12 +2019,12 @@
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="27">
+      <c r="B40" s="25">
         <f>'Marco Rempfer'!A18</f>
         <v>0</v>
       </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
       <c r="E40" s="23">
         <f>'Marco Rempfer'!D18</f>
         <v>0</v>
@@ -2046,12 +2039,12 @@
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="27">
+      <c r="B41" s="25">
         <f>'Marco Rempfer'!A19</f>
         <v>0</v>
       </c>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
       <c r="E41" s="23">
         <f>'Marco Rempfer'!D19</f>
         <v>0</v>
@@ -2066,12 +2059,12 @@
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="27">
+      <c r="B42" s="25">
         <f>'Marco Rempfer'!A20</f>
         <v>0</v>
       </c>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
       <c r="E42" s="23">
         <f>'Marco Rempfer'!D20</f>
         <v>0</v>
@@ -2086,12 +2079,12 @@
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="27">
+      <c r="B43" s="25">
         <f>'Marco Rempfer'!A21</f>
         <v>0</v>
       </c>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
       <c r="E43" s="23">
         <f>'Marco Rempfer'!D21</f>
         <v>0</v>
@@ -2106,12 +2099,12 @@
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="27">
+      <c r="B44" s="25">
         <f>'Marco Rempfer'!A22</f>
         <v>0</v>
       </c>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
       <c r="E44" s="23">
         <f>'Marco Rempfer'!D22</f>
         <v>0</v>
@@ -2126,12 +2119,12 @@
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B45" s="27">
+      <c r="B45" s="25">
         <f>'Marco Rempfer'!A23</f>
         <v>0</v>
       </c>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
       <c r="E45" s="23">
         <f>'Marco Rempfer'!D23</f>
         <v>0</v>
@@ -2146,12 +2139,12 @@
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="27">
+      <c r="B46" s="25">
         <f>'Marco Rempfer'!A24</f>
         <v>0</v>
       </c>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
       <c r="E46" s="23">
         <f>'Marco Rempfer'!D24</f>
         <v>0</v>
@@ -2178,24 +2171,24 @@
       <c r="B49" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="30" t="s">
+      <c r="C49" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="30"/>
+      <c r="D49" s="29"/>
       <c r="E49" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F49" s="30" t="s">
+      <c r="F49" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="G49" s="31"/>
+      <c r="G49" s="30"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="32" t="s">
+      <c r="B50" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
       <c r="E50" s="19" t="s">
         <v>18</v>
       </c>
@@ -2207,12 +2200,12 @@
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="27" t="str">
+      <c r="B51" s="25" t="str">
         <f>'Achim Groß'!A12</f>
         <v>Meetings</v>
       </c>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
       <c r="E51" s="20" t="str">
         <f>'Achim Groß'!D12</f>
         <v>c</v>
@@ -2227,12 +2220,12 @@
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="27" t="str">
+      <c r="B52" s="25" t="str">
         <f>'Achim Groß'!A13</f>
         <v>Recherche</v>
       </c>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
       <c r="E52" s="21" t="str">
         <f>'Achim Groß'!D13</f>
         <v>b</v>
@@ -2247,12 +2240,12 @@
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="27" t="str">
+      <c r="B53" s="25" t="str">
         <f>'Achim Groß'!A14</f>
         <v>Dokumentation</v>
       </c>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
       <c r="E53" s="21" t="str">
         <f>'Achim Groß'!D14</f>
         <v>c</v>
@@ -2267,12 +2260,12 @@
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="27" t="str">
+      <c r="B54" s="25" t="str">
         <f>'Achim Groß'!A15</f>
         <v>JUnit</v>
       </c>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
       <c r="E54" s="21" t="str">
         <f>'Achim Groß'!D15</f>
         <v>b</v>
@@ -2287,12 +2280,12 @@
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="27" t="str">
+      <c r="B55" s="25" t="str">
         <f>'Achim Groß'!A16</f>
         <v>Aufwandsbericht</v>
       </c>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
       <c r="E55" s="21">
         <f>'Achim Groß'!D16</f>
         <v>0</v>
@@ -2307,12 +2300,12 @@
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="27">
+      <c r="B56" s="25">
         <f>'Achim Groß'!A17</f>
         <v>0</v>
       </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
       <c r="E56" s="21">
         <f>'Achim Groß'!D17</f>
         <v>0</v>
@@ -2327,12 +2320,12 @@
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="27">
+      <c r="B57" s="25">
         <f>'Achim Groß'!A18</f>
         <v>0</v>
       </c>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
       <c r="E57" s="21">
         <f>'Achim Groß'!D18</f>
         <v>0</v>
@@ -2347,12 +2340,12 @@
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="27">
+      <c r="B58" s="25">
         <f>'Achim Groß'!A19</f>
         <v>0</v>
       </c>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
       <c r="E58" s="21">
         <f>'Achim Groß'!D19</f>
         <v>0</v>
@@ -2367,12 +2360,12 @@
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="27">
+      <c r="B59" s="25">
         <f>'Achim Groß'!A20</f>
         <v>0</v>
       </c>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
       <c r="E59" s="21">
         <f>'Achim Groß'!D20</f>
         <v>0</v>
@@ -2387,12 +2380,12 @@
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="27">
+      <c r="B60" s="25">
         <f>'Achim Groß'!A21</f>
         <v>0</v>
       </c>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
       <c r="E60" s="21">
         <f>'Achim Groß'!D21</f>
         <v>0</v>
@@ -2407,12 +2400,12 @@
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="27">
+      <c r="B61" s="25">
         <f>'Achim Groß'!A22</f>
         <v>0</v>
       </c>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
       <c r="E61" s="21">
         <f>'Achim Groß'!D22</f>
         <v>0</v>
@@ -2427,12 +2420,12 @@
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="27">
+      <c r="B62" s="25">
         <f>'Achim Groß'!A23</f>
         <v>0</v>
       </c>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
       <c r="E62" s="21">
         <f>'Achim Groß'!D23</f>
         <v>0</v>
@@ -2447,12 +2440,12 @@
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="27">
+      <c r="B63" s="25">
         <f>'Achim Groß'!A24</f>
         <v>0</v>
       </c>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
       <c r="E63" s="21">
         <f>'Achim Groß'!D24</f>
         <v>0</v>
@@ -2479,24 +2472,24 @@
       <c r="B66" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C66" s="30" t="s">
+      <c r="C66" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D66" s="30"/>
+      <c r="D66" s="29"/>
       <c r="E66" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F66" s="30" t="s">
+      <c r="F66" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="G66" s="31"/>
+      <c r="G66" s="30"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="32" t="s">
+      <c r="B67" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="32"/>
-      <c r="D67" s="32"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
       <c r="E67" s="19" t="s">
         <v>18</v>
       </c>
@@ -2508,12 +2501,12 @@
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="27" t="str">
+      <c r="B68" s="25" t="str">
         <f>'Benny Gerlach'!A12</f>
         <v>Meetings</v>
       </c>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
       <c r="E68" s="21" t="str">
         <f>'Benny Gerlach'!D12</f>
         <v>c</v>
@@ -2528,12 +2521,12 @@
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="27" t="str">
+      <c r="B69" s="25" t="str">
         <f>'Benny Gerlach'!A13</f>
         <v>Analyse Echobot.de</v>
       </c>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
       <c r="E69" s="21" t="str">
         <f>'Benny Gerlach'!D13</f>
         <v>c</v>
@@ -2548,12 +2541,12 @@
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B70" s="27">
+      <c r="B70" s="25">
         <f>'Benny Gerlach'!A14</f>
         <v>0</v>
       </c>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
       <c r="E70" s="21">
         <f>'Benny Gerlach'!D14</f>
         <v>0</v>
@@ -2568,12 +2561,12 @@
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71" s="27">
+      <c r="B71" s="25">
         <f>'Benny Gerlach'!A15</f>
         <v>0</v>
       </c>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
       <c r="E71" s="21">
         <f>'Benny Gerlach'!D15</f>
         <v>0</v>
@@ -2588,12 +2581,12 @@
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B72" s="27">
+      <c r="B72" s="25">
         <f>'Benny Gerlach'!A16</f>
         <v>0</v>
       </c>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
       <c r="E72" s="21">
         <f>'Benny Gerlach'!D16</f>
         <v>0</v>
@@ -2608,12 +2601,12 @@
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B73" s="27">
+      <c r="B73" s="25">
         <f>'Benny Gerlach'!A17</f>
         <v>0</v>
       </c>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
       <c r="E73" s="21">
         <f>'Benny Gerlach'!D17</f>
         <v>0</v>
@@ -2628,12 +2621,12 @@
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="27">
+      <c r="B74" s="25">
         <f>'Benny Gerlach'!A18</f>
         <v>0</v>
       </c>
-      <c r="C74" s="27"/>
-      <c r="D74" s="27"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
       <c r="E74" s="21">
         <f>'Benny Gerlach'!D18</f>
         <v>0</v>
@@ -2648,12 +2641,12 @@
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="27">
+      <c r="B75" s="25">
         <f>'Benny Gerlach'!A19</f>
         <v>0</v>
       </c>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
       <c r="E75" s="21">
         <f>'Benny Gerlach'!D19</f>
         <v>0</v>
@@ -2668,12 +2661,12 @@
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B76" s="27">
+      <c r="B76" s="25">
         <f>'Benny Gerlach'!A20</f>
         <v>0</v>
       </c>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
       <c r="E76" s="21">
         <f>'Benny Gerlach'!D20</f>
         <v>0</v>
@@ -2688,12 +2681,12 @@
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="27">
+      <c r="B77" s="25">
         <f>'Benny Gerlach'!A21</f>
         <v>0</v>
       </c>
-      <c r="C77" s="27"/>
-      <c r="D77" s="27"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="25"/>
       <c r="E77" s="21">
         <f>'Benny Gerlach'!D21</f>
         <v>0</v>
@@ -2708,12 +2701,12 @@
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="27">
+      <c r="B78" s="25">
         <f>'Benny Gerlach'!A22</f>
         <v>0</v>
       </c>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
       <c r="E78" s="21">
         <f>'Benny Gerlach'!D22</f>
         <v>0</v>
@@ -2728,12 +2721,12 @@
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="27">
+      <c r="B79" s="25">
         <f>'Benny Gerlach'!A23</f>
         <v>0</v>
       </c>
-      <c r="C79" s="27"/>
-      <c r="D79" s="27"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25"/>
       <c r="E79" s="21">
         <f>'Benny Gerlach'!D23</f>
         <v>0</v>
@@ -2748,12 +2741,12 @@
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="27">
+      <c r="B80" s="25">
         <f>'Benny Gerlach'!A24</f>
         <v>0</v>
       </c>
-      <c r="C80" s="27"/>
-      <c r="D80" s="27"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="25"/>
       <c r="E80" s="21">
         <f>'Benny Gerlach'!D24</f>
         <v>0</v>
@@ -2772,24 +2765,24 @@
       <c r="B83" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C83" s="30" t="s">
+      <c r="C83" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D83" s="30"/>
+      <c r="D83" s="29"/>
       <c r="E83" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F83" s="30" t="s">
+      <c r="F83" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="G83" s="31"/>
+      <c r="G83" s="30"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B84" s="32" t="s">
+      <c r="B84" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C84" s="32"/>
-      <c r="D84" s="32"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
       <c r="E84" s="19" t="s">
         <v>18</v>
       </c>
@@ -2801,12 +2794,12 @@
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B85" s="28" t="str">
+      <c r="B85" s="31" t="str">
         <f>'Lukas Niedergriese'!A12</f>
         <v>Meetings</v>
       </c>
-      <c r="C85" s="29"/>
-      <c r="D85" s="29"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="32"/>
       <c r="E85" s="6" t="str">
         <f>'Lukas Niedergriese'!D12</f>
         <v>c</v>
@@ -2821,12 +2814,12 @@
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B86" s="28" t="str">
+      <c r="B86" s="31" t="str">
         <f>'Lukas Niedergriese'!A13</f>
         <v>Recherche</v>
       </c>
-      <c r="C86" s="29"/>
-      <c r="D86" s="29"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32"/>
       <c r="E86" s="6" t="str">
         <f>'Lukas Niedergriese'!D13</f>
         <v>c</v>
@@ -2841,12 +2834,12 @@
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B87" s="28" t="str">
+      <c r="B87" s="31" t="str">
         <f>'Lukas Niedergriese'!A14</f>
         <v>Projektwebsite bearbeiten</v>
       </c>
-      <c r="C87" s="29"/>
-      <c r="D87" s="29"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="32"/>
       <c r="E87" s="6" t="str">
         <f>'Lukas Niedergriese'!D14</f>
         <v>c</v>
@@ -2861,12 +2854,12 @@
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B88" s="28">
+      <c r="B88" s="31">
         <f>'Lukas Niedergriese'!A15</f>
         <v>0</v>
       </c>
-      <c r="C88" s="29"/>
-      <c r="D88" s="29"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="32"/>
       <c r="E88" s="6">
         <f>'Lukas Niedergriese'!D15</f>
         <v>0</v>
@@ -2881,12 +2874,12 @@
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B89" s="28">
+      <c r="B89" s="31">
         <f>'Lukas Niedergriese'!A16</f>
         <v>0</v>
       </c>
-      <c r="C89" s="29"/>
-      <c r="D89" s="29"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="32"/>
       <c r="E89" s="6">
         <f>'Lukas Niedergriese'!D16</f>
         <v>0</v>
@@ -2901,12 +2894,12 @@
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B90" s="28">
+      <c r="B90" s="31">
         <f>'Lukas Niedergriese'!A17</f>
         <v>0</v>
       </c>
-      <c r="C90" s="29"/>
-      <c r="D90" s="29"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="32"/>
       <c r="E90" s="6">
         <f>'Lukas Niedergriese'!D17</f>
         <v>0</v>
@@ -2921,12 +2914,12 @@
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B91" s="28">
+      <c r="B91" s="31">
         <f>'Lukas Niedergriese'!A18</f>
         <v>0</v>
       </c>
-      <c r="C91" s="29"/>
-      <c r="D91" s="29"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="32"/>
       <c r="E91" s="6">
         <f>'Lukas Niedergriese'!D18</f>
         <v>0</v>
@@ -2941,12 +2934,12 @@
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B92" s="28">
+      <c r="B92" s="31">
         <f>'Lukas Niedergriese'!A19</f>
         <v>0</v>
       </c>
-      <c r="C92" s="29"/>
-      <c r="D92" s="29"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="32"/>
       <c r="E92" s="6">
         <f>'Lukas Niedergriese'!D19</f>
         <v>0</v>
@@ -2961,12 +2954,12 @@
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B93" s="28">
+      <c r="B93" s="31">
         <f>'Lukas Niedergriese'!A20</f>
         <v>0</v>
       </c>
-      <c r="C93" s="29"/>
-      <c r="D93" s="29"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="32"/>
       <c r="E93" s="6">
         <f>'Lukas Niedergriese'!D20</f>
         <v>0</v>
@@ -2981,12 +2974,12 @@
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B94" s="28">
+      <c r="B94" s="31">
         <f>'Lukas Niedergriese'!A21</f>
         <v>0</v>
       </c>
-      <c r="C94" s="29"/>
-      <c r="D94" s="29"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="32"/>
       <c r="E94" s="6">
         <f>'Lukas Niedergriese'!D21</f>
         <v>0</v>
@@ -3001,12 +2994,12 @@
       </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B95" s="28">
+      <c r="B95" s="31">
         <f>'Lukas Niedergriese'!A22</f>
         <v>0</v>
       </c>
-      <c r="C95" s="29"/>
-      <c r="D95" s="29"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="32"/>
       <c r="E95" s="6">
         <f>'Lukas Niedergriese'!D22</f>
         <v>0</v>
@@ -3021,12 +3014,12 @@
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B96" s="28">
+      <c r="B96" s="31">
         <f>'Lukas Niedergriese'!A23</f>
         <v>0</v>
       </c>
-      <c r="C96" s="29"/>
-      <c r="D96" s="29"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="32"/>
       <c r="E96" s="6">
         <f>'Lukas Niedergriese'!D23</f>
         <v>0</v>
@@ -3041,12 +3034,12 @@
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B97" s="28">
+      <c r="B97" s="31">
         <f>'Lukas Niedergriese'!A24</f>
         <v>0</v>
       </c>
-      <c r="C97" s="29"/>
-      <c r="D97" s="29"/>
+      <c r="C97" s="32"/>
+      <c r="D97" s="32"/>
       <c r="E97" s="6">
         <f>'Lukas Niedergriese'!D24</f>
         <v>0</v>
@@ -3065,24 +3058,24 @@
       <c r="B99" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C99" s="30" t="s">
+      <c r="C99" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D99" s="30"/>
+      <c r="D99" s="29"/>
       <c r="E99" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F99" s="30" t="s">
+      <c r="F99" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G99" s="31"/>
+      <c r="G99" s="30"/>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B100" s="32" t="s">
+      <c r="B100" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C100" s="32"/>
-      <c r="D100" s="32"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="26"/>
       <c r="E100" s="19" t="s">
         <v>18</v>
       </c>
@@ -3094,12 +3087,12 @@
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B101" s="27" t="str">
+      <c r="B101" s="25" t="str">
         <f>'Tobias Reis'!A12</f>
         <v>Meeting / Interview</v>
       </c>
-      <c r="C101" s="27"/>
-      <c r="D101" s="27"/>
+      <c r="C101" s="25"/>
+      <c r="D101" s="25"/>
       <c r="E101" s="15" t="str">
         <f>'Tobias Reis'!D12</f>
         <v>d</v>
@@ -3114,12 +3107,12 @@
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B102" s="27" t="str">
+      <c r="B102" s="25" t="str">
         <f>'Tobias Reis'!A13</f>
         <v>Protokoll schreiben / Projekt Dokumentieren</v>
       </c>
-      <c r="C102" s="27"/>
-      <c r="D102" s="27"/>
+      <c r="C102" s="25"/>
+      <c r="D102" s="25"/>
       <c r="E102" s="15" t="str">
         <f>'Tobias Reis'!D13</f>
         <v>c</v>
@@ -3134,12 +3127,12 @@
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B103" s="27" t="str">
+      <c r="B103" s="25" t="str">
         <f>'Tobias Reis'!A14</f>
         <v>Recherche über unser Projekt</v>
       </c>
-      <c r="C103" s="27"/>
-      <c r="D103" s="27"/>
+      <c r="C103" s="25"/>
+      <c r="D103" s="25"/>
       <c r="E103" s="15" t="str">
         <f>'Tobias Reis'!D14</f>
         <v>c</v>
@@ -3154,12 +3147,12 @@
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B104" s="27" t="str">
+      <c r="B104" s="25" t="str">
         <f>'Tobias Reis'!A15</f>
         <v>Grundgerüst für Recherchebericht erstellt</v>
       </c>
-      <c r="C104" s="27"/>
-      <c r="D104" s="27"/>
+      <c r="C104" s="25"/>
+      <c r="D104" s="25"/>
       <c r="E104" s="15" t="str">
         <f>'Tobias Reis'!D15</f>
         <v>c</v>
@@ -3174,12 +3167,12 @@
       </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B105" s="27" t="str">
+      <c r="B105" s="25" t="str">
         <f>'Tobias Reis'!A16</f>
         <v>Projekthomepage erstellt</v>
       </c>
-      <c r="C105" s="27"/>
-      <c r="D105" s="27"/>
+      <c r="C105" s="25"/>
+      <c r="D105" s="25"/>
       <c r="E105" s="15" t="str">
         <f>'Tobias Reis'!D16</f>
         <v>c</v>
@@ -3194,12 +3187,12 @@
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B106" s="27">
+      <c r="B106" s="25">
         <f>'Tobias Reis'!A17</f>
         <v>0</v>
       </c>
-      <c r="C106" s="27"/>
-      <c r="D106" s="27"/>
+      <c r="C106" s="25"/>
+      <c r="D106" s="25"/>
       <c r="E106" s="15">
         <f>'Tobias Reis'!D17</f>
         <v>0</v>
@@ -3214,12 +3207,12 @@
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B107" s="27">
+      <c r="B107" s="25">
         <f>'Tobias Reis'!A18</f>
         <v>0</v>
       </c>
-      <c r="C107" s="27"/>
-      <c r="D107" s="27"/>
+      <c r="C107" s="25"/>
+      <c r="D107" s="25"/>
       <c r="E107" s="15">
         <f>'Tobias Reis'!D18</f>
         <v>0</v>
@@ -3234,12 +3227,12 @@
       </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B108" s="27">
+      <c r="B108" s="25">
         <f>'Tobias Reis'!A19</f>
         <v>0</v>
       </c>
-      <c r="C108" s="27"/>
-      <c r="D108" s="27"/>
+      <c r="C108" s="25"/>
+      <c r="D108" s="25"/>
       <c r="E108" s="15">
         <f>'Tobias Reis'!D19</f>
         <v>0</v>
@@ -3254,12 +3247,12 @@
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B109" s="27">
+      <c r="B109" s="25">
         <f>'Tobias Reis'!A20</f>
         <v>0</v>
       </c>
-      <c r="C109" s="27"/>
-      <c r="D109" s="27"/>
+      <c r="C109" s="25"/>
+      <c r="D109" s="25"/>
       <c r="E109" s="15">
         <f>'Tobias Reis'!D20</f>
         <v>0</v>
@@ -3274,12 +3267,12 @@
       </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B110" s="27">
+      <c r="B110" s="25">
         <f>'Tobias Reis'!A21</f>
         <v>0</v>
       </c>
-      <c r="C110" s="27"/>
-      <c r="D110" s="27"/>
+      <c r="C110" s="25"/>
+      <c r="D110" s="25"/>
       <c r="E110" s="15">
         <f>'Tobias Reis'!D21</f>
         <v>0</v>
@@ -3294,12 +3287,12 @@
       </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B111" s="27">
+      <c r="B111" s="25">
         <f>'Tobias Reis'!A22</f>
         <v>0</v>
       </c>
-      <c r="C111" s="27"/>
-      <c r="D111" s="27"/>
+      <c r="C111" s="25"/>
+      <c r="D111" s="25"/>
       <c r="E111" s="15">
         <f>'Tobias Reis'!D22</f>
         <v>0</v>
@@ -3314,12 +3307,12 @@
       </c>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B112" s="27">
+      <c r="B112" s="25">
         <f>'Tobias Reis'!A23</f>
         <v>0</v>
       </c>
-      <c r="C112" s="27"/>
-      <c r="D112" s="27"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="25"/>
       <c r="E112" s="15">
         <f>'Tobias Reis'!D23</f>
         <v>0</v>
@@ -3334,12 +3327,12 @@
       </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B113" s="27">
+      <c r="B113" s="25">
         <f>'Tobias Reis'!A24</f>
         <v>0</v>
       </c>
-      <c r="C113" s="27"/>
-      <c r="D113" s="27"/>
+      <c r="C113" s="25"/>
+      <c r="D113" s="25"/>
       <c r="E113" s="15">
         <f>'Tobias Reis'!D24</f>
         <v>0</v>
@@ -3355,26 +3348,86 @@
     </row>
   </sheetData>
   <mergeCells count="124">
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B2:H3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="B109:D109"/>
+    <mergeCell ref="B110:D110"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B71:D71"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B53:D53"/>
@@ -3399,86 +3452,26 @@
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="B109:D109"/>
-    <mergeCell ref="B110:D110"/>
-    <mergeCell ref="B111:D111"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B28:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3504,35 +3497,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="D4" s="26" t="s">
+      <c r="B4" s="28"/>
+      <c r="D4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -3548,10 +3541,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="25"/>
+      <c r="G5" s="33"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -3564,52 +3557,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="25"/>
+      <c r="G6" s="33"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="25"/>
+      <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="28"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="25"/>
+      <c r="G8" s="33"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="25"/>
+      <c r="B9" s="33"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="25"/>
+      <c r="G9" s="33"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -3622,11 +3615,11 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
@@ -3638,11 +3631,11 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="6" t="s">
         <v>9</v>
       </c>
@@ -3654,11 +3647,11 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="6" t="s">
         <v>9</v>
       </c>
@@ -3670,147 +3663,147 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>6</v>
@@ -3820,11 +3813,11 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>3</v>
@@ -3832,11 +3825,11 @@
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>2</v>
@@ -3846,22 +3839,22 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="38" t="s">
+      <c r="A37" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-4</v>
@@ -3869,6 +3862,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
@@ -3881,30 +3898,6 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
@@ -3940,35 +3933,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="D4" s="26" t="s">
+      <c r="B4" s="28"/>
+      <c r="D4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -3984,10 +3977,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="25"/>
+      <c r="G5" s="33"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -4000,52 +3993,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="25"/>
+      <c r="G6" s="33"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="25"/>
+      <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="28"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="25"/>
+      <c r="G8" s="33"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="25"/>
+      <c r="B9" s="33"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="25"/>
+      <c r="G9" s="33"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -4058,11 +4051,11 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
@@ -4074,11 +4067,11 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="6" t="s">
         <v>8</v>
       </c>
@@ -4090,11 +4083,11 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="6" t="s">
         <v>9</v>
       </c>
@@ -4106,11 +4099,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="6" t="s">
         <v>8</v>
       </c>
@@ -4132,131 +4125,131 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>7</v>
@@ -4266,11 +4259,11 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>4</v>
@@ -4278,11 +4271,11 @@
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>1.75</v>
@@ -4292,22 +4285,22 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="38" t="s">
+      <c r="A37" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-3</v>
@@ -4315,6 +4308,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
@@ -4327,30 +4344,6 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
@@ -4386,35 +4379,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="D4" s="26" t="s">
+      <c r="B4" s="28"/>
+      <c r="D4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -4430,10 +4423,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="25"/>
+      <c r="G5" s="33"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -4446,52 +4439,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="25"/>
+      <c r="G6" s="33"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="25"/>
+      <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="28"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="25"/>
+      <c r="G8" s="33"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="25"/>
+      <c r="B9" s="33"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="25"/>
+      <c r="G9" s="33"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -4504,9 +4497,9 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -4528,147 +4521,147 @@
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>0</v>
@@ -4678,11 +4671,11 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>0</v>
@@ -4690,11 +4683,11 @@
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="10" t="e">
         <f>D33/D34</f>
         <v>#DIV/0!</v>
@@ -4704,22 +4697,22 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="38" t="s">
+      <c r="A37" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-10</v>
@@ -4727,6 +4720,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
@@ -4739,30 +4756,6 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
@@ -4798,35 +4791,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="D4" s="26" t="s">
+      <c r="B4" s="28"/>
+      <c r="D4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -4842,10 +4835,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="25"/>
+      <c r="G5" s="33"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -4858,52 +4851,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="25"/>
+      <c r="G6" s="33"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="25"/>
+      <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="28"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="25"/>
+      <c r="G8" s="33"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="25"/>
+      <c r="B9" s="33"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="25"/>
+      <c r="G9" s="33"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -4916,11 +4909,11 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="24" t="s">
         <v>9</v>
       </c>
@@ -4932,11 +4925,11 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="21" t="s">
         <v>9</v>
       </c>
@@ -4948,155 +4941,155 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>3</v>
@@ -5106,11 +5099,11 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>2</v>
@@ -5118,11 +5111,11 @@
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>1.5</v>
@@ -5132,22 +5125,22 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="38" t="s">
+      <c r="A37" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-7</v>
@@ -5155,6 +5148,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
@@ -5167,30 +5184,6 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
@@ -5226,35 +5219,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="D4" s="26" t="s">
+      <c r="B4" s="28"/>
+      <c r="D4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -5270,10 +5263,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="25"/>
+      <c r="G5" s="33"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -5286,52 +5279,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="25"/>
+      <c r="G6" s="33"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="25"/>
+      <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="28"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="25"/>
+      <c r="G8" s="33"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="25"/>
+      <c r="B9" s="33"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="25"/>
+      <c r="G9" s="33"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -5344,11 +5337,11 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
@@ -5360,11 +5353,11 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="14" t="s">
         <v>10</v>
       </c>
@@ -5376,11 +5369,11 @@
       </c>
     </row>
     <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="6" t="s">
         <v>8</v>
       </c>
@@ -5392,11 +5385,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="6" t="s">
         <v>9</v>
       </c>
@@ -5408,139 +5401,139 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>7</v>
@@ -5550,11 +5543,11 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>4</v>
@@ -5562,11 +5555,11 @@
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>1.75</v>
@@ -5576,22 +5569,22 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="38" t="s">
+      <c r="A37" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-3</v>
@@ -5599,6 +5592,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
@@ -5611,30 +5628,6 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
@@ -5670,35 +5663,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="D4" s="26" t="s">
+      <c r="B4" s="28"/>
+      <c r="D4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -5714,10 +5707,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="25"/>
+      <c r="G5" s="33"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -5730,52 +5723,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="25"/>
+      <c r="G6" s="33"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="25"/>
+      <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="28"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="25"/>
+      <c r="G8" s="33"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="25"/>
+      <c r="B9" s="33"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="25"/>
+      <c r="G9" s="33"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -5876,123 +5869,123 @@
       <c r="F17" s="22"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>7.5</v>
@@ -6002,11 +5995,11 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>5</v>
@@ -6014,11 +6007,11 @@
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>1.5</v>
@@ -6028,22 +6021,22 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="38" t="s">
+      <c r="A37" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-2.5</v>
@@ -6051,6 +6044,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
@@ -6063,30 +6080,6 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">

--- a/Organisation/Aufwandserfassung/Aufwandserfassung_Wochenbericht_KW11.xlsx
+++ b/Organisation/Aufwandserfassung/Aufwandserfassung_Wochenbericht_KW11.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\Documents\GitHub\METLAB_News\Organisation\Aufwandserfassung\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E065CFD-F48C-445C-BEDC-B8409975286D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27885" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27885" windowHeight="12795" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamt" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
     <sheet name="Erik Hennig" sheetId="3" r:id="rId6"/>
     <sheet name="Tobias Reis" sheetId="2" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="69">
   <si>
     <t>Wöchentlicher Aufwandsbericht</t>
   </si>
@@ -235,12 +229,15 @@
   </si>
   <si>
     <t>Recherche zu diversen Tools</t>
+  </si>
+  <si>
+    <t>Meeting &amp; Erstellung UML Diagramm Echobot.de</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -469,7 +466,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -477,26 +488,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -506,6 +497,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -978,17 +975,17 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O113"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A42" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="A42" workbookViewId="0">
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
@@ -1009,24 +1006,24 @@
   <sheetData>
     <row r="1" spans="2:15" ht="11.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="B2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
@@ -1056,12 +1053,12 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
       <c r="M5" s="16"/>
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
@@ -1076,11 +1073,11 @@
       <c r="G6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="33" t="str">
+      <c r="I6" s="25" t="str">
         <f>C13</f>
         <v>Erik Hennig</v>
       </c>
-      <c r="J6" s="33"/>
+      <c r="J6" s="25"/>
       <c r="K6" s="16">
         <v>14.5</v>
       </c>
@@ -1109,11 +1106,11 @@
       <c r="G7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="33" t="str">
+      <c r="I7" s="25" t="str">
         <f>C32</f>
         <v>Marco Rempfer</v>
       </c>
-      <c r="J7" s="33"/>
+      <c r="J7" s="25"/>
       <c r="K7" s="16">
         <v>9</v>
       </c>
@@ -1131,11 +1128,11 @@
       <c r="G8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="33" t="str">
+      <c r="I8" s="25" t="str">
         <f>C49</f>
         <v>Achim Groß</v>
       </c>
-      <c r="J8" s="33"/>
+      <c r="J8" s="25"/>
       <c r="K8" s="16">
         <v>9</v>
       </c>
@@ -1147,21 +1144,21 @@
       <c r="O8" s="16"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="28"/>
+      <c r="C9" s="26"/>
       <c r="F9" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="33" t="str">
+      <c r="I9" s="25" t="str">
         <f>C66</f>
         <v>Benny Gerlach</v>
       </c>
-      <c r="J9" s="33"/>
+      <c r="J9" s="25"/>
       <c r="K9" s="16">
         <v>12</v>
       </c>
@@ -1185,11 +1182,11 @@
       <c r="G10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="33" t="str">
+      <c r="I10" s="25" t="str">
         <f>C83</f>
         <v>Lukas Niedergriese</v>
       </c>
-      <c r="J10" s="33"/>
+      <c r="J10" s="25"/>
       <c r="K10" s="16">
         <v>9</v>
       </c>
@@ -1210,11 +1207,11 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="I11" s="33" t="str">
+      <c r="I11" s="25" t="str">
         <f>C99</f>
         <v>Tobias Reis</v>
       </c>
-      <c r="J11" s="33"/>
+      <c r="J11" s="25"/>
       <c r="K11" s="16">
         <v>14</v>
       </c>
@@ -1226,10 +1223,10 @@
       <c r="O11" s="16"/>
     </row>
     <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I12" s="33" t="s">
+      <c r="I12" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="33"/>
+      <c r="J12" s="25"/>
       <c r="K12" s="16">
         <f>SUM(K6:K11)</f>
         <v>67.5</v>
@@ -1250,17 +1247,17 @@
       <c r="B13" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="29"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="30"/>
+      <c r="G13" s="31"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
@@ -1270,11 +1267,11 @@
       <c r="O13" s="16"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
       <c r="E14" s="19" t="s">
         <v>18</v>
       </c>
@@ -1293,12 +1290,12 @@
       <c r="O14" s="16"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="25" t="str">
+      <c r="B15" s="27" t="str">
         <f>'Erik Hennig'!A12</f>
         <v>Meetings</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
       <c r="E15" s="15" t="str">
         <f>'Erik Hennig'!D12</f>
         <v>c</v>
@@ -1311,23 +1308,23 @@
         <f>'Erik Hennig'!F12</f>
         <v>2.5</v>
       </c>
-      <c r="I15" s="28" t="s">
+      <c r="I15" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
       <c r="M15" s="16"/>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="25" t="str">
+      <c r="B16" s="27" t="str">
         <f>'Erik Hennig'!A13</f>
         <v>Recherche</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
       <c r="E16" s="15" t="str">
         <f>'Erik Hennig'!D13</f>
         <v>d</v>
@@ -1340,11 +1337,11 @@
         <f>'Erik Hennig'!F13</f>
         <v>3</v>
       </c>
-      <c r="I16" s="33" t="str">
+      <c r="I16" s="25" t="str">
         <f>C13</f>
         <v>Erik Hennig</v>
       </c>
-      <c r="J16" s="33"/>
+      <c r="J16" s="25"/>
       <c r="K16" s="16">
         <f>SUM(G15:G29)</f>
         <v>7</v>
@@ -1361,12 +1358,12 @@
       <c r="O16" s="16"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="25" t="str">
+      <c r="B17" s="27" t="str">
         <f>'Erik Hennig'!A14</f>
         <v>Code-Standard bewerten</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
       <c r="E17" s="15" t="str">
         <f>'Erik Hennig'!D14</f>
         <v>b</v>
@@ -1379,11 +1376,11 @@
         <f>'Erik Hennig'!F14</f>
         <v>1</v>
       </c>
-      <c r="I17" s="33" t="str">
+      <c r="I17" s="25" t="str">
         <f>C32</f>
         <v>Marco Rempfer</v>
       </c>
-      <c r="J17" s="33"/>
+      <c r="J17" s="25"/>
       <c r="K17" s="16">
         <f>SUM(G34:G46)</f>
         <v>9</v>
@@ -1396,12 +1393,12 @@
       <c r="O17" s="16"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="25" t="str">
+      <c r="B18" s="27" t="str">
         <f>'Erik Hennig'!A15</f>
         <v>Maven ausprobieren</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
       <c r="E18" s="15" t="str">
         <f>'Erik Hennig'!D15</f>
         <v>c</v>
@@ -1414,11 +1411,11 @@
         <f>'Erik Hennig'!F15</f>
         <v>0.5</v>
       </c>
-      <c r="I18" s="33" t="str">
+      <c r="I18" s="25" t="str">
         <f>C49</f>
         <v>Achim Groß</v>
       </c>
-      <c r="J18" s="33"/>
+      <c r="J18" s="25"/>
       <c r="K18" s="16">
         <f>SUM(G51:G63)</f>
         <v>7</v>
@@ -1431,12 +1428,12 @@
       <c r="O18" s="16"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="25">
+      <c r="B19" s="27">
         <f>'Erik Hennig'!A16</f>
         <v>0</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
       <c r="E19" s="15">
         <f>'Erik Hennig'!D16</f>
         <v>0</v>
@@ -1449,14 +1446,14 @@
         <f>'Erik Hennig'!F16</f>
         <v>0</v>
       </c>
-      <c r="I19" s="33" t="str">
+      <c r="I19" s="25" t="str">
         <f>C66</f>
         <v>Benny Gerlach</v>
       </c>
-      <c r="J19" s="33"/>
+      <c r="J19" s="25"/>
       <c r="K19" s="16">
         <f>SUM(G68:G80)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L19" s="16" t="s">
         <v>26</v>
@@ -1466,12 +1463,12 @@
       <c r="O19" s="16"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="25">
+      <c r="B20" s="27">
         <f>'Erik Hennig'!A17</f>
         <v>0</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
       <c r="E20" s="15">
         <f>'Erik Hennig'!D17</f>
         <v>0</v>
@@ -1484,11 +1481,11 @@
         <f>'Erik Hennig'!F17</f>
         <v>0</v>
       </c>
-      <c r="I20" s="33" t="str">
+      <c r="I20" s="25" t="str">
         <f>C83</f>
         <v>Lukas Niedergriese</v>
       </c>
-      <c r="J20" s="33"/>
+      <c r="J20" s="25"/>
       <c r="K20" s="16">
         <f>SUM(G85:G97)</f>
         <v>6</v>
@@ -1501,12 +1498,12 @@
       <c r="O20" s="16"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="25">
+      <c r="B21" s="27">
         <f>'Erik Hennig'!A18</f>
         <v>0</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
       <c r="E21" s="15">
         <f>'Erik Hennig'!D18</f>
         <v>0</v>
@@ -1519,11 +1516,11 @@
         <f>'Erik Hennig'!F18</f>
         <v>0</v>
       </c>
-      <c r="I21" s="33" t="str">
+      <c r="I21" s="25" t="str">
         <f>C99</f>
         <v>Tobias Reis</v>
       </c>
-      <c r="J21" s="33"/>
+      <c r="J21" s="25"/>
       <c r="K21" s="16">
         <f>SUM(G101:G113)</f>
         <v>7.5</v>
@@ -1536,12 +1533,12 @@
       <c r="O21" s="16"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="25">
+      <c r="B22" s="27">
         <f>'Erik Hennig'!A19</f>
         <v>0</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
       <c r="E22" s="15">
         <f>'Erik Hennig'!D19</f>
         <v>0</v>
@@ -1554,13 +1551,13 @@
         <f>'Erik Hennig'!F19</f>
         <v>0</v>
       </c>
-      <c r="I22" s="33" t="s">
+      <c r="I22" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="33"/>
+      <c r="J22" s="25"/>
       <c r="K22" s="16">
         <f>SUM(K16:K21)</f>
-        <v>39.5</v>
+        <v>41.5</v>
       </c>
       <c r="L22" s="16" t="s">
         <v>26</v>
@@ -1574,12 +1571,12 @@
       <c r="O22" s="16"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="25">
+      <c r="B23" s="27">
         <f>'Erik Hennig'!A20</f>
         <v>0</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
       <c r="E23" s="15">
         <f>'Erik Hennig'!D20</f>
         <v>0</v>
@@ -1601,12 +1598,12 @@
       <c r="O23" s="16"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="25">
+      <c r="B24" s="27">
         <f>'Erik Hennig'!A21</f>
         <v>0</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
       <c r="E24" s="15">
         <f>'Erik Hennig'!D21</f>
         <v>0</v>
@@ -1628,12 +1625,12 @@
       <c r="O24" s="16"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="25">
+      <c r="B25" s="27">
         <f>'Erik Hennig'!A22</f>
         <v>0</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
       <c r="E25" s="15">
         <f>'Erik Hennig'!D22</f>
         <v>0</v>
@@ -1646,23 +1643,23 @@
         <f>'Erik Hennig'!F22</f>
         <v>0</v>
       </c>
-      <c r="I25" s="28" t="s">
+      <c r="I25" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
       <c r="O25" s="16"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="25">
+      <c r="B26" s="27">
         <f>'Erik Hennig'!A23</f>
         <v>0</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
       <c r="E26" s="15">
         <f>'Erik Hennig'!D23</f>
         <v>0</v>
@@ -1675,11 +1672,11 @@
         <f>'Erik Hennig'!F23</f>
         <v>0</v>
       </c>
-      <c r="I26" s="33" t="str">
+      <c r="I26" s="25" t="str">
         <f>C13</f>
         <v>Erik Hennig</v>
       </c>
-      <c r="J26" s="33"/>
+      <c r="J26" s="25"/>
       <c r="K26" s="16">
         <f t="shared" ref="K26:K32" si="0">K6+K16</f>
         <v>21.5</v>
@@ -1697,12 +1694,12 @@
       <c r="O26" s="16"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="25">
+      <c r="B27" s="27">
         <f>'Erik Hennig'!A24</f>
         <v>0</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
       <c r="E27" s="15">
         <f>'Erik Hennig'!D24</f>
         <v>0</v>
@@ -1715,11 +1712,11 @@
         <f>'Erik Hennig'!F24</f>
         <v>0</v>
       </c>
-      <c r="I27" s="33" t="str">
+      <c r="I27" s="25" t="str">
         <f>C32</f>
         <v>Marco Rempfer</v>
       </c>
-      <c r="J27" s="33"/>
+      <c r="J27" s="25"/>
       <c r="K27" s="16">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1732,12 +1729,12 @@
       <c r="O27" s="16"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="25">
+      <c r="B28" s="27">
         <f>'Erik Hennig'!A25</f>
         <v>0</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
       <c r="E28" s="15">
         <f>'Erik Hennig'!D25</f>
         <v>0</v>
@@ -1750,11 +1747,11 @@
         <f>'Erik Hennig'!F25</f>
         <v>0</v>
       </c>
-      <c r="I28" s="33" t="str">
+      <c r="I28" s="25" t="str">
         <f>C49</f>
         <v>Achim Groß</v>
       </c>
-      <c r="J28" s="33"/>
+      <c r="J28" s="25"/>
       <c r="K28" s="16">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1767,12 +1764,12 @@
       <c r="O28" s="16"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="25">
+      <c r="B29" s="27">
         <f>'Erik Hennig'!A26</f>
         <v>0</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
       <c r="E29" s="15">
         <f>'Erik Hennig'!D26</f>
         <v>0</v>
@@ -1785,14 +1782,14 @@
         <f>'Erik Hennig'!F26</f>
         <v>0</v>
       </c>
-      <c r="I29" s="33" t="str">
+      <c r="I29" s="25" t="str">
         <f>C66</f>
         <v>Benny Gerlach</v>
       </c>
-      <c r="J29" s="33"/>
+      <c r="J29" s="25"/>
       <c r="K29" s="16">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L29" s="16" t="s">
         <v>26</v>
@@ -1802,11 +1799,11 @@
       <c r="O29" s="16"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="I30" s="33" t="str">
+      <c r="I30" s="25" t="str">
         <f>C83</f>
         <v>Lukas Niedergriese</v>
       </c>
-      <c r="J30" s="33"/>
+      <c r="J30" s="25"/>
       <c r="K30" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1819,11 +1816,11 @@
       <c r="O30" s="16"/>
     </row>
     <row r="31" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I31" s="33" t="str">
+      <c r="I31" s="25" t="str">
         <f>C99</f>
         <v>Tobias Reis</v>
       </c>
-      <c r="J31" s="33"/>
+      <c r="J31" s="25"/>
       <c r="K31" s="16">
         <f t="shared" si="0"/>
         <v>21.5</v>
@@ -1839,24 +1836,24 @@
       <c r="B32" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="29"/>
+      <c r="D32" s="30"/>
       <c r="E32" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="29" t="s">
+      <c r="F32" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="G32" s="30"/>
-      <c r="I32" s="33" t="s">
+      <c r="G32" s="31"/>
+      <c r="I32" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="J32" s="33"/>
+      <c r="J32" s="25"/>
       <c r="K32" s="16">
         <f t="shared" si="0"/>
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L32" s="16" t="s">
         <v>26</v>
@@ -1871,11 +1868,11 @@
       <c r="O32" s="16"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
       <c r="E33" s="19" t="s">
         <v>18</v>
       </c>
@@ -1894,11 +1891,11 @@
       <c r="O33" s="16"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
       <c r="E34" s="15" t="s">
         <v>9</v>
       </c>
@@ -1917,11 +1914,11 @@
       <c r="O34" s="16"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
       <c r="E35" s="23" t="s">
         <v>9</v>
       </c>
@@ -1940,11 +1937,11 @@
       <c r="O35" s="16"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
       <c r="E36" s="23" t="s">
         <v>7</v>
       </c>
@@ -1963,11 +1960,11 @@
       <c r="O36" s="16"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
       <c r="E37" s="23" t="s">
         <v>9</v>
       </c>
@@ -1979,12 +1976,12 @@
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="25">
+      <c r="B38" s="27">
         <f>'Marco Rempfer'!A16</f>
         <v>0</v>
       </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
       <c r="E38" s="23">
         <f>'Marco Rempfer'!D16</f>
         <v>0</v>
@@ -1999,12 +1996,12 @@
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="25">
+      <c r="B39" s="27">
         <f>'Marco Rempfer'!A17</f>
         <v>0</v>
       </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
       <c r="E39" s="23">
         <f>'Marco Rempfer'!D17</f>
         <v>0</v>
@@ -2019,12 +2016,12 @@
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="25">
+      <c r="B40" s="27">
         <f>'Marco Rempfer'!A18</f>
         <v>0</v>
       </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
       <c r="E40" s="23">
         <f>'Marco Rempfer'!D18</f>
         <v>0</v>
@@ -2039,12 +2036,12 @@
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="25">
+      <c r="B41" s="27">
         <f>'Marco Rempfer'!A19</f>
         <v>0</v>
       </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
       <c r="E41" s="23">
         <f>'Marco Rempfer'!D19</f>
         <v>0</v>
@@ -2059,12 +2056,12 @@
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="25">
+      <c r="B42" s="27">
         <f>'Marco Rempfer'!A20</f>
         <v>0</v>
       </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
       <c r="E42" s="23">
         <f>'Marco Rempfer'!D20</f>
         <v>0</v>
@@ -2079,12 +2076,12 @@
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="25">
+      <c r="B43" s="27">
         <f>'Marco Rempfer'!A21</f>
         <v>0</v>
       </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
       <c r="E43" s="23">
         <f>'Marco Rempfer'!D21</f>
         <v>0</v>
@@ -2099,12 +2096,12 @@
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="25">
+      <c r="B44" s="27">
         <f>'Marco Rempfer'!A22</f>
         <v>0</v>
       </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
       <c r="E44" s="23">
         <f>'Marco Rempfer'!D22</f>
         <v>0</v>
@@ -2119,12 +2116,12 @@
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B45" s="25">
+      <c r="B45" s="27">
         <f>'Marco Rempfer'!A23</f>
         <v>0</v>
       </c>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
       <c r="E45" s="23">
         <f>'Marco Rempfer'!D23</f>
         <v>0</v>
@@ -2139,12 +2136,12 @@
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="25">
+      <c r="B46" s="27">
         <f>'Marco Rempfer'!A24</f>
         <v>0</v>
       </c>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
       <c r="E46" s="23">
         <f>'Marco Rempfer'!D24</f>
         <v>0</v>
@@ -2171,24 +2168,24 @@
       <c r="B49" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="C49" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="29"/>
+      <c r="D49" s="30"/>
       <c r="E49" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F49" s="29" t="s">
+      <c r="F49" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="G49" s="30"/>
+      <c r="G49" s="31"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
       <c r="E50" s="19" t="s">
         <v>18</v>
       </c>
@@ -2200,12 +2197,12 @@
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="25" t="str">
+      <c r="B51" s="27" t="str">
         <f>'Achim Groß'!A12</f>
         <v>Meetings</v>
       </c>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
       <c r="E51" s="20" t="str">
         <f>'Achim Groß'!D12</f>
         <v>c</v>
@@ -2220,12 +2217,12 @@
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="25" t="str">
+      <c r="B52" s="27" t="str">
         <f>'Achim Groß'!A13</f>
         <v>Recherche</v>
       </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
       <c r="E52" s="21" t="str">
         <f>'Achim Groß'!D13</f>
         <v>b</v>
@@ -2240,12 +2237,12 @@
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="25" t="str">
+      <c r="B53" s="27" t="str">
         <f>'Achim Groß'!A14</f>
         <v>Dokumentation</v>
       </c>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
       <c r="E53" s="21" t="str">
         <f>'Achim Groß'!D14</f>
         <v>c</v>
@@ -2260,12 +2257,12 @@
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="25" t="str">
+      <c r="B54" s="27" t="str">
         <f>'Achim Groß'!A15</f>
         <v>JUnit</v>
       </c>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
       <c r="E54" s="21" t="str">
         <f>'Achim Groß'!D15</f>
         <v>b</v>
@@ -2280,12 +2277,12 @@
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="25" t="str">
+      <c r="B55" s="27" t="str">
         <f>'Achim Groß'!A16</f>
         <v>Aufwandsbericht</v>
       </c>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
       <c r="E55" s="21">
         <f>'Achim Groß'!D16</f>
         <v>0</v>
@@ -2300,12 +2297,12 @@
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="25">
+      <c r="B56" s="27">
         <f>'Achim Groß'!A17</f>
         <v>0</v>
       </c>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
       <c r="E56" s="21">
         <f>'Achim Groß'!D17</f>
         <v>0</v>
@@ -2320,12 +2317,12 @@
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="25">
+      <c r="B57" s="27">
         <f>'Achim Groß'!A18</f>
         <v>0</v>
       </c>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
       <c r="E57" s="21">
         <f>'Achim Groß'!D18</f>
         <v>0</v>
@@ -2340,12 +2337,12 @@
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="25">
+      <c r="B58" s="27">
         <f>'Achim Groß'!A19</f>
         <v>0</v>
       </c>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
       <c r="E58" s="21">
         <f>'Achim Groß'!D19</f>
         <v>0</v>
@@ -2360,12 +2357,12 @@
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="25">
+      <c r="B59" s="27">
         <f>'Achim Groß'!A20</f>
         <v>0</v>
       </c>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
       <c r="E59" s="21">
         <f>'Achim Groß'!D20</f>
         <v>0</v>
@@ -2380,12 +2377,12 @@
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="25">
+      <c r="B60" s="27">
         <f>'Achim Groß'!A21</f>
         <v>0</v>
       </c>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
       <c r="E60" s="21">
         <f>'Achim Groß'!D21</f>
         <v>0</v>
@@ -2400,12 +2397,12 @@
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="25">
+      <c r="B61" s="27">
         <f>'Achim Groß'!A22</f>
         <v>0</v>
       </c>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
       <c r="E61" s="21">
         <f>'Achim Groß'!D22</f>
         <v>0</v>
@@ -2420,12 +2417,12 @@
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="25">
+      <c r="B62" s="27">
         <f>'Achim Groß'!A23</f>
         <v>0</v>
       </c>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
       <c r="E62" s="21">
         <f>'Achim Groß'!D23</f>
         <v>0</v>
@@ -2440,12 +2437,12 @@
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="25">
+      <c r="B63" s="27">
         <f>'Achim Groß'!A24</f>
         <v>0</v>
       </c>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
       <c r="E63" s="21">
         <f>'Achim Groß'!D24</f>
         <v>0</v>
@@ -2472,24 +2469,24 @@
       <c r="B66" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C66" s="29" t="s">
+      <c r="C66" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D66" s="29"/>
+      <c r="D66" s="30"/>
       <c r="E66" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F66" s="29" t="s">
+      <c r="F66" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G66" s="30"/>
+      <c r="G66" s="31"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="26" t="s">
+      <c r="B67" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
       <c r="E67" s="19" t="s">
         <v>18</v>
       </c>
@@ -2501,12 +2498,12 @@
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="25" t="str">
+      <c r="B68" s="27" t="str">
         <f>'Benny Gerlach'!A12</f>
         <v>Meetings</v>
       </c>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
       <c r="E68" s="21" t="str">
         <f>'Benny Gerlach'!D12</f>
         <v>c</v>
@@ -2521,12 +2518,12 @@
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="25" t="str">
+      <c r="B69" s="27" t="str">
         <f>'Benny Gerlach'!A13</f>
         <v>Analyse Echobot.de</v>
       </c>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
       <c r="E69" s="21" t="str">
         <f>'Benny Gerlach'!D13</f>
         <v>c</v>
@@ -2541,32 +2538,32 @@
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B70" s="25">
+      <c r="B70" s="27" t="str">
         <f>'Benny Gerlach'!A14</f>
-        <v>0</v>
-      </c>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="21">
+        <v>Meeting &amp; Erstellung UML Diagramm Echobot.de</v>
+      </c>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="21" t="str">
         <f>'Benny Gerlach'!D14</f>
-        <v>0</v>
-      </c>
-      <c r="F70" s="21">
+        <v>b</v>
+      </c>
+      <c r="F70" s="21" t="str">
         <f>'Benny Gerlach'!E14</f>
-        <v>0</v>
+        <v>b</v>
       </c>
       <c r="G70" s="21">
         <f>'Benny Gerlach'!F14</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71" s="25">
+      <c r="B71" s="27">
         <f>'Benny Gerlach'!A15</f>
         <v>0</v>
       </c>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
       <c r="E71" s="21">
         <f>'Benny Gerlach'!D15</f>
         <v>0</v>
@@ -2581,12 +2578,12 @@
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B72" s="25">
+      <c r="B72" s="27">
         <f>'Benny Gerlach'!A16</f>
         <v>0</v>
       </c>
-      <c r="C72" s="25"/>
-      <c r="D72" s="25"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="27"/>
       <c r="E72" s="21">
         <f>'Benny Gerlach'!D16</f>
         <v>0</v>
@@ -2601,12 +2598,12 @@
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B73" s="25">
+      <c r="B73" s="27">
         <f>'Benny Gerlach'!A17</f>
         <v>0</v>
       </c>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
       <c r="E73" s="21">
         <f>'Benny Gerlach'!D17</f>
         <v>0</v>
@@ -2621,12 +2618,12 @@
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="25">
+      <c r="B74" s="27">
         <f>'Benny Gerlach'!A18</f>
         <v>0</v>
       </c>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
       <c r="E74" s="21">
         <f>'Benny Gerlach'!D18</f>
         <v>0</v>
@@ -2641,12 +2638,12 @@
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="25">
+      <c r="B75" s="27">
         <f>'Benny Gerlach'!A19</f>
         <v>0</v>
       </c>
-      <c r="C75" s="25"/>
-      <c r="D75" s="25"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
       <c r="E75" s="21">
         <f>'Benny Gerlach'!D19</f>
         <v>0</v>
@@ -2661,12 +2658,12 @@
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B76" s="25">
+      <c r="B76" s="27">
         <f>'Benny Gerlach'!A20</f>
         <v>0</v>
       </c>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
       <c r="E76" s="21">
         <f>'Benny Gerlach'!D20</f>
         <v>0</v>
@@ -2681,12 +2678,12 @@
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="25">
+      <c r="B77" s="27">
         <f>'Benny Gerlach'!A21</f>
         <v>0</v>
       </c>
-      <c r="C77" s="25"/>
-      <c r="D77" s="25"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
       <c r="E77" s="21">
         <f>'Benny Gerlach'!D21</f>
         <v>0</v>
@@ -2701,12 +2698,12 @@
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="25">
+      <c r="B78" s="27">
         <f>'Benny Gerlach'!A22</f>
         <v>0</v>
       </c>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
       <c r="E78" s="21">
         <f>'Benny Gerlach'!D22</f>
         <v>0</v>
@@ -2721,12 +2718,12 @@
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="25">
+      <c r="B79" s="27">
         <f>'Benny Gerlach'!A23</f>
         <v>0</v>
       </c>
-      <c r="C79" s="25"/>
-      <c r="D79" s="25"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="27"/>
       <c r="E79" s="21">
         <f>'Benny Gerlach'!D23</f>
         <v>0</v>
@@ -2741,12 +2738,12 @@
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="25">
+      <c r="B80" s="27">
         <f>'Benny Gerlach'!A24</f>
         <v>0</v>
       </c>
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="27"/>
       <c r="E80" s="21">
         <f>'Benny Gerlach'!D24</f>
         <v>0</v>
@@ -2765,24 +2762,24 @@
       <c r="B83" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C83" s="29" t="s">
+      <c r="C83" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D83" s="29"/>
+      <c r="D83" s="30"/>
       <c r="E83" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F83" s="29" t="s">
+      <c r="F83" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="G83" s="30"/>
+      <c r="G83" s="31"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B84" s="26" t="s">
+      <c r="B84" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C84" s="26"/>
-      <c r="D84" s="26"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
       <c r="E84" s="19" t="s">
         <v>18</v>
       </c>
@@ -2794,12 +2791,12 @@
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B85" s="31" t="str">
+      <c r="B85" s="28" t="str">
         <f>'Lukas Niedergriese'!A12</f>
         <v>Meetings</v>
       </c>
-      <c r="C85" s="32"/>
-      <c r="D85" s="32"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
       <c r="E85" s="6" t="str">
         <f>'Lukas Niedergriese'!D12</f>
         <v>c</v>
@@ -2814,12 +2811,12 @@
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B86" s="31" t="str">
+      <c r="B86" s="28" t="str">
         <f>'Lukas Niedergriese'!A13</f>
         <v>Recherche</v>
       </c>
-      <c r="C86" s="32"/>
-      <c r="D86" s="32"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
       <c r="E86" s="6" t="str">
         <f>'Lukas Niedergriese'!D13</f>
         <v>c</v>
@@ -2834,12 +2831,12 @@
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B87" s="31" t="str">
+      <c r="B87" s="28" t="str">
         <f>'Lukas Niedergriese'!A14</f>
         <v>Projektwebsite bearbeiten</v>
       </c>
-      <c r="C87" s="32"/>
-      <c r="D87" s="32"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
       <c r="E87" s="6" t="str">
         <f>'Lukas Niedergriese'!D14</f>
         <v>c</v>
@@ -2854,12 +2851,12 @@
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B88" s="31">
+      <c r="B88" s="28">
         <f>'Lukas Niedergriese'!A15</f>
         <v>0</v>
       </c>
-      <c r="C88" s="32"/>
-      <c r="D88" s="32"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
       <c r="E88" s="6">
         <f>'Lukas Niedergriese'!D15</f>
         <v>0</v>
@@ -2874,12 +2871,12 @@
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B89" s="31">
+      <c r="B89" s="28">
         <f>'Lukas Niedergriese'!A16</f>
         <v>0</v>
       </c>
-      <c r="C89" s="32"/>
-      <c r="D89" s="32"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="29"/>
       <c r="E89" s="6">
         <f>'Lukas Niedergriese'!D16</f>
         <v>0</v>
@@ -2894,12 +2891,12 @@
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B90" s="31">
+      <c r="B90" s="28">
         <f>'Lukas Niedergriese'!A17</f>
         <v>0</v>
       </c>
-      <c r="C90" s="32"/>
-      <c r="D90" s="32"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
       <c r="E90" s="6">
         <f>'Lukas Niedergriese'!D17</f>
         <v>0</v>
@@ -2914,12 +2911,12 @@
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B91" s="31">
+      <c r="B91" s="28">
         <f>'Lukas Niedergriese'!A18</f>
         <v>0</v>
       </c>
-      <c r="C91" s="32"/>
-      <c r="D91" s="32"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
       <c r="E91" s="6">
         <f>'Lukas Niedergriese'!D18</f>
         <v>0</v>
@@ -2934,12 +2931,12 @@
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B92" s="31">
+      <c r="B92" s="28">
         <f>'Lukas Niedergriese'!A19</f>
         <v>0</v>
       </c>
-      <c r="C92" s="32"/>
-      <c r="D92" s="32"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="29"/>
       <c r="E92" s="6">
         <f>'Lukas Niedergriese'!D19</f>
         <v>0</v>
@@ -2954,12 +2951,12 @@
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B93" s="31">
+      <c r="B93" s="28">
         <f>'Lukas Niedergriese'!A20</f>
         <v>0</v>
       </c>
-      <c r="C93" s="32"/>
-      <c r="D93" s="32"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
       <c r="E93" s="6">
         <f>'Lukas Niedergriese'!D20</f>
         <v>0</v>
@@ -2974,12 +2971,12 @@
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B94" s="31">
+      <c r="B94" s="28">
         <f>'Lukas Niedergriese'!A21</f>
         <v>0</v>
       </c>
-      <c r="C94" s="32"/>
-      <c r="D94" s="32"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
       <c r="E94" s="6">
         <f>'Lukas Niedergriese'!D21</f>
         <v>0</v>
@@ -2994,12 +2991,12 @@
       </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B95" s="31">
+      <c r="B95" s="28">
         <f>'Lukas Niedergriese'!A22</f>
         <v>0</v>
       </c>
-      <c r="C95" s="32"/>
-      <c r="D95" s="32"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="29"/>
       <c r="E95" s="6">
         <f>'Lukas Niedergriese'!D22</f>
         <v>0</v>
@@ -3014,12 +3011,12 @@
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B96" s="31">
+      <c r="B96" s="28">
         <f>'Lukas Niedergriese'!A23</f>
         <v>0</v>
       </c>
-      <c r="C96" s="32"/>
-      <c r="D96" s="32"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="29"/>
       <c r="E96" s="6">
         <f>'Lukas Niedergriese'!D23</f>
         <v>0</v>
@@ -3034,12 +3031,12 @@
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B97" s="31">
+      <c r="B97" s="28">
         <f>'Lukas Niedergriese'!A24</f>
         <v>0</v>
       </c>
-      <c r="C97" s="32"/>
-      <c r="D97" s="32"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
       <c r="E97" s="6">
         <f>'Lukas Niedergriese'!D24</f>
         <v>0</v>
@@ -3058,24 +3055,24 @@
       <c r="B99" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C99" s="29" t="s">
+      <c r="C99" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D99" s="29"/>
+      <c r="D99" s="30"/>
       <c r="E99" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F99" s="29" t="s">
+      <c r="F99" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G99" s="30"/>
+      <c r="G99" s="31"/>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B100" s="26" t="s">
+      <c r="B100" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C100" s="26"/>
-      <c r="D100" s="26"/>
+      <c r="C100" s="32"/>
+      <c r="D100" s="32"/>
       <c r="E100" s="19" t="s">
         <v>18</v>
       </c>
@@ -3087,12 +3084,12 @@
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B101" s="25" t="str">
+      <c r="B101" s="27" t="str">
         <f>'Tobias Reis'!A12</f>
         <v>Meeting / Interview</v>
       </c>
-      <c r="C101" s="25"/>
-      <c r="D101" s="25"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="27"/>
       <c r="E101" s="15" t="str">
         <f>'Tobias Reis'!D12</f>
         <v>d</v>
@@ -3107,12 +3104,12 @@
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B102" s="25" t="str">
+      <c r="B102" s="27" t="str">
         <f>'Tobias Reis'!A13</f>
         <v>Protokoll schreiben / Projekt Dokumentieren</v>
       </c>
-      <c r="C102" s="25"/>
-      <c r="D102" s="25"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="27"/>
       <c r="E102" s="15" t="str">
         <f>'Tobias Reis'!D13</f>
         <v>c</v>
@@ -3127,12 +3124,12 @@
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B103" s="25" t="str">
+      <c r="B103" s="27" t="str">
         <f>'Tobias Reis'!A14</f>
         <v>Recherche über unser Projekt</v>
       </c>
-      <c r="C103" s="25"/>
-      <c r="D103" s="25"/>
+      <c r="C103" s="27"/>
+      <c r="D103" s="27"/>
       <c r="E103" s="15" t="str">
         <f>'Tobias Reis'!D14</f>
         <v>c</v>
@@ -3147,12 +3144,12 @@
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B104" s="25" t="str">
+      <c r="B104" s="27" t="str">
         <f>'Tobias Reis'!A15</f>
         <v>Grundgerüst für Recherchebericht erstellt</v>
       </c>
-      <c r="C104" s="25"/>
-      <c r="D104" s="25"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="27"/>
       <c r="E104" s="15" t="str">
         <f>'Tobias Reis'!D15</f>
         <v>c</v>
@@ -3167,12 +3164,12 @@
       </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B105" s="25" t="str">
+      <c r="B105" s="27" t="str">
         <f>'Tobias Reis'!A16</f>
         <v>Projekthomepage erstellt</v>
       </c>
-      <c r="C105" s="25"/>
-      <c r="D105" s="25"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="27"/>
       <c r="E105" s="15" t="str">
         <f>'Tobias Reis'!D16</f>
         <v>c</v>
@@ -3187,12 +3184,12 @@
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B106" s="25">
+      <c r="B106" s="27">
         <f>'Tobias Reis'!A17</f>
         <v>0</v>
       </c>
-      <c r="C106" s="25"/>
-      <c r="D106" s="25"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="27"/>
       <c r="E106" s="15">
         <f>'Tobias Reis'!D17</f>
         <v>0</v>
@@ -3207,12 +3204,12 @@
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B107" s="25">
+      <c r="B107" s="27">
         <f>'Tobias Reis'!A18</f>
         <v>0</v>
       </c>
-      <c r="C107" s="25"/>
-      <c r="D107" s="25"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="27"/>
       <c r="E107" s="15">
         <f>'Tobias Reis'!D18</f>
         <v>0</v>
@@ -3227,12 +3224,12 @@
       </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B108" s="25">
+      <c r="B108" s="27">
         <f>'Tobias Reis'!A19</f>
         <v>0</v>
       </c>
-      <c r="C108" s="25"/>
-      <c r="D108" s="25"/>
+      <c r="C108" s="27"/>
+      <c r="D108" s="27"/>
       <c r="E108" s="15">
         <f>'Tobias Reis'!D19</f>
         <v>0</v>
@@ -3247,12 +3244,12 @@
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B109" s="25">
+      <c r="B109" s="27">
         <f>'Tobias Reis'!A20</f>
         <v>0</v>
       </c>
-      <c r="C109" s="25"/>
-      <c r="D109" s="25"/>
+      <c r="C109" s="27"/>
+      <c r="D109" s="27"/>
       <c r="E109" s="15">
         <f>'Tobias Reis'!D20</f>
         <v>0</v>
@@ -3267,12 +3264,12 @@
       </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B110" s="25">
+      <c r="B110" s="27">
         <f>'Tobias Reis'!A21</f>
         <v>0</v>
       </c>
-      <c r="C110" s="25"/>
-      <c r="D110" s="25"/>
+      <c r="C110" s="27"/>
+      <c r="D110" s="27"/>
       <c r="E110" s="15">
         <f>'Tobias Reis'!D21</f>
         <v>0</v>
@@ -3287,12 +3284,12 @@
       </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B111" s="25">
+      <c r="B111" s="27">
         <f>'Tobias Reis'!A22</f>
         <v>0</v>
       </c>
-      <c r="C111" s="25"/>
-      <c r="D111" s="25"/>
+      <c r="C111" s="27"/>
+      <c r="D111" s="27"/>
       <c r="E111" s="15">
         <f>'Tobias Reis'!D22</f>
         <v>0</v>
@@ -3307,12 +3304,12 @@
       </c>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B112" s="25">
+      <c r="B112" s="27">
         <f>'Tobias Reis'!A23</f>
         <v>0</v>
       </c>
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
       <c r="E112" s="15">
         <f>'Tobias Reis'!D23</f>
         <v>0</v>
@@ -3327,12 +3324,12 @@
       </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B113" s="25">
+      <c r="B113" s="27">
         <f>'Tobias Reis'!A24</f>
         <v>0</v>
       </c>
-      <c r="C113" s="25"/>
-      <c r="D113" s="25"/>
+      <c r="C113" s="27"/>
+      <c r="D113" s="27"/>
       <c r="E113" s="15">
         <f>'Tobias Reis'!D24</f>
         <v>0</v>
@@ -3348,29 +3345,83 @@
     </row>
   </sheetData>
   <mergeCells count="124">
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B94:D94"/>
     <mergeCell ref="B113:D113"/>
     <mergeCell ref="I5:L5"/>
     <mergeCell ref="B107:D107"/>
@@ -3395,83 +3446,29 @@
     <mergeCell ref="C83:D83"/>
     <mergeCell ref="F83:G83"/>
     <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B2:H3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3479,7 +3476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -3497,35 +3494,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="D4" s="28" t="s">
+      <c r="B4" s="26"/>
+      <c r="D4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -3541,10 +3538,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="33"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -3557,52 +3554,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="33"/>
+      <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="33"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="26"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="33"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="25"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="33"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -3615,11 +3612,11 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
@@ -3631,11 +3628,11 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="6" t="s">
         <v>9</v>
       </c>
@@ -3647,11 +3644,11 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="6" t="s">
         <v>9</v>
       </c>
@@ -3663,147 +3660,147 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>6</v>
@@ -3813,11 +3810,11 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>3</v>
@@ -3825,11 +3822,11 @@
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>2</v>
@@ -3839,22 +3836,22 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-4</v>
@@ -3862,6 +3859,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:B4"/>
@@ -3874,30 +3895,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
@@ -3915,7 +3912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3933,35 +3930,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="D4" s="28" t="s">
+      <c r="B4" s="26"/>
+      <c r="D4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -3977,10 +3974,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="33"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -3993,52 +3990,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="33"/>
+      <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="33"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="26"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="33"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="25"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="33"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -4051,11 +4048,11 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
@@ -4067,11 +4064,11 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="6" t="s">
         <v>8</v>
       </c>
@@ -4083,11 +4080,11 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="6" t="s">
         <v>9</v>
       </c>
@@ -4099,11 +4096,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="6" t="s">
         <v>8</v>
       </c>
@@ -4125,131 +4122,131 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>7</v>
@@ -4259,11 +4256,11 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>4</v>
@@ -4271,11 +4268,11 @@
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>1.75</v>
@@ -4285,22 +4282,22 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-3</v>
@@ -4308,6 +4305,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:B4"/>
@@ -4320,30 +4341,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
@@ -4361,7 +4358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -4379,35 +4376,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="D4" s="28" t="s">
+      <c r="B4" s="26"/>
+      <c r="D4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -4423,10 +4420,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="33"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -4439,52 +4436,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="33"/>
+      <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="33"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="26"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="33"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="25"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="33"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -4497,9 +4494,9 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -4521,147 +4518,147 @@
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>0</v>
@@ -4671,11 +4668,11 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>0</v>
@@ -4683,11 +4680,11 @@
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="10" t="e">
         <f>D33/D34</f>
         <v>#DIV/0!</v>
@@ -4697,22 +4694,22 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-10</v>
@@ -4720,6 +4717,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:B4"/>
@@ -4732,30 +4753,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
@@ -4773,11 +4770,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4791,35 +4788,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="D4" s="28" t="s">
+      <c r="B4" s="26"/>
+      <c r="D4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -4835,10 +4832,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="33"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -4851,52 +4848,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="33"/>
+      <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="33"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="26"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="33"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="25"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="33"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -4909,11 +4906,11 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="24" t="s">
         <v>9</v>
       </c>
@@ -4925,11 +4922,11 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="21" t="s">
         <v>9</v>
       </c>
@@ -4941,213 +4938,245 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="A14" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="21">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
-        <v>1.5</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
       <c r="D37">
         <f>D33-10</f>
-        <v>-7</v>
+        <v>-5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:B4"/>
@@ -5160,30 +5189,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
@@ -5201,7 +5206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5219,35 +5224,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="D4" s="28" t="s">
+      <c r="B4" s="26"/>
+      <c r="D4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -5263,10 +5268,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="33"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -5279,52 +5284,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="33"/>
+      <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="33"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="26"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="33"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="25"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="33"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -5337,11 +5342,11 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
@@ -5353,11 +5358,11 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="14" t="s">
         <v>10</v>
       </c>
@@ -5369,11 +5374,11 @@
       </c>
     </row>
     <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="6" t="s">
         <v>8</v>
       </c>
@@ -5385,11 +5390,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="6" t="s">
         <v>9</v>
       </c>
@@ -5401,139 +5406,139 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>7</v>
@@ -5543,11 +5548,11 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>4</v>
@@ -5555,11 +5560,11 @@
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>1.75</v>
@@ -5569,22 +5574,22 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-3</v>
@@ -5592,6 +5597,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:B4"/>
@@ -5604,30 +5633,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
@@ -5645,7 +5650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5663,35 +5668,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="D4" s="28" t="s">
+      <c r="B4" s="26"/>
+      <c r="D4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -5707,10 +5712,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="33"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -5723,52 +5728,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="33"/>
+      <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="33"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="26"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="33"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="25"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="33"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -5869,123 +5874,123 @@
       <c r="F17" s="22"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>7.5</v>
@@ -5995,11 +6000,11 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>5</v>
@@ -6007,11 +6012,11 @@
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>1.5</v>
@@ -6021,22 +6026,22 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-2.5</v>
@@ -6044,6 +6049,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:B4"/>
@@ -6056,30 +6085,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">

--- a/Organisation/Aufwandserfassung/Aufwandserfassung_Wochenbericht_KW11.xlsx
+++ b/Organisation/Aufwandserfassung/Aufwandserfassung_Wochenbericht_KW11.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\Documents\GitHub\METLAB_News\Organisation\Aufwandserfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tobi\Documents\GitHub\METLAB_News\Organisation\Aufwandserfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E065CFD-F48C-445C-BEDC-B8409975286D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27885" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27885" windowHeight="12795" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamt" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <sheet name="Erik Hennig" sheetId="3" r:id="rId6"/>
     <sheet name="Tobias Reis" sheetId="2" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="69">
   <si>
     <t>Wöchentlicher Aufwandsbericht</t>
   </si>
@@ -235,12 +234,15 @@
   </si>
   <si>
     <t>Recherche zu diversen Tools</t>
+  </si>
+  <si>
+    <t>TeamViewer Session: UML Diagramme / Allgemeine Themen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -469,7 +471,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -477,26 +493,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -506,6 +502,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -985,10 +987,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O113"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A42" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="A42" workbookViewId="0">
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
@@ -1009,24 +1011,24 @@
   <sheetData>
     <row r="1" spans="2:15" ht="11.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="B2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
@@ -1056,12 +1058,12 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
       <c r="M5" s="16"/>
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
@@ -1076,11 +1078,11 @@
       <c r="G6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="33" t="str">
+      <c r="I6" s="25" t="str">
         <f>C13</f>
         <v>Erik Hennig</v>
       </c>
-      <c r="J6" s="33"/>
+      <c r="J6" s="25"/>
       <c r="K6" s="16">
         <v>14.5</v>
       </c>
@@ -1109,11 +1111,11 @@
       <c r="G7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="33" t="str">
+      <c r="I7" s="25" t="str">
         <f>C32</f>
         <v>Marco Rempfer</v>
       </c>
-      <c r="J7" s="33"/>
+      <c r="J7" s="25"/>
       <c r="K7" s="16">
         <v>9</v>
       </c>
@@ -1131,11 +1133,11 @@
       <c r="G8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="33" t="str">
+      <c r="I8" s="25" t="str">
         <f>C49</f>
         <v>Achim Groß</v>
       </c>
-      <c r="J8" s="33"/>
+      <c r="J8" s="25"/>
       <c r="K8" s="16">
         <v>9</v>
       </c>
@@ -1147,21 +1149,21 @@
       <c r="O8" s="16"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="28"/>
+      <c r="C9" s="26"/>
       <c r="F9" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="33" t="str">
+      <c r="I9" s="25" t="str">
         <f>C66</f>
         <v>Benny Gerlach</v>
       </c>
-      <c r="J9" s="33"/>
+      <c r="J9" s="25"/>
       <c r="K9" s="16">
         <v>12</v>
       </c>
@@ -1185,11 +1187,11 @@
       <c r="G10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="33" t="str">
+      <c r="I10" s="25" t="str">
         <f>C83</f>
         <v>Lukas Niedergriese</v>
       </c>
-      <c r="J10" s="33"/>
+      <c r="J10" s="25"/>
       <c r="K10" s="16">
         <v>9</v>
       </c>
@@ -1210,11 +1212,11 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="I11" s="33" t="str">
+      <c r="I11" s="25" t="str">
         <f>C99</f>
         <v>Tobias Reis</v>
       </c>
-      <c r="J11" s="33"/>
+      <c r="J11" s="25"/>
       <c r="K11" s="16">
         <v>14</v>
       </c>
@@ -1226,10 +1228,10 @@
       <c r="O11" s="16"/>
     </row>
     <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I12" s="33" t="s">
+      <c r="I12" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="33"/>
+      <c r="J12" s="25"/>
       <c r="K12" s="16">
         <f>SUM(K6:K11)</f>
         <v>67.5</v>
@@ -1250,17 +1252,17 @@
       <c r="B13" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="29"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="30"/>
+      <c r="G13" s="31"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
@@ -1270,11 +1272,11 @@
       <c r="O13" s="16"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
       <c r="E14" s="19" t="s">
         <v>18</v>
       </c>
@@ -1293,12 +1295,12 @@
       <c r="O14" s="16"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="25" t="str">
+      <c r="B15" s="27" t="str">
         <f>'Erik Hennig'!A12</f>
         <v>Meetings</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
       <c r="E15" s="15" t="str">
         <f>'Erik Hennig'!D12</f>
         <v>c</v>
@@ -1311,23 +1313,23 @@
         <f>'Erik Hennig'!F12</f>
         <v>2.5</v>
       </c>
-      <c r="I15" s="28" t="s">
+      <c r="I15" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
       <c r="M15" s="16"/>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="25" t="str">
+      <c r="B16" s="27" t="str">
         <f>'Erik Hennig'!A13</f>
         <v>Recherche</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
       <c r="E16" s="15" t="str">
         <f>'Erik Hennig'!D13</f>
         <v>d</v>
@@ -1340,11 +1342,11 @@
         <f>'Erik Hennig'!F13</f>
         <v>3</v>
       </c>
-      <c r="I16" s="33" t="str">
+      <c r="I16" s="25" t="str">
         <f>C13</f>
         <v>Erik Hennig</v>
       </c>
-      <c r="J16" s="33"/>
+      <c r="J16" s="25"/>
       <c r="K16" s="16">
         <f>SUM(G15:G29)</f>
         <v>7</v>
@@ -1361,12 +1363,12 @@
       <c r="O16" s="16"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="25" t="str">
+      <c r="B17" s="27" t="str">
         <f>'Erik Hennig'!A14</f>
         <v>Code-Standard bewerten</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
       <c r="E17" s="15" t="str">
         <f>'Erik Hennig'!D14</f>
         <v>b</v>
@@ -1379,11 +1381,11 @@
         <f>'Erik Hennig'!F14</f>
         <v>1</v>
       </c>
-      <c r="I17" s="33" t="str">
+      <c r="I17" s="25" t="str">
         <f>C32</f>
         <v>Marco Rempfer</v>
       </c>
-      <c r="J17" s="33"/>
+      <c r="J17" s="25"/>
       <c r="K17" s="16">
         <f>SUM(G34:G46)</f>
         <v>9</v>
@@ -1396,12 +1398,12 @@
       <c r="O17" s="16"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="25" t="str">
+      <c r="B18" s="27" t="str">
         <f>'Erik Hennig'!A15</f>
         <v>Maven ausprobieren</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
       <c r="E18" s="15" t="str">
         <f>'Erik Hennig'!D15</f>
         <v>c</v>
@@ -1414,11 +1416,11 @@
         <f>'Erik Hennig'!F15</f>
         <v>0.5</v>
       </c>
-      <c r="I18" s="33" t="str">
+      <c r="I18" s="25" t="str">
         <f>C49</f>
         <v>Achim Groß</v>
       </c>
-      <c r="J18" s="33"/>
+      <c r="J18" s="25"/>
       <c r="K18" s="16">
         <f>SUM(G51:G63)</f>
         <v>7</v>
@@ -1431,12 +1433,12 @@
       <c r="O18" s="16"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="25">
+      <c r="B19" s="27">
         <f>'Erik Hennig'!A16</f>
         <v>0</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
       <c r="E19" s="15">
         <f>'Erik Hennig'!D16</f>
         <v>0</v>
@@ -1449,11 +1451,11 @@
         <f>'Erik Hennig'!F16</f>
         <v>0</v>
       </c>
-      <c r="I19" s="33" t="str">
+      <c r="I19" s="25" t="str">
         <f>C66</f>
         <v>Benny Gerlach</v>
       </c>
-      <c r="J19" s="33"/>
+      <c r="J19" s="25"/>
       <c r="K19" s="16">
         <f>SUM(G68:G80)</f>
         <v>3</v>
@@ -1466,12 +1468,12 @@
       <c r="O19" s="16"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="25">
+      <c r="B20" s="27">
         <f>'Erik Hennig'!A17</f>
         <v>0</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
       <c r="E20" s="15">
         <f>'Erik Hennig'!D17</f>
         <v>0</v>
@@ -1484,11 +1486,11 @@
         <f>'Erik Hennig'!F17</f>
         <v>0</v>
       </c>
-      <c r="I20" s="33" t="str">
+      <c r="I20" s="25" t="str">
         <f>C83</f>
         <v>Lukas Niedergriese</v>
       </c>
-      <c r="J20" s="33"/>
+      <c r="J20" s="25"/>
       <c r="K20" s="16">
         <f>SUM(G85:G97)</f>
         <v>6</v>
@@ -1501,12 +1503,12 @@
       <c r="O20" s="16"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="25">
+      <c r="B21" s="27">
         <f>'Erik Hennig'!A18</f>
         <v>0</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
       <c r="E21" s="15">
         <f>'Erik Hennig'!D18</f>
         <v>0</v>
@@ -1519,14 +1521,14 @@
         <f>'Erik Hennig'!F18</f>
         <v>0</v>
       </c>
-      <c r="I21" s="33" t="str">
+      <c r="I21" s="25" t="str">
         <f>C99</f>
         <v>Tobias Reis</v>
       </c>
-      <c r="J21" s="33"/>
+      <c r="J21" s="25"/>
       <c r="K21" s="16">
         <f>SUM(G101:G113)</f>
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="L21" s="16" t="s">
         <v>26</v>
@@ -1536,12 +1538,12 @@
       <c r="O21" s="16"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="25">
+      <c r="B22" s="27">
         <f>'Erik Hennig'!A19</f>
         <v>0</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
       <c r="E22" s="15">
         <f>'Erik Hennig'!D19</f>
         <v>0</v>
@@ -1554,13 +1556,13 @@
         <f>'Erik Hennig'!F19</f>
         <v>0</v>
       </c>
-      <c r="I22" s="33" t="s">
+      <c r="I22" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="33"/>
+      <c r="J22" s="25"/>
       <c r="K22" s="16">
         <f>SUM(K16:K21)</f>
-        <v>39.5</v>
+        <v>41</v>
       </c>
       <c r="L22" s="16" t="s">
         <v>26</v>
@@ -1574,12 +1576,12 @@
       <c r="O22" s="16"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="25">
+      <c r="B23" s="27">
         <f>'Erik Hennig'!A20</f>
         <v>0</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
       <c r="E23" s="15">
         <f>'Erik Hennig'!D20</f>
         <v>0</v>
@@ -1601,12 +1603,12 @@
       <c r="O23" s="16"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="25">
+      <c r="B24" s="27">
         <f>'Erik Hennig'!A21</f>
         <v>0</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
       <c r="E24" s="15">
         <f>'Erik Hennig'!D21</f>
         <v>0</v>
@@ -1628,12 +1630,12 @@
       <c r="O24" s="16"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="25">
+      <c r="B25" s="27">
         <f>'Erik Hennig'!A22</f>
         <v>0</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
       <c r="E25" s="15">
         <f>'Erik Hennig'!D22</f>
         <v>0</v>
@@ -1646,23 +1648,23 @@
         <f>'Erik Hennig'!F22</f>
         <v>0</v>
       </c>
-      <c r="I25" s="28" t="s">
+      <c r="I25" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
       <c r="O25" s="16"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="25">
+      <c r="B26" s="27">
         <f>'Erik Hennig'!A23</f>
         <v>0</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
       <c r="E26" s="15">
         <f>'Erik Hennig'!D23</f>
         <v>0</v>
@@ -1675,11 +1677,11 @@
         <f>'Erik Hennig'!F23</f>
         <v>0</v>
       </c>
-      <c r="I26" s="33" t="str">
+      <c r="I26" s="25" t="str">
         <f>C13</f>
         <v>Erik Hennig</v>
       </c>
-      <c r="J26" s="33"/>
+      <c r="J26" s="25"/>
       <c r="K26" s="16">
         <f t="shared" ref="K26:K32" si="0">K6+K16</f>
         <v>21.5</v>
@@ -1697,12 +1699,12 @@
       <c r="O26" s="16"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="25">
+      <c r="B27" s="27">
         <f>'Erik Hennig'!A24</f>
         <v>0</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
       <c r="E27" s="15">
         <f>'Erik Hennig'!D24</f>
         <v>0</v>
@@ -1715,11 +1717,11 @@
         <f>'Erik Hennig'!F24</f>
         <v>0</v>
       </c>
-      <c r="I27" s="33" t="str">
+      <c r="I27" s="25" t="str">
         <f>C32</f>
         <v>Marco Rempfer</v>
       </c>
-      <c r="J27" s="33"/>
+      <c r="J27" s="25"/>
       <c r="K27" s="16">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1732,12 +1734,12 @@
       <c r="O27" s="16"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="25">
+      <c r="B28" s="27">
         <f>'Erik Hennig'!A25</f>
         <v>0</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
       <c r="E28" s="15">
         <f>'Erik Hennig'!D25</f>
         <v>0</v>
@@ -1750,11 +1752,11 @@
         <f>'Erik Hennig'!F25</f>
         <v>0</v>
       </c>
-      <c r="I28" s="33" t="str">
+      <c r="I28" s="25" t="str">
         <f>C49</f>
         <v>Achim Groß</v>
       </c>
-      <c r="J28" s="33"/>
+      <c r="J28" s="25"/>
       <c r="K28" s="16">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1767,12 +1769,12 @@
       <c r="O28" s="16"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="25">
+      <c r="B29" s="27">
         <f>'Erik Hennig'!A26</f>
         <v>0</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
       <c r="E29" s="15">
         <f>'Erik Hennig'!D26</f>
         <v>0</v>
@@ -1785,11 +1787,11 @@
         <f>'Erik Hennig'!F26</f>
         <v>0</v>
       </c>
-      <c r="I29" s="33" t="str">
+      <c r="I29" s="25" t="str">
         <f>C66</f>
         <v>Benny Gerlach</v>
       </c>
-      <c r="J29" s="33"/>
+      <c r="J29" s="25"/>
       <c r="K29" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1802,11 +1804,11 @@
       <c r="O29" s="16"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="I30" s="33" t="str">
+      <c r="I30" s="25" t="str">
         <f>C83</f>
         <v>Lukas Niedergriese</v>
       </c>
-      <c r="J30" s="33"/>
+      <c r="J30" s="25"/>
       <c r="K30" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1819,14 +1821,14 @@
       <c r="O30" s="16"/>
     </row>
     <row r="31" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I31" s="33" t="str">
+      <c r="I31" s="25" t="str">
         <f>C99</f>
         <v>Tobias Reis</v>
       </c>
-      <c r="J31" s="33"/>
+      <c r="J31" s="25"/>
       <c r="K31" s="16">
         <f t="shared" si="0"/>
-        <v>21.5</v>
+        <v>23</v>
       </c>
       <c r="L31" s="16" t="s">
         <v>26</v>
@@ -1839,24 +1841,24 @@
       <c r="B32" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="29"/>
+      <c r="D32" s="30"/>
       <c r="E32" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="29" t="s">
+      <c r="F32" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="G32" s="30"/>
-      <c r="I32" s="33" t="s">
+      <c r="G32" s="31"/>
+      <c r="I32" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="J32" s="33"/>
+      <c r="J32" s="25"/>
       <c r="K32" s="16">
         <f t="shared" si="0"/>
-        <v>107</v>
+        <v>108.5</v>
       </c>
       <c r="L32" s="16" t="s">
         <v>26</v>
@@ -1871,11 +1873,11 @@
       <c r="O32" s="16"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
       <c r="E33" s="19" t="s">
         <v>18</v>
       </c>
@@ -1894,11 +1896,11 @@
       <c r="O33" s="16"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
       <c r="E34" s="15" t="s">
         <v>9</v>
       </c>
@@ -1917,11 +1919,11 @@
       <c r="O34" s="16"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
       <c r="E35" s="23" t="s">
         <v>9</v>
       </c>
@@ -1940,11 +1942,11 @@
       <c r="O35" s="16"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
       <c r="E36" s="23" t="s">
         <v>7</v>
       </c>
@@ -1963,11 +1965,11 @@
       <c r="O36" s="16"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
       <c r="E37" s="23" t="s">
         <v>9</v>
       </c>
@@ -1979,12 +1981,12 @@
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="25">
+      <c r="B38" s="27">
         <f>'Marco Rempfer'!A16</f>
         <v>0</v>
       </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
       <c r="E38" s="23">
         <f>'Marco Rempfer'!D16</f>
         <v>0</v>
@@ -1999,12 +2001,12 @@
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="25">
+      <c r="B39" s="27">
         <f>'Marco Rempfer'!A17</f>
         <v>0</v>
       </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
       <c r="E39" s="23">
         <f>'Marco Rempfer'!D17</f>
         <v>0</v>
@@ -2019,12 +2021,12 @@
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="25">
+      <c r="B40" s="27">
         <f>'Marco Rempfer'!A18</f>
         <v>0</v>
       </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
       <c r="E40" s="23">
         <f>'Marco Rempfer'!D18</f>
         <v>0</v>
@@ -2039,12 +2041,12 @@
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="25">
+      <c r="B41" s="27">
         <f>'Marco Rempfer'!A19</f>
         <v>0</v>
       </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
       <c r="E41" s="23">
         <f>'Marco Rempfer'!D19</f>
         <v>0</v>
@@ -2059,12 +2061,12 @@
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="25">
+      <c r="B42" s="27">
         <f>'Marco Rempfer'!A20</f>
         <v>0</v>
       </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
       <c r="E42" s="23">
         <f>'Marco Rempfer'!D20</f>
         <v>0</v>
@@ -2079,12 +2081,12 @@
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="25">
+      <c r="B43" s="27">
         <f>'Marco Rempfer'!A21</f>
         <v>0</v>
       </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
       <c r="E43" s="23">
         <f>'Marco Rempfer'!D21</f>
         <v>0</v>
@@ -2099,12 +2101,12 @@
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="25">
+      <c r="B44" s="27">
         <f>'Marco Rempfer'!A22</f>
         <v>0</v>
       </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
       <c r="E44" s="23">
         <f>'Marco Rempfer'!D22</f>
         <v>0</v>
@@ -2119,12 +2121,12 @@
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B45" s="25">
+      <c r="B45" s="27">
         <f>'Marco Rempfer'!A23</f>
         <v>0</v>
       </c>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
       <c r="E45" s="23">
         <f>'Marco Rempfer'!D23</f>
         <v>0</v>
@@ -2139,12 +2141,12 @@
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="25">
+      <c r="B46" s="27">
         <f>'Marco Rempfer'!A24</f>
         <v>0</v>
       </c>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
       <c r="E46" s="23">
         <f>'Marco Rempfer'!D24</f>
         <v>0</v>
@@ -2171,24 +2173,24 @@
       <c r="B49" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="C49" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="29"/>
+      <c r="D49" s="30"/>
       <c r="E49" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F49" s="29" t="s">
+      <c r="F49" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="G49" s="30"/>
+      <c r="G49" s="31"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
       <c r="E50" s="19" t="s">
         <v>18</v>
       </c>
@@ -2200,12 +2202,12 @@
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="25" t="str">
+      <c r="B51" s="27" t="str">
         <f>'Achim Groß'!A12</f>
         <v>Meetings</v>
       </c>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
       <c r="E51" s="20" t="str">
         <f>'Achim Groß'!D12</f>
         <v>c</v>
@@ -2220,12 +2222,12 @@
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="25" t="str">
+      <c r="B52" s="27" t="str">
         <f>'Achim Groß'!A13</f>
         <v>Recherche</v>
       </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
       <c r="E52" s="21" t="str">
         <f>'Achim Groß'!D13</f>
         <v>b</v>
@@ -2240,12 +2242,12 @@
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="25" t="str">
+      <c r="B53" s="27" t="str">
         <f>'Achim Groß'!A14</f>
         <v>Dokumentation</v>
       </c>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
       <c r="E53" s="21" t="str">
         <f>'Achim Groß'!D14</f>
         <v>c</v>
@@ -2260,12 +2262,12 @@
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="25" t="str">
+      <c r="B54" s="27" t="str">
         <f>'Achim Groß'!A15</f>
         <v>JUnit</v>
       </c>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
       <c r="E54" s="21" t="str">
         <f>'Achim Groß'!D15</f>
         <v>b</v>
@@ -2280,12 +2282,12 @@
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="25" t="str">
+      <c r="B55" s="27" t="str">
         <f>'Achim Groß'!A16</f>
         <v>Aufwandsbericht</v>
       </c>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
       <c r="E55" s="21">
         <f>'Achim Groß'!D16</f>
         <v>0</v>
@@ -2300,12 +2302,12 @@
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="25">
+      <c r="B56" s="27">
         <f>'Achim Groß'!A17</f>
         <v>0</v>
       </c>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
       <c r="E56" s="21">
         <f>'Achim Groß'!D17</f>
         <v>0</v>
@@ -2320,12 +2322,12 @@
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="25">
+      <c r="B57" s="27">
         <f>'Achim Groß'!A18</f>
         <v>0</v>
       </c>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
       <c r="E57" s="21">
         <f>'Achim Groß'!D18</f>
         <v>0</v>
@@ -2340,12 +2342,12 @@
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="25">
+      <c r="B58" s="27">
         <f>'Achim Groß'!A19</f>
         <v>0</v>
       </c>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
       <c r="E58" s="21">
         <f>'Achim Groß'!D19</f>
         <v>0</v>
@@ -2360,12 +2362,12 @@
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="25">
+      <c r="B59" s="27">
         <f>'Achim Groß'!A20</f>
         <v>0</v>
       </c>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
       <c r="E59" s="21">
         <f>'Achim Groß'!D20</f>
         <v>0</v>
@@ -2380,12 +2382,12 @@
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="25">
+      <c r="B60" s="27">
         <f>'Achim Groß'!A21</f>
         <v>0</v>
       </c>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
       <c r="E60" s="21">
         <f>'Achim Groß'!D21</f>
         <v>0</v>
@@ -2400,12 +2402,12 @@
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="25">
+      <c r="B61" s="27">
         <f>'Achim Groß'!A22</f>
         <v>0</v>
       </c>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
       <c r="E61" s="21">
         <f>'Achim Groß'!D22</f>
         <v>0</v>
@@ -2420,12 +2422,12 @@
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="25">
+      <c r="B62" s="27">
         <f>'Achim Groß'!A23</f>
         <v>0</v>
       </c>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
       <c r="E62" s="21">
         <f>'Achim Groß'!D23</f>
         <v>0</v>
@@ -2440,12 +2442,12 @@
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="25">
+      <c r="B63" s="27">
         <f>'Achim Groß'!A24</f>
         <v>0</v>
       </c>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
       <c r="E63" s="21">
         <f>'Achim Groß'!D24</f>
         <v>0</v>
@@ -2472,24 +2474,24 @@
       <c r="B66" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C66" s="29" t="s">
+      <c r="C66" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D66" s="29"/>
+      <c r="D66" s="30"/>
       <c r="E66" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F66" s="29" t="s">
+      <c r="F66" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G66" s="30"/>
+      <c r="G66" s="31"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="26" t="s">
+      <c r="B67" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
       <c r="E67" s="19" t="s">
         <v>18</v>
       </c>
@@ -2501,12 +2503,12 @@
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="25" t="str">
+      <c r="B68" s="27" t="str">
         <f>'Benny Gerlach'!A12</f>
         <v>Meetings</v>
       </c>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
       <c r="E68" s="21" t="str">
         <f>'Benny Gerlach'!D12</f>
         <v>c</v>
@@ -2521,12 +2523,12 @@
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="25" t="str">
+      <c r="B69" s="27" t="str">
         <f>'Benny Gerlach'!A13</f>
         <v>Analyse Echobot.de</v>
       </c>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
       <c r="E69" s="21" t="str">
         <f>'Benny Gerlach'!D13</f>
         <v>c</v>
@@ -2541,12 +2543,12 @@
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B70" s="25">
+      <c r="B70" s="27">
         <f>'Benny Gerlach'!A14</f>
         <v>0</v>
       </c>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
       <c r="E70" s="21">
         <f>'Benny Gerlach'!D14</f>
         <v>0</v>
@@ -2561,12 +2563,12 @@
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71" s="25">
+      <c r="B71" s="27">
         <f>'Benny Gerlach'!A15</f>
         <v>0</v>
       </c>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
       <c r="E71" s="21">
         <f>'Benny Gerlach'!D15</f>
         <v>0</v>
@@ -2581,12 +2583,12 @@
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B72" s="25">
+      <c r="B72" s="27">
         <f>'Benny Gerlach'!A16</f>
         <v>0</v>
       </c>
-      <c r="C72" s="25"/>
-      <c r="D72" s="25"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="27"/>
       <c r="E72" s="21">
         <f>'Benny Gerlach'!D16</f>
         <v>0</v>
@@ -2601,12 +2603,12 @@
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B73" s="25">
+      <c r="B73" s="27">
         <f>'Benny Gerlach'!A17</f>
         <v>0</v>
       </c>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
       <c r="E73" s="21">
         <f>'Benny Gerlach'!D17</f>
         <v>0</v>
@@ -2621,12 +2623,12 @@
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="25">
+      <c r="B74" s="27">
         <f>'Benny Gerlach'!A18</f>
         <v>0</v>
       </c>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
       <c r="E74" s="21">
         <f>'Benny Gerlach'!D18</f>
         <v>0</v>
@@ -2641,12 +2643,12 @@
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="25">
+      <c r="B75" s="27">
         <f>'Benny Gerlach'!A19</f>
         <v>0</v>
       </c>
-      <c r="C75" s="25"/>
-      <c r="D75" s="25"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
       <c r="E75" s="21">
         <f>'Benny Gerlach'!D19</f>
         <v>0</v>
@@ -2661,12 +2663,12 @@
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B76" s="25">
+      <c r="B76" s="27">
         <f>'Benny Gerlach'!A20</f>
         <v>0</v>
       </c>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
       <c r="E76" s="21">
         <f>'Benny Gerlach'!D20</f>
         <v>0</v>
@@ -2681,12 +2683,12 @@
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="25">
+      <c r="B77" s="27">
         <f>'Benny Gerlach'!A21</f>
         <v>0</v>
       </c>
-      <c r="C77" s="25"/>
-      <c r="D77" s="25"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
       <c r="E77" s="21">
         <f>'Benny Gerlach'!D21</f>
         <v>0</v>
@@ -2701,12 +2703,12 @@
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="25">
+      <c r="B78" s="27">
         <f>'Benny Gerlach'!A22</f>
         <v>0</v>
       </c>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
       <c r="E78" s="21">
         <f>'Benny Gerlach'!D22</f>
         <v>0</v>
@@ -2721,12 +2723,12 @@
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="25">
+      <c r="B79" s="27">
         <f>'Benny Gerlach'!A23</f>
         <v>0</v>
       </c>
-      <c r="C79" s="25"/>
-      <c r="D79" s="25"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="27"/>
       <c r="E79" s="21">
         <f>'Benny Gerlach'!D23</f>
         <v>0</v>
@@ -2741,12 +2743,12 @@
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="25">
+      <c r="B80" s="27">
         <f>'Benny Gerlach'!A24</f>
         <v>0</v>
       </c>
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="27"/>
       <c r="E80" s="21">
         <f>'Benny Gerlach'!D24</f>
         <v>0</v>
@@ -2765,24 +2767,24 @@
       <c r="B83" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C83" s="29" t="s">
+      <c r="C83" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D83" s="29"/>
+      <c r="D83" s="30"/>
       <c r="E83" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F83" s="29" t="s">
+      <c r="F83" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="G83" s="30"/>
+      <c r="G83" s="31"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B84" s="26" t="s">
+      <c r="B84" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C84" s="26"/>
-      <c r="D84" s="26"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
       <c r="E84" s="19" t="s">
         <v>18</v>
       </c>
@@ -2794,12 +2796,12 @@
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B85" s="31" t="str">
+      <c r="B85" s="28" t="str">
         <f>'Lukas Niedergriese'!A12</f>
         <v>Meetings</v>
       </c>
-      <c r="C85" s="32"/>
-      <c r="D85" s="32"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
       <c r="E85" s="6" t="str">
         <f>'Lukas Niedergriese'!D12</f>
         <v>c</v>
@@ -2814,12 +2816,12 @@
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B86" s="31" t="str">
+      <c r="B86" s="28" t="str">
         <f>'Lukas Niedergriese'!A13</f>
         <v>Recherche</v>
       </c>
-      <c r="C86" s="32"/>
-      <c r="D86" s="32"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
       <c r="E86" s="6" t="str">
         <f>'Lukas Niedergriese'!D13</f>
         <v>c</v>
@@ -2834,12 +2836,12 @@
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B87" s="31" t="str">
+      <c r="B87" s="28" t="str">
         <f>'Lukas Niedergriese'!A14</f>
         <v>Projektwebsite bearbeiten</v>
       </c>
-      <c r="C87" s="32"/>
-      <c r="D87" s="32"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
       <c r="E87" s="6" t="str">
         <f>'Lukas Niedergriese'!D14</f>
         <v>c</v>
@@ -2854,12 +2856,12 @@
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B88" s="31">
+      <c r="B88" s="28">
         <f>'Lukas Niedergriese'!A15</f>
         <v>0</v>
       </c>
-      <c r="C88" s="32"/>
-      <c r="D88" s="32"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
       <c r="E88" s="6">
         <f>'Lukas Niedergriese'!D15</f>
         <v>0</v>
@@ -2874,12 +2876,12 @@
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B89" s="31">
+      <c r="B89" s="28">
         <f>'Lukas Niedergriese'!A16</f>
         <v>0</v>
       </c>
-      <c r="C89" s="32"/>
-      <c r="D89" s="32"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="29"/>
       <c r="E89" s="6">
         <f>'Lukas Niedergriese'!D16</f>
         <v>0</v>
@@ -2894,12 +2896,12 @@
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B90" s="31">
+      <c r="B90" s="28">
         <f>'Lukas Niedergriese'!A17</f>
         <v>0</v>
       </c>
-      <c r="C90" s="32"/>
-      <c r="D90" s="32"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
       <c r="E90" s="6">
         <f>'Lukas Niedergriese'!D17</f>
         <v>0</v>
@@ -2914,12 +2916,12 @@
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B91" s="31">
+      <c r="B91" s="28">
         <f>'Lukas Niedergriese'!A18</f>
         <v>0</v>
       </c>
-      <c r="C91" s="32"/>
-      <c r="D91" s="32"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
       <c r="E91" s="6">
         <f>'Lukas Niedergriese'!D18</f>
         <v>0</v>
@@ -2934,12 +2936,12 @@
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B92" s="31">
+      <c r="B92" s="28">
         <f>'Lukas Niedergriese'!A19</f>
         <v>0</v>
       </c>
-      <c r="C92" s="32"/>
-      <c r="D92" s="32"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="29"/>
       <c r="E92" s="6">
         <f>'Lukas Niedergriese'!D19</f>
         <v>0</v>
@@ -2954,12 +2956,12 @@
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B93" s="31">
+      <c r="B93" s="28">
         <f>'Lukas Niedergriese'!A20</f>
         <v>0</v>
       </c>
-      <c r="C93" s="32"/>
-      <c r="D93" s="32"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
       <c r="E93" s="6">
         <f>'Lukas Niedergriese'!D20</f>
         <v>0</v>
@@ -2974,12 +2976,12 @@
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B94" s="31">
+      <c r="B94" s="28">
         <f>'Lukas Niedergriese'!A21</f>
         <v>0</v>
       </c>
-      <c r="C94" s="32"/>
-      <c r="D94" s="32"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
       <c r="E94" s="6">
         <f>'Lukas Niedergriese'!D21</f>
         <v>0</v>
@@ -2994,12 +2996,12 @@
       </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B95" s="31">
+      <c r="B95" s="28">
         <f>'Lukas Niedergriese'!A22</f>
         <v>0</v>
       </c>
-      <c r="C95" s="32"/>
-      <c r="D95" s="32"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="29"/>
       <c r="E95" s="6">
         <f>'Lukas Niedergriese'!D22</f>
         <v>0</v>
@@ -3014,12 +3016,12 @@
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B96" s="31">
+      <c r="B96" s="28">
         <f>'Lukas Niedergriese'!A23</f>
         <v>0</v>
       </c>
-      <c r="C96" s="32"/>
-      <c r="D96" s="32"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="29"/>
       <c r="E96" s="6">
         <f>'Lukas Niedergriese'!D23</f>
         <v>0</v>
@@ -3034,12 +3036,12 @@
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B97" s="31">
+      <c r="B97" s="28">
         <f>'Lukas Niedergriese'!A24</f>
         <v>0</v>
       </c>
-      <c r="C97" s="32"/>
-      <c r="D97" s="32"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
       <c r="E97" s="6">
         <f>'Lukas Niedergriese'!D24</f>
         <v>0</v>
@@ -3058,24 +3060,24 @@
       <c r="B99" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C99" s="29" t="s">
+      <c r="C99" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D99" s="29"/>
+      <c r="D99" s="30"/>
       <c r="E99" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F99" s="29" t="s">
+      <c r="F99" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G99" s="30"/>
+      <c r="G99" s="31"/>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B100" s="26" t="s">
+      <c r="B100" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C100" s="26"/>
-      <c r="D100" s="26"/>
+      <c r="C100" s="32"/>
+      <c r="D100" s="32"/>
       <c r="E100" s="19" t="s">
         <v>18</v>
       </c>
@@ -3087,12 +3089,12 @@
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B101" s="25" t="str">
+      <c r="B101" s="27" t="str">
         <f>'Tobias Reis'!A12</f>
         <v>Meeting / Interview</v>
       </c>
-      <c r="C101" s="25"/>
-      <c r="D101" s="25"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="27"/>
       <c r="E101" s="15" t="str">
         <f>'Tobias Reis'!D12</f>
         <v>d</v>
@@ -3107,12 +3109,12 @@
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B102" s="25" t="str">
+      <c r="B102" s="27" t="str">
         <f>'Tobias Reis'!A13</f>
         <v>Protokoll schreiben / Projekt Dokumentieren</v>
       </c>
-      <c r="C102" s="25"/>
-      <c r="D102" s="25"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="27"/>
       <c r="E102" s="15" t="str">
         <f>'Tobias Reis'!D13</f>
         <v>c</v>
@@ -3127,12 +3129,12 @@
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B103" s="25" t="str">
+      <c r="B103" s="27" t="str">
         <f>'Tobias Reis'!A14</f>
         <v>Recherche über unser Projekt</v>
       </c>
-      <c r="C103" s="25"/>
-      <c r="D103" s="25"/>
+      <c r="C103" s="27"/>
+      <c r="D103" s="27"/>
       <c r="E103" s="15" t="str">
         <f>'Tobias Reis'!D14</f>
         <v>c</v>
@@ -3147,12 +3149,12 @@
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B104" s="25" t="str">
+      <c r="B104" s="27" t="str">
         <f>'Tobias Reis'!A15</f>
         <v>Grundgerüst für Recherchebericht erstellt</v>
       </c>
-      <c r="C104" s="25"/>
-      <c r="D104" s="25"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="27"/>
       <c r="E104" s="15" t="str">
         <f>'Tobias Reis'!D15</f>
         <v>c</v>
@@ -3167,12 +3169,12 @@
       </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B105" s="25" t="str">
+      <c r="B105" s="27" t="str">
         <f>'Tobias Reis'!A16</f>
         <v>Projekthomepage erstellt</v>
       </c>
-      <c r="C105" s="25"/>
-      <c r="D105" s="25"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="27"/>
       <c r="E105" s="15" t="str">
         <f>'Tobias Reis'!D16</f>
         <v>c</v>
@@ -3187,32 +3189,32 @@
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B106" s="25">
+      <c r="B106" s="27" t="str">
         <f>'Tobias Reis'!A17</f>
-        <v>0</v>
-      </c>
-      <c r="C106" s="25"/>
-      <c r="D106" s="25"/>
-      <c r="E106" s="15">
+        <v>TeamViewer Session: UML Diagramme / Allgemeine Themen</v>
+      </c>
+      <c r="C106" s="27"/>
+      <c r="D106" s="27"/>
+      <c r="E106" s="15" t="str">
         <f>'Tobias Reis'!D17</f>
-        <v>0</v>
-      </c>
-      <c r="F106" s="15">
+        <v>c</v>
+      </c>
+      <c r="F106" s="15" t="str">
         <f>'Tobias Reis'!E17</f>
-        <v>0</v>
+        <v>c</v>
       </c>
       <c r="G106" s="15">
         <f>'Tobias Reis'!F17</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B107" s="25">
+      <c r="B107" s="27">
         <f>'Tobias Reis'!A18</f>
         <v>0</v>
       </c>
-      <c r="C107" s="25"/>
-      <c r="D107" s="25"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="27"/>
       <c r="E107" s="15">
         <f>'Tobias Reis'!D18</f>
         <v>0</v>
@@ -3227,12 +3229,12 @@
       </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B108" s="25">
+      <c r="B108" s="27">
         <f>'Tobias Reis'!A19</f>
         <v>0</v>
       </c>
-      <c r="C108" s="25"/>
-      <c r="D108" s="25"/>
+      <c r="C108" s="27"/>
+      <c r="D108" s="27"/>
       <c r="E108" s="15">
         <f>'Tobias Reis'!D19</f>
         <v>0</v>
@@ -3247,12 +3249,12 @@
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B109" s="25">
+      <c r="B109" s="27">
         <f>'Tobias Reis'!A20</f>
         <v>0</v>
       </c>
-      <c r="C109" s="25"/>
-      <c r="D109" s="25"/>
+      <c r="C109" s="27"/>
+      <c r="D109" s="27"/>
       <c r="E109" s="15">
         <f>'Tobias Reis'!D20</f>
         <v>0</v>
@@ -3267,12 +3269,12 @@
       </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B110" s="25">
+      <c r="B110" s="27">
         <f>'Tobias Reis'!A21</f>
         <v>0</v>
       </c>
-      <c r="C110" s="25"/>
-      <c r="D110" s="25"/>
+      <c r="C110" s="27"/>
+      <c r="D110" s="27"/>
       <c r="E110" s="15">
         <f>'Tobias Reis'!D21</f>
         <v>0</v>
@@ -3287,12 +3289,12 @@
       </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B111" s="25">
+      <c r="B111" s="27">
         <f>'Tobias Reis'!A22</f>
         <v>0</v>
       </c>
-      <c r="C111" s="25"/>
-      <c r="D111" s="25"/>
+      <c r="C111" s="27"/>
+      <c r="D111" s="27"/>
       <c r="E111" s="15">
         <f>'Tobias Reis'!D22</f>
         <v>0</v>
@@ -3307,12 +3309,12 @@
       </c>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B112" s="25">
+      <c r="B112" s="27">
         <f>'Tobias Reis'!A23</f>
         <v>0</v>
       </c>
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
       <c r="E112" s="15">
         <f>'Tobias Reis'!D23</f>
         <v>0</v>
@@ -3327,12 +3329,12 @@
       </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B113" s="25">
+      <c r="B113" s="27">
         <f>'Tobias Reis'!A24</f>
         <v>0</v>
       </c>
-      <c r="C113" s="25"/>
-      <c r="D113" s="25"/>
+      <c r="C113" s="27"/>
+      <c r="D113" s="27"/>
       <c r="E113" s="15">
         <f>'Tobias Reis'!D24</f>
         <v>0</v>
@@ -3348,29 +3350,83 @@
     </row>
   </sheetData>
   <mergeCells count="124">
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B94:D94"/>
     <mergeCell ref="B113:D113"/>
     <mergeCell ref="I5:L5"/>
     <mergeCell ref="B107:D107"/>
@@ -3395,83 +3451,29 @@
     <mergeCell ref="C83:D83"/>
     <mergeCell ref="F83:G83"/>
     <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B2:H3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3479,7 +3481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -3497,35 +3499,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="D4" s="28" t="s">
+      <c r="B4" s="26"/>
+      <c r="D4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -3541,10 +3543,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="33"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -3557,52 +3559,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="33"/>
+      <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="33"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="26"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="33"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="25"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="33"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -3615,11 +3617,11 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
@@ -3631,11 +3633,11 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="6" t="s">
         <v>9</v>
       </c>
@@ -3647,11 +3649,11 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="6" t="s">
         <v>9</v>
       </c>
@@ -3663,147 +3665,147 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>6</v>
@@ -3813,11 +3815,11 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>3</v>
@@ -3825,11 +3827,11 @@
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>2</v>
@@ -3839,22 +3841,22 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-4</v>
@@ -3862,6 +3864,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:B4"/>
@@ -3874,30 +3900,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
@@ -3915,7 +3917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3933,35 +3935,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="D4" s="28" t="s">
+      <c r="B4" s="26"/>
+      <c r="D4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -3977,10 +3979,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="33"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -3993,52 +3995,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="33"/>
+      <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="33"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="26"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="33"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="25"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="33"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -4051,11 +4053,11 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
@@ -4067,11 +4069,11 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="6" t="s">
         <v>8</v>
       </c>
@@ -4083,11 +4085,11 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="6" t="s">
         <v>9</v>
       </c>
@@ -4099,11 +4101,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="6" t="s">
         <v>8</v>
       </c>
@@ -4125,131 +4127,131 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>7</v>
@@ -4259,11 +4261,11 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>4</v>
@@ -4271,11 +4273,11 @@
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>1.75</v>
@@ -4285,22 +4287,22 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-3</v>
@@ -4308,6 +4310,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:B4"/>
@@ -4320,30 +4346,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
@@ -4361,7 +4363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -4379,35 +4381,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="D4" s="28" t="s">
+      <c r="B4" s="26"/>
+      <c r="D4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -4423,10 +4425,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="33"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -4439,52 +4441,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="33"/>
+      <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="33"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="26"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="33"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="25"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="33"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -4497,9 +4499,9 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -4521,147 +4523,147 @@
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>0</v>
@@ -4671,11 +4673,11 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>0</v>
@@ -4683,11 +4685,11 @@
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="10" t="e">
         <f>D33/D34</f>
         <v>#DIV/0!</v>
@@ -4697,22 +4699,22 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-10</v>
@@ -4720,6 +4722,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:B4"/>
@@ -4732,30 +4758,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
@@ -4773,7 +4775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4791,35 +4793,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="D4" s="28" t="s">
+      <c r="B4" s="26"/>
+      <c r="D4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -4835,10 +4837,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="33"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -4851,52 +4853,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="33"/>
+      <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="33"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="26"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="33"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="25"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="33"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -4909,11 +4911,11 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="24" t="s">
         <v>9</v>
       </c>
@@ -4925,11 +4927,11 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="21" t="s">
         <v>9</v>
       </c>
@@ -4941,155 +4943,155 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>3</v>
@@ -5099,11 +5101,11 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>2</v>
@@ -5111,11 +5113,11 @@
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>1.5</v>
@@ -5125,22 +5127,22 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-7</v>
@@ -5148,6 +5150,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:B4"/>
@@ -5160,30 +5186,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
@@ -5201,7 +5203,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5219,35 +5221,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="D4" s="28" t="s">
+      <c r="B4" s="26"/>
+      <c r="D4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -5263,10 +5265,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="33"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -5279,52 +5281,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="33"/>
+      <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="33"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="26"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="33"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="25"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="33"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -5337,11 +5339,11 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
@@ -5353,11 +5355,11 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="14" t="s">
         <v>10</v>
       </c>
@@ -5369,11 +5371,11 @@
       </c>
     </row>
     <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="6" t="s">
         <v>8</v>
       </c>
@@ -5385,11 +5387,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="6" t="s">
         <v>9</v>
       </c>
@@ -5401,139 +5403,139 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
         <v>7</v>
@@ -5543,11 +5545,11 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
         <v>4</v>
@@ -5555,11 +5557,11 @@
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>1.75</v>
@@ -5569,22 +5571,22 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
       <c r="D37">
         <f>D33-10</f>
         <v>-3</v>
@@ -5592,6 +5594,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:B4"/>
@@ -5604,30 +5630,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
@@ -5645,11 +5647,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5663,35 +5665,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="D4" s="28" t="s">
+      <c r="B4" s="26"/>
+      <c r="D4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -5707,10 +5709,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="33"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -5723,52 +5725,52 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="33"/>
+      <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="33"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="26"/>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="33"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="25"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="33"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
@@ -5861,157 +5863,165 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
+      <c r="A17" s="39" t="s">
+        <v>68</v>
+      </c>
       <c r="B17" s="40"/>
       <c r="C17" s="41"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
+      <c r="D17" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="22">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
       <c r="D33" s="10">
         <f>SUM(F12:F31)</f>
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="10">
         <f>COUNT(F12:F31)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="10">
         <f>D33/D34</f>
         <v>1.5</v>
@@ -6021,29 +6031,53 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
       <c r="D36" s="13" t="str">
         <f>IF(D33&gt;=10, "Ja!","Nein!")</f>
         <v>Nein!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
       <c r="D37">
         <f>D33-10</f>
-        <v>-2.5</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:B4"/>
@@ -6056,30 +6090,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
